--- a/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>HOKCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,183 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2621100</v>
+        <v>2615400</v>
       </c>
       <c r="E8" s="3">
-        <v>2554100</v>
+        <v>2625200</v>
       </c>
       <c r="F8" s="3">
-        <v>2478100</v>
+        <v>2558100</v>
       </c>
       <c r="G8" s="3">
-        <v>2195300</v>
+        <v>2482000</v>
       </c>
       <c r="H8" s="3">
-        <v>1987300</v>
+        <v>2198700</v>
       </c>
       <c r="I8" s="3">
-        <v>1853900</v>
+        <v>1990400</v>
       </c>
       <c r="J8" s="3">
+        <v>1856800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1824000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1848200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1921400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2023300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1426800</v>
+        <v>1383400</v>
       </c>
       <c r="E9" s="3">
-        <v>1357400</v>
+        <v>1429000</v>
       </c>
       <c r="F9" s="3">
-        <v>1295400</v>
+        <v>1359500</v>
       </c>
       <c r="G9" s="3">
-        <v>1091600</v>
+        <v>1297400</v>
       </c>
       <c r="H9" s="3">
-        <v>929400</v>
+        <v>1093300</v>
       </c>
       <c r="I9" s="3">
-        <v>837800</v>
+        <v>930800</v>
       </c>
       <c r="J9" s="3">
+        <v>839100</v>
+      </c>
+      <c r="K9" s="3">
         <v>799000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>853600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>942300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1030700</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1194300</v>
+        <v>1232000</v>
       </c>
       <c r="E10" s="3">
-        <v>1196700</v>
+        <v>1196200</v>
       </c>
       <c r="F10" s="3">
-        <v>1182700</v>
+        <v>1198600</v>
       </c>
       <c r="G10" s="3">
-        <v>1103700</v>
+        <v>1184500</v>
       </c>
       <c r="H10" s="3">
-        <v>1058000</v>
+        <v>1105400</v>
       </c>
       <c r="I10" s="3">
-        <v>1016100</v>
+        <v>1059600</v>
       </c>
       <c r="J10" s="3">
+        <v>1017600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1024900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>994600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>979100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>992600</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,43 +855,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
         <v>3000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -912,78 +929,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="I14" s="3">
         <v>-5700</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>-3900</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>172700</v>
+        <v>182200</v>
       </c>
       <c r="E15" s="3">
-        <v>166800</v>
+        <v>173000</v>
       </c>
       <c r="F15" s="3">
-        <v>160000</v>
+        <v>167000</v>
       </c>
       <c r="G15" s="3">
-        <v>156000</v>
+        <v>160200</v>
       </c>
       <c r="H15" s="3">
-        <v>149900</v>
+        <v>156200</v>
       </c>
       <c r="I15" s="3">
-        <v>144800</v>
+        <v>150100</v>
       </c>
       <c r="J15" s="3">
+        <v>145000</v>
+      </c>
+      <c r="K15" s="3">
         <v>141500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>134100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>130300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1020,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2068300</v>
+        <v>1998800</v>
       </c>
       <c r="E17" s="3">
-        <v>2053800</v>
+        <v>2071500</v>
       </c>
       <c r="F17" s="3">
-        <v>1896200</v>
+        <v>2057000</v>
       </c>
       <c r="G17" s="3">
-        <v>1680600</v>
+        <v>1899100</v>
       </c>
       <c r="H17" s="3">
-        <v>1438100</v>
+        <v>1683200</v>
       </c>
       <c r="I17" s="3">
-        <v>1452700</v>
+        <v>1440300</v>
       </c>
       <c r="J17" s="3">
+        <v>1454900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1305600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1505200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1361200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1543600</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>552800</v>
+        <v>616600</v>
       </c>
       <c r="E18" s="3">
-        <v>500300</v>
+        <v>553700</v>
       </c>
       <c r="F18" s="3">
-        <v>582000</v>
+        <v>501100</v>
       </c>
       <c r="G18" s="3">
-        <v>514700</v>
+        <v>582900</v>
       </c>
       <c r="H18" s="3">
-        <v>549200</v>
+        <v>515500</v>
       </c>
       <c r="I18" s="3">
-        <v>401200</v>
+        <v>550100</v>
       </c>
       <c r="J18" s="3">
+        <v>401800</v>
+      </c>
+      <c r="K18" s="3">
         <v>518400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>343000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>560300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,183 +1112,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>225700</v>
+        <v>104500</v>
       </c>
       <c r="E20" s="3">
-        <v>341900</v>
+        <v>226000</v>
       </c>
       <c r="F20" s="3">
-        <v>316600</v>
+        <v>342400</v>
       </c>
       <c r="G20" s="3">
-        <v>250000</v>
+        <v>317100</v>
       </c>
       <c r="H20" s="3">
-        <v>277000</v>
+        <v>250400</v>
       </c>
       <c r="I20" s="3">
-        <v>226600</v>
+        <v>277400</v>
       </c>
       <c r="J20" s="3">
+        <v>227000</v>
+      </c>
+      <c r="K20" s="3">
         <v>277300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>276900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>225500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>189800</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>951200</v>
+        <v>731500</v>
       </c>
       <c r="E21" s="3">
-        <v>848900</v>
+        <v>952700</v>
       </c>
       <c r="F21" s="3">
-        <v>1058600</v>
+        <v>850300</v>
       </c>
       <c r="G21" s="3">
-        <v>770900</v>
+        <v>1060200</v>
       </c>
       <c r="H21" s="3">
-        <v>976100</v>
+        <v>772100</v>
       </c>
       <c r="I21" s="3">
-        <v>631100</v>
+        <v>977600</v>
       </c>
       <c r="J21" s="3">
+        <v>632100</v>
+      </c>
+      <c r="K21" s="3">
         <v>937200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>623700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>916100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>676400</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>72100</v>
+        <v>86500</v>
       </c>
       <c r="E22" s="3">
-        <v>73000</v>
+        <v>72200</v>
       </c>
       <c r="F22" s="3">
-        <v>78500</v>
+        <v>73200</v>
       </c>
       <c r="G22" s="3">
-        <v>82700</v>
+        <v>78600</v>
       </c>
       <c r="H22" s="3">
-        <v>79200</v>
+        <v>82800</v>
       </c>
       <c r="I22" s="3">
-        <v>81200</v>
+        <v>79300</v>
       </c>
       <c r="J22" s="3">
+        <v>81300</v>
+      </c>
+      <c r="K22" s="3">
         <v>74300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>81300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>62500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>706400</v>
+        <v>634500</v>
       </c>
       <c r="E23" s="3">
-        <v>769100</v>
+        <v>707500</v>
       </c>
       <c r="F23" s="3">
-        <v>820100</v>
+        <v>770300</v>
       </c>
       <c r="G23" s="3">
-        <v>682100</v>
+        <v>821400</v>
       </c>
       <c r="H23" s="3">
-        <v>747000</v>
+        <v>683200</v>
       </c>
       <c r="I23" s="3">
-        <v>546600</v>
+        <v>748200</v>
       </c>
       <c r="J23" s="3">
+        <v>547500</v>
+      </c>
+      <c r="K23" s="3">
         <v>721400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>538700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>723300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>603500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>128700</v>
+        <v>166400</v>
       </c>
       <c r="E24" s="3">
-        <v>117400</v>
+        <v>128900</v>
       </c>
       <c r="F24" s="3">
-        <v>128300</v>
+        <v>117500</v>
       </c>
       <c r="G24" s="3">
-        <v>120700</v>
+        <v>128500</v>
       </c>
       <c r="H24" s="3">
-        <v>104700</v>
+        <v>120800</v>
       </c>
       <c r="I24" s="3">
-        <v>103700</v>
+        <v>104900</v>
       </c>
       <c r="J24" s="3">
+        <v>103900</v>
+      </c>
+      <c r="K24" s="3">
         <v>99300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>98600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>121400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>103400</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>577700</v>
+        <v>468100</v>
       </c>
       <c r="E26" s="3">
-        <v>651800</v>
+        <v>578600</v>
       </c>
       <c r="F26" s="3">
-        <v>691800</v>
+        <v>652800</v>
       </c>
       <c r="G26" s="3">
-        <v>561500</v>
+        <v>692800</v>
       </c>
       <c r="H26" s="3">
-        <v>642300</v>
+        <v>562300</v>
       </c>
       <c r="I26" s="3">
-        <v>442900</v>
+        <v>643300</v>
       </c>
       <c r="J26" s="3">
+        <v>443600</v>
+      </c>
+      <c r="K26" s="3">
         <v>622100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>440100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>601900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500100</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>500900</v>
+        <v>396800</v>
       </c>
       <c r="E27" s="3">
-        <v>582600</v>
+        <v>501700</v>
       </c>
       <c r="F27" s="3">
-        <v>616800</v>
+        <v>583500</v>
       </c>
       <c r="G27" s="3">
-        <v>483400</v>
+        <v>617800</v>
       </c>
       <c r="H27" s="3">
-        <v>575900</v>
+        <v>484100</v>
       </c>
       <c r="I27" s="3">
-        <v>387700</v>
+        <v>576800</v>
       </c>
       <c r="J27" s="3">
+        <v>388300</v>
+      </c>
+      <c r="K27" s="3">
         <v>557800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>395500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>534700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1452,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1429,8 +1490,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,78 +1566,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-225700</v>
+        <v>-104500</v>
       </c>
       <c r="E32" s="3">
-        <v>-341900</v>
+        <v>-226000</v>
       </c>
       <c r="F32" s="3">
-        <v>-316600</v>
+        <v>-342400</v>
       </c>
       <c r="G32" s="3">
-        <v>-250000</v>
+        <v>-317100</v>
       </c>
       <c r="H32" s="3">
-        <v>-277000</v>
+        <v>-250400</v>
       </c>
       <c r="I32" s="3">
-        <v>-226600</v>
+        <v>-277400</v>
       </c>
       <c r="J32" s="3">
+        <v>-227000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-277300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-276900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-225500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-189800</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>500900</v>
+        <v>396800</v>
       </c>
       <c r="E33" s="3">
-        <v>582600</v>
+        <v>501700</v>
       </c>
       <c r="F33" s="3">
-        <v>616800</v>
+        <v>583500</v>
       </c>
       <c r="G33" s="3">
-        <v>483400</v>
+        <v>617800</v>
       </c>
       <c r="H33" s="3">
-        <v>575900</v>
+        <v>484100</v>
       </c>
       <c r="I33" s="3">
-        <v>387700</v>
+        <v>576800</v>
       </c>
       <c r="J33" s="3">
+        <v>388300</v>
+      </c>
+      <c r="K33" s="3">
         <v>557800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>395500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>534700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>500900</v>
+        <v>396800</v>
       </c>
       <c r="E35" s="3">
-        <v>582600</v>
+        <v>501700</v>
       </c>
       <c r="F35" s="3">
-        <v>616800</v>
+        <v>583500</v>
       </c>
       <c r="G35" s="3">
-        <v>483400</v>
+        <v>617800</v>
       </c>
       <c r="H35" s="3">
-        <v>575900</v>
+        <v>484100</v>
       </c>
       <c r="I35" s="3">
-        <v>387700</v>
+        <v>576800</v>
       </c>
       <c r="J35" s="3">
+        <v>388300</v>
+      </c>
+      <c r="K35" s="3">
         <v>557800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>395500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>534700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,323 +1795,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>928800</v>
+        <v>1012400</v>
       </c>
       <c r="E41" s="3">
-        <v>1094800</v>
+        <v>930300</v>
       </c>
       <c r="F41" s="3">
-        <v>1519400</v>
+        <v>1096500</v>
       </c>
       <c r="G41" s="3">
-        <v>1385600</v>
+        <v>1521800</v>
       </c>
       <c r="H41" s="3">
-        <v>1125400</v>
+        <v>1387800</v>
       </c>
       <c r="I41" s="3">
-        <v>1040100</v>
+        <v>1127100</v>
       </c>
       <c r="J41" s="3">
+        <v>1041700</v>
+      </c>
+      <c r="K41" s="3">
         <v>916800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1519200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1751800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1613500</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>89700</v>
+        <v>45000</v>
       </c>
       <c r="E42" s="3">
-        <v>87600</v>
+        <v>89900</v>
       </c>
       <c r="F42" s="3">
-        <v>220100</v>
+        <v>87800</v>
       </c>
       <c r="G42" s="3">
-        <v>287500</v>
+        <v>220500</v>
       </c>
       <c r="H42" s="3">
-        <v>246700</v>
+        <v>288000</v>
       </c>
       <c r="I42" s="3">
-        <v>455400</v>
+        <v>247100</v>
       </c>
       <c r="J42" s="3">
+        <v>456100</v>
+      </c>
+      <c r="K42" s="3">
         <v>708100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>170600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>56000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>162400</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1013000</v>
+        <v>1010300</v>
       </c>
       <c r="E43" s="3">
-        <v>949000</v>
+        <v>1014600</v>
       </c>
       <c r="F43" s="3">
-        <v>983000</v>
+        <v>950500</v>
       </c>
       <c r="G43" s="3">
-        <v>919200</v>
+        <v>984500</v>
       </c>
       <c r="H43" s="3">
-        <v>819700</v>
+        <v>920600</v>
       </c>
       <c r="I43" s="3">
-        <v>797100</v>
+        <v>821000</v>
       </c>
       <c r="J43" s="3">
+        <v>798300</v>
+      </c>
+      <c r="K43" s="3">
         <v>822200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>870600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>841500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>830500</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>311000</v>
+        <v>304900</v>
       </c>
       <c r="E44" s="3">
-        <v>319500</v>
+        <v>311500</v>
       </c>
       <c r="F44" s="3">
-        <v>309300</v>
+        <v>320000</v>
       </c>
       <c r="G44" s="3">
-        <v>332100</v>
+        <v>309800</v>
       </c>
       <c r="H44" s="3">
-        <v>289300</v>
+        <v>332600</v>
       </c>
       <c r="I44" s="3">
-        <v>271800</v>
+        <v>289800</v>
       </c>
       <c r="J44" s="3">
+        <v>272200</v>
+      </c>
+      <c r="K44" s="3">
         <v>271700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>291900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>296100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>292200</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>190400</v>
+        <v>223900</v>
       </c>
       <c r="E45" s="3">
-        <v>203700</v>
+        <v>190700</v>
       </c>
       <c r="F45" s="3">
-        <v>194100</v>
+        <v>204000</v>
       </c>
       <c r="G45" s="3">
-        <v>213700</v>
+        <v>194400</v>
       </c>
       <c r="H45" s="3">
-        <v>180400</v>
+        <v>214000</v>
       </c>
       <c r="I45" s="3">
-        <v>162200</v>
+        <v>180700</v>
       </c>
       <c r="J45" s="3">
+        <v>162500</v>
+      </c>
+      <c r="K45" s="3">
         <v>165600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>158300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>237000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>255400</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2533100</v>
+        <v>2596500</v>
       </c>
       <c r="E46" s="3">
-        <v>2654600</v>
+        <v>2537000</v>
       </c>
       <c r="F46" s="3">
-        <v>3226000</v>
+        <v>2658800</v>
       </c>
       <c r="G46" s="3">
-        <v>3138100</v>
+        <v>3231000</v>
       </c>
       <c r="H46" s="3">
-        <v>2661500</v>
+        <v>3142900</v>
       </c>
       <c r="I46" s="3">
-        <v>2726600</v>
+        <v>2665600</v>
       </c>
       <c r="J46" s="3">
+        <v>2730800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2884300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3010600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3182300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3154100</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5507300</v>
+        <v>6012900</v>
       </c>
       <c r="E47" s="3">
-        <v>5403200</v>
+        <v>5515800</v>
       </c>
       <c r="F47" s="3">
-        <v>5206800</v>
+        <v>5411600</v>
       </c>
       <c r="G47" s="3">
-        <v>5002500</v>
+        <v>5214800</v>
       </c>
       <c r="H47" s="3">
-        <v>4842800</v>
+        <v>5010300</v>
       </c>
       <c r="I47" s="3">
-        <v>4531400</v>
+        <v>4850400</v>
       </c>
       <c r="J47" s="3">
+        <v>4538400</v>
+      </c>
+      <c r="K47" s="3">
         <v>4484700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4281400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4318500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3772500</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8175600</v>
+        <v>8337600</v>
       </c>
       <c r="E48" s="3">
-        <v>7567300</v>
+        <v>8188300</v>
       </c>
       <c r="F48" s="3">
-        <v>7484200</v>
+        <v>7579000</v>
       </c>
       <c r="G48" s="3">
-        <v>7288400</v>
+        <v>7495800</v>
       </c>
       <c r="H48" s="3">
-        <v>6777400</v>
+        <v>7299700</v>
       </c>
       <c r="I48" s="3">
-        <v>6431600</v>
+        <v>6787900</v>
       </c>
       <c r="J48" s="3">
+        <v>6441600</v>
+      </c>
+      <c r="K48" s="3">
         <v>6338500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6136200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6059800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6448400</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>730300</v>
+        <v>682500</v>
       </c>
       <c r="E49" s="3">
-        <v>731800</v>
+        <v>731500</v>
       </c>
       <c r="F49" s="3">
-        <v>751000</v>
+        <v>732900</v>
       </c>
       <c r="G49" s="3">
-        <v>757700</v>
+        <v>752100</v>
       </c>
       <c r="H49" s="3">
-        <v>729600</v>
+        <v>758900</v>
       </c>
       <c r="I49" s="3">
-        <v>717700</v>
+        <v>730800</v>
       </c>
       <c r="J49" s="3">
+        <v>718800</v>
+      </c>
+      <c r="K49" s="3">
         <v>735200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>741300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>762600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>749900</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2211,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>468300</v>
+        <v>489700</v>
       </c>
       <c r="E52" s="3">
-        <v>732600</v>
+        <v>469100</v>
       </c>
       <c r="F52" s="3">
-        <v>707100</v>
+        <v>733800</v>
       </c>
       <c r="G52" s="3">
-        <v>692700</v>
+        <v>708200</v>
       </c>
       <c r="H52" s="3">
-        <v>652200</v>
+        <v>693800</v>
       </c>
       <c r="I52" s="3">
-        <v>628100</v>
+        <v>653200</v>
       </c>
       <c r="J52" s="3">
+        <v>629100</v>
+      </c>
+      <c r="K52" s="3">
         <v>628400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>552100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>535900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17414600</v>
+        <v>18119200</v>
       </c>
       <c r="E54" s="3">
-        <v>17089500</v>
+        <v>17441700</v>
       </c>
       <c r="F54" s="3">
-        <v>17375000</v>
+        <v>17116100</v>
       </c>
       <c r="G54" s="3">
-        <v>16879500</v>
+        <v>17402000</v>
       </c>
       <c r="H54" s="3">
-        <v>15663500</v>
+        <v>16905700</v>
       </c>
       <c r="I54" s="3">
-        <v>15035400</v>
+        <v>15687900</v>
       </c>
       <c r="J54" s="3">
+        <v>15058700</v>
+      </c>
+      <c r="K54" s="3">
         <v>15071200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14721600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14859100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14644600</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,218 +2359,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>513300</v>
+        <v>509500</v>
       </c>
       <c r="E57" s="3">
-        <v>531600</v>
+        <v>514100</v>
       </c>
       <c r="F57" s="3">
-        <v>443200</v>
+        <v>532400</v>
       </c>
       <c r="G57" s="3">
-        <v>530000</v>
+        <v>443900</v>
       </c>
       <c r="H57" s="3">
-        <v>436100</v>
+        <v>530800</v>
       </c>
       <c r="I57" s="3">
-        <v>433500</v>
+        <v>436800</v>
       </c>
       <c r="J57" s="3">
+        <v>434200</v>
+      </c>
+      <c r="K57" s="3">
         <v>430200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1593500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1528300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1615400</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1187600</v>
+        <v>1206300</v>
       </c>
       <c r="E58" s="3">
-        <v>1341000</v>
+        <v>1189500</v>
       </c>
       <c r="F58" s="3">
-        <v>2233900</v>
+        <v>1343100</v>
       </c>
       <c r="G58" s="3">
-        <v>2029300</v>
+        <v>2237400</v>
       </c>
       <c r="H58" s="3">
-        <v>984300</v>
+        <v>2032500</v>
       </c>
       <c r="I58" s="3">
-        <v>766500</v>
+        <v>985800</v>
       </c>
       <c r="J58" s="3">
+        <v>767700</v>
+      </c>
+      <c r="K58" s="3">
         <v>833400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1237200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1236000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>902400</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1490200</v>
+        <v>1659500</v>
       </c>
       <c r="E59" s="3">
-        <v>1495400</v>
+        <v>1492500</v>
       </c>
       <c r="F59" s="3">
-        <v>1557800</v>
+        <v>1497700</v>
       </c>
       <c r="G59" s="3">
-        <v>1555300</v>
+        <v>1560200</v>
       </c>
       <c r="H59" s="3">
-        <v>1363300</v>
+        <v>1557700</v>
       </c>
       <c r="I59" s="3">
-        <v>1317500</v>
+        <v>1365500</v>
       </c>
       <c r="J59" s="3">
+        <v>1319500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1261000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>122200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>159600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3191000</v>
+        <v>3375300</v>
       </c>
       <c r="E60" s="3">
-        <v>3368000</v>
+        <v>3196000</v>
       </c>
       <c r="F60" s="3">
-        <v>4235000</v>
+        <v>3373200</v>
       </c>
       <c r="G60" s="3">
-        <v>4114600</v>
+        <v>4241500</v>
       </c>
       <c r="H60" s="3">
-        <v>2783800</v>
+        <v>4121000</v>
       </c>
       <c r="I60" s="3">
-        <v>2517500</v>
+        <v>2788100</v>
       </c>
       <c r="J60" s="3">
+        <v>2521400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2524600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2953000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2923900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2648300</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3576300</v>
+        <v>3701400</v>
       </c>
       <c r="E61" s="3">
-        <v>3555800</v>
+        <v>3581800</v>
       </c>
       <c r="F61" s="3">
-        <v>2912600</v>
+        <v>3561300</v>
       </c>
       <c r="G61" s="3">
-        <v>2725400</v>
+        <v>2917100</v>
       </c>
       <c r="H61" s="3">
-        <v>3464200</v>
+        <v>2729700</v>
       </c>
       <c r="I61" s="3">
-        <v>3515500</v>
+        <v>3469500</v>
       </c>
       <c r="J61" s="3">
+        <v>3520900</v>
+      </c>
+      <c r="K61" s="3">
         <v>3556600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2976300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2963300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3134000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1214700</v>
+        <v>1317000</v>
       </c>
       <c r="E62" s="3">
-        <v>1125600</v>
+        <v>1216500</v>
       </c>
       <c r="F62" s="3">
-        <v>1005700</v>
+        <v>1127300</v>
       </c>
       <c r="G62" s="3">
-        <v>992500</v>
+        <v>1007200</v>
       </c>
       <c r="H62" s="3">
-        <v>944900</v>
+        <v>994000</v>
       </c>
       <c r="I62" s="3">
-        <v>901800</v>
+        <v>946400</v>
       </c>
       <c r="J62" s="3">
+        <v>903200</v>
+      </c>
+      <c r="K62" s="3">
         <v>880500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>879800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>867800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>897700</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9023400</v>
+        <v>9529300</v>
       </c>
       <c r="E66" s="3">
-        <v>9053000</v>
+        <v>9037500</v>
       </c>
       <c r="F66" s="3">
-        <v>9147200</v>
+        <v>9067000</v>
       </c>
       <c r="G66" s="3">
-        <v>8792400</v>
+        <v>9161400</v>
       </c>
       <c r="H66" s="3">
-        <v>8075500</v>
+        <v>8806000</v>
       </c>
       <c r="I66" s="3">
-        <v>7786300</v>
+        <v>8088000</v>
       </c>
       <c r="J66" s="3">
+        <v>7798400</v>
+      </c>
+      <c r="K66" s="3">
         <v>7844700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7690300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7668400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7606900</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7437600</v>
+        <v>7599900</v>
       </c>
       <c r="E72" s="3">
-        <v>7396400</v>
+        <v>7449200</v>
       </c>
       <c r="F72" s="3">
-        <v>7064200</v>
+        <v>7407900</v>
       </c>
       <c r="G72" s="3">
-        <v>6847400</v>
+        <v>7075200</v>
       </c>
       <c r="H72" s="3">
-        <v>6562600</v>
+        <v>6858000</v>
       </c>
       <c r="I72" s="3">
-        <v>6368400</v>
+        <v>6572700</v>
       </c>
       <c r="J72" s="3">
+        <v>6378300</v>
+      </c>
+      <c r="K72" s="3">
         <v>6185900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5906400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5746800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5544700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8391200</v>
+        <v>8589900</v>
       </c>
       <c r="E76" s="3">
-        <v>8036600</v>
+        <v>8404200</v>
       </c>
       <c r="F76" s="3">
-        <v>8227700</v>
+        <v>8049100</v>
       </c>
       <c r="G76" s="3">
-        <v>8087100</v>
+        <v>8240500</v>
       </c>
       <c r="H76" s="3">
-        <v>7588100</v>
+        <v>8099700</v>
       </c>
       <c r="I76" s="3">
-        <v>7249100</v>
+        <v>7599800</v>
       </c>
       <c r="J76" s="3">
+        <v>7260300</v>
+      </c>
+      <c r="K76" s="3">
         <v>7226400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7031300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7190700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7037700</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>500900</v>
+        <v>396800</v>
       </c>
       <c r="E81" s="3">
-        <v>582600</v>
+        <v>501700</v>
       </c>
       <c r="F81" s="3">
-        <v>616800</v>
+        <v>583500</v>
       </c>
       <c r="G81" s="3">
-        <v>483400</v>
+        <v>617800</v>
       </c>
       <c r="H81" s="3">
-        <v>575900</v>
+        <v>484100</v>
       </c>
       <c r="I81" s="3">
-        <v>387700</v>
+        <v>576800</v>
       </c>
       <c r="J81" s="3">
+        <v>388300</v>
+      </c>
+      <c r="K81" s="3">
         <v>557800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>395500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>534700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,8 +3232,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3069,8 +3268,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>628000</v>
+        <v>649600</v>
       </c>
       <c r="E89" s="3">
-        <v>570300</v>
+        <v>629000</v>
       </c>
       <c r="F89" s="3">
-        <v>645300</v>
+        <v>571200</v>
       </c>
       <c r="G89" s="3">
-        <v>532100</v>
+        <v>646300</v>
       </c>
       <c r="H89" s="3">
-        <v>565700</v>
+        <v>532900</v>
       </c>
       <c r="I89" s="3">
-        <v>527000</v>
+        <v>566600</v>
       </c>
       <c r="J89" s="3">
+        <v>527800</v>
+      </c>
+      <c r="K89" s="3">
         <v>563700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>529900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>524500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>532200</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,43 +3514,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-403800</v>
+        <v>-466400</v>
       </c>
       <c r="E91" s="3">
-        <v>-429300</v>
+        <v>-404500</v>
       </c>
       <c r="F91" s="3">
-        <v>-416400</v>
+        <v>-430000</v>
       </c>
       <c r="G91" s="3">
-        <v>-455500</v>
+        <v>-417100</v>
       </c>
       <c r="H91" s="3">
-        <v>-317800</v>
+        <v>-456200</v>
       </c>
       <c r="I91" s="3">
-        <v>-440400</v>
+        <v>-318300</v>
       </c>
       <c r="J91" s="3">
+        <v>-441100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-339700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-419600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-348400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-489100</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +3626,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-351200</v>
+        <v>-332000</v>
       </c>
       <c r="E94" s="3">
-        <v>-127700</v>
+        <v>-351800</v>
       </c>
       <c r="F94" s="3">
-        <v>-358700</v>
+        <v>-127900</v>
       </c>
       <c r="G94" s="3">
-        <v>-150600</v>
+        <v>-359200</v>
       </c>
       <c r="H94" s="3">
-        <v>-64600</v>
+        <v>-150800</v>
       </c>
       <c r="I94" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="J94" s="3">
         <v>-11600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-821400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-423300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-180400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-210000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,43 +3682,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-455800</v>
+        <v>-262000</v>
       </c>
       <c r="E96" s="3">
-        <v>-237800</v>
+        <v>-456500</v>
       </c>
       <c r="F96" s="3">
-        <v>-414300</v>
+        <v>-238200</v>
       </c>
       <c r="G96" s="3">
-        <v>-216200</v>
+        <v>-415000</v>
       </c>
       <c r="H96" s="3">
-        <v>-376700</v>
+        <v>-216500</v>
       </c>
       <c r="I96" s="3">
-        <v>-196500</v>
+        <v>-377300</v>
       </c>
       <c r="J96" s="3">
+        <v>-196800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-342500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-176800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-308000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-161500</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,109 +3832,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-442300</v>
+        <v>-229600</v>
       </c>
       <c r="E100" s="3">
-        <v>-853300</v>
+        <v>-442900</v>
       </c>
       <c r="F100" s="3">
-        <v>-149800</v>
+        <v>-854600</v>
       </c>
       <c r="G100" s="3">
-        <v>-134300</v>
+        <v>-150000</v>
       </c>
       <c r="H100" s="3">
-        <v>-424600</v>
+        <v>-134500</v>
       </c>
       <c r="I100" s="3">
-        <v>-375400</v>
+        <v>-425300</v>
       </c>
       <c r="J100" s="3">
+        <v>-376000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-355200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-305700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-234700</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-13900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3100</v>
       </c>
-      <c r="G101" s="3">
-        <v>12900</v>
-      </c>
       <c r="H101" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I101" s="3">
         <v>8700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-16600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-33400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-166000</v>
+        <v>82200</v>
       </c>
       <c r="E102" s="3">
-        <v>-424600</v>
+        <v>-166200</v>
       </c>
       <c r="F102" s="3">
-        <v>133800</v>
+        <v>-425300</v>
       </c>
       <c r="G102" s="3">
-        <v>260200</v>
+        <v>134000</v>
       </c>
       <c r="H102" s="3">
-        <v>85200</v>
+        <v>260600</v>
       </c>
       <c r="I102" s="3">
-        <v>123400</v>
+        <v>85400</v>
       </c>
       <c r="J102" s="3">
+        <v>123600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-619200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-232600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>146000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>87700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
@@ -732,25 +732,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2615400</v>
+        <v>2616200</v>
       </c>
       <c r="E8" s="3">
-        <v>2625200</v>
+        <v>2626000</v>
       </c>
       <c r="F8" s="3">
-        <v>2558100</v>
+        <v>2558800</v>
       </c>
       <c r="G8" s="3">
-        <v>2482000</v>
+        <v>2482700</v>
       </c>
       <c r="H8" s="3">
-        <v>2198700</v>
+        <v>2199400</v>
       </c>
       <c r="I8" s="3">
-        <v>1990400</v>
+        <v>1991000</v>
       </c>
       <c r="J8" s="3">
-        <v>1856800</v>
+        <v>1857300</v>
       </c>
       <c r="K8" s="3">
         <v>1824000</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1383400</v>
+        <v>1383900</v>
       </c>
       <c r="E9" s="3">
-        <v>1429000</v>
+        <v>1429500</v>
       </c>
       <c r="F9" s="3">
-        <v>1359500</v>
+        <v>1359900</v>
       </c>
       <c r="G9" s="3">
-        <v>1297400</v>
+        <v>1297800</v>
       </c>
       <c r="H9" s="3">
-        <v>1093300</v>
+        <v>1093600</v>
       </c>
       <c r="I9" s="3">
-        <v>930800</v>
+        <v>931100</v>
       </c>
       <c r="J9" s="3">
-        <v>839100</v>
+        <v>839400</v>
       </c>
       <c r="K9" s="3">
         <v>799000</v>
@@ -808,25 +808,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1232000</v>
+        <v>1232400</v>
       </c>
       <c r="E10" s="3">
-        <v>1196200</v>
+        <v>1196500</v>
       </c>
       <c r="F10" s="3">
-        <v>1198600</v>
+        <v>1198900</v>
       </c>
       <c r="G10" s="3">
-        <v>1184500</v>
+        <v>1184900</v>
       </c>
       <c r="H10" s="3">
-        <v>1105400</v>
+        <v>1105800</v>
       </c>
       <c r="I10" s="3">
-        <v>1059600</v>
+        <v>1059900</v>
       </c>
       <c r="J10" s="3">
-        <v>1017600</v>
+        <v>1018000</v>
       </c>
       <c r="K10" s="3">
         <v>1024900</v>
@@ -979,22 +979,22 @@
         <v>182200</v>
       </c>
       <c r="E15" s="3">
-        <v>173000</v>
+        <v>173100</v>
       </c>
       <c r="F15" s="3">
-        <v>167000</v>
+        <v>167100</v>
       </c>
       <c r="G15" s="3">
-        <v>160200</v>
+        <v>160300</v>
       </c>
       <c r="H15" s="3">
-        <v>156200</v>
+        <v>156300</v>
       </c>
       <c r="I15" s="3">
         <v>150100</v>
       </c>
       <c r="J15" s="3">
-        <v>145000</v>
+        <v>145100</v>
       </c>
       <c r="K15" s="3">
         <v>141500</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1998800</v>
+        <v>1999500</v>
       </c>
       <c r="E17" s="3">
-        <v>2071500</v>
+        <v>2072200</v>
       </c>
       <c r="F17" s="3">
-        <v>2057000</v>
+        <v>2057600</v>
       </c>
       <c r="G17" s="3">
-        <v>1899100</v>
+        <v>1899700</v>
       </c>
       <c r="H17" s="3">
-        <v>1683200</v>
+        <v>1683700</v>
       </c>
       <c r="I17" s="3">
-        <v>1440300</v>
+        <v>1440800</v>
       </c>
       <c r="J17" s="3">
-        <v>1454900</v>
+        <v>1455400</v>
       </c>
       <c r="K17" s="3">
         <v>1305600</v>
@@ -1065,25 +1065,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>616600</v>
+        <v>616800</v>
       </c>
       <c r="E18" s="3">
-        <v>553700</v>
+        <v>553800</v>
       </c>
       <c r="F18" s="3">
-        <v>501100</v>
+        <v>501200</v>
       </c>
       <c r="G18" s="3">
-        <v>582900</v>
+        <v>583000</v>
       </c>
       <c r="H18" s="3">
-        <v>515500</v>
+        <v>515700</v>
       </c>
       <c r="I18" s="3">
-        <v>550100</v>
+        <v>550300</v>
       </c>
       <c r="J18" s="3">
-        <v>401800</v>
+        <v>402000</v>
       </c>
       <c r="K18" s="3">
         <v>518400</v>
@@ -1122,19 +1122,19 @@
         <v>104500</v>
       </c>
       <c r="E20" s="3">
-        <v>226000</v>
+        <v>226100</v>
       </c>
       <c r="F20" s="3">
-        <v>342400</v>
+        <v>342500</v>
       </c>
       <c r="G20" s="3">
-        <v>317100</v>
+        <v>317200</v>
       </c>
       <c r="H20" s="3">
-        <v>250400</v>
+        <v>250500</v>
       </c>
       <c r="I20" s="3">
-        <v>277400</v>
+        <v>277500</v>
       </c>
       <c r="J20" s="3">
         <v>227000</v>
@@ -1157,25 +1157,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>731500</v>
+        <v>731800</v>
       </c>
       <c r="E21" s="3">
-        <v>952700</v>
+        <v>953000</v>
       </c>
       <c r="F21" s="3">
-        <v>850300</v>
+        <v>850500</v>
       </c>
       <c r="G21" s="3">
-        <v>1060200</v>
+        <v>1060500</v>
       </c>
       <c r="H21" s="3">
-        <v>772100</v>
+        <v>772300</v>
       </c>
       <c r="I21" s="3">
-        <v>977600</v>
+        <v>977900</v>
       </c>
       <c r="J21" s="3">
-        <v>632100</v>
+        <v>632300</v>
       </c>
       <c r="K21" s="3">
         <v>937200</v>
@@ -1195,7 +1195,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>86500</v>
+        <v>86600</v>
       </c>
       <c r="E22" s="3">
         <v>72200</v>
@@ -1210,10 +1210,10 @@
         <v>82800</v>
       </c>
       <c r="I22" s="3">
-        <v>79300</v>
+        <v>79400</v>
       </c>
       <c r="J22" s="3">
-        <v>81300</v>
+        <v>81400</v>
       </c>
       <c r="K22" s="3">
         <v>74300</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>634500</v>
+        <v>634700</v>
       </c>
       <c r="E23" s="3">
-        <v>707500</v>
+        <v>707700</v>
       </c>
       <c r="F23" s="3">
-        <v>770300</v>
+        <v>770600</v>
       </c>
       <c r="G23" s="3">
-        <v>821400</v>
+        <v>821600</v>
       </c>
       <c r="H23" s="3">
-        <v>683200</v>
+        <v>683400</v>
       </c>
       <c r="I23" s="3">
-        <v>748200</v>
+        <v>748400</v>
       </c>
       <c r="J23" s="3">
-        <v>547500</v>
+        <v>547600</v>
       </c>
       <c r="K23" s="3">
         <v>721400</v>
@@ -1271,19 +1271,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>166400</v>
+        <v>166500</v>
       </c>
       <c r="E24" s="3">
-        <v>128900</v>
+        <v>129000</v>
       </c>
       <c r="F24" s="3">
-        <v>117500</v>
+        <v>117600</v>
       </c>
       <c r="G24" s="3">
-        <v>128500</v>
+        <v>128600</v>
       </c>
       <c r="H24" s="3">
-        <v>120800</v>
+        <v>120900</v>
       </c>
       <c r="I24" s="3">
         <v>104900</v>
@@ -1347,25 +1347,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>468100</v>
+        <v>468200</v>
       </c>
       <c r="E26" s="3">
-        <v>578600</v>
+        <v>578800</v>
       </c>
       <c r="F26" s="3">
-        <v>652800</v>
+        <v>653000</v>
       </c>
       <c r="G26" s="3">
-        <v>692800</v>
+        <v>693000</v>
       </c>
       <c r="H26" s="3">
-        <v>562300</v>
+        <v>562500</v>
       </c>
       <c r="I26" s="3">
-        <v>643300</v>
+        <v>643500</v>
       </c>
       <c r="J26" s="3">
-        <v>443600</v>
+        <v>443700</v>
       </c>
       <c r="K26" s="3">
         <v>622100</v>
@@ -1385,25 +1385,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>396800</v>
+        <v>396900</v>
       </c>
       <c r="E27" s="3">
-        <v>501700</v>
+        <v>501800</v>
       </c>
       <c r="F27" s="3">
-        <v>583500</v>
+        <v>583700</v>
       </c>
       <c r="G27" s="3">
-        <v>617800</v>
+        <v>618000</v>
       </c>
       <c r="H27" s="3">
-        <v>484100</v>
+        <v>484300</v>
       </c>
       <c r="I27" s="3">
-        <v>576800</v>
+        <v>577000</v>
       </c>
       <c r="J27" s="3">
-        <v>388300</v>
+        <v>388400</v>
       </c>
       <c r="K27" s="3">
         <v>557800</v>
@@ -1578,19 +1578,19 @@
         <v>-104500</v>
       </c>
       <c r="E32" s="3">
-        <v>-226000</v>
+        <v>-226100</v>
       </c>
       <c r="F32" s="3">
-        <v>-342400</v>
+        <v>-342500</v>
       </c>
       <c r="G32" s="3">
-        <v>-317100</v>
+        <v>-317200</v>
       </c>
       <c r="H32" s="3">
-        <v>-250400</v>
+        <v>-250500</v>
       </c>
       <c r="I32" s="3">
-        <v>-277400</v>
+        <v>-277500</v>
       </c>
       <c r="J32" s="3">
         <v>-227000</v>
@@ -1613,25 +1613,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>396800</v>
+        <v>396900</v>
       </c>
       <c r="E33" s="3">
-        <v>501700</v>
+        <v>501800</v>
       </c>
       <c r="F33" s="3">
-        <v>583500</v>
+        <v>583700</v>
       </c>
       <c r="G33" s="3">
-        <v>617800</v>
+        <v>618000</v>
       </c>
       <c r="H33" s="3">
-        <v>484100</v>
+        <v>484300</v>
       </c>
       <c r="I33" s="3">
-        <v>576800</v>
+        <v>577000</v>
       </c>
       <c r="J33" s="3">
-        <v>388300</v>
+        <v>388400</v>
       </c>
       <c r="K33" s="3">
         <v>557800</v>
@@ -1689,25 +1689,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>396800</v>
+        <v>396900</v>
       </c>
       <c r="E35" s="3">
-        <v>501700</v>
+        <v>501800</v>
       </c>
       <c r="F35" s="3">
-        <v>583500</v>
+        <v>583700</v>
       </c>
       <c r="G35" s="3">
-        <v>617800</v>
+        <v>618000</v>
       </c>
       <c r="H35" s="3">
-        <v>484100</v>
+        <v>484300</v>
       </c>
       <c r="I35" s="3">
-        <v>576800</v>
+        <v>577000</v>
       </c>
       <c r="J35" s="3">
-        <v>388300</v>
+        <v>388400</v>
       </c>
       <c r="K35" s="3">
         <v>557800</v>
@@ -1802,25 +1802,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1012400</v>
+        <v>1012700</v>
       </c>
       <c r="E41" s="3">
-        <v>930300</v>
+        <v>930600</v>
       </c>
       <c r="F41" s="3">
-        <v>1096500</v>
+        <v>1096900</v>
       </c>
       <c r="G41" s="3">
-        <v>1521800</v>
+        <v>1522300</v>
       </c>
       <c r="H41" s="3">
-        <v>1387800</v>
+        <v>1388200</v>
       </c>
       <c r="I41" s="3">
-        <v>1127100</v>
+        <v>1127500</v>
       </c>
       <c r="J41" s="3">
-        <v>1041700</v>
+        <v>1042100</v>
       </c>
       <c r="K41" s="3">
         <v>916800</v>
@@ -1852,13 +1852,13 @@
         <v>220500</v>
       </c>
       <c r="H42" s="3">
-        <v>288000</v>
+        <v>288100</v>
       </c>
       <c r="I42" s="3">
         <v>247100</v>
       </c>
       <c r="J42" s="3">
-        <v>456100</v>
+        <v>456200</v>
       </c>
       <c r="K42" s="3">
         <v>708100</v>
@@ -1878,25 +1878,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1010300</v>
+        <v>1010600</v>
       </c>
       <c r="E43" s="3">
-        <v>1014600</v>
+        <v>1014900</v>
       </c>
       <c r="F43" s="3">
-        <v>950500</v>
+        <v>950800</v>
       </c>
       <c r="G43" s="3">
-        <v>984500</v>
+        <v>984800</v>
       </c>
       <c r="H43" s="3">
-        <v>920600</v>
+        <v>920900</v>
       </c>
       <c r="I43" s="3">
-        <v>821000</v>
+        <v>821200</v>
       </c>
       <c r="J43" s="3">
-        <v>798300</v>
+        <v>798600</v>
       </c>
       <c r="K43" s="3">
         <v>822200</v>
@@ -1916,25 +1916,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>304900</v>
+        <v>305000</v>
       </c>
       <c r="E44" s="3">
-        <v>311500</v>
+        <v>311600</v>
       </c>
       <c r="F44" s="3">
-        <v>320000</v>
+        <v>320100</v>
       </c>
       <c r="G44" s="3">
-        <v>309800</v>
+        <v>309900</v>
       </c>
       <c r="H44" s="3">
-        <v>332600</v>
+        <v>332700</v>
       </c>
       <c r="I44" s="3">
-        <v>289800</v>
+        <v>289900</v>
       </c>
       <c r="J44" s="3">
-        <v>272200</v>
+        <v>272300</v>
       </c>
       <c r="K44" s="3">
         <v>271700</v>
@@ -1954,19 +1954,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>223900</v>
+        <v>224000</v>
       </c>
       <c r="E45" s="3">
-        <v>190700</v>
+        <v>190800</v>
       </c>
       <c r="F45" s="3">
-        <v>204000</v>
+        <v>204100</v>
       </c>
       <c r="G45" s="3">
-        <v>194400</v>
+        <v>194500</v>
       </c>
       <c r="H45" s="3">
-        <v>214000</v>
+        <v>214100</v>
       </c>
       <c r="I45" s="3">
         <v>180700</v>
@@ -1992,25 +1992,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2596500</v>
+        <v>2597300</v>
       </c>
       <c r="E46" s="3">
-        <v>2537000</v>
+        <v>2537800</v>
       </c>
       <c r="F46" s="3">
-        <v>2658800</v>
+        <v>2659600</v>
       </c>
       <c r="G46" s="3">
-        <v>3231000</v>
+        <v>3232000</v>
       </c>
       <c r="H46" s="3">
-        <v>3142900</v>
+        <v>3143900</v>
       </c>
       <c r="I46" s="3">
-        <v>2665600</v>
+        <v>2666400</v>
       </c>
       <c r="J46" s="3">
-        <v>2730800</v>
+        <v>2731700</v>
       </c>
       <c r="K46" s="3">
         <v>2884300</v>
@@ -2030,25 +2030,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6012900</v>
+        <v>6014800</v>
       </c>
       <c r="E47" s="3">
-        <v>5515800</v>
+        <v>5517600</v>
       </c>
       <c r="F47" s="3">
-        <v>5411600</v>
+        <v>5413300</v>
       </c>
       <c r="G47" s="3">
-        <v>5214800</v>
+        <v>5216500</v>
       </c>
       <c r="H47" s="3">
-        <v>5010300</v>
+        <v>5011800</v>
       </c>
       <c r="I47" s="3">
-        <v>4850400</v>
+        <v>4851900</v>
       </c>
       <c r="J47" s="3">
-        <v>4538400</v>
+        <v>4539900</v>
       </c>
       <c r="K47" s="3">
         <v>4484700</v>
@@ -2068,25 +2068,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8337600</v>
+        <v>8340200</v>
       </c>
       <c r="E48" s="3">
-        <v>8188300</v>
+        <v>8190800</v>
       </c>
       <c r="F48" s="3">
-        <v>7579000</v>
+        <v>7581400</v>
       </c>
       <c r="G48" s="3">
-        <v>7495800</v>
+        <v>7498100</v>
       </c>
       <c r="H48" s="3">
-        <v>7299700</v>
+        <v>7302000</v>
       </c>
       <c r="I48" s="3">
-        <v>6787900</v>
+        <v>6790000</v>
       </c>
       <c r="J48" s="3">
-        <v>6441600</v>
+        <v>6443600</v>
       </c>
       <c r="K48" s="3">
         <v>6338500</v>
@@ -2106,25 +2106,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>682500</v>
+        <v>682700</v>
       </c>
       <c r="E49" s="3">
-        <v>731500</v>
+        <v>731700</v>
       </c>
       <c r="F49" s="3">
-        <v>732900</v>
+        <v>733200</v>
       </c>
       <c r="G49" s="3">
-        <v>752100</v>
+        <v>752400</v>
       </c>
       <c r="H49" s="3">
-        <v>758900</v>
+        <v>759200</v>
       </c>
       <c r="I49" s="3">
-        <v>730800</v>
+        <v>731000</v>
       </c>
       <c r="J49" s="3">
-        <v>718800</v>
+        <v>719000</v>
       </c>
       <c r="K49" s="3">
         <v>735200</v>
@@ -2220,25 +2220,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>489700</v>
+        <v>489800</v>
       </c>
       <c r="E52" s="3">
-        <v>469100</v>
+        <v>469200</v>
       </c>
       <c r="F52" s="3">
-        <v>733800</v>
+        <v>734000</v>
       </c>
       <c r="G52" s="3">
-        <v>708200</v>
+        <v>708400</v>
       </c>
       <c r="H52" s="3">
-        <v>693800</v>
+        <v>694000</v>
       </c>
       <c r="I52" s="3">
-        <v>653200</v>
+        <v>653400</v>
       </c>
       <c r="J52" s="3">
-        <v>629100</v>
+        <v>629300</v>
       </c>
       <c r="K52" s="3">
         <v>628400</v>
@@ -2296,25 +2296,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18119200</v>
+        <v>18124900</v>
       </c>
       <c r="E54" s="3">
-        <v>17441700</v>
+        <v>17447100</v>
       </c>
       <c r="F54" s="3">
-        <v>17116100</v>
+        <v>17121400</v>
       </c>
       <c r="G54" s="3">
-        <v>17402000</v>
+        <v>17407300</v>
       </c>
       <c r="H54" s="3">
-        <v>16905700</v>
+        <v>16910900</v>
       </c>
       <c r="I54" s="3">
-        <v>15687900</v>
+        <v>15692700</v>
       </c>
       <c r="J54" s="3">
-        <v>15058700</v>
+        <v>15063400</v>
       </c>
       <c r="K54" s="3">
         <v>15071200</v>
@@ -2366,25 +2366,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>509500</v>
+        <v>509600</v>
       </c>
       <c r="E57" s="3">
-        <v>514100</v>
+        <v>514200</v>
       </c>
       <c r="F57" s="3">
-        <v>532400</v>
+        <v>532600</v>
       </c>
       <c r="G57" s="3">
-        <v>443900</v>
+        <v>444100</v>
       </c>
       <c r="H57" s="3">
-        <v>530800</v>
+        <v>531000</v>
       </c>
       <c r="I57" s="3">
-        <v>436800</v>
+        <v>437000</v>
       </c>
       <c r="J57" s="3">
-        <v>434200</v>
+        <v>434300</v>
       </c>
       <c r="K57" s="3">
         <v>430200</v>
@@ -2404,25 +2404,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1206300</v>
+        <v>1219700</v>
       </c>
       <c r="E58" s="3">
-        <v>1189500</v>
+        <v>1203600</v>
       </c>
       <c r="F58" s="3">
-        <v>1343100</v>
+        <v>1362600</v>
       </c>
       <c r="G58" s="3">
-        <v>2237400</v>
+        <v>2266600</v>
       </c>
       <c r="H58" s="3">
-        <v>2032500</v>
+        <v>2055700</v>
       </c>
       <c r="I58" s="3">
-        <v>985800</v>
+        <v>1012300</v>
       </c>
       <c r="J58" s="3">
-        <v>767700</v>
+        <v>792000</v>
       </c>
       <c r="K58" s="3">
         <v>833400</v>
@@ -2442,25 +2442,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1659500</v>
+        <v>1647100</v>
       </c>
       <c r="E59" s="3">
-        <v>1492500</v>
+        <v>1479200</v>
       </c>
       <c r="F59" s="3">
-        <v>1497700</v>
+        <v>1479100</v>
       </c>
       <c r="G59" s="3">
-        <v>1560200</v>
+        <v>1532200</v>
       </c>
       <c r="H59" s="3">
-        <v>1557700</v>
+        <v>1535500</v>
       </c>
       <c r="I59" s="3">
-        <v>1365500</v>
+        <v>1339700</v>
       </c>
       <c r="J59" s="3">
-        <v>1319500</v>
+        <v>1295900</v>
       </c>
       <c r="K59" s="3">
         <v>1261000</v>
@@ -2480,25 +2480,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3375300</v>
+        <v>3376400</v>
       </c>
       <c r="E60" s="3">
-        <v>3196000</v>
+        <v>3197000</v>
       </c>
       <c r="F60" s="3">
-        <v>3373200</v>
+        <v>3374300</v>
       </c>
       <c r="G60" s="3">
-        <v>4241500</v>
+        <v>4242900</v>
       </c>
       <c r="H60" s="3">
-        <v>4121000</v>
+        <v>4122300</v>
       </c>
       <c r="I60" s="3">
-        <v>2788100</v>
+        <v>2789000</v>
       </c>
       <c r="J60" s="3">
-        <v>2521400</v>
+        <v>2522200</v>
       </c>
       <c r="K60" s="3">
         <v>2524600</v>
@@ -2518,25 +2518,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3701400</v>
+        <v>3702600</v>
       </c>
       <c r="E61" s="3">
-        <v>3581800</v>
+        <v>3582900</v>
       </c>
       <c r="F61" s="3">
-        <v>3561300</v>
+        <v>3562400</v>
       </c>
       <c r="G61" s="3">
-        <v>2917100</v>
+        <v>2918000</v>
       </c>
       <c r="H61" s="3">
-        <v>2729700</v>
+        <v>2730500</v>
       </c>
       <c r="I61" s="3">
-        <v>3469500</v>
+        <v>3470600</v>
       </c>
       <c r="J61" s="3">
-        <v>3520900</v>
+        <v>3522000</v>
       </c>
       <c r="K61" s="3">
         <v>3556600</v>
@@ -2556,25 +2556,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1317000</v>
+        <v>1317400</v>
       </c>
       <c r="E62" s="3">
-        <v>1216500</v>
+        <v>1216900</v>
       </c>
       <c r="F62" s="3">
-        <v>1127300</v>
+        <v>1127700</v>
       </c>
       <c r="G62" s="3">
-        <v>1007200</v>
+        <v>1007500</v>
       </c>
       <c r="H62" s="3">
-        <v>994000</v>
+        <v>994300</v>
       </c>
       <c r="I62" s="3">
-        <v>946400</v>
+        <v>946700</v>
       </c>
       <c r="J62" s="3">
-        <v>903200</v>
+        <v>903400</v>
       </c>
       <c r="K62" s="3">
         <v>880500</v>
@@ -2708,25 +2708,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9529300</v>
+        <v>9532300</v>
       </c>
       <c r="E66" s="3">
-        <v>9037500</v>
+        <v>9040300</v>
       </c>
       <c r="F66" s="3">
-        <v>9067000</v>
+        <v>9069800</v>
       </c>
       <c r="G66" s="3">
-        <v>9161400</v>
+        <v>9164300</v>
       </c>
       <c r="H66" s="3">
-        <v>8806000</v>
+        <v>8808700</v>
       </c>
       <c r="I66" s="3">
-        <v>8088000</v>
+        <v>8090500</v>
       </c>
       <c r="J66" s="3">
-        <v>7798400</v>
+        <v>7800800</v>
       </c>
       <c r="K66" s="3">
         <v>7844700</v>
@@ -2914,25 +2914,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7599900</v>
+        <v>7602300</v>
       </c>
       <c r="E72" s="3">
-        <v>7449200</v>
+        <v>7451500</v>
       </c>
       <c r="F72" s="3">
-        <v>7407900</v>
+        <v>7410200</v>
       </c>
       <c r="G72" s="3">
-        <v>7075200</v>
+        <v>7077400</v>
       </c>
       <c r="H72" s="3">
-        <v>6858000</v>
+        <v>6860100</v>
       </c>
       <c r="I72" s="3">
-        <v>6572700</v>
+        <v>6574800</v>
       </c>
       <c r="J72" s="3">
-        <v>6378300</v>
+        <v>6380300</v>
       </c>
       <c r="K72" s="3">
         <v>6185900</v>
@@ -3066,25 +3066,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8589900</v>
+        <v>8592600</v>
       </c>
       <c r="E76" s="3">
-        <v>8404200</v>
+        <v>8406800</v>
       </c>
       <c r="F76" s="3">
-        <v>8049100</v>
+        <v>8051600</v>
       </c>
       <c r="G76" s="3">
-        <v>8240500</v>
+        <v>8243100</v>
       </c>
       <c r="H76" s="3">
-        <v>8099700</v>
+        <v>8102200</v>
       </c>
       <c r="I76" s="3">
-        <v>7599800</v>
+        <v>7602200</v>
       </c>
       <c r="J76" s="3">
-        <v>7260300</v>
+        <v>7262600</v>
       </c>
       <c r="K76" s="3">
         <v>7226400</v>
@@ -3185,25 +3185,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>396800</v>
+        <v>396900</v>
       </c>
       <c r="E81" s="3">
-        <v>501700</v>
+        <v>501800</v>
       </c>
       <c r="F81" s="3">
-        <v>583500</v>
+        <v>583700</v>
       </c>
       <c r="G81" s="3">
-        <v>617800</v>
+        <v>618000</v>
       </c>
       <c r="H81" s="3">
-        <v>484100</v>
+        <v>484300</v>
       </c>
       <c r="I81" s="3">
-        <v>576800</v>
+        <v>577000</v>
       </c>
       <c r="J81" s="3">
-        <v>388300</v>
+        <v>388400</v>
       </c>
       <c r="K81" s="3">
         <v>557800</v>
@@ -3467,25 +3467,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>649600</v>
+        <v>649800</v>
       </c>
       <c r="E89" s="3">
-        <v>629000</v>
+        <v>629200</v>
       </c>
       <c r="F89" s="3">
-        <v>571200</v>
+        <v>571400</v>
       </c>
       <c r="G89" s="3">
-        <v>646300</v>
+        <v>646500</v>
       </c>
       <c r="H89" s="3">
-        <v>532900</v>
+        <v>533100</v>
       </c>
       <c r="I89" s="3">
-        <v>566600</v>
+        <v>566800</v>
       </c>
       <c r="J89" s="3">
-        <v>527800</v>
+        <v>528000</v>
       </c>
       <c r="K89" s="3">
         <v>563700</v>
@@ -3521,25 +3521,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-466400</v>
+        <v>-466500</v>
       </c>
       <c r="E91" s="3">
-        <v>-404500</v>
+        <v>-404600</v>
       </c>
       <c r="F91" s="3">
-        <v>-430000</v>
+        <v>-430100</v>
       </c>
       <c r="G91" s="3">
-        <v>-417100</v>
+        <v>-417200</v>
       </c>
       <c r="H91" s="3">
-        <v>-456200</v>
+        <v>-456300</v>
       </c>
       <c r="I91" s="3">
-        <v>-318300</v>
+        <v>-318400</v>
       </c>
       <c r="J91" s="3">
-        <v>-441100</v>
+        <v>-441200</v>
       </c>
       <c r="K91" s="3">
         <v>-339700</v>
@@ -3635,16 +3635,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-332000</v>
+        <v>-332100</v>
       </c>
       <c r="E94" s="3">
-        <v>-351800</v>
+        <v>-351900</v>
       </c>
       <c r="F94" s="3">
-        <v>-127900</v>
+        <v>-128000</v>
       </c>
       <c r="G94" s="3">
-        <v>-359200</v>
+        <v>-359300</v>
       </c>
       <c r="H94" s="3">
         <v>-150800</v>
@@ -3689,25 +3689,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-262000</v>
+        <v>-262100</v>
       </c>
       <c r="E96" s="3">
-        <v>-456500</v>
+        <v>-456600</v>
       </c>
       <c r="F96" s="3">
         <v>-238200</v>
       </c>
       <c r="G96" s="3">
-        <v>-415000</v>
+        <v>-415100</v>
       </c>
       <c r="H96" s="3">
-        <v>-216500</v>
+        <v>-216600</v>
       </c>
       <c r="I96" s="3">
-        <v>-377300</v>
+        <v>-377400</v>
       </c>
       <c r="J96" s="3">
-        <v>-196800</v>
+        <v>-196900</v>
       </c>
       <c r="K96" s="3">
         <v>-342500</v>
@@ -3841,13 +3841,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-229600</v>
+        <v>-229700</v>
       </c>
       <c r="E100" s="3">
-        <v>-442900</v>
+        <v>-443100</v>
       </c>
       <c r="F100" s="3">
-        <v>-854600</v>
+        <v>-854900</v>
       </c>
       <c r="G100" s="3">
         <v>-150000</v>
@@ -3856,10 +3856,10 @@
         <v>-134500</v>
       </c>
       <c r="I100" s="3">
-        <v>-425300</v>
+        <v>-425400</v>
       </c>
       <c r="J100" s="3">
-        <v>-376000</v>
+        <v>-376100</v>
       </c>
       <c r="K100" s="3">
         <v>-355200</v>
@@ -3920,16 +3920,16 @@
         <v>82200</v>
       </c>
       <c r="E102" s="3">
-        <v>-166200</v>
+        <v>-166300</v>
       </c>
       <c r="F102" s="3">
-        <v>-425300</v>
+        <v>-425400</v>
       </c>
       <c r="G102" s="3">
-        <v>134000</v>
+        <v>134100</v>
       </c>
       <c r="H102" s="3">
-        <v>260600</v>
+        <v>260700</v>
       </c>
       <c r="I102" s="3">
         <v>85400</v>

--- a/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>HOKCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2616200</v>
+        <v>2352700</v>
       </c>
       <c r="E8" s="3">
-        <v>2626000</v>
+        <v>2616000</v>
       </c>
       <c r="F8" s="3">
-        <v>2558800</v>
+        <v>2625800</v>
       </c>
       <c r="G8" s="3">
-        <v>2482700</v>
+        <v>2558600</v>
       </c>
       <c r="H8" s="3">
-        <v>2199400</v>
+        <v>2482600</v>
       </c>
       <c r="I8" s="3">
-        <v>1991000</v>
+        <v>2199200</v>
       </c>
       <c r="J8" s="3">
+        <v>1990900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1857300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1824000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1848200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1921400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2023300</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1383900</v>
+        <v>1213400</v>
       </c>
       <c r="E9" s="3">
-        <v>1429500</v>
+        <v>1383800</v>
       </c>
       <c r="F9" s="3">
-        <v>1359900</v>
+        <v>1429400</v>
       </c>
       <c r="G9" s="3">
-        <v>1297800</v>
+        <v>1359800</v>
       </c>
       <c r="H9" s="3">
-        <v>1093600</v>
+        <v>1297700</v>
       </c>
       <c r="I9" s="3">
-        <v>931100</v>
+        <v>1093500</v>
       </c>
       <c r="J9" s="3">
+        <v>931000</v>
+      </c>
+      <c r="K9" s="3">
         <v>839400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>799000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>853600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>942300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1030700</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1232400</v>
+        <v>1139300</v>
       </c>
       <c r="E10" s="3">
-        <v>1196500</v>
+        <v>1232300</v>
       </c>
       <c r="F10" s="3">
+        <v>1196400</v>
+      </c>
+      <c r="G10" s="3">
         <v>1198900</v>
       </c>
-      <c r="G10" s="3">
-        <v>1184900</v>
-      </c>
       <c r="H10" s="3">
-        <v>1105800</v>
+        <v>1184800</v>
       </c>
       <c r="I10" s="3">
+        <v>1105700</v>
+      </c>
+      <c r="J10" s="3">
         <v>1059900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1018000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1024900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>994600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>979100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>992600</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +869,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,35 +881,38 @@
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
         <v>3000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,8 +949,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -943,73 +963,79 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-30100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-5700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>-3900</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>181700</v>
+      </c>
+      <c r="E15" s="3">
         <v>182200</v>
       </c>
-      <c r="E15" s="3">
-        <v>173100</v>
-      </c>
       <c r="F15" s="3">
+        <v>173000</v>
+      </c>
+      <c r="G15" s="3">
         <v>167100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>160300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>156300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>150100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>145100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>141500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>134100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>130300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1999500</v>
+        <v>1894700</v>
       </c>
       <c r="E17" s="3">
-        <v>2072200</v>
+        <v>1999300</v>
       </c>
       <c r="F17" s="3">
-        <v>2057600</v>
+        <v>2072000</v>
       </c>
       <c r="G17" s="3">
-        <v>1899700</v>
+        <v>2057500</v>
       </c>
       <c r="H17" s="3">
-        <v>1683700</v>
+        <v>1899500</v>
       </c>
       <c r="I17" s="3">
-        <v>1440800</v>
+        <v>1683600</v>
       </c>
       <c r="J17" s="3">
+        <v>1440700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1455400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1305600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1505200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1361200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1543600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>616800</v>
+        <v>458000</v>
       </c>
       <c r="E18" s="3">
+        <v>616700</v>
+      </c>
+      <c r="F18" s="3">
         <v>553800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>501200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>583000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>515700</v>
       </c>
-      <c r="I18" s="3">
-        <v>550300</v>
-      </c>
       <c r="J18" s="3">
+        <v>550200</v>
+      </c>
+      <c r="K18" s="3">
         <v>402000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>518400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>343000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>560300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,198 +1146,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>123200</v>
+      </c>
+      <c r="E20" s="3">
         <v>104500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>226100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>342500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>317200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>250500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>277500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>227000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>277300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>276900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>225500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>189800</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>731800</v>
+        <v>762900</v>
       </c>
       <c r="E21" s="3">
-        <v>953000</v>
+        <v>731700</v>
       </c>
       <c r="F21" s="3">
+        <v>952900</v>
+      </c>
+      <c r="G21" s="3">
         <v>850500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1060500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>772300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>977900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>632300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>937200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>623700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>916100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>676400</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E22" s="3">
         <v>86600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>72200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>73200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>78600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>82800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>79400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>81400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>74300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>81300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>62500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>634700</v>
+        <v>502500</v>
       </c>
       <c r="E23" s="3">
+        <v>634600</v>
+      </c>
+      <c r="F23" s="3">
         <v>707700</v>
       </c>
-      <c r="F23" s="3">
-        <v>770600</v>
-      </c>
       <c r="G23" s="3">
-        <v>821600</v>
+        <v>770500</v>
       </c>
       <c r="H23" s="3">
-        <v>683400</v>
+        <v>821500</v>
       </c>
       <c r="I23" s="3">
+        <v>683300</v>
+      </c>
+      <c r="J23" s="3">
         <v>748400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>547600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>721400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>538700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>723300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>603500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>166500</v>
+        <v>91200</v>
       </c>
       <c r="E24" s="3">
+        <v>166400</v>
+      </c>
+      <c r="F24" s="3">
         <v>129000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>117600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>128600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>120900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>104900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>103900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>99300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>98600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>121400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>103400</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>411300</v>
+      </c>
+      <c r="E26" s="3">
         <v>468200</v>
       </c>
-      <c r="E26" s="3">
-        <v>578800</v>
-      </c>
       <c r="F26" s="3">
-        <v>653000</v>
+        <v>578700</v>
       </c>
       <c r="G26" s="3">
+        <v>652900</v>
+      </c>
+      <c r="H26" s="3">
         <v>693000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>562500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>643500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>443700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>622100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>440100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>601900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>500100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>344100</v>
+      </c>
+      <c r="E27" s="3">
         <v>396900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>501800</v>
       </c>
-      <c r="F27" s="3">
-        <v>583700</v>
-      </c>
       <c r="G27" s="3">
-        <v>618000</v>
+        <v>583600</v>
       </c>
       <c r="H27" s="3">
+        <v>617900</v>
+      </c>
+      <c r="I27" s="3">
         <v>484300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>577000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>388400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>557800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>395500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>534700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +1554,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-123200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-104500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-226100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-342500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-317200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-250500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-277500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-227000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-277300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-276900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-225500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-189800</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>344100</v>
+      </c>
+      <c r="E33" s="3">
         <v>396900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>501800</v>
       </c>
-      <c r="F33" s="3">
-        <v>583700</v>
-      </c>
       <c r="G33" s="3">
-        <v>618000</v>
+        <v>583600</v>
       </c>
       <c r="H33" s="3">
+        <v>617900</v>
+      </c>
+      <c r="I33" s="3">
         <v>484300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>577000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>388400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>557800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>395500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>534700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>344100</v>
+      </c>
+      <c r="E35" s="3">
         <v>396900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>501800</v>
       </c>
-      <c r="F35" s="3">
-        <v>583700</v>
-      </c>
       <c r="G35" s="3">
-        <v>618000</v>
+        <v>583600</v>
       </c>
       <c r="H35" s="3">
+        <v>617900</v>
+      </c>
+      <c r="I35" s="3">
         <v>484300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>577000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>388400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>557800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>395500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>534700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,350 +1882,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1076900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1012700</v>
       </c>
-      <c r="E41" s="3">
-        <v>930600</v>
-      </c>
       <c r="F41" s="3">
-        <v>1096900</v>
+        <v>930500</v>
       </c>
       <c r="G41" s="3">
-        <v>1522300</v>
+        <v>1096800</v>
       </c>
       <c r="H41" s="3">
-        <v>1388200</v>
+        <v>1522100</v>
       </c>
       <c r="I41" s="3">
-        <v>1127500</v>
+        <v>1388100</v>
       </c>
       <c r="J41" s="3">
+        <v>1127400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1042100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>916800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1519200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1751800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1613500</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E42" s="3">
         <v>45000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>89900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>87800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>220500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>288100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>247100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>456200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>708100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>170600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>56000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>162400</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1010600</v>
+        <v>961100</v>
       </c>
       <c r="E43" s="3">
+        <v>1010500</v>
+      </c>
+      <c r="F43" s="3">
         <v>1014900</v>
       </c>
-      <c r="F43" s="3">
-        <v>950800</v>
-      </c>
       <c r="G43" s="3">
+        <v>950700</v>
+      </c>
+      <c r="H43" s="3">
         <v>984800</v>
       </c>
-      <c r="H43" s="3">
-        <v>920900</v>
-      </c>
       <c r="I43" s="3">
+        <v>920800</v>
+      </c>
+      <c r="J43" s="3">
         <v>821200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>798600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>822200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>870600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>841500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>830500</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>306100</v>
+      </c>
+      <c r="E44" s="3">
         <v>305000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>311600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>320100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>309900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>332700</v>
       </c>
-      <c r="I44" s="3">
-        <v>289900</v>
-      </c>
       <c r="J44" s="3">
+        <v>289800</v>
+      </c>
+      <c r="K44" s="3">
         <v>272300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>271700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>291900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>296100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>292200</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>203300</v>
+      </c>
+      <c r="E45" s="3">
         <v>224000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>190800</v>
       </c>
-      <c r="F45" s="3">
-        <v>204100</v>
-      </c>
       <c r="G45" s="3">
+        <v>204000</v>
+      </c>
+      <c r="H45" s="3">
         <v>194500</v>
       </c>
-      <c r="H45" s="3">
-        <v>214100</v>
-      </c>
       <c r="I45" s="3">
+        <v>214000</v>
+      </c>
+      <c r="J45" s="3">
         <v>180700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>162500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>165600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>158300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>237000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>255400</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2597300</v>
+        <v>2586200</v>
       </c>
       <c r="E46" s="3">
-        <v>2537800</v>
+        <v>2597100</v>
       </c>
       <c r="F46" s="3">
-        <v>2659600</v>
+        <v>2537600</v>
       </c>
       <c r="G46" s="3">
-        <v>3232000</v>
+        <v>2659400</v>
       </c>
       <c r="H46" s="3">
-        <v>3143900</v>
+        <v>3231700</v>
       </c>
       <c r="I46" s="3">
-        <v>2666400</v>
+        <v>3143700</v>
       </c>
       <c r="J46" s="3">
+        <v>2666200</v>
+      </c>
+      <c r="K46" s="3">
         <v>2731700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2884300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3010600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3182300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3154100</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6014800</v>
+        <v>5861500</v>
       </c>
       <c r="E47" s="3">
-        <v>5517600</v>
+        <v>6014300</v>
       </c>
       <c r="F47" s="3">
-        <v>5413300</v>
+        <v>5517100</v>
       </c>
       <c r="G47" s="3">
-        <v>5216500</v>
+        <v>5412800</v>
       </c>
       <c r="H47" s="3">
-        <v>5011800</v>
+        <v>5216100</v>
       </c>
       <c r="I47" s="3">
-        <v>4851900</v>
+        <v>5011400</v>
       </c>
       <c r="J47" s="3">
+        <v>4851500</v>
+      </c>
+      <c r="K47" s="3">
         <v>4539900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4484700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4281400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4318500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3772500</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8340200</v>
+        <v>8345600</v>
       </c>
       <c r="E48" s="3">
-        <v>8190800</v>
+        <v>8339600</v>
       </c>
       <c r="F48" s="3">
-        <v>7581400</v>
+        <v>8190200</v>
       </c>
       <c r="G48" s="3">
-        <v>7498100</v>
+        <v>7580800</v>
       </c>
       <c r="H48" s="3">
-        <v>7302000</v>
+        <v>7497500</v>
       </c>
       <c r="I48" s="3">
-        <v>6790000</v>
+        <v>7301400</v>
       </c>
       <c r="J48" s="3">
+        <v>6789500</v>
+      </c>
+      <c r="K48" s="3">
         <v>6443600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6338500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6136200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6059800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6448400</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>663900</v>
+      </c>
+      <c r="E49" s="3">
         <v>682700</v>
       </c>
-      <c r="E49" s="3">
-        <v>731700</v>
-      </c>
       <c r="F49" s="3">
-        <v>733200</v>
+        <v>731600</v>
       </c>
       <c r="G49" s="3">
-        <v>752400</v>
+        <v>733100</v>
       </c>
       <c r="H49" s="3">
-        <v>759200</v>
+        <v>752300</v>
       </c>
       <c r="I49" s="3">
-        <v>731000</v>
+        <v>759100</v>
       </c>
       <c r="J49" s="3">
+        <v>730900</v>
+      </c>
+      <c r="K49" s="3">
         <v>719000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>735200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>741300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>762600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>749900</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>491200</v>
+      </c>
+      <c r="E52" s="3">
         <v>489800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>469200</v>
       </c>
-      <c r="F52" s="3">
-        <v>734000</v>
-      </c>
       <c r="G52" s="3">
+        <v>733900</v>
+      </c>
+      <c r="H52" s="3">
         <v>708400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>694000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>653400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>629300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>628400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>552100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>535900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18124900</v>
+        <v>17948300</v>
       </c>
       <c r="E54" s="3">
-        <v>17447100</v>
+        <v>18123500</v>
       </c>
       <c r="F54" s="3">
-        <v>17121400</v>
+        <v>17445700</v>
       </c>
       <c r="G54" s="3">
-        <v>17407300</v>
+        <v>17120100</v>
       </c>
       <c r="H54" s="3">
-        <v>16910900</v>
+        <v>17406000</v>
       </c>
       <c r="I54" s="3">
-        <v>15692700</v>
+        <v>16909600</v>
       </c>
       <c r="J54" s="3">
+        <v>15691500</v>
+      </c>
+      <c r="K54" s="3">
         <v>15063400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15071200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14721600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14859100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14644600</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,236 +2490,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>476600</v>
+      </c>
+      <c r="E57" s="3">
         <v>509600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>514200</v>
       </c>
-      <c r="F57" s="3">
-        <v>532600</v>
-      </c>
       <c r="G57" s="3">
-        <v>444100</v>
+        <v>532500</v>
       </c>
       <c r="H57" s="3">
-        <v>531000</v>
+        <v>444000</v>
       </c>
       <c r="I57" s="3">
-        <v>437000</v>
+        <v>530900</v>
       </c>
       <c r="J57" s="3">
+        <v>436900</v>
+      </c>
+      <c r="K57" s="3">
         <v>434300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>430200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1593500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1528300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1615400</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1219700</v>
+        <v>1293200</v>
       </c>
       <c r="E58" s="3">
-        <v>1203600</v>
+        <v>1219600</v>
       </c>
       <c r="F58" s="3">
-        <v>1362600</v>
+        <v>1203500</v>
       </c>
       <c r="G58" s="3">
-        <v>2266600</v>
+        <v>1362500</v>
       </c>
       <c r="H58" s="3">
-        <v>2055700</v>
+        <v>2266400</v>
       </c>
       <c r="I58" s="3">
-        <v>1012300</v>
+        <v>2055600</v>
       </c>
       <c r="J58" s="3">
+        <v>1012200</v>
+      </c>
+      <c r="K58" s="3">
         <v>792000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>833400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1237200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1236000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>902400</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1647100</v>
+        <v>1597200</v>
       </c>
       <c r="E59" s="3">
-        <v>1479200</v>
+        <v>1647000</v>
       </c>
       <c r="F59" s="3">
         <v>1479100</v>
       </c>
       <c r="G59" s="3">
-        <v>1532200</v>
+        <v>1479000</v>
       </c>
       <c r="H59" s="3">
-        <v>1535500</v>
+        <v>1532000</v>
       </c>
       <c r="I59" s="3">
-        <v>1339700</v>
+        <v>1535400</v>
       </c>
       <c r="J59" s="3">
+        <v>1339600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1295900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1261000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>122200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>159600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3376400</v>
+        <v>3367000</v>
       </c>
       <c r="E60" s="3">
-        <v>3197000</v>
+        <v>3376100</v>
       </c>
       <c r="F60" s="3">
-        <v>3374300</v>
+        <v>3196700</v>
       </c>
       <c r="G60" s="3">
-        <v>4242900</v>
+        <v>3374000</v>
       </c>
       <c r="H60" s="3">
-        <v>4122300</v>
+        <v>4242500</v>
       </c>
       <c r="I60" s="3">
-        <v>2789000</v>
+        <v>4121900</v>
       </c>
       <c r="J60" s="3">
+        <v>2788700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2522200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2524600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2953000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2923900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2648300</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3702600</v>
+        <v>3953800</v>
       </c>
       <c r="E61" s="3">
-        <v>3582900</v>
+        <v>3702300</v>
       </c>
       <c r="F61" s="3">
-        <v>3562400</v>
+        <v>3582700</v>
       </c>
       <c r="G61" s="3">
-        <v>2918000</v>
+        <v>3562200</v>
       </c>
       <c r="H61" s="3">
-        <v>2730500</v>
+        <v>2917800</v>
       </c>
       <c r="I61" s="3">
-        <v>3470600</v>
+        <v>2730300</v>
       </c>
       <c r="J61" s="3">
+        <v>3470400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3522000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3556600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2976300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2963300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3134000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1317400</v>
+        <v>1262600</v>
       </c>
       <c r="E62" s="3">
-        <v>1216900</v>
+        <v>1317300</v>
       </c>
       <c r="F62" s="3">
-        <v>1127700</v>
+        <v>1216800</v>
       </c>
       <c r="G62" s="3">
+        <v>1127600</v>
+      </c>
+      <c r="H62" s="3">
         <v>1007500</v>
       </c>
-      <c r="H62" s="3">
-        <v>994300</v>
-      </c>
       <c r="I62" s="3">
-        <v>946700</v>
+        <v>994200</v>
       </c>
       <c r="J62" s="3">
+        <v>946600</v>
+      </c>
+      <c r="K62" s="3">
         <v>903400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>880500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>879800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>867800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>897700</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9532300</v>
+        <v>9704900</v>
       </c>
       <c r="E66" s="3">
-        <v>9040300</v>
+        <v>9531500</v>
       </c>
       <c r="F66" s="3">
-        <v>9069800</v>
+        <v>9039600</v>
       </c>
       <c r="G66" s="3">
-        <v>9164300</v>
+        <v>9069100</v>
       </c>
       <c r="H66" s="3">
-        <v>8808700</v>
+        <v>9163600</v>
       </c>
       <c r="I66" s="3">
-        <v>8090500</v>
+        <v>8808100</v>
       </c>
       <c r="J66" s="3">
+        <v>8089900</v>
+      </c>
+      <c r="K66" s="3">
         <v>7800800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7844700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7690300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7668400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7606900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7602300</v>
+        <v>7442000</v>
       </c>
       <c r="E72" s="3">
-        <v>7451500</v>
+        <v>7601700</v>
       </c>
       <c r="F72" s="3">
-        <v>7410200</v>
+        <v>7450900</v>
       </c>
       <c r="G72" s="3">
-        <v>7077400</v>
+        <v>7409700</v>
       </c>
       <c r="H72" s="3">
-        <v>6860100</v>
+        <v>7076800</v>
       </c>
       <c r="I72" s="3">
-        <v>6574800</v>
+        <v>6859600</v>
       </c>
       <c r="J72" s="3">
+        <v>6574300</v>
+      </c>
+      <c r="K72" s="3">
         <v>6380300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6185900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5906400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5746800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5544700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8592600</v>
+        <v>8243400</v>
       </c>
       <c r="E76" s="3">
-        <v>8406800</v>
+        <v>8591900</v>
       </c>
       <c r="F76" s="3">
-        <v>8051600</v>
+        <v>8406200</v>
       </c>
       <c r="G76" s="3">
-        <v>8243100</v>
+        <v>8050900</v>
       </c>
       <c r="H76" s="3">
-        <v>8102200</v>
+        <v>8242400</v>
       </c>
       <c r="I76" s="3">
-        <v>7602200</v>
+        <v>8101500</v>
       </c>
       <c r="J76" s="3">
+        <v>7601600</v>
+      </c>
+      <c r="K76" s="3">
         <v>7262600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7226400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7031300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7190700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7037700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>344100</v>
+      </c>
+      <c r="E81" s="3">
         <v>396900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>501800</v>
       </c>
-      <c r="F81" s="3">
-        <v>583700</v>
-      </c>
       <c r="G81" s="3">
-        <v>618000</v>
+        <v>583600</v>
       </c>
       <c r="H81" s="3">
+        <v>617900</v>
+      </c>
+      <c r="I81" s="3">
         <v>484300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>577000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>388400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>557800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>395500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>534700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,8 +3431,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3271,8 +3470,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>560000</v>
+      </c>
+      <c r="E89" s="3">
         <v>649800</v>
       </c>
-      <c r="E89" s="3">
-        <v>629200</v>
-      </c>
       <c r="F89" s="3">
-        <v>571400</v>
+        <v>629100</v>
       </c>
       <c r="G89" s="3">
+        <v>571300</v>
+      </c>
+      <c r="H89" s="3">
         <v>646500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>533100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>566800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>528000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>563700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>529900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>524500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>532200</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,46 +3735,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-345500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-466500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-404600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-430100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-417200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-456300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-318400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-441200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-339700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-419600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-348400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-489100</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-332100</v>
+        <v>-275600</v>
       </c>
       <c r="E94" s="3">
+        <v>-332000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-351900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-128000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-359300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-150800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-64700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-821400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-423300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-180400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-210000</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,46 +3916,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-262100</v>
+        <v>-502200</v>
       </c>
       <c r="E96" s="3">
+        <v>-262000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-456600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-238200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-415100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-216600</v>
       </c>
-      <c r="I96" s="3">
-        <v>-377400</v>
-      </c>
       <c r="J96" s="3">
+        <v>-377300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-196900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-342500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-176800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-308000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-161500</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,118 +4078,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-211700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-229700</v>
       </c>
-      <c r="E100" s="3">
-        <v>-443100</v>
-      </c>
       <c r="F100" s="3">
-        <v>-854900</v>
+        <v>-443000</v>
       </c>
       <c r="G100" s="3">
+        <v>-854800</v>
+      </c>
+      <c r="H100" s="3">
         <v>-150000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-134500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-425400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-376100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-355200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-305700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-234700</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-13900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>13000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>8700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-16600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-33400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E102" s="3">
         <v>82200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-166300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-425400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>134100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>260700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>85400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>123600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-619200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-232600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>146000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>87700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
@@ -736,25 +736,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2352700</v>
+        <v>2347400</v>
       </c>
       <c r="E8" s="3">
-        <v>2616000</v>
+        <v>2610200</v>
       </c>
       <c r="F8" s="3">
-        <v>2625800</v>
+        <v>2619900</v>
       </c>
       <c r="G8" s="3">
-        <v>2558600</v>
+        <v>2552900</v>
       </c>
       <c r="H8" s="3">
-        <v>2482600</v>
+        <v>2477000</v>
       </c>
       <c r="I8" s="3">
-        <v>2199200</v>
+        <v>2194300</v>
       </c>
       <c r="J8" s="3">
-        <v>1990900</v>
+        <v>1986400</v>
       </c>
       <c r="K8" s="3">
         <v>1857300</v>
@@ -777,25 +777,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1213400</v>
+        <v>1210700</v>
       </c>
       <c r="E9" s="3">
-        <v>1383800</v>
+        <v>1380700</v>
       </c>
       <c r="F9" s="3">
-        <v>1429400</v>
+        <v>1426100</v>
       </c>
       <c r="G9" s="3">
-        <v>1359800</v>
+        <v>1356700</v>
       </c>
       <c r="H9" s="3">
-        <v>1297700</v>
+        <v>1294800</v>
       </c>
       <c r="I9" s="3">
-        <v>1093500</v>
+        <v>1091100</v>
       </c>
       <c r="J9" s="3">
-        <v>931000</v>
+        <v>928900</v>
       </c>
       <c r="K9" s="3">
         <v>839400</v>
@@ -818,25 +818,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1139300</v>
+        <v>1136800</v>
       </c>
       <c r="E10" s="3">
-        <v>1232300</v>
+        <v>1229500</v>
       </c>
       <c r="F10" s="3">
-        <v>1196400</v>
+        <v>1193800</v>
       </c>
       <c r="G10" s="3">
-        <v>1198900</v>
+        <v>1196200</v>
       </c>
       <c r="H10" s="3">
-        <v>1184800</v>
+        <v>1182100</v>
       </c>
       <c r="I10" s="3">
-        <v>1105700</v>
+        <v>1103200</v>
       </c>
       <c r="J10" s="3">
-        <v>1059900</v>
+        <v>1057500</v>
       </c>
       <c r="K10" s="3">
         <v>1018000</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-30100</v>
+        <v>-30000</v>
       </c>
       <c r="J14" s="3">
         <v>-5700</v>
@@ -999,25 +999,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>181700</v>
+        <v>181300</v>
       </c>
       <c r="E15" s="3">
-        <v>182200</v>
+        <v>181800</v>
       </c>
       <c r="F15" s="3">
-        <v>173000</v>
+        <v>172700</v>
       </c>
       <c r="G15" s="3">
-        <v>167100</v>
+        <v>166700</v>
       </c>
       <c r="H15" s="3">
-        <v>160300</v>
+        <v>159900</v>
       </c>
       <c r="I15" s="3">
-        <v>156300</v>
+        <v>155900</v>
       </c>
       <c r="J15" s="3">
-        <v>150100</v>
+        <v>149800</v>
       </c>
       <c r="K15" s="3">
         <v>145100</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1894700</v>
+        <v>1890500</v>
       </c>
       <c r="E17" s="3">
-        <v>1999300</v>
+        <v>1994800</v>
       </c>
       <c r="F17" s="3">
-        <v>2072000</v>
+        <v>2067400</v>
       </c>
       <c r="G17" s="3">
-        <v>2057500</v>
+        <v>2052800</v>
       </c>
       <c r="H17" s="3">
-        <v>1899500</v>
+        <v>1895300</v>
       </c>
       <c r="I17" s="3">
-        <v>1683600</v>
+        <v>1679800</v>
       </c>
       <c r="J17" s="3">
-        <v>1440700</v>
+        <v>1437400</v>
       </c>
       <c r="K17" s="3">
         <v>1455400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>458000</v>
+        <v>457000</v>
       </c>
       <c r="E18" s="3">
-        <v>616700</v>
+        <v>615300</v>
       </c>
       <c r="F18" s="3">
-        <v>553800</v>
+        <v>552500</v>
       </c>
       <c r="G18" s="3">
-        <v>501200</v>
+        <v>500100</v>
       </c>
       <c r="H18" s="3">
-        <v>583000</v>
+        <v>581700</v>
       </c>
       <c r="I18" s="3">
-        <v>515700</v>
+        <v>514500</v>
       </c>
       <c r="J18" s="3">
-        <v>550200</v>
+        <v>549000</v>
       </c>
       <c r="K18" s="3">
         <v>402000</v>
@@ -1153,25 +1153,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>123200</v>
+        <v>122900</v>
       </c>
       <c r="E20" s="3">
-        <v>104500</v>
+        <v>104200</v>
       </c>
       <c r="F20" s="3">
-        <v>226100</v>
+        <v>225500</v>
       </c>
       <c r="G20" s="3">
-        <v>342500</v>
+        <v>341700</v>
       </c>
       <c r="H20" s="3">
-        <v>317200</v>
+        <v>316500</v>
       </c>
       <c r="I20" s="3">
-        <v>250500</v>
+        <v>249900</v>
       </c>
       <c r="J20" s="3">
-        <v>277500</v>
+        <v>276900</v>
       </c>
       <c r="K20" s="3">
         <v>227000</v>
@@ -1194,25 +1194,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>762900</v>
+        <v>761200</v>
       </c>
       <c r="E21" s="3">
-        <v>731700</v>
+        <v>730100</v>
       </c>
       <c r="F21" s="3">
-        <v>952900</v>
+        <v>950700</v>
       </c>
       <c r="G21" s="3">
-        <v>850500</v>
+        <v>848500</v>
       </c>
       <c r="H21" s="3">
-        <v>1060500</v>
+        <v>1058100</v>
       </c>
       <c r="I21" s="3">
-        <v>772300</v>
+        <v>770500</v>
       </c>
       <c r="J21" s="3">
-        <v>977900</v>
+        <v>975700</v>
       </c>
       <c r="K21" s="3">
         <v>632300</v>
@@ -1235,25 +1235,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>78700</v>
+        <v>78500</v>
       </c>
       <c r="E22" s="3">
-        <v>86600</v>
+        <v>86400</v>
       </c>
       <c r="F22" s="3">
-        <v>72200</v>
+        <v>72000</v>
       </c>
       <c r="G22" s="3">
-        <v>73200</v>
+        <v>73000</v>
       </c>
       <c r="H22" s="3">
-        <v>78600</v>
+        <v>78400</v>
       </c>
       <c r="I22" s="3">
-        <v>82800</v>
+        <v>82600</v>
       </c>
       <c r="J22" s="3">
-        <v>79400</v>
+        <v>79200</v>
       </c>
       <c r="K22" s="3">
         <v>81400</v>
@@ -1276,25 +1276,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>502500</v>
+        <v>501400</v>
       </c>
       <c r="E23" s="3">
-        <v>634600</v>
+        <v>633200</v>
       </c>
       <c r="F23" s="3">
-        <v>707700</v>
+        <v>706100</v>
       </c>
       <c r="G23" s="3">
-        <v>770500</v>
+        <v>768800</v>
       </c>
       <c r="H23" s="3">
-        <v>821500</v>
+        <v>819700</v>
       </c>
       <c r="I23" s="3">
-        <v>683300</v>
+        <v>681800</v>
       </c>
       <c r="J23" s="3">
-        <v>748400</v>
+        <v>746700</v>
       </c>
       <c r="K23" s="3">
         <v>547600</v>
@@ -1317,25 +1317,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>91200</v>
+        <v>90900</v>
       </c>
       <c r="E24" s="3">
-        <v>166400</v>
+        <v>166100</v>
       </c>
       <c r="F24" s="3">
-        <v>129000</v>
+        <v>128700</v>
       </c>
       <c r="G24" s="3">
-        <v>117600</v>
+        <v>117300</v>
       </c>
       <c r="H24" s="3">
-        <v>128600</v>
+        <v>128300</v>
       </c>
       <c r="I24" s="3">
-        <v>120900</v>
+        <v>120600</v>
       </c>
       <c r="J24" s="3">
-        <v>104900</v>
+        <v>104700</v>
       </c>
       <c r="K24" s="3">
         <v>103900</v>
@@ -1399,25 +1399,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>411300</v>
+        <v>410400</v>
       </c>
       <c r="E26" s="3">
-        <v>468200</v>
+        <v>467100</v>
       </c>
       <c r="F26" s="3">
-        <v>578700</v>
+        <v>577400</v>
       </c>
       <c r="G26" s="3">
-        <v>652900</v>
+        <v>651500</v>
       </c>
       <c r="H26" s="3">
-        <v>693000</v>
+        <v>691400</v>
       </c>
       <c r="I26" s="3">
-        <v>562500</v>
+        <v>561200</v>
       </c>
       <c r="J26" s="3">
-        <v>643500</v>
+        <v>642000</v>
       </c>
       <c r="K26" s="3">
         <v>443700</v>
@@ -1440,25 +1440,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>344100</v>
+        <v>343300</v>
       </c>
       <c r="E27" s="3">
-        <v>396900</v>
+        <v>396000</v>
       </c>
       <c r="F27" s="3">
-        <v>501800</v>
+        <v>500700</v>
       </c>
       <c r="G27" s="3">
-        <v>583600</v>
+        <v>582300</v>
       </c>
       <c r="H27" s="3">
-        <v>617900</v>
+        <v>616500</v>
       </c>
       <c r="I27" s="3">
-        <v>484300</v>
+        <v>483200</v>
       </c>
       <c r="J27" s="3">
-        <v>577000</v>
+        <v>575700</v>
       </c>
       <c r="K27" s="3">
         <v>388400</v>
@@ -1645,25 +1645,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-123200</v>
+        <v>-122900</v>
       </c>
       <c r="E32" s="3">
-        <v>-104500</v>
+        <v>-104200</v>
       </c>
       <c r="F32" s="3">
-        <v>-226100</v>
+        <v>-225500</v>
       </c>
       <c r="G32" s="3">
-        <v>-342500</v>
+        <v>-341700</v>
       </c>
       <c r="H32" s="3">
-        <v>-317200</v>
+        <v>-316500</v>
       </c>
       <c r="I32" s="3">
-        <v>-250500</v>
+        <v>-249900</v>
       </c>
       <c r="J32" s="3">
-        <v>-277500</v>
+        <v>-276900</v>
       </c>
       <c r="K32" s="3">
         <v>-227000</v>
@@ -1686,25 +1686,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>344100</v>
+        <v>343300</v>
       </c>
       <c r="E33" s="3">
-        <v>396900</v>
+        <v>396000</v>
       </c>
       <c r="F33" s="3">
-        <v>501800</v>
+        <v>500700</v>
       </c>
       <c r="G33" s="3">
-        <v>583600</v>
+        <v>582300</v>
       </c>
       <c r="H33" s="3">
-        <v>617900</v>
+        <v>616500</v>
       </c>
       <c r="I33" s="3">
-        <v>484300</v>
+        <v>483200</v>
       </c>
       <c r="J33" s="3">
-        <v>577000</v>
+        <v>575700</v>
       </c>
       <c r="K33" s="3">
         <v>388400</v>
@@ -1768,25 +1768,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>344100</v>
+        <v>343300</v>
       </c>
       <c r="E35" s="3">
-        <v>396900</v>
+        <v>396000</v>
       </c>
       <c r="F35" s="3">
-        <v>501800</v>
+        <v>500700</v>
       </c>
       <c r="G35" s="3">
-        <v>583600</v>
+        <v>582300</v>
       </c>
       <c r="H35" s="3">
-        <v>617900</v>
+        <v>616500</v>
       </c>
       <c r="I35" s="3">
-        <v>484300</v>
+        <v>483200</v>
       </c>
       <c r="J35" s="3">
-        <v>577000</v>
+        <v>575700</v>
       </c>
       <c r="K35" s="3">
         <v>388400</v>
@@ -1889,25 +1889,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1076900</v>
+        <v>1074500</v>
       </c>
       <c r="E41" s="3">
-        <v>1012700</v>
+        <v>1010400</v>
       </c>
       <c r="F41" s="3">
-        <v>930500</v>
+        <v>928400</v>
       </c>
       <c r="G41" s="3">
-        <v>1096800</v>
+        <v>1094300</v>
       </c>
       <c r="H41" s="3">
-        <v>1522100</v>
+        <v>1518700</v>
       </c>
       <c r="I41" s="3">
-        <v>1388100</v>
+        <v>1385000</v>
       </c>
       <c r="J41" s="3">
-        <v>1127400</v>
+        <v>1124800</v>
       </c>
       <c r="K41" s="3">
         <v>1042100</v>
@@ -1930,25 +1930,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38700</v>
+        <v>38600</v>
       </c>
       <c r="E42" s="3">
-        <v>45000</v>
+        <v>44900</v>
       </c>
       <c r="F42" s="3">
-        <v>89900</v>
+        <v>89700</v>
       </c>
       <c r="G42" s="3">
-        <v>87800</v>
+        <v>87600</v>
       </c>
       <c r="H42" s="3">
-        <v>220500</v>
+        <v>220000</v>
       </c>
       <c r="I42" s="3">
-        <v>288100</v>
+        <v>287400</v>
       </c>
       <c r="J42" s="3">
-        <v>247100</v>
+        <v>246600</v>
       </c>
       <c r="K42" s="3">
         <v>456200</v>
@@ -1971,25 +1971,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>961100</v>
+        <v>958900</v>
       </c>
       <c r="E43" s="3">
-        <v>1010500</v>
+        <v>1008300</v>
       </c>
       <c r="F43" s="3">
-        <v>1014900</v>
+        <v>1012600</v>
       </c>
       <c r="G43" s="3">
-        <v>950700</v>
+        <v>948600</v>
       </c>
       <c r="H43" s="3">
-        <v>984800</v>
+        <v>982500</v>
       </c>
       <c r="I43" s="3">
-        <v>920800</v>
+        <v>918800</v>
       </c>
       <c r="J43" s="3">
-        <v>821200</v>
+        <v>819300</v>
       </c>
       <c r="K43" s="3">
         <v>798600</v>
@@ -2012,25 +2012,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>306100</v>
+        <v>305500</v>
       </c>
       <c r="E44" s="3">
-        <v>305000</v>
+        <v>304300</v>
       </c>
       <c r="F44" s="3">
-        <v>311600</v>
+        <v>310900</v>
       </c>
       <c r="G44" s="3">
-        <v>320100</v>
+        <v>319300</v>
       </c>
       <c r="H44" s="3">
-        <v>309900</v>
+        <v>309200</v>
       </c>
       <c r="I44" s="3">
-        <v>332700</v>
+        <v>331900</v>
       </c>
       <c r="J44" s="3">
-        <v>289800</v>
+        <v>289200</v>
       </c>
       <c r="K44" s="3">
         <v>272300</v>
@@ -2053,25 +2053,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>203300</v>
+        <v>202900</v>
       </c>
       <c r="E45" s="3">
-        <v>224000</v>
+        <v>223500</v>
       </c>
       <c r="F45" s="3">
-        <v>190800</v>
+        <v>190400</v>
       </c>
       <c r="G45" s="3">
-        <v>204000</v>
+        <v>203600</v>
       </c>
       <c r="H45" s="3">
-        <v>194500</v>
+        <v>194000</v>
       </c>
       <c r="I45" s="3">
-        <v>214000</v>
+        <v>213600</v>
       </c>
       <c r="J45" s="3">
-        <v>180700</v>
+        <v>180300</v>
       </c>
       <c r="K45" s="3">
         <v>162500</v>
@@ -2094,25 +2094,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2586200</v>
+        <v>2580400</v>
       </c>
       <c r="E46" s="3">
-        <v>2597100</v>
+        <v>2591300</v>
       </c>
       <c r="F46" s="3">
-        <v>2537600</v>
+        <v>2531900</v>
       </c>
       <c r="G46" s="3">
-        <v>2659400</v>
+        <v>2653400</v>
       </c>
       <c r="H46" s="3">
-        <v>3231700</v>
+        <v>3224500</v>
       </c>
       <c r="I46" s="3">
-        <v>3143700</v>
+        <v>3136600</v>
       </c>
       <c r="J46" s="3">
-        <v>2666200</v>
+        <v>2660200</v>
       </c>
       <c r="K46" s="3">
         <v>2731700</v>
@@ -2135,25 +2135,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5861500</v>
+        <v>5848300</v>
       </c>
       <c r="E47" s="3">
-        <v>6014300</v>
+        <v>6000800</v>
       </c>
       <c r="F47" s="3">
-        <v>5517100</v>
+        <v>5504700</v>
       </c>
       <c r="G47" s="3">
-        <v>5412800</v>
+        <v>5400700</v>
       </c>
       <c r="H47" s="3">
-        <v>5216100</v>
+        <v>5204300</v>
       </c>
       <c r="I47" s="3">
-        <v>5011400</v>
+        <v>5000200</v>
       </c>
       <c r="J47" s="3">
-        <v>4851500</v>
+        <v>4840600</v>
       </c>
       <c r="K47" s="3">
         <v>4539900</v>
@@ -2176,25 +2176,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8345600</v>
+        <v>8326800</v>
       </c>
       <c r="E48" s="3">
-        <v>8339600</v>
+        <v>8320800</v>
       </c>
       <c r="F48" s="3">
-        <v>8190200</v>
+        <v>8171800</v>
       </c>
       <c r="G48" s="3">
-        <v>7580800</v>
+        <v>7563800</v>
       </c>
       <c r="H48" s="3">
-        <v>7497500</v>
+        <v>7480700</v>
       </c>
       <c r="I48" s="3">
-        <v>7301400</v>
+        <v>7285000</v>
       </c>
       <c r="J48" s="3">
-        <v>6789500</v>
+        <v>6774200</v>
       </c>
       <c r="K48" s="3">
         <v>6443600</v>
@@ -2217,25 +2217,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>663900</v>
+        <v>662400</v>
       </c>
       <c r="E49" s="3">
-        <v>682700</v>
+        <v>681100</v>
       </c>
       <c r="F49" s="3">
-        <v>731600</v>
+        <v>730000</v>
       </c>
       <c r="G49" s="3">
-        <v>733100</v>
+        <v>731500</v>
       </c>
       <c r="H49" s="3">
-        <v>752300</v>
+        <v>750600</v>
       </c>
       <c r="I49" s="3">
-        <v>759100</v>
+        <v>757400</v>
       </c>
       <c r="J49" s="3">
-        <v>730900</v>
+        <v>729300</v>
       </c>
       <c r="K49" s="3">
         <v>719000</v>
@@ -2340,25 +2340,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>491200</v>
+        <v>490000</v>
       </c>
       <c r="E52" s="3">
-        <v>489800</v>
+        <v>488700</v>
       </c>
       <c r="F52" s="3">
-        <v>469200</v>
+        <v>468100</v>
       </c>
       <c r="G52" s="3">
-        <v>733900</v>
+        <v>732300</v>
       </c>
       <c r="H52" s="3">
-        <v>708400</v>
+        <v>706800</v>
       </c>
       <c r="I52" s="3">
-        <v>694000</v>
+        <v>692400</v>
       </c>
       <c r="J52" s="3">
-        <v>653400</v>
+        <v>651900</v>
       </c>
       <c r="K52" s="3">
         <v>629300</v>
@@ -2422,25 +2422,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17948300</v>
+        <v>17908000</v>
       </c>
       <c r="E54" s="3">
-        <v>18123500</v>
+        <v>18082700</v>
       </c>
       <c r="F54" s="3">
-        <v>17445700</v>
+        <v>17406500</v>
       </c>
       <c r="G54" s="3">
-        <v>17120100</v>
+        <v>17081600</v>
       </c>
       <c r="H54" s="3">
-        <v>17406000</v>
+        <v>17366900</v>
       </c>
       <c r="I54" s="3">
-        <v>16909600</v>
+        <v>16871600</v>
       </c>
       <c r="J54" s="3">
-        <v>15691500</v>
+        <v>15656200</v>
       </c>
       <c r="K54" s="3">
         <v>15063400</v>
@@ -2497,25 +2497,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>476600</v>
+        <v>475600</v>
       </c>
       <c r="E57" s="3">
-        <v>509600</v>
+        <v>508400</v>
       </c>
       <c r="F57" s="3">
-        <v>514200</v>
+        <v>513000</v>
       </c>
       <c r="G57" s="3">
-        <v>532500</v>
+        <v>531300</v>
       </c>
       <c r="H57" s="3">
-        <v>444000</v>
+        <v>443000</v>
       </c>
       <c r="I57" s="3">
-        <v>530900</v>
+        <v>529700</v>
       </c>
       <c r="J57" s="3">
-        <v>436900</v>
+        <v>435900</v>
       </c>
       <c r="K57" s="3">
         <v>434300</v>
@@ -2538,25 +2538,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1293200</v>
+        <v>1290300</v>
       </c>
       <c r="E58" s="3">
-        <v>1219600</v>
+        <v>1216800</v>
       </c>
       <c r="F58" s="3">
-        <v>1203500</v>
+        <v>1200800</v>
       </c>
       <c r="G58" s="3">
-        <v>1362500</v>
+        <v>1359400</v>
       </c>
       <c r="H58" s="3">
-        <v>2266400</v>
+        <v>2261300</v>
       </c>
       <c r="I58" s="3">
-        <v>2055600</v>
+        <v>2051000</v>
       </c>
       <c r="J58" s="3">
-        <v>1012200</v>
+        <v>1010000</v>
       </c>
       <c r="K58" s="3">
         <v>792000</v>
@@ -2579,25 +2579,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1597200</v>
+        <v>1593600</v>
       </c>
       <c r="E59" s="3">
-        <v>1647000</v>
+        <v>1643300</v>
       </c>
       <c r="F59" s="3">
-        <v>1479100</v>
+        <v>1475800</v>
       </c>
       <c r="G59" s="3">
-        <v>1479000</v>
+        <v>1475600</v>
       </c>
       <c r="H59" s="3">
+        <v>1528600</v>
+      </c>
+      <c r="I59" s="3">
         <v>1532000</v>
       </c>
-      <c r="I59" s="3">
-        <v>1535400</v>
-      </c>
       <c r="J59" s="3">
-        <v>1339600</v>
+        <v>1336600</v>
       </c>
       <c r="K59" s="3">
         <v>1295900</v>
@@ -2620,25 +2620,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3367000</v>
+        <v>3359400</v>
       </c>
       <c r="E60" s="3">
-        <v>3376100</v>
+        <v>3368500</v>
       </c>
       <c r="F60" s="3">
-        <v>3196700</v>
+        <v>3189600</v>
       </c>
       <c r="G60" s="3">
-        <v>3374000</v>
+        <v>3366400</v>
       </c>
       <c r="H60" s="3">
-        <v>4242500</v>
+        <v>4233000</v>
       </c>
       <c r="I60" s="3">
-        <v>4121900</v>
+        <v>4112700</v>
       </c>
       <c r="J60" s="3">
-        <v>2788700</v>
+        <v>2782500</v>
       </c>
       <c r="K60" s="3">
         <v>2522200</v>
@@ -2661,25 +2661,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3953800</v>
+        <v>3944900</v>
       </c>
       <c r="E61" s="3">
-        <v>3702300</v>
+        <v>3694000</v>
       </c>
       <c r="F61" s="3">
-        <v>3582700</v>
+        <v>3574600</v>
       </c>
       <c r="G61" s="3">
-        <v>3562200</v>
+        <v>3554100</v>
       </c>
       <c r="H61" s="3">
-        <v>2917800</v>
+        <v>2911200</v>
       </c>
       <c r="I61" s="3">
-        <v>2730300</v>
+        <v>2724200</v>
       </c>
       <c r="J61" s="3">
-        <v>3470400</v>
+        <v>3462600</v>
       </c>
       <c r="K61" s="3">
         <v>3522000</v>
@@ -2702,25 +2702,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1262600</v>
+        <v>1259700</v>
       </c>
       <c r="E62" s="3">
-        <v>1317300</v>
+        <v>1314400</v>
       </c>
       <c r="F62" s="3">
-        <v>1216800</v>
+        <v>1214100</v>
       </c>
       <c r="G62" s="3">
-        <v>1127600</v>
+        <v>1125000</v>
       </c>
       <c r="H62" s="3">
-        <v>1007500</v>
+        <v>1005200</v>
       </c>
       <c r="I62" s="3">
-        <v>994200</v>
+        <v>992000</v>
       </c>
       <c r="J62" s="3">
-        <v>946600</v>
+        <v>944500</v>
       </c>
       <c r="K62" s="3">
         <v>903400</v>
@@ -2866,25 +2866,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9704900</v>
+        <v>9683100</v>
       </c>
       <c r="E66" s="3">
-        <v>9531500</v>
+        <v>9510100</v>
       </c>
       <c r="F66" s="3">
-        <v>9039600</v>
+        <v>9019200</v>
       </c>
       <c r="G66" s="3">
-        <v>9069100</v>
+        <v>9048700</v>
       </c>
       <c r="H66" s="3">
-        <v>9163600</v>
+        <v>9143000</v>
       </c>
       <c r="I66" s="3">
-        <v>8808100</v>
+        <v>8788300</v>
       </c>
       <c r="J66" s="3">
-        <v>8089900</v>
+        <v>8071700</v>
       </c>
       <c r="K66" s="3">
         <v>7800800</v>
@@ -3088,25 +3088,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7442000</v>
+        <v>7425200</v>
       </c>
       <c r="E72" s="3">
-        <v>7601700</v>
+        <v>7584600</v>
       </c>
       <c r="F72" s="3">
-        <v>7450900</v>
+        <v>7434200</v>
       </c>
       <c r="G72" s="3">
-        <v>7409700</v>
+        <v>7393000</v>
       </c>
       <c r="H72" s="3">
-        <v>7076800</v>
+        <v>7060900</v>
       </c>
       <c r="I72" s="3">
-        <v>6859600</v>
+        <v>6844200</v>
       </c>
       <c r="J72" s="3">
-        <v>6574300</v>
+        <v>6559500</v>
       </c>
       <c r="K72" s="3">
         <v>6380300</v>
@@ -3252,25 +3252,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8243400</v>
+        <v>8224900</v>
       </c>
       <c r="E76" s="3">
-        <v>8591900</v>
+        <v>8572600</v>
       </c>
       <c r="F76" s="3">
-        <v>8406200</v>
+        <v>8387300</v>
       </c>
       <c r="G76" s="3">
-        <v>8050900</v>
+        <v>8032800</v>
       </c>
       <c r="H76" s="3">
-        <v>8242400</v>
+        <v>8223900</v>
       </c>
       <c r="I76" s="3">
-        <v>8101500</v>
+        <v>8083300</v>
       </c>
       <c r="J76" s="3">
-        <v>7601600</v>
+        <v>7584500</v>
       </c>
       <c r="K76" s="3">
         <v>7262600</v>
@@ -3380,25 +3380,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>344100</v>
+        <v>343300</v>
       </c>
       <c r="E81" s="3">
-        <v>396900</v>
+        <v>396000</v>
       </c>
       <c r="F81" s="3">
-        <v>501800</v>
+        <v>500700</v>
       </c>
       <c r="G81" s="3">
-        <v>583600</v>
+        <v>582300</v>
       </c>
       <c r="H81" s="3">
-        <v>617900</v>
+        <v>616500</v>
       </c>
       <c r="I81" s="3">
-        <v>484300</v>
+        <v>483200</v>
       </c>
       <c r="J81" s="3">
-        <v>577000</v>
+        <v>575700</v>
       </c>
       <c r="K81" s="3">
         <v>388400</v>
@@ -3684,25 +3684,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>560000</v>
+        <v>558700</v>
       </c>
       <c r="E89" s="3">
-        <v>649800</v>
+        <v>648300</v>
       </c>
       <c r="F89" s="3">
-        <v>629100</v>
+        <v>627700</v>
       </c>
       <c r="G89" s="3">
-        <v>571300</v>
+        <v>570100</v>
       </c>
       <c r="H89" s="3">
-        <v>646500</v>
+        <v>645000</v>
       </c>
       <c r="I89" s="3">
-        <v>533100</v>
+        <v>531900</v>
       </c>
       <c r="J89" s="3">
-        <v>566800</v>
+        <v>565500</v>
       </c>
       <c r="K89" s="3">
         <v>528000</v>
@@ -3742,25 +3742,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-345500</v>
+        <v>-344700</v>
       </c>
       <c r="E91" s="3">
-        <v>-466500</v>
+        <v>-465400</v>
       </c>
       <c r="F91" s="3">
-        <v>-404600</v>
+        <v>-403700</v>
       </c>
       <c r="G91" s="3">
-        <v>-430100</v>
+        <v>-429100</v>
       </c>
       <c r="H91" s="3">
-        <v>-417200</v>
+        <v>-416200</v>
       </c>
       <c r="I91" s="3">
-        <v>-456300</v>
+        <v>-455300</v>
       </c>
       <c r="J91" s="3">
-        <v>-318400</v>
+        <v>-317700</v>
       </c>
       <c r="K91" s="3">
         <v>-441200</v>
@@ -3865,25 +3865,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-275600</v>
+        <v>-275000</v>
       </c>
       <c r="E94" s="3">
-        <v>-332000</v>
+        <v>-331300</v>
       </c>
       <c r="F94" s="3">
-        <v>-351900</v>
+        <v>-351100</v>
       </c>
       <c r="G94" s="3">
-        <v>-128000</v>
+        <v>-127700</v>
       </c>
       <c r="H94" s="3">
-        <v>-359300</v>
+        <v>-358500</v>
       </c>
       <c r="I94" s="3">
-        <v>-150800</v>
+        <v>-150500</v>
       </c>
       <c r="J94" s="3">
-        <v>-64700</v>
+        <v>-64600</v>
       </c>
       <c r="K94" s="3">
         <v>-11600</v>
@@ -3923,25 +3923,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-502200</v>
+        <v>-501100</v>
       </c>
       <c r="E96" s="3">
-        <v>-262000</v>
+        <v>-261500</v>
       </c>
       <c r="F96" s="3">
-        <v>-456600</v>
+        <v>-455600</v>
       </c>
       <c r="G96" s="3">
-        <v>-238200</v>
+        <v>-237700</v>
       </c>
       <c r="H96" s="3">
-        <v>-415100</v>
+        <v>-414200</v>
       </c>
       <c r="I96" s="3">
-        <v>-216600</v>
+        <v>-216100</v>
       </c>
       <c r="J96" s="3">
-        <v>-377300</v>
+        <v>-376500</v>
       </c>
       <c r="K96" s="3">
         <v>-196900</v>
@@ -4087,25 +4087,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-211700</v>
+        <v>-211200</v>
       </c>
       <c r="E100" s="3">
-        <v>-229700</v>
+        <v>-229100</v>
       </c>
       <c r="F100" s="3">
-        <v>-443000</v>
+        <v>-442000</v>
       </c>
       <c r="G100" s="3">
-        <v>-854800</v>
+        <v>-852900</v>
       </c>
       <c r="H100" s="3">
-        <v>-150000</v>
+        <v>-149700</v>
       </c>
       <c r="I100" s="3">
-        <v>-134500</v>
+        <v>-134200</v>
       </c>
       <c r="J100" s="3">
-        <v>-425400</v>
+        <v>-424400</v>
       </c>
       <c r="K100" s="3">
         <v>-376100</v>
@@ -4143,7 +4143,7 @@
         <v>-3100</v>
       </c>
       <c r="I101" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="J101" s="3">
         <v>8700</v>
@@ -4169,25 +4169,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>64300</v>
+        <v>64100</v>
       </c>
       <c r="E102" s="3">
-        <v>82200</v>
+        <v>82000</v>
       </c>
       <c r="F102" s="3">
-        <v>-166300</v>
+        <v>-165900</v>
       </c>
       <c r="G102" s="3">
-        <v>-425400</v>
+        <v>-424400</v>
       </c>
       <c r="H102" s="3">
-        <v>134100</v>
+        <v>133800</v>
       </c>
       <c r="I102" s="3">
-        <v>260700</v>
+        <v>260100</v>
       </c>
       <c r="J102" s="3">
-        <v>85400</v>
+        <v>85200</v>
       </c>
       <c r="K102" s="3">
         <v>123600</v>

--- a/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>HOKCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2347400</v>
+        <v>2923400</v>
       </c>
       <c r="E8" s="3">
-        <v>2610200</v>
+        <v>2349300</v>
       </c>
       <c r="F8" s="3">
-        <v>2619900</v>
+        <v>2612200</v>
       </c>
       <c r="G8" s="3">
-        <v>2552900</v>
+        <v>2621900</v>
       </c>
       <c r="H8" s="3">
-        <v>2477000</v>
+        <v>2554900</v>
       </c>
       <c r="I8" s="3">
-        <v>2194300</v>
+        <v>2478900</v>
       </c>
       <c r="J8" s="3">
+        <v>2196000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1986400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1857300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1824000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1848200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1921400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2023300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1210700</v>
+        <v>1620900</v>
       </c>
       <c r="E9" s="3">
-        <v>1380700</v>
+        <v>1211600</v>
       </c>
       <c r="F9" s="3">
-        <v>1426100</v>
+        <v>1381700</v>
       </c>
       <c r="G9" s="3">
-        <v>1356700</v>
+        <v>1427300</v>
       </c>
       <c r="H9" s="3">
-        <v>1294800</v>
+        <v>1357800</v>
       </c>
       <c r="I9" s="3">
-        <v>1091100</v>
+        <v>1295800</v>
       </c>
       <c r="J9" s="3">
+        <v>1091900</v>
+      </c>
+      <c r="K9" s="3">
         <v>928900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>839400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>799000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>853600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>942300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1030700</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1136800</v>
+        <v>1302400</v>
       </c>
       <c r="E10" s="3">
-        <v>1229500</v>
+        <v>1137700</v>
       </c>
       <c r="F10" s="3">
-        <v>1193800</v>
+        <v>1230500</v>
       </c>
       <c r="G10" s="3">
-        <v>1196200</v>
+        <v>1194700</v>
       </c>
       <c r="H10" s="3">
-        <v>1182100</v>
+        <v>1197100</v>
       </c>
       <c r="I10" s="3">
-        <v>1103200</v>
+        <v>1183100</v>
       </c>
       <c r="J10" s="3">
+        <v>1104100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1057500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1018000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1024900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>994600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>979100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>992600</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -884,35 +898,38 @@
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
         <v>3000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -952,8 +969,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,76 +986,82 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-30000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-5700</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>-3900</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>181300</v>
+        <v>197400</v>
       </c>
       <c r="E15" s="3">
-        <v>181800</v>
+        <v>181400</v>
       </c>
       <c r="F15" s="3">
-        <v>172700</v>
+        <v>181900</v>
       </c>
       <c r="G15" s="3">
-        <v>166700</v>
+        <v>172800</v>
       </c>
       <c r="H15" s="3">
-        <v>159900</v>
+        <v>166800</v>
       </c>
       <c r="I15" s="3">
-        <v>155900</v>
+        <v>160000</v>
       </c>
       <c r="J15" s="3">
+        <v>156000</v>
+      </c>
+      <c r="K15" s="3">
         <v>149800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>145100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>141500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>134100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>130300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1890500</v>
+        <v>2360600</v>
       </c>
       <c r="E17" s="3">
-        <v>1994800</v>
+        <v>1891900</v>
       </c>
       <c r="F17" s="3">
-        <v>2067400</v>
+        <v>1996400</v>
       </c>
       <c r="G17" s="3">
-        <v>2052800</v>
+        <v>2069000</v>
       </c>
       <c r="H17" s="3">
-        <v>1895300</v>
+        <v>2054400</v>
       </c>
       <c r="I17" s="3">
-        <v>1679800</v>
+        <v>1896800</v>
       </c>
       <c r="J17" s="3">
+        <v>1681100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1437400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1455400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1305600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1505200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1361200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1543600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>457000</v>
+        <v>562800</v>
       </c>
       <c r="E18" s="3">
-        <v>615300</v>
+        <v>457300</v>
       </c>
       <c r="F18" s="3">
-        <v>552500</v>
+        <v>615800</v>
       </c>
       <c r="G18" s="3">
-        <v>500100</v>
+        <v>553000</v>
       </c>
       <c r="H18" s="3">
-        <v>581700</v>
+        <v>500400</v>
       </c>
       <c r="I18" s="3">
-        <v>514500</v>
+        <v>582100</v>
       </c>
       <c r="J18" s="3">
+        <v>514900</v>
+      </c>
+      <c r="K18" s="3">
         <v>549000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>402000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>518400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>343000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>560300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,213 +1180,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>122900</v>
+        <v>170200</v>
       </c>
       <c r="E20" s="3">
-        <v>104200</v>
+        <v>123000</v>
       </c>
       <c r="F20" s="3">
+        <v>104300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>225700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>342000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>316700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>250100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>276900</v>
+      </c>
+      <c r="L20" s="3">
+        <v>227000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>277300</v>
+      </c>
+      <c r="N20" s="3">
+        <v>276900</v>
+      </c>
+      <c r="O20" s="3">
         <v>225500</v>
       </c>
-      <c r="G20" s="3">
-        <v>341700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>316500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>249900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>276900</v>
-      </c>
-      <c r="K20" s="3">
-        <v>227000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>277300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>276900</v>
-      </c>
-      <c r="N20" s="3">
-        <v>225500</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>189800</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>761200</v>
+        <v>750800</v>
       </c>
       <c r="E21" s="3">
-        <v>730100</v>
+        <v>761800</v>
       </c>
       <c r="F21" s="3">
-        <v>950700</v>
+        <v>730600</v>
       </c>
       <c r="G21" s="3">
-        <v>848500</v>
+        <v>951500</v>
       </c>
       <c r="H21" s="3">
-        <v>1058100</v>
+        <v>849200</v>
       </c>
       <c r="I21" s="3">
-        <v>770500</v>
+        <v>1058900</v>
       </c>
       <c r="J21" s="3">
+        <v>771100</v>
+      </c>
+      <c r="K21" s="3">
         <v>975700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>632300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>937200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>623700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>916100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>676400</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>78600</v>
+      </c>
+      <c r="F22" s="3">
+        <v>86400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>72100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>73100</v>
+      </c>
+      <c r="I22" s="3">
         <v>78500</v>
       </c>
-      <c r="E22" s="3">
-        <v>86400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>72000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>73000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>78400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>82600</v>
-      </c>
       <c r="J22" s="3">
+        <v>82700</v>
+      </c>
+      <c r="K22" s="3">
         <v>79200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>81400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>74300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>81300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>62500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>501400</v>
+        <v>648100</v>
       </c>
       <c r="E23" s="3">
-        <v>633200</v>
+        <v>501700</v>
       </c>
       <c r="F23" s="3">
-        <v>706100</v>
+        <v>633700</v>
       </c>
       <c r="G23" s="3">
-        <v>768800</v>
+        <v>706600</v>
       </c>
       <c r="H23" s="3">
-        <v>819700</v>
+        <v>769400</v>
       </c>
       <c r="I23" s="3">
-        <v>681800</v>
+        <v>820300</v>
       </c>
       <c r="J23" s="3">
+        <v>682300</v>
+      </c>
+      <c r="K23" s="3">
         <v>746700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>547600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>721400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>538700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>723300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>603500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>90900</v>
+        <v>129700</v>
       </c>
       <c r="E24" s="3">
-        <v>166100</v>
+        <v>91000</v>
       </c>
       <c r="F24" s="3">
-        <v>128700</v>
+        <v>166200</v>
       </c>
       <c r="G24" s="3">
-        <v>117300</v>
+        <v>128800</v>
       </c>
       <c r="H24" s="3">
-        <v>128300</v>
+        <v>117400</v>
       </c>
       <c r="I24" s="3">
-        <v>120600</v>
+        <v>128400</v>
       </c>
       <c r="J24" s="3">
+        <v>120700</v>
+      </c>
+      <c r="K24" s="3">
         <v>104700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>103900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>99300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>98600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>121400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>103400</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>410400</v>
+        <v>518500</v>
       </c>
       <c r="E26" s="3">
-        <v>467100</v>
+        <v>410700</v>
       </c>
       <c r="F26" s="3">
-        <v>577400</v>
+        <v>467500</v>
       </c>
       <c r="G26" s="3">
-        <v>651500</v>
+        <v>577900</v>
       </c>
       <c r="H26" s="3">
-        <v>691400</v>
+        <v>652000</v>
       </c>
       <c r="I26" s="3">
-        <v>561200</v>
+        <v>692000</v>
       </c>
       <c r="J26" s="3">
+        <v>561600</v>
+      </c>
+      <c r="K26" s="3">
         <v>642000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>443700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>622100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>440100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>601900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>500100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>343300</v>
+        <v>430300</v>
       </c>
       <c r="E27" s="3">
-        <v>396000</v>
+        <v>343600</v>
       </c>
       <c r="F27" s="3">
-        <v>500700</v>
+        <v>396300</v>
       </c>
       <c r="G27" s="3">
-        <v>582300</v>
+        <v>501100</v>
       </c>
       <c r="H27" s="3">
-        <v>616500</v>
+        <v>582700</v>
       </c>
       <c r="I27" s="3">
-        <v>483200</v>
+        <v>617000</v>
       </c>
       <c r="J27" s="3">
+        <v>483500</v>
+      </c>
+      <c r="K27" s="3">
         <v>575700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>388400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>557800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>395500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>534700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1557,8 +1618,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-122900</v>
+        <v>-170200</v>
       </c>
       <c r="E32" s="3">
-        <v>-104200</v>
+        <v>-123000</v>
       </c>
       <c r="F32" s="3">
+        <v>-104300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-225700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-342000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-316700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-250100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-276900</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-227000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-277300</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-276900</v>
+      </c>
+      <c r="O32" s="3">
         <v>-225500</v>
       </c>
-      <c r="G32" s="3">
-        <v>-341700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-316500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-249900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-276900</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-227000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-277300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-276900</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-225500</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-189800</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>343300</v>
+        <v>430300</v>
       </c>
       <c r="E33" s="3">
-        <v>396000</v>
+        <v>343600</v>
       </c>
       <c r="F33" s="3">
-        <v>500700</v>
+        <v>396300</v>
       </c>
       <c r="G33" s="3">
-        <v>582300</v>
+        <v>501100</v>
       </c>
       <c r="H33" s="3">
-        <v>616500</v>
+        <v>582700</v>
       </c>
       <c r="I33" s="3">
-        <v>483200</v>
+        <v>617000</v>
       </c>
       <c r="J33" s="3">
+        <v>483500</v>
+      </c>
+      <c r="K33" s="3">
         <v>575700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>388400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>557800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>395500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>534700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>343300</v>
+        <v>430300</v>
       </c>
       <c r="E35" s="3">
-        <v>396000</v>
+        <v>343600</v>
       </c>
       <c r="F35" s="3">
-        <v>500700</v>
+        <v>396300</v>
       </c>
       <c r="G35" s="3">
-        <v>582300</v>
+        <v>501100</v>
       </c>
       <c r="H35" s="3">
-        <v>616500</v>
+        <v>582700</v>
       </c>
       <c r="I35" s="3">
-        <v>483200</v>
+        <v>617000</v>
       </c>
       <c r="J35" s="3">
+        <v>483500</v>
+      </c>
+      <c r="K35" s="3">
         <v>575700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>388400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>557800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>395500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>534700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,377 +1969,405 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1074500</v>
+        <v>960400</v>
       </c>
       <c r="E41" s="3">
-        <v>1010400</v>
+        <v>1075300</v>
       </c>
       <c r="F41" s="3">
-        <v>928400</v>
+        <v>1011200</v>
       </c>
       <c r="G41" s="3">
-        <v>1094300</v>
+        <v>929100</v>
       </c>
       <c r="H41" s="3">
-        <v>1518700</v>
+        <v>1095200</v>
       </c>
       <c r="I41" s="3">
-        <v>1385000</v>
+        <v>1519900</v>
       </c>
       <c r="J41" s="3">
+        <v>1386000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1124800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1042100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>916800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1519200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1751800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1613500</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E42" s="3">
         <v>38600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>44900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>89700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>87600</v>
       </c>
-      <c r="H42" s="3">
-        <v>220000</v>
-      </c>
       <c r="I42" s="3">
-        <v>287400</v>
+        <v>220200</v>
       </c>
       <c r="J42" s="3">
+        <v>287600</v>
+      </c>
+      <c r="K42" s="3">
         <v>246600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>456200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>708100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>170600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>56000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>162400</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>958900</v>
+        <v>961700</v>
       </c>
       <c r="E43" s="3">
-        <v>1008300</v>
+        <v>959700</v>
       </c>
       <c r="F43" s="3">
-        <v>1012600</v>
+        <v>1009000</v>
       </c>
       <c r="G43" s="3">
-        <v>948600</v>
+        <v>1013400</v>
       </c>
       <c r="H43" s="3">
-        <v>982500</v>
+        <v>949300</v>
       </c>
       <c r="I43" s="3">
-        <v>918800</v>
+        <v>983300</v>
       </c>
       <c r="J43" s="3">
+        <v>919500</v>
+      </c>
+      <c r="K43" s="3">
         <v>819300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>798600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>822200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>870600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>841500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>830500</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>305500</v>
+        <v>344100</v>
       </c>
       <c r="E44" s="3">
-        <v>304300</v>
+        <v>305700</v>
       </c>
       <c r="F44" s="3">
-        <v>310900</v>
+        <v>304500</v>
       </c>
       <c r="G44" s="3">
-        <v>319300</v>
+        <v>311100</v>
       </c>
       <c r="H44" s="3">
-        <v>309200</v>
+        <v>319600</v>
       </c>
       <c r="I44" s="3">
-        <v>331900</v>
+        <v>309400</v>
       </c>
       <c r="J44" s="3">
+        <v>332200</v>
+      </c>
+      <c r="K44" s="3">
         <v>289200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>272300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>271700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>291900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>296100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>292200</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>202900</v>
+        <v>278100</v>
       </c>
       <c r="E45" s="3">
-        <v>223500</v>
+        <v>203000</v>
       </c>
       <c r="F45" s="3">
-        <v>190400</v>
+        <v>223600</v>
       </c>
       <c r="G45" s="3">
-        <v>203600</v>
+        <v>190500</v>
       </c>
       <c r="H45" s="3">
-        <v>194000</v>
+        <v>203700</v>
       </c>
       <c r="I45" s="3">
-        <v>213600</v>
+        <v>194200</v>
       </c>
       <c r="J45" s="3">
+        <v>213700</v>
+      </c>
+      <c r="K45" s="3">
         <v>180300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>162500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>165600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>158300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>237000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>255400</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2580400</v>
+        <v>2596800</v>
       </c>
       <c r="E46" s="3">
-        <v>2591300</v>
+        <v>2582400</v>
       </c>
       <c r="F46" s="3">
-        <v>2531900</v>
+        <v>2593300</v>
       </c>
       <c r="G46" s="3">
-        <v>2653400</v>
+        <v>2533900</v>
       </c>
       <c r="H46" s="3">
-        <v>3224500</v>
+        <v>2655500</v>
       </c>
       <c r="I46" s="3">
-        <v>3136600</v>
+        <v>3227000</v>
       </c>
       <c r="J46" s="3">
+        <v>3139000</v>
+      </c>
+      <c r="K46" s="3">
         <v>2660200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2731700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2884300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3010600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3182300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3154100</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5848300</v>
+        <v>6201400</v>
       </c>
       <c r="E47" s="3">
-        <v>6000800</v>
+        <v>5852900</v>
       </c>
       <c r="F47" s="3">
-        <v>5504700</v>
+        <v>6005500</v>
       </c>
       <c r="G47" s="3">
-        <v>5400700</v>
+        <v>5509000</v>
       </c>
       <c r="H47" s="3">
-        <v>5204300</v>
+        <v>5404900</v>
       </c>
       <c r="I47" s="3">
-        <v>5000200</v>
+        <v>5208400</v>
       </c>
       <c r="J47" s="3">
+        <v>5004100</v>
+      </c>
+      <c r="K47" s="3">
         <v>4840600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4539900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4484700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4281400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4318500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3772500</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8326800</v>
+        <v>9245200</v>
       </c>
       <c r="E48" s="3">
-        <v>8320800</v>
+        <v>8333300</v>
       </c>
       <c r="F48" s="3">
-        <v>8171800</v>
+        <v>8327300</v>
       </c>
       <c r="G48" s="3">
-        <v>7563800</v>
+        <v>8178100</v>
       </c>
       <c r="H48" s="3">
-        <v>7480700</v>
+        <v>7569600</v>
       </c>
       <c r="I48" s="3">
-        <v>7285000</v>
+        <v>7486500</v>
       </c>
       <c r="J48" s="3">
+        <v>7290700</v>
+      </c>
+      <c r="K48" s="3">
         <v>6774200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6443600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6338500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6136200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6059800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6448400</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>662400</v>
+        <v>703800</v>
       </c>
       <c r="E49" s="3">
-        <v>681100</v>
+        <v>662900</v>
       </c>
       <c r="F49" s="3">
-        <v>730000</v>
+        <v>681700</v>
       </c>
       <c r="G49" s="3">
-        <v>731500</v>
+        <v>730600</v>
       </c>
       <c r="H49" s="3">
-        <v>750600</v>
+        <v>732000</v>
       </c>
       <c r="I49" s="3">
-        <v>757400</v>
+        <v>751200</v>
       </c>
       <c r="J49" s="3">
+        <v>758000</v>
+      </c>
+      <c r="K49" s="3">
         <v>729300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>719000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>735200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>741300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>762600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>749900</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>490000</v>
+        <v>613400</v>
       </c>
       <c r="E52" s="3">
-        <v>488700</v>
+        <v>490400</v>
       </c>
       <c r="F52" s="3">
-        <v>468100</v>
+        <v>489100</v>
       </c>
       <c r="G52" s="3">
-        <v>732300</v>
+        <v>468500</v>
       </c>
       <c r="H52" s="3">
-        <v>706800</v>
+        <v>732800</v>
       </c>
       <c r="I52" s="3">
-        <v>692400</v>
+        <v>707300</v>
       </c>
       <c r="J52" s="3">
+        <v>692900</v>
+      </c>
+      <c r="K52" s="3">
         <v>651900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>629300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>628400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>552100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>535900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17908000</v>
+        <v>19360600</v>
       </c>
       <c r="E54" s="3">
-        <v>18082700</v>
+        <v>17921900</v>
       </c>
       <c r="F54" s="3">
-        <v>17406500</v>
+        <v>18096800</v>
       </c>
       <c r="G54" s="3">
-        <v>17081600</v>
+        <v>17420000</v>
       </c>
       <c r="H54" s="3">
-        <v>17366900</v>
+        <v>17094900</v>
       </c>
       <c r="I54" s="3">
-        <v>16871600</v>
+        <v>17380400</v>
       </c>
       <c r="J54" s="3">
+        <v>16884700</v>
+      </c>
+      <c r="K54" s="3">
         <v>15656200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15063400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15071200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14721600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14859100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14644600</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,254 +2621,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>475600</v>
+        <v>524700</v>
       </c>
       <c r="E57" s="3">
-        <v>508400</v>
+        <v>475900</v>
       </c>
       <c r="F57" s="3">
-        <v>513000</v>
+        <v>508800</v>
       </c>
       <c r="G57" s="3">
-        <v>531300</v>
+        <v>513400</v>
       </c>
       <c r="H57" s="3">
-        <v>443000</v>
+        <v>531800</v>
       </c>
       <c r="I57" s="3">
-        <v>529700</v>
+        <v>443400</v>
       </c>
       <c r="J57" s="3">
+        <v>530100</v>
+      </c>
+      <c r="K57" s="3">
         <v>435900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>434300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>430200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1593500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1528300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1615400</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1290300</v>
+        <v>1425600</v>
       </c>
       <c r="E58" s="3">
-        <v>1216800</v>
+        <v>1291300</v>
       </c>
       <c r="F58" s="3">
-        <v>1200800</v>
+        <v>1217800</v>
       </c>
       <c r="G58" s="3">
-        <v>1359400</v>
+        <v>1201700</v>
       </c>
       <c r="H58" s="3">
-        <v>2261300</v>
+        <v>1360500</v>
       </c>
       <c r="I58" s="3">
-        <v>2051000</v>
+        <v>2263100</v>
       </c>
       <c r="J58" s="3">
+        <v>2052600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1010000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>792000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>833400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1237200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1236000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>902400</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1593600</v>
+        <v>1889700</v>
       </c>
       <c r="E59" s="3">
-        <v>1643300</v>
+        <v>1594800</v>
       </c>
       <c r="F59" s="3">
-        <v>1475800</v>
+        <v>1644600</v>
       </c>
       <c r="G59" s="3">
-        <v>1475600</v>
+        <v>1476900</v>
       </c>
       <c r="H59" s="3">
-        <v>1528600</v>
+        <v>1476800</v>
       </c>
       <c r="I59" s="3">
-        <v>1532000</v>
+        <v>1529800</v>
       </c>
       <c r="J59" s="3">
+        <v>1533200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1336600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1295900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1261000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>122200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>159600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3359400</v>
+        <v>3839900</v>
       </c>
       <c r="E60" s="3">
-        <v>3368500</v>
+        <v>3362100</v>
       </c>
       <c r="F60" s="3">
-        <v>3189600</v>
+        <v>3371200</v>
       </c>
       <c r="G60" s="3">
-        <v>3366400</v>
+        <v>3192000</v>
       </c>
       <c r="H60" s="3">
-        <v>4233000</v>
+        <v>3369000</v>
       </c>
       <c r="I60" s="3">
-        <v>4112700</v>
+        <v>4236300</v>
       </c>
       <c r="J60" s="3">
+        <v>4115900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2782500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2522200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2524600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2953000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2923900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2648300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3944900</v>
+        <v>4030600</v>
       </c>
       <c r="E61" s="3">
-        <v>3694000</v>
+        <v>3947900</v>
       </c>
       <c r="F61" s="3">
-        <v>3574600</v>
+        <v>3696900</v>
       </c>
       <c r="G61" s="3">
-        <v>3554100</v>
+        <v>3577400</v>
       </c>
       <c r="H61" s="3">
-        <v>2911200</v>
+        <v>3556900</v>
       </c>
       <c r="I61" s="3">
-        <v>2724200</v>
+        <v>2913500</v>
       </c>
       <c r="J61" s="3">
+        <v>2726300</v>
+      </c>
+      <c r="K61" s="3">
         <v>3462600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3522000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3556600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2976300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2963300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3134000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1259700</v>
+        <v>1292700</v>
       </c>
       <c r="E62" s="3">
-        <v>1314400</v>
+        <v>1260700</v>
       </c>
       <c r="F62" s="3">
-        <v>1214100</v>
+        <v>1315400</v>
       </c>
       <c r="G62" s="3">
-        <v>1125000</v>
+        <v>1215000</v>
       </c>
       <c r="H62" s="3">
-        <v>1005200</v>
+        <v>1125900</v>
       </c>
       <c r="I62" s="3">
-        <v>992000</v>
+        <v>1006000</v>
       </c>
       <c r="J62" s="3">
+        <v>992800</v>
+      </c>
+      <c r="K62" s="3">
         <v>944500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>903400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>880500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>879800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>867800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>897700</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9683100</v>
+        <v>10453000</v>
       </c>
       <c r="E66" s="3">
-        <v>9510100</v>
+        <v>9690600</v>
       </c>
       <c r="F66" s="3">
-        <v>9019200</v>
+        <v>9517500</v>
       </c>
       <c r="G66" s="3">
-        <v>9048700</v>
+        <v>9026200</v>
       </c>
       <c r="H66" s="3">
-        <v>9143000</v>
+        <v>9055800</v>
       </c>
       <c r="I66" s="3">
-        <v>8788300</v>
+        <v>9150100</v>
       </c>
       <c r="J66" s="3">
+        <v>8795100</v>
+      </c>
+      <c r="K66" s="3">
         <v>8071700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7800800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7844700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7690300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7668400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7606900</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7425200</v>
+        <v>7600500</v>
       </c>
       <c r="E72" s="3">
-        <v>7584600</v>
+        <v>7431000</v>
       </c>
       <c r="F72" s="3">
-        <v>7434200</v>
+        <v>7590500</v>
       </c>
       <c r="G72" s="3">
-        <v>7393000</v>
+        <v>7440000</v>
       </c>
       <c r="H72" s="3">
-        <v>7060900</v>
+        <v>7398700</v>
       </c>
       <c r="I72" s="3">
-        <v>6844200</v>
+        <v>7066400</v>
       </c>
       <c r="J72" s="3">
+        <v>6849500</v>
+      </c>
+      <c r="K72" s="3">
         <v>6559500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6380300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6185900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5906400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5746800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5544700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8224900</v>
+        <v>8907600</v>
       </c>
       <c r="E76" s="3">
-        <v>8572600</v>
+        <v>8231300</v>
       </c>
       <c r="F76" s="3">
-        <v>8387300</v>
+        <v>8579300</v>
       </c>
       <c r="G76" s="3">
-        <v>8032800</v>
+        <v>8393800</v>
       </c>
       <c r="H76" s="3">
-        <v>8223900</v>
+        <v>8039100</v>
       </c>
       <c r="I76" s="3">
-        <v>8083300</v>
+        <v>8230300</v>
       </c>
       <c r="J76" s="3">
+        <v>8089600</v>
+      </c>
+      <c r="K76" s="3">
         <v>7584500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7262600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7226400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7031300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7190700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7037700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>343300</v>
+        <v>430300</v>
       </c>
       <c r="E81" s="3">
-        <v>396000</v>
+        <v>343600</v>
       </c>
       <c r="F81" s="3">
-        <v>500700</v>
+        <v>396300</v>
       </c>
       <c r="G81" s="3">
-        <v>582300</v>
+        <v>501100</v>
       </c>
       <c r="H81" s="3">
-        <v>616500</v>
+        <v>582700</v>
       </c>
       <c r="I81" s="3">
-        <v>483200</v>
+        <v>617000</v>
       </c>
       <c r="J81" s="3">
+        <v>483500</v>
+      </c>
+      <c r="K81" s="3">
         <v>575700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>388400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>557800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>395500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>534700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,8 +3630,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3473,8 +3672,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>558700</v>
+        <v>717600</v>
       </c>
       <c r="E89" s="3">
-        <v>648300</v>
+        <v>559100</v>
       </c>
       <c r="F89" s="3">
-        <v>627700</v>
+        <v>648800</v>
       </c>
       <c r="G89" s="3">
-        <v>570100</v>
+        <v>628200</v>
       </c>
       <c r="H89" s="3">
-        <v>645000</v>
+        <v>570500</v>
       </c>
       <c r="I89" s="3">
-        <v>531900</v>
+        <v>645500</v>
       </c>
       <c r="J89" s="3">
+        <v>532300</v>
+      </c>
+      <c r="K89" s="3">
         <v>565500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>528000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>563700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>529900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>524500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>532200</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,49 +3956,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-344700</v>
+        <v>-4600</v>
       </c>
       <c r="E91" s="3">
-        <v>-465400</v>
+        <v>-5300</v>
       </c>
       <c r="F91" s="3">
-        <v>-403700</v>
+        <v>-12900</v>
       </c>
       <c r="G91" s="3">
-        <v>-429100</v>
+        <v>-25900</v>
       </c>
       <c r="H91" s="3">
-        <v>-416200</v>
+        <v>-8300</v>
       </c>
       <c r="I91" s="3">
-        <v>-455300</v>
+        <v>-14800</v>
       </c>
       <c r="J91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-317700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-441200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-339700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-419600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-348400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-489100</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-275000</v>
+        <v>-496400</v>
       </c>
       <c r="E94" s="3">
-        <v>-331300</v>
+        <v>-275200</v>
       </c>
       <c r="F94" s="3">
-        <v>-351100</v>
+        <v>-331500</v>
       </c>
       <c r="G94" s="3">
-        <v>-127700</v>
+        <v>-351400</v>
       </c>
       <c r="H94" s="3">
-        <v>-358500</v>
+        <v>-127800</v>
       </c>
       <c r="I94" s="3">
-        <v>-150500</v>
+        <v>-358800</v>
       </c>
       <c r="J94" s="3">
+        <v>-150600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-64600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-821400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-423300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-180400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-210000</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,49 +4150,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-501100</v>
+        <v>-274700</v>
       </c>
       <c r="E96" s="3">
-        <v>-261500</v>
+        <v>-501500</v>
       </c>
       <c r="F96" s="3">
-        <v>-455600</v>
+        <v>-261700</v>
       </c>
       <c r="G96" s="3">
-        <v>-237700</v>
+        <v>-455900</v>
       </c>
       <c r="H96" s="3">
-        <v>-414200</v>
+        <v>-237900</v>
       </c>
       <c r="I96" s="3">
-        <v>-216100</v>
+        <v>-414500</v>
       </c>
       <c r="J96" s="3">
+        <v>-216200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-376500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-196900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-342500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-176800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-308000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-161500</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,127 +4324,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-211200</v>
+        <v>-371000</v>
       </c>
       <c r="E100" s="3">
-        <v>-229100</v>
+        <v>-211400</v>
       </c>
       <c r="F100" s="3">
-        <v>-442000</v>
+        <v>-229300</v>
       </c>
       <c r="G100" s="3">
-        <v>-852900</v>
+        <v>-442400</v>
       </c>
       <c r="H100" s="3">
-        <v>-149700</v>
+        <v>-853600</v>
       </c>
       <c r="I100" s="3">
-        <v>-134200</v>
+        <v>-149800</v>
       </c>
       <c r="J100" s="3">
+        <v>-134300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-424400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-376100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-355200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-305700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-234700</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-13900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>12900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>8700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-33400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>64100</v>
+        <v>-114900</v>
       </c>
       <c r="E102" s="3">
-        <v>82000</v>
+        <v>64200</v>
       </c>
       <c r="F102" s="3">
-        <v>-165900</v>
+        <v>82100</v>
       </c>
       <c r="G102" s="3">
-        <v>-424400</v>
+        <v>-166000</v>
       </c>
       <c r="H102" s="3">
-        <v>133800</v>
+        <v>-424700</v>
       </c>
       <c r="I102" s="3">
-        <v>260100</v>
+        <v>133900</v>
       </c>
       <c r="J102" s="3">
+        <v>260300</v>
+      </c>
+      <c r="K102" s="3">
         <v>85200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>123600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-619200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-232600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>146000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>87700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2923400</v>
+        <v>2912900</v>
       </c>
       <c r="E8" s="3">
-        <v>2349300</v>
+        <v>2340900</v>
       </c>
       <c r="F8" s="3">
-        <v>2612200</v>
+        <v>2602900</v>
       </c>
       <c r="G8" s="3">
-        <v>2621900</v>
+        <v>2612600</v>
       </c>
       <c r="H8" s="3">
-        <v>2554900</v>
+        <v>2545800</v>
       </c>
       <c r="I8" s="3">
-        <v>2478900</v>
+        <v>2470000</v>
       </c>
       <c r="J8" s="3">
-        <v>2196000</v>
+        <v>2188100</v>
       </c>
       <c r="K8" s="3">
         <v>1986400</v>
@@ -784,25 +784,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1620900</v>
+        <v>1615100</v>
       </c>
       <c r="E9" s="3">
-        <v>1211600</v>
+        <v>1207300</v>
       </c>
       <c r="F9" s="3">
-        <v>1381700</v>
+        <v>1376800</v>
       </c>
       <c r="G9" s="3">
-        <v>1427300</v>
+        <v>1422200</v>
       </c>
       <c r="H9" s="3">
-        <v>1357800</v>
+        <v>1352900</v>
       </c>
       <c r="I9" s="3">
-        <v>1295800</v>
+        <v>1291200</v>
       </c>
       <c r="J9" s="3">
-        <v>1091900</v>
+        <v>1088000</v>
       </c>
       <c r="K9" s="3">
         <v>928900</v>
@@ -828,25 +828,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1302400</v>
+        <v>1297800</v>
       </c>
       <c r="E10" s="3">
-        <v>1137700</v>
+        <v>1133600</v>
       </c>
       <c r="F10" s="3">
-        <v>1230500</v>
+        <v>1226100</v>
       </c>
       <c r="G10" s="3">
-        <v>1194700</v>
+        <v>1190400</v>
       </c>
       <c r="H10" s="3">
-        <v>1197100</v>
+        <v>1192800</v>
       </c>
       <c r="I10" s="3">
-        <v>1183100</v>
+        <v>1178800</v>
       </c>
       <c r="J10" s="3">
-        <v>1104100</v>
+        <v>1100100</v>
       </c>
       <c r="K10" s="3">
         <v>1057500</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>-30000</v>
+        <v>-29900</v>
       </c>
       <c r="K14" s="3">
         <v>-5700</v>
@@ -1022,25 +1022,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>197400</v>
+        <v>196700</v>
       </c>
       <c r="E15" s="3">
-        <v>181400</v>
+        <v>180800</v>
       </c>
       <c r="F15" s="3">
-        <v>181900</v>
+        <v>181300</v>
       </c>
       <c r="G15" s="3">
-        <v>172800</v>
+        <v>172200</v>
       </c>
       <c r="H15" s="3">
-        <v>166800</v>
+        <v>166200</v>
       </c>
       <c r="I15" s="3">
-        <v>160000</v>
+        <v>159500</v>
       </c>
       <c r="J15" s="3">
-        <v>156000</v>
+        <v>155500</v>
       </c>
       <c r="K15" s="3">
         <v>149800</v>
@@ -1081,25 +1081,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2360600</v>
+        <v>2352200</v>
       </c>
       <c r="E17" s="3">
-        <v>1891900</v>
+        <v>1885200</v>
       </c>
       <c r="F17" s="3">
-        <v>1996400</v>
+        <v>1989200</v>
       </c>
       <c r="G17" s="3">
-        <v>2069000</v>
+        <v>2061600</v>
       </c>
       <c r="H17" s="3">
-        <v>2054400</v>
+        <v>2047100</v>
       </c>
       <c r="I17" s="3">
-        <v>1896800</v>
+        <v>1890000</v>
       </c>
       <c r="J17" s="3">
-        <v>1681100</v>
+        <v>1675100</v>
       </c>
       <c r="K17" s="3">
         <v>1437400</v>
@@ -1125,25 +1125,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>562800</v>
+        <v>560800</v>
       </c>
       <c r="E18" s="3">
-        <v>457300</v>
+        <v>455700</v>
       </c>
       <c r="F18" s="3">
-        <v>615800</v>
+        <v>613600</v>
       </c>
       <c r="G18" s="3">
-        <v>553000</v>
+        <v>551000</v>
       </c>
       <c r="H18" s="3">
-        <v>500400</v>
+        <v>498700</v>
       </c>
       <c r="I18" s="3">
-        <v>582100</v>
+        <v>580100</v>
       </c>
       <c r="J18" s="3">
-        <v>514900</v>
+        <v>513100</v>
       </c>
       <c r="K18" s="3">
         <v>549000</v>
@@ -1187,25 +1187,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>170200</v>
+        <v>169600</v>
       </c>
       <c r="E20" s="3">
-        <v>123000</v>
+        <v>122600</v>
       </c>
       <c r="F20" s="3">
-        <v>104300</v>
+        <v>104000</v>
       </c>
       <c r="G20" s="3">
-        <v>225700</v>
+        <v>224900</v>
       </c>
       <c r="H20" s="3">
-        <v>342000</v>
+        <v>340800</v>
       </c>
       <c r="I20" s="3">
-        <v>316700</v>
+        <v>315600</v>
       </c>
       <c r="J20" s="3">
-        <v>250100</v>
+        <v>249200</v>
       </c>
       <c r="K20" s="3">
         <v>276900</v>
@@ -1231,25 +1231,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>750800</v>
+        <v>748100</v>
       </c>
       <c r="E21" s="3">
-        <v>761800</v>
+        <v>759000</v>
       </c>
       <c r="F21" s="3">
-        <v>730600</v>
+        <v>728000</v>
       </c>
       <c r="G21" s="3">
-        <v>951500</v>
+        <v>948100</v>
       </c>
       <c r="H21" s="3">
-        <v>849200</v>
+        <v>846200</v>
       </c>
       <c r="I21" s="3">
-        <v>1058900</v>
+        <v>1055100</v>
       </c>
       <c r="J21" s="3">
-        <v>771100</v>
+        <v>768400</v>
       </c>
       <c r="K21" s="3">
         <v>975700</v>
@@ -1275,25 +1275,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>84800</v>
+        <v>84500</v>
       </c>
       <c r="E22" s="3">
-        <v>78600</v>
+        <v>78300</v>
       </c>
       <c r="F22" s="3">
-        <v>86400</v>
+        <v>86100</v>
       </c>
       <c r="G22" s="3">
-        <v>72100</v>
+        <v>71800</v>
       </c>
       <c r="H22" s="3">
-        <v>73100</v>
+        <v>72800</v>
       </c>
       <c r="I22" s="3">
-        <v>78500</v>
+        <v>78200</v>
       </c>
       <c r="J22" s="3">
-        <v>82700</v>
+        <v>82400</v>
       </c>
       <c r="K22" s="3">
         <v>79200</v>
@@ -1319,25 +1319,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>648100</v>
+        <v>645800</v>
       </c>
       <c r="E23" s="3">
-        <v>501700</v>
+        <v>499900</v>
       </c>
       <c r="F23" s="3">
-        <v>633700</v>
+        <v>631500</v>
       </c>
       <c r="G23" s="3">
-        <v>706600</v>
+        <v>704100</v>
       </c>
       <c r="H23" s="3">
-        <v>769400</v>
+        <v>766600</v>
       </c>
       <c r="I23" s="3">
-        <v>820300</v>
+        <v>817400</v>
       </c>
       <c r="J23" s="3">
-        <v>682300</v>
+        <v>679900</v>
       </c>
       <c r="K23" s="3">
         <v>746700</v>
@@ -1363,25 +1363,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>129700</v>
+        <v>129200</v>
       </c>
       <c r="E24" s="3">
-        <v>91000</v>
+        <v>90700</v>
       </c>
       <c r="F24" s="3">
-        <v>166200</v>
+        <v>165600</v>
       </c>
       <c r="G24" s="3">
-        <v>128800</v>
+        <v>128300</v>
       </c>
       <c r="H24" s="3">
-        <v>117400</v>
+        <v>117000</v>
       </c>
       <c r="I24" s="3">
-        <v>128400</v>
+        <v>127900</v>
       </c>
       <c r="J24" s="3">
-        <v>120700</v>
+        <v>120300</v>
       </c>
       <c r="K24" s="3">
         <v>104700</v>
@@ -1451,25 +1451,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>518500</v>
+        <v>516600</v>
       </c>
       <c r="E26" s="3">
-        <v>410700</v>
+        <v>409300</v>
       </c>
       <c r="F26" s="3">
-        <v>467500</v>
+        <v>465800</v>
       </c>
       <c r="G26" s="3">
-        <v>577900</v>
+        <v>575800</v>
       </c>
       <c r="H26" s="3">
-        <v>652000</v>
+        <v>649600</v>
       </c>
       <c r="I26" s="3">
-        <v>692000</v>
+        <v>689500</v>
       </c>
       <c r="J26" s="3">
-        <v>561600</v>
+        <v>559600</v>
       </c>
       <c r="K26" s="3">
         <v>642000</v>
@@ -1495,25 +1495,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>430300</v>
+        <v>428800</v>
       </c>
       <c r="E27" s="3">
-        <v>343600</v>
+        <v>342300</v>
       </c>
       <c r="F27" s="3">
-        <v>396300</v>
+        <v>394900</v>
       </c>
       <c r="G27" s="3">
-        <v>501100</v>
+        <v>499300</v>
       </c>
       <c r="H27" s="3">
-        <v>582700</v>
+        <v>580700</v>
       </c>
       <c r="I27" s="3">
-        <v>617000</v>
+        <v>614800</v>
       </c>
       <c r="J27" s="3">
-        <v>483500</v>
+        <v>481800</v>
       </c>
       <c r="K27" s="3">
         <v>575700</v>
@@ -1715,25 +1715,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-170200</v>
+        <v>-169600</v>
       </c>
       <c r="E32" s="3">
-        <v>-123000</v>
+        <v>-122600</v>
       </c>
       <c r="F32" s="3">
-        <v>-104300</v>
+        <v>-104000</v>
       </c>
       <c r="G32" s="3">
-        <v>-225700</v>
+        <v>-224900</v>
       </c>
       <c r="H32" s="3">
-        <v>-342000</v>
+        <v>-340800</v>
       </c>
       <c r="I32" s="3">
-        <v>-316700</v>
+        <v>-315600</v>
       </c>
       <c r="J32" s="3">
-        <v>-250100</v>
+        <v>-249200</v>
       </c>
       <c r="K32" s="3">
         <v>-276900</v>
@@ -1759,25 +1759,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>430300</v>
+        <v>428800</v>
       </c>
       <c r="E33" s="3">
-        <v>343600</v>
+        <v>342300</v>
       </c>
       <c r="F33" s="3">
-        <v>396300</v>
+        <v>394900</v>
       </c>
       <c r="G33" s="3">
-        <v>501100</v>
+        <v>499300</v>
       </c>
       <c r="H33" s="3">
-        <v>582700</v>
+        <v>580700</v>
       </c>
       <c r="I33" s="3">
-        <v>617000</v>
+        <v>614800</v>
       </c>
       <c r="J33" s="3">
-        <v>483500</v>
+        <v>481800</v>
       </c>
       <c r="K33" s="3">
         <v>575700</v>
@@ -1847,25 +1847,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>430300</v>
+        <v>428800</v>
       </c>
       <c r="E35" s="3">
-        <v>343600</v>
+        <v>342300</v>
       </c>
       <c r="F35" s="3">
-        <v>396300</v>
+        <v>394900</v>
       </c>
       <c r="G35" s="3">
-        <v>501100</v>
+        <v>499300</v>
       </c>
       <c r="H35" s="3">
-        <v>582700</v>
+        <v>580700</v>
       </c>
       <c r="I35" s="3">
-        <v>617000</v>
+        <v>614800</v>
       </c>
       <c r="J35" s="3">
-        <v>483500</v>
+        <v>481800</v>
       </c>
       <c r="K35" s="3">
         <v>575700</v>
@@ -1976,25 +1976,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>960400</v>
+        <v>957000</v>
       </c>
       <c r="E41" s="3">
-        <v>1075300</v>
+        <v>1071500</v>
       </c>
       <c r="F41" s="3">
-        <v>1011200</v>
+        <v>1007600</v>
       </c>
       <c r="G41" s="3">
-        <v>929100</v>
+        <v>925800</v>
       </c>
       <c r="H41" s="3">
-        <v>1095200</v>
+        <v>1091200</v>
       </c>
       <c r="I41" s="3">
-        <v>1519900</v>
+        <v>1514500</v>
       </c>
       <c r="J41" s="3">
-        <v>1386000</v>
+        <v>1381100</v>
       </c>
       <c r="K41" s="3">
         <v>1124800</v>
@@ -2020,25 +2020,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>52500</v>
+        <v>52300</v>
       </c>
       <c r="E42" s="3">
-        <v>38600</v>
+        <v>38500</v>
       </c>
       <c r="F42" s="3">
-        <v>44900</v>
+        <v>44700</v>
       </c>
       <c r="G42" s="3">
-        <v>89700</v>
+        <v>89400</v>
       </c>
       <c r="H42" s="3">
-        <v>87600</v>
+        <v>87300</v>
       </c>
       <c r="I42" s="3">
-        <v>220200</v>
+        <v>219400</v>
       </c>
       <c r="J42" s="3">
-        <v>287600</v>
+        <v>286600</v>
       </c>
       <c r="K42" s="3">
         <v>246600</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>961700</v>
+        <v>958300</v>
       </c>
       <c r="E43" s="3">
-        <v>959700</v>
+        <v>956300</v>
       </c>
       <c r="F43" s="3">
-        <v>1009000</v>
+        <v>1005400</v>
       </c>
       <c r="G43" s="3">
-        <v>1013400</v>
+        <v>1009700</v>
       </c>
       <c r="H43" s="3">
-        <v>949300</v>
+        <v>945900</v>
       </c>
       <c r="I43" s="3">
-        <v>983300</v>
+        <v>979800</v>
       </c>
       <c r="J43" s="3">
-        <v>919500</v>
+        <v>916200</v>
       </c>
       <c r="K43" s="3">
         <v>819300</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>344100</v>
+        <v>342900</v>
       </c>
       <c r="E44" s="3">
-        <v>305700</v>
+        <v>304600</v>
       </c>
       <c r="F44" s="3">
-        <v>304500</v>
+        <v>303400</v>
       </c>
       <c r="G44" s="3">
-        <v>311100</v>
+        <v>310000</v>
       </c>
       <c r="H44" s="3">
-        <v>319600</v>
+        <v>318400</v>
       </c>
       <c r="I44" s="3">
-        <v>309400</v>
+        <v>308300</v>
       </c>
       <c r="J44" s="3">
-        <v>332200</v>
+        <v>331000</v>
       </c>
       <c r="K44" s="3">
         <v>289200</v>
@@ -2152,25 +2152,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>278100</v>
+        <v>277100</v>
       </c>
       <c r="E45" s="3">
+        <v>202300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>222800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>189800</v>
+      </c>
+      <c r="H45" s="3">
         <v>203000</v>
       </c>
-      <c r="F45" s="3">
-        <v>223600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>190500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>203700</v>
-      </c>
       <c r="I45" s="3">
-        <v>194200</v>
+        <v>193500</v>
       </c>
       <c r="J45" s="3">
-        <v>213700</v>
+        <v>213000</v>
       </c>
       <c r="K45" s="3">
         <v>180300</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2596800</v>
+        <v>2587500</v>
       </c>
       <c r="E46" s="3">
-        <v>2582400</v>
+        <v>2573200</v>
       </c>
       <c r="F46" s="3">
-        <v>2593300</v>
+        <v>2584000</v>
       </c>
       <c r="G46" s="3">
-        <v>2533900</v>
+        <v>2524800</v>
       </c>
       <c r="H46" s="3">
-        <v>2655500</v>
+        <v>2646000</v>
       </c>
       <c r="I46" s="3">
-        <v>3227000</v>
+        <v>3215400</v>
       </c>
       <c r="J46" s="3">
-        <v>3139000</v>
+        <v>3127800</v>
       </c>
       <c r="K46" s="3">
         <v>2660200</v>
@@ -2240,25 +2240,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6201400</v>
+        <v>6179300</v>
       </c>
       <c r="E47" s="3">
-        <v>5852900</v>
+        <v>5832000</v>
       </c>
       <c r="F47" s="3">
-        <v>6005500</v>
+        <v>5984000</v>
       </c>
       <c r="G47" s="3">
-        <v>5509000</v>
+        <v>5489300</v>
       </c>
       <c r="H47" s="3">
-        <v>5404900</v>
+        <v>5385600</v>
       </c>
       <c r="I47" s="3">
-        <v>5208400</v>
+        <v>5189800</v>
       </c>
       <c r="J47" s="3">
-        <v>5004100</v>
+        <v>4986200</v>
       </c>
       <c r="K47" s="3">
         <v>4840600</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9245200</v>
+        <v>9212200</v>
       </c>
       <c r="E48" s="3">
-        <v>8333300</v>
+        <v>8303500</v>
       </c>
       <c r="F48" s="3">
-        <v>8327300</v>
+        <v>8297600</v>
       </c>
       <c r="G48" s="3">
-        <v>8178100</v>
+        <v>8148900</v>
       </c>
       <c r="H48" s="3">
-        <v>7569600</v>
+        <v>7542600</v>
       </c>
       <c r="I48" s="3">
-        <v>7486500</v>
+        <v>7459800</v>
       </c>
       <c r="J48" s="3">
-        <v>7290700</v>
+        <v>7264600</v>
       </c>
       <c r="K48" s="3">
         <v>6774200</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>703800</v>
+        <v>701300</v>
       </c>
       <c r="E49" s="3">
-        <v>662900</v>
+        <v>660500</v>
       </c>
       <c r="F49" s="3">
-        <v>681700</v>
+        <v>679200</v>
       </c>
       <c r="G49" s="3">
-        <v>730600</v>
+        <v>728000</v>
       </c>
       <c r="H49" s="3">
-        <v>732000</v>
+        <v>729400</v>
       </c>
       <c r="I49" s="3">
-        <v>751200</v>
+        <v>748500</v>
       </c>
       <c r="J49" s="3">
-        <v>758000</v>
+        <v>755300</v>
       </c>
       <c r="K49" s="3">
         <v>729300</v>
@@ -2460,25 +2460,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>613400</v>
+        <v>611200</v>
       </c>
       <c r="E52" s="3">
-        <v>490400</v>
+        <v>488700</v>
       </c>
       <c r="F52" s="3">
-        <v>489100</v>
+        <v>487300</v>
       </c>
       <c r="G52" s="3">
-        <v>468500</v>
+        <v>466800</v>
       </c>
       <c r="H52" s="3">
-        <v>732800</v>
+        <v>730200</v>
       </c>
       <c r="I52" s="3">
-        <v>707300</v>
+        <v>704800</v>
       </c>
       <c r="J52" s="3">
-        <v>692900</v>
+        <v>690500</v>
       </c>
       <c r="K52" s="3">
         <v>651900</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19360600</v>
+        <v>19291500</v>
       </c>
       <c r="E54" s="3">
-        <v>17921900</v>
+        <v>17857900</v>
       </c>
       <c r="F54" s="3">
-        <v>18096800</v>
+        <v>18032100</v>
       </c>
       <c r="G54" s="3">
-        <v>17420000</v>
+        <v>17357800</v>
       </c>
       <c r="H54" s="3">
-        <v>17094900</v>
+        <v>17033800</v>
       </c>
       <c r="I54" s="3">
-        <v>17380400</v>
+        <v>17318300</v>
       </c>
       <c r="J54" s="3">
-        <v>16884700</v>
+        <v>16824400</v>
       </c>
       <c r="K54" s="3">
         <v>15656200</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>524700</v>
+        <v>522800</v>
       </c>
       <c r="E57" s="3">
-        <v>475900</v>
+        <v>474200</v>
       </c>
       <c r="F57" s="3">
-        <v>508800</v>
+        <v>507000</v>
       </c>
       <c r="G57" s="3">
-        <v>513400</v>
+        <v>511600</v>
       </c>
       <c r="H57" s="3">
-        <v>531800</v>
+        <v>529900</v>
       </c>
       <c r="I57" s="3">
-        <v>443400</v>
+        <v>441800</v>
       </c>
       <c r="J57" s="3">
-        <v>530100</v>
+        <v>528300</v>
       </c>
       <c r="K57" s="3">
         <v>435900</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1425600</v>
+        <v>1420500</v>
       </c>
       <c r="E58" s="3">
-        <v>1291300</v>
+        <v>1286700</v>
       </c>
       <c r="F58" s="3">
-        <v>1217800</v>
+        <v>1213400</v>
       </c>
       <c r="G58" s="3">
-        <v>1201700</v>
+        <v>1197400</v>
       </c>
       <c r="H58" s="3">
-        <v>1360500</v>
+        <v>1355600</v>
       </c>
       <c r="I58" s="3">
-        <v>2263100</v>
+        <v>2255000</v>
       </c>
       <c r="J58" s="3">
-        <v>2052600</v>
+        <v>2045200</v>
       </c>
       <c r="K58" s="3">
         <v>1010000</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1889700</v>
+        <v>1883000</v>
       </c>
       <c r="E59" s="3">
-        <v>1594800</v>
+        <v>1589100</v>
       </c>
       <c r="F59" s="3">
-        <v>1644600</v>
+        <v>1638700</v>
       </c>
       <c r="G59" s="3">
-        <v>1476900</v>
+        <v>1471700</v>
       </c>
       <c r="H59" s="3">
-        <v>1476800</v>
+        <v>1471500</v>
       </c>
       <c r="I59" s="3">
-        <v>1529800</v>
+        <v>1524300</v>
       </c>
       <c r="J59" s="3">
-        <v>1533200</v>
+        <v>1527700</v>
       </c>
       <c r="K59" s="3">
         <v>1336600</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3839900</v>
+        <v>3826200</v>
       </c>
       <c r="E60" s="3">
-        <v>3362100</v>
+        <v>3350000</v>
       </c>
       <c r="F60" s="3">
-        <v>3371200</v>
+        <v>3359100</v>
       </c>
       <c r="G60" s="3">
-        <v>3192000</v>
+        <v>3180600</v>
       </c>
       <c r="H60" s="3">
-        <v>3369000</v>
+        <v>3357000</v>
       </c>
       <c r="I60" s="3">
-        <v>4236300</v>
+        <v>4221200</v>
       </c>
       <c r="J60" s="3">
-        <v>4115900</v>
+        <v>4101200</v>
       </c>
       <c r="K60" s="3">
         <v>2782500</v>
@@ -2804,25 +2804,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4030600</v>
+        <v>4016200</v>
       </c>
       <c r="E61" s="3">
-        <v>3947900</v>
+        <v>3933800</v>
       </c>
       <c r="F61" s="3">
-        <v>3696900</v>
+        <v>3683700</v>
       </c>
       <c r="G61" s="3">
-        <v>3577400</v>
+        <v>3564600</v>
       </c>
       <c r="H61" s="3">
-        <v>3556900</v>
+        <v>3544200</v>
       </c>
       <c r="I61" s="3">
-        <v>2913500</v>
+        <v>2903100</v>
       </c>
       <c r="J61" s="3">
-        <v>2726300</v>
+        <v>2716500</v>
       </c>
       <c r="K61" s="3">
         <v>3462600</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1292700</v>
+        <v>1288100</v>
       </c>
       <c r="E62" s="3">
-        <v>1260700</v>
+        <v>1256200</v>
       </c>
       <c r="F62" s="3">
-        <v>1315400</v>
+        <v>1310700</v>
       </c>
       <c r="G62" s="3">
-        <v>1215000</v>
+        <v>1210700</v>
       </c>
       <c r="H62" s="3">
-        <v>1125900</v>
+        <v>1121900</v>
       </c>
       <c r="I62" s="3">
-        <v>1006000</v>
+        <v>1002400</v>
       </c>
       <c r="J62" s="3">
-        <v>992800</v>
+        <v>989200</v>
       </c>
       <c r="K62" s="3">
         <v>944500</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10453000</v>
+        <v>10415600</v>
       </c>
       <c r="E66" s="3">
-        <v>9690600</v>
+        <v>9656000</v>
       </c>
       <c r="F66" s="3">
-        <v>9517500</v>
+        <v>9483500</v>
       </c>
       <c r="G66" s="3">
-        <v>9026200</v>
+        <v>8994000</v>
       </c>
       <c r="H66" s="3">
-        <v>9055800</v>
+        <v>9023400</v>
       </c>
       <c r="I66" s="3">
-        <v>9150100</v>
+        <v>9117400</v>
       </c>
       <c r="J66" s="3">
-        <v>8795100</v>
+        <v>8763700</v>
       </c>
       <c r="K66" s="3">
         <v>8071700</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7600500</v>
+        <v>7573400</v>
       </c>
       <c r="E72" s="3">
-        <v>7431000</v>
+        <v>7404500</v>
       </c>
       <c r="F72" s="3">
-        <v>7590500</v>
+        <v>7563400</v>
       </c>
       <c r="G72" s="3">
-        <v>7440000</v>
+        <v>7413400</v>
       </c>
       <c r="H72" s="3">
-        <v>7398700</v>
+        <v>7372300</v>
       </c>
       <c r="I72" s="3">
-        <v>7066400</v>
+        <v>7041200</v>
       </c>
       <c r="J72" s="3">
-        <v>6849500</v>
+        <v>6825000</v>
       </c>
       <c r="K72" s="3">
         <v>6559500</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8907600</v>
+        <v>8875800</v>
       </c>
       <c r="E76" s="3">
-        <v>8231300</v>
+        <v>8201900</v>
       </c>
       <c r="F76" s="3">
-        <v>8579300</v>
+        <v>8548600</v>
       </c>
       <c r="G76" s="3">
-        <v>8393800</v>
+        <v>8363800</v>
       </c>
       <c r="H76" s="3">
-        <v>8039100</v>
+        <v>8010400</v>
       </c>
       <c r="I76" s="3">
-        <v>8230300</v>
+        <v>8200900</v>
       </c>
       <c r="J76" s="3">
-        <v>8089600</v>
+        <v>8060700</v>
       </c>
       <c r="K76" s="3">
         <v>7584500</v>
@@ -3575,25 +3575,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>430300</v>
+        <v>428800</v>
       </c>
       <c r="E81" s="3">
-        <v>343600</v>
+        <v>342300</v>
       </c>
       <c r="F81" s="3">
-        <v>396300</v>
+        <v>394900</v>
       </c>
       <c r="G81" s="3">
-        <v>501100</v>
+        <v>499300</v>
       </c>
       <c r="H81" s="3">
-        <v>582700</v>
+        <v>580700</v>
       </c>
       <c r="I81" s="3">
-        <v>617000</v>
+        <v>614800</v>
       </c>
       <c r="J81" s="3">
-        <v>483500</v>
+        <v>481800</v>
       </c>
       <c r="K81" s="3">
         <v>575700</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>717600</v>
+        <v>715000</v>
       </c>
       <c r="E89" s="3">
-        <v>559100</v>
+        <v>557200</v>
       </c>
       <c r="F89" s="3">
-        <v>648800</v>
+        <v>646500</v>
       </c>
       <c r="G89" s="3">
-        <v>628200</v>
+        <v>626000</v>
       </c>
       <c r="H89" s="3">
-        <v>570500</v>
+        <v>568500</v>
       </c>
       <c r="I89" s="3">
-        <v>645500</v>
+        <v>643200</v>
       </c>
       <c r="J89" s="3">
-        <v>532300</v>
+        <v>530400</v>
       </c>
       <c r="K89" s="3">
         <v>565500</v>
@@ -3975,10 +3975,10 @@
         <v>-25900</v>
       </c>
       <c r="H91" s="3">
-        <v>-8300</v>
+        <v>-8200</v>
       </c>
       <c r="I91" s="3">
-        <v>-14800</v>
+        <v>-14700</v>
       </c>
       <c r="J91" s="3">
         <v>-5600</v>
@@ -4095,25 +4095,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-496400</v>
+        <v>-494700</v>
       </c>
       <c r="E94" s="3">
-        <v>-275200</v>
+        <v>-274200</v>
       </c>
       <c r="F94" s="3">
-        <v>-331500</v>
+        <v>-330400</v>
       </c>
       <c r="G94" s="3">
-        <v>-351400</v>
+        <v>-350100</v>
       </c>
       <c r="H94" s="3">
-        <v>-127800</v>
+        <v>-127300</v>
       </c>
       <c r="I94" s="3">
-        <v>-358800</v>
+        <v>-357500</v>
       </c>
       <c r="J94" s="3">
-        <v>-150600</v>
+        <v>-150100</v>
       </c>
       <c r="K94" s="3">
         <v>-64600</v>
@@ -4157,25 +4157,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-274700</v>
+        <v>-273800</v>
       </c>
       <c r="E96" s="3">
-        <v>-501500</v>
+        <v>-499700</v>
       </c>
       <c r="F96" s="3">
-        <v>-261700</v>
+        <v>-260700</v>
       </c>
       <c r="G96" s="3">
-        <v>-455900</v>
+        <v>-454300</v>
       </c>
       <c r="H96" s="3">
-        <v>-237900</v>
+        <v>-237000</v>
       </c>
       <c r="I96" s="3">
-        <v>-414500</v>
+        <v>-413000</v>
       </c>
       <c r="J96" s="3">
-        <v>-216200</v>
+        <v>-215500</v>
       </c>
       <c r="K96" s="3">
         <v>-376500</v>
@@ -4333,25 +4333,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-371000</v>
+        <v>-369700</v>
       </c>
       <c r="E100" s="3">
-        <v>-211400</v>
+        <v>-210600</v>
       </c>
       <c r="F100" s="3">
-        <v>-229300</v>
+        <v>-228500</v>
       </c>
       <c r="G100" s="3">
-        <v>-442400</v>
+        <v>-440800</v>
       </c>
       <c r="H100" s="3">
-        <v>-853600</v>
+        <v>-850500</v>
       </c>
       <c r="I100" s="3">
-        <v>-149800</v>
+        <v>-149300</v>
       </c>
       <c r="J100" s="3">
-        <v>-134300</v>
+        <v>-133800</v>
       </c>
       <c r="K100" s="3">
         <v>-424400</v>
@@ -4377,10 +4377,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>34900</v>
+        <v>34800</v>
       </c>
       <c r="E101" s="3">
-        <v>-8400</v>
+        <v>-8300</v>
       </c>
       <c r="F101" s="3">
         <v>-5900</v>
@@ -4389,7 +4389,7 @@
         <v>-500</v>
       </c>
       <c r="H101" s="3">
-        <v>-13900</v>
+        <v>-13800</v>
       </c>
       <c r="I101" s="3">
         <v>-3100</v>
@@ -4421,25 +4421,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-114900</v>
+        <v>-114500</v>
       </c>
       <c r="E102" s="3">
-        <v>64200</v>
+        <v>63900</v>
       </c>
       <c r="F102" s="3">
-        <v>82100</v>
+        <v>81800</v>
       </c>
       <c r="G102" s="3">
-        <v>-166000</v>
+        <v>-165400</v>
       </c>
       <c r="H102" s="3">
-        <v>-424700</v>
+        <v>-423200</v>
       </c>
       <c r="I102" s="3">
-        <v>133900</v>
+        <v>133400</v>
       </c>
       <c r="J102" s="3">
-        <v>260300</v>
+        <v>259400</v>
       </c>
       <c r="K102" s="3">
         <v>85200</v>

--- a/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>HOKCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2912900</v>
+        <v>3170300</v>
       </c>
       <c r="E8" s="3">
-        <v>2340900</v>
+        <v>2909300</v>
       </c>
       <c r="F8" s="3">
-        <v>2602900</v>
+        <v>2337900</v>
       </c>
       <c r="G8" s="3">
-        <v>2612600</v>
+        <v>2599600</v>
       </c>
       <c r="H8" s="3">
-        <v>2545800</v>
+        <v>2609300</v>
       </c>
       <c r="I8" s="3">
-        <v>2470000</v>
+        <v>2542600</v>
       </c>
       <c r="J8" s="3">
+        <v>2467000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2188100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1986400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1857300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1824000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1848200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1921400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2023300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1615100</v>
+        <v>1859400</v>
       </c>
       <c r="E9" s="3">
-        <v>1207300</v>
+        <v>1613100</v>
       </c>
       <c r="F9" s="3">
-        <v>1376800</v>
+        <v>1205800</v>
       </c>
       <c r="G9" s="3">
-        <v>1422200</v>
+        <v>1375100</v>
       </c>
       <c r="H9" s="3">
-        <v>1352900</v>
+        <v>1420400</v>
       </c>
       <c r="I9" s="3">
-        <v>1291200</v>
+        <v>1351300</v>
       </c>
       <c r="J9" s="3">
+        <v>1289600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1088000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>928900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>839400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>799000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>853600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>942300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1030700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1297800</v>
+        <v>1311000</v>
       </c>
       <c r="E10" s="3">
-        <v>1133600</v>
+        <v>1296200</v>
       </c>
       <c r="F10" s="3">
-        <v>1226100</v>
+        <v>1132200</v>
       </c>
       <c r="G10" s="3">
-        <v>1190400</v>
+        <v>1224500</v>
       </c>
       <c r="H10" s="3">
-        <v>1192800</v>
+        <v>1188900</v>
       </c>
       <c r="I10" s="3">
-        <v>1178800</v>
+        <v>1191300</v>
       </c>
       <c r="J10" s="3">
+        <v>1177400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1100100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1057500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1018000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1024900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>994600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>979100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>992600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -901,35 +915,38 @@
       <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3">
         <v>3000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,8 +989,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,79 +1009,85 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-29900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-5700</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>-3900</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>196700</v>
+        <v>205900</v>
       </c>
       <c r="E15" s="3">
-        <v>180800</v>
+        <v>196500</v>
       </c>
       <c r="F15" s="3">
-        <v>181300</v>
+        <v>180600</v>
       </c>
       <c r="G15" s="3">
-        <v>172200</v>
+        <v>181100</v>
       </c>
       <c r="H15" s="3">
-        <v>166200</v>
+        <v>172000</v>
       </c>
       <c r="I15" s="3">
-        <v>159500</v>
+        <v>166000</v>
       </c>
       <c r="J15" s="3">
+        <v>159300</v>
+      </c>
+      <c r="K15" s="3">
         <v>155500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>149800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>145100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>141500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>134100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>130300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2352200</v>
+        <v>2540800</v>
       </c>
       <c r="E17" s="3">
-        <v>1885200</v>
+        <v>2349200</v>
       </c>
       <c r="F17" s="3">
-        <v>1989200</v>
+        <v>1882800</v>
       </c>
       <c r="G17" s="3">
-        <v>2061600</v>
+        <v>1986800</v>
       </c>
       <c r="H17" s="3">
-        <v>2047100</v>
+        <v>2059000</v>
       </c>
       <c r="I17" s="3">
-        <v>1890000</v>
+        <v>2044600</v>
       </c>
       <c r="J17" s="3">
+        <v>1887600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1675100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1437400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1455400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1305600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1505200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1361200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1543600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>560800</v>
+        <v>629600</v>
       </c>
       <c r="E18" s="3">
-        <v>455700</v>
+        <v>560100</v>
       </c>
       <c r="F18" s="3">
-        <v>613600</v>
+        <v>455100</v>
       </c>
       <c r="G18" s="3">
-        <v>551000</v>
+        <v>612900</v>
       </c>
       <c r="H18" s="3">
-        <v>498700</v>
+        <v>550300</v>
       </c>
       <c r="I18" s="3">
-        <v>580100</v>
+        <v>498000</v>
       </c>
       <c r="J18" s="3">
+        <v>579300</v>
+      </c>
+      <c r="K18" s="3">
         <v>513100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>549000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>402000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>518400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>343000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>560300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,228 +1214,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>169600</v>
+        <v>227100</v>
       </c>
       <c r="E20" s="3">
-        <v>122600</v>
+        <v>169400</v>
       </c>
       <c r="F20" s="3">
-        <v>104000</v>
+        <v>122400</v>
       </c>
       <c r="G20" s="3">
-        <v>224900</v>
+        <v>103800</v>
       </c>
       <c r="H20" s="3">
-        <v>340800</v>
+        <v>224600</v>
       </c>
       <c r="I20" s="3">
-        <v>315600</v>
+        <v>340300</v>
       </c>
       <c r="J20" s="3">
+        <v>315200</v>
+      </c>
+      <c r="K20" s="3">
         <v>249200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>276900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>227000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>277300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>276900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>225500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>189800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>748100</v>
+        <v>1062500</v>
       </c>
       <c r="E21" s="3">
-        <v>759000</v>
+        <v>747200</v>
       </c>
       <c r="F21" s="3">
-        <v>728000</v>
+        <v>758100</v>
       </c>
       <c r="G21" s="3">
-        <v>948100</v>
+        <v>727100</v>
       </c>
       <c r="H21" s="3">
-        <v>846200</v>
+        <v>946900</v>
       </c>
       <c r="I21" s="3">
-        <v>1055100</v>
+        <v>845100</v>
       </c>
       <c r="J21" s="3">
+        <v>1053800</v>
+      </c>
+      <c r="K21" s="3">
         <v>768400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>975700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>632300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>937200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>623700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>916100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>676400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>84500</v>
+        <v>82200</v>
       </c>
       <c r="E22" s="3">
-        <v>78300</v>
+        <v>84400</v>
       </c>
       <c r="F22" s="3">
-        <v>86100</v>
+        <v>78200</v>
       </c>
       <c r="G22" s="3">
-        <v>71800</v>
+        <v>86000</v>
       </c>
       <c r="H22" s="3">
-        <v>72800</v>
+        <v>71700</v>
       </c>
       <c r="I22" s="3">
-        <v>78200</v>
+        <v>72700</v>
       </c>
       <c r="J22" s="3">
+        <v>78100</v>
+      </c>
+      <c r="K22" s="3">
         <v>82400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>79200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>81400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>74300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>81300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>62500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>645800</v>
+        <v>774500</v>
       </c>
       <c r="E23" s="3">
-        <v>499900</v>
+        <v>645000</v>
       </c>
       <c r="F23" s="3">
-        <v>631500</v>
+        <v>499300</v>
       </c>
       <c r="G23" s="3">
-        <v>704100</v>
+        <v>630700</v>
       </c>
       <c r="H23" s="3">
-        <v>766600</v>
+        <v>703200</v>
       </c>
       <c r="I23" s="3">
-        <v>817400</v>
+        <v>765700</v>
       </c>
       <c r="J23" s="3">
+        <v>816400</v>
+      </c>
+      <c r="K23" s="3">
         <v>679900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>746700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>547600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>721400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>538700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>723300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>603500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>129200</v>
+        <v>150300</v>
       </c>
       <c r="E24" s="3">
-        <v>90700</v>
+        <v>129100</v>
       </c>
       <c r="F24" s="3">
-        <v>165600</v>
+        <v>90600</v>
       </c>
       <c r="G24" s="3">
-        <v>128300</v>
+        <v>165400</v>
       </c>
       <c r="H24" s="3">
-        <v>117000</v>
+        <v>128100</v>
       </c>
       <c r="I24" s="3">
-        <v>127900</v>
+        <v>116800</v>
       </c>
       <c r="J24" s="3">
+        <v>127700</v>
+      </c>
+      <c r="K24" s="3">
         <v>120300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>104700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>103900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>99300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>98600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>121400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>103400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>516600</v>
+        <v>624200</v>
       </c>
       <c r="E26" s="3">
-        <v>409300</v>
+        <v>516000</v>
       </c>
       <c r="F26" s="3">
-        <v>465800</v>
+        <v>408700</v>
       </c>
       <c r="G26" s="3">
-        <v>575800</v>
+        <v>465300</v>
       </c>
       <c r="H26" s="3">
-        <v>649600</v>
+        <v>575100</v>
       </c>
       <c r="I26" s="3">
-        <v>689500</v>
+        <v>648800</v>
       </c>
       <c r="J26" s="3">
+        <v>688600</v>
+      </c>
+      <c r="K26" s="3">
         <v>559600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>642000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>443700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>622100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>440100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>601900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>428800</v>
+        <v>538500</v>
       </c>
       <c r="E27" s="3">
-        <v>342300</v>
+        <v>428300</v>
       </c>
       <c r="F27" s="3">
-        <v>394900</v>
+        <v>341900</v>
       </c>
       <c r="G27" s="3">
-        <v>499300</v>
+        <v>394400</v>
       </c>
       <c r="H27" s="3">
-        <v>580700</v>
+        <v>498700</v>
       </c>
       <c r="I27" s="3">
-        <v>614800</v>
+        <v>579900</v>
       </c>
       <c r="J27" s="3">
+        <v>614000</v>
+      </c>
+      <c r="K27" s="3">
         <v>481800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>575700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>388400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>557800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>395500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>534700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1621,8 +1682,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-169600</v>
+        <v>-227100</v>
       </c>
       <c r="E32" s="3">
-        <v>-122600</v>
+        <v>-169400</v>
       </c>
       <c r="F32" s="3">
-        <v>-104000</v>
+        <v>-122400</v>
       </c>
       <c r="G32" s="3">
-        <v>-224900</v>
+        <v>-103800</v>
       </c>
       <c r="H32" s="3">
-        <v>-340800</v>
+        <v>-224600</v>
       </c>
       <c r="I32" s="3">
-        <v>-315600</v>
+        <v>-340300</v>
       </c>
       <c r="J32" s="3">
+        <v>-315200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-249200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-276900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-227000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-277300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-276900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-225500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-189800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>428800</v>
+        <v>538500</v>
       </c>
       <c r="E33" s="3">
-        <v>342300</v>
+        <v>428300</v>
       </c>
       <c r="F33" s="3">
-        <v>394900</v>
+        <v>341900</v>
       </c>
       <c r="G33" s="3">
-        <v>499300</v>
+        <v>394400</v>
       </c>
       <c r="H33" s="3">
-        <v>580700</v>
+        <v>498700</v>
       </c>
       <c r="I33" s="3">
-        <v>614800</v>
+        <v>579900</v>
       </c>
       <c r="J33" s="3">
+        <v>614000</v>
+      </c>
+      <c r="K33" s="3">
         <v>481800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>575700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>388400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>557800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>395500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>534700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>428800</v>
+        <v>538500</v>
       </c>
       <c r="E35" s="3">
-        <v>342300</v>
+        <v>428300</v>
       </c>
       <c r="F35" s="3">
-        <v>394900</v>
+        <v>341900</v>
       </c>
       <c r="G35" s="3">
-        <v>499300</v>
+        <v>394400</v>
       </c>
       <c r="H35" s="3">
-        <v>580700</v>
+        <v>498700</v>
       </c>
       <c r="I35" s="3">
-        <v>614800</v>
+        <v>579900</v>
       </c>
       <c r="J35" s="3">
+        <v>614000</v>
+      </c>
+      <c r="K35" s="3">
         <v>481800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>575700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>388400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>557800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>395500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>534700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,404 +2056,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>957000</v>
+        <v>1073600</v>
       </c>
       <c r="E41" s="3">
-        <v>1071500</v>
+        <v>955800</v>
       </c>
       <c r="F41" s="3">
-        <v>1007600</v>
+        <v>1070200</v>
       </c>
       <c r="G41" s="3">
-        <v>925800</v>
+        <v>1006300</v>
       </c>
       <c r="H41" s="3">
-        <v>1091200</v>
+        <v>924700</v>
       </c>
       <c r="I41" s="3">
-        <v>1514500</v>
+        <v>1089900</v>
       </c>
       <c r="J41" s="3">
+        <v>1512600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1381100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1124800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1042100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>916800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1519200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1751800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1613500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>52300</v>
+        <v>19400</v>
       </c>
       <c r="E42" s="3">
+        <v>52200</v>
+      </c>
+      <c r="F42" s="3">
         <v>38500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>44700</v>
       </c>
-      <c r="G42" s="3">
-        <v>89400</v>
-      </c>
       <c r="H42" s="3">
-        <v>87300</v>
+        <v>89300</v>
       </c>
       <c r="I42" s="3">
-        <v>219400</v>
+        <v>87200</v>
       </c>
       <c r="J42" s="3">
+        <v>219100</v>
+      </c>
+      <c r="K42" s="3">
         <v>286600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>246600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>456200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>708100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>170600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>56000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>162400</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>958300</v>
+        <v>942900</v>
       </c>
       <c r="E43" s="3">
-        <v>956300</v>
+        <v>957100</v>
       </c>
       <c r="F43" s="3">
-        <v>1005400</v>
+        <v>955100</v>
       </c>
       <c r="G43" s="3">
-        <v>1009700</v>
+        <v>1004200</v>
       </c>
       <c r="H43" s="3">
-        <v>945900</v>
+        <v>1008500</v>
       </c>
       <c r="I43" s="3">
-        <v>979800</v>
+        <v>944800</v>
       </c>
       <c r="J43" s="3">
+        <v>978600</v>
+      </c>
+      <c r="K43" s="3">
         <v>916200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>819300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>798600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>822200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>870600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>841500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>830500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>342900</v>
+        <v>335400</v>
       </c>
       <c r="E44" s="3">
-        <v>304600</v>
+        <v>342400</v>
       </c>
       <c r="F44" s="3">
-        <v>303400</v>
+        <v>304200</v>
       </c>
       <c r="G44" s="3">
-        <v>310000</v>
+        <v>303000</v>
       </c>
       <c r="H44" s="3">
-        <v>318400</v>
+        <v>309600</v>
       </c>
       <c r="I44" s="3">
-        <v>308300</v>
+        <v>318100</v>
       </c>
       <c r="J44" s="3">
+        <v>307900</v>
+      </c>
+      <c r="K44" s="3">
         <v>331000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>289200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>272300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>271700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>291900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>296100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>292200</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>277100</v>
+        <v>245400</v>
       </c>
       <c r="E45" s="3">
-        <v>202300</v>
+        <v>276800</v>
       </c>
       <c r="F45" s="3">
-        <v>222800</v>
+        <v>202100</v>
       </c>
       <c r="G45" s="3">
-        <v>189800</v>
+        <v>222600</v>
       </c>
       <c r="H45" s="3">
-        <v>203000</v>
+        <v>189600</v>
       </c>
       <c r="I45" s="3">
-        <v>193500</v>
+        <v>202800</v>
       </c>
       <c r="J45" s="3">
+        <v>193200</v>
+      </c>
+      <c r="K45" s="3">
         <v>213000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>180300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>162500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>165600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>158300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>237000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>255400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2587500</v>
+        <v>2616800</v>
       </c>
       <c r="E46" s="3">
-        <v>2573200</v>
+        <v>2584300</v>
       </c>
       <c r="F46" s="3">
-        <v>2584000</v>
+        <v>2570000</v>
       </c>
       <c r="G46" s="3">
-        <v>2524800</v>
+        <v>2580800</v>
       </c>
       <c r="H46" s="3">
-        <v>2646000</v>
+        <v>2521700</v>
       </c>
       <c r="I46" s="3">
-        <v>3215400</v>
+        <v>2642700</v>
       </c>
       <c r="J46" s="3">
+        <v>3211400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3127800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2660200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2731700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2884300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3010600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3182300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3154100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6179300</v>
+        <v>6323400</v>
       </c>
       <c r="E47" s="3">
-        <v>5832000</v>
+        <v>6171600</v>
       </c>
       <c r="F47" s="3">
-        <v>5984000</v>
+        <v>5824700</v>
       </c>
       <c r="G47" s="3">
-        <v>5489300</v>
+        <v>5976600</v>
       </c>
       <c r="H47" s="3">
-        <v>5385600</v>
+        <v>5482500</v>
       </c>
       <c r="I47" s="3">
-        <v>5189800</v>
+        <v>5378900</v>
       </c>
       <c r="J47" s="3">
+        <v>5183300</v>
+      </c>
+      <c r="K47" s="3">
         <v>4986200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4840600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4539900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4484700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4281400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4318500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3772500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9212200</v>
+        <v>9562500</v>
       </c>
       <c r="E48" s="3">
-        <v>8303500</v>
+        <v>9200700</v>
       </c>
       <c r="F48" s="3">
-        <v>8297600</v>
+        <v>8293200</v>
       </c>
       <c r="G48" s="3">
-        <v>8148900</v>
+        <v>8287200</v>
       </c>
       <c r="H48" s="3">
-        <v>7542600</v>
+        <v>8138800</v>
       </c>
       <c r="I48" s="3">
-        <v>7459800</v>
+        <v>7533200</v>
       </c>
       <c r="J48" s="3">
+        <v>7450500</v>
+      </c>
+      <c r="K48" s="3">
         <v>7264600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6774200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6443600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6338500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6136200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6059800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6448400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>701300</v>
+        <v>720200</v>
       </c>
       <c r="E49" s="3">
-        <v>660500</v>
+        <v>700400</v>
       </c>
       <c r="F49" s="3">
-        <v>679200</v>
+        <v>659700</v>
       </c>
       <c r="G49" s="3">
-        <v>728000</v>
+        <v>678400</v>
       </c>
       <c r="H49" s="3">
-        <v>729400</v>
+        <v>727100</v>
       </c>
       <c r="I49" s="3">
-        <v>748500</v>
+        <v>728500</v>
       </c>
       <c r="J49" s="3">
+        <v>747600</v>
+      </c>
+      <c r="K49" s="3">
         <v>755300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>729300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>719000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>735200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>741300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>762600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>749900</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>611200</v>
+        <v>1295000</v>
       </c>
       <c r="E52" s="3">
-        <v>488700</v>
+        <v>610400</v>
       </c>
       <c r="F52" s="3">
-        <v>487300</v>
+        <v>488100</v>
       </c>
       <c r="G52" s="3">
-        <v>466800</v>
+        <v>486700</v>
       </c>
       <c r="H52" s="3">
-        <v>730200</v>
+        <v>466200</v>
       </c>
       <c r="I52" s="3">
-        <v>704800</v>
+        <v>729300</v>
       </c>
       <c r="J52" s="3">
+        <v>703900</v>
+      </c>
+      <c r="K52" s="3">
         <v>690500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>651900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>629300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>628400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>552100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>535900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19291500</v>
+        <v>20517800</v>
       </c>
       <c r="E54" s="3">
-        <v>17857900</v>
+        <v>19267400</v>
       </c>
       <c r="F54" s="3">
-        <v>18032100</v>
+        <v>17835600</v>
       </c>
       <c r="G54" s="3">
-        <v>17357800</v>
+        <v>18009700</v>
       </c>
       <c r="H54" s="3">
-        <v>17033800</v>
+        <v>17336200</v>
       </c>
       <c r="I54" s="3">
-        <v>17318300</v>
+        <v>17012600</v>
       </c>
       <c r="J54" s="3">
+        <v>17296700</v>
+      </c>
+      <c r="K54" s="3">
         <v>16824400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15656200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15063400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15071200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14721600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14859100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14644600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,272 +2752,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>522800</v>
+        <v>415100</v>
       </c>
       <c r="E57" s="3">
-        <v>474200</v>
+        <v>459800</v>
       </c>
       <c r="F57" s="3">
-        <v>507000</v>
+        <v>365600</v>
       </c>
       <c r="G57" s="3">
-        <v>511600</v>
+        <v>385500</v>
       </c>
       <c r="H57" s="3">
-        <v>529900</v>
+        <v>354900</v>
       </c>
       <c r="I57" s="3">
-        <v>441800</v>
+        <v>394600</v>
       </c>
       <c r="J57" s="3">
+        <v>344200</v>
+      </c>
+      <c r="K57" s="3">
         <v>528300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>435900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>434300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>430200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1593500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1528300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1615400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1420500</v>
+        <v>2287100</v>
       </c>
       <c r="E58" s="3">
-        <v>1286700</v>
+        <v>1418700</v>
       </c>
       <c r="F58" s="3">
-        <v>1213400</v>
+        <v>1285100</v>
       </c>
       <c r="G58" s="3">
-        <v>1197400</v>
+        <v>1211900</v>
       </c>
       <c r="H58" s="3">
-        <v>1355600</v>
+        <v>1195900</v>
       </c>
       <c r="I58" s="3">
-        <v>2255000</v>
+        <v>1353900</v>
       </c>
       <c r="J58" s="3">
+        <v>2252200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2045200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1010000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>792000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>833400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1237200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1236000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>902400</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1883000</v>
+        <v>2017800</v>
       </c>
       <c r="E59" s="3">
-        <v>1589100</v>
+        <v>1943000</v>
       </c>
       <c r="F59" s="3">
-        <v>1638700</v>
+        <v>1695200</v>
       </c>
       <c r="G59" s="3">
-        <v>1471700</v>
+        <v>1757600</v>
       </c>
       <c r="H59" s="3">
-        <v>1471500</v>
+        <v>1625900</v>
       </c>
       <c r="I59" s="3">
-        <v>1524300</v>
+        <v>1604200</v>
       </c>
       <c r="J59" s="3">
+        <v>1619500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1527700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1336600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1295900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1261000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>122200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>159600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3826200</v>
+        <v>4719900</v>
       </c>
       <c r="E60" s="3">
-        <v>3350000</v>
+        <v>3821500</v>
       </c>
       <c r="F60" s="3">
-        <v>3359100</v>
+        <v>3345900</v>
       </c>
       <c r="G60" s="3">
-        <v>3180600</v>
+        <v>3354900</v>
       </c>
       <c r="H60" s="3">
-        <v>3357000</v>
+        <v>3176700</v>
       </c>
       <c r="I60" s="3">
-        <v>4221200</v>
+        <v>3352800</v>
       </c>
       <c r="J60" s="3">
+        <v>4215900</v>
+      </c>
+      <c r="K60" s="3">
         <v>4101200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2782500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2522200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2524600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2953000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2923900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2648300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4016200</v>
+        <v>4296900</v>
       </c>
       <c r="E61" s="3">
-        <v>3933800</v>
+        <v>4011200</v>
       </c>
       <c r="F61" s="3">
-        <v>3683700</v>
+        <v>3928900</v>
       </c>
       <c r="G61" s="3">
-        <v>3564600</v>
+        <v>3679100</v>
       </c>
       <c r="H61" s="3">
-        <v>3544200</v>
+        <v>3560200</v>
       </c>
       <c r="I61" s="3">
-        <v>2903100</v>
+        <v>3539800</v>
       </c>
       <c r="J61" s="3">
+        <v>2899500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2716500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3462600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3522000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3556600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2976300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2963300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3134000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1288100</v>
+        <v>1262000</v>
       </c>
       <c r="E62" s="3">
-        <v>1256200</v>
+        <v>1286500</v>
       </c>
       <c r="F62" s="3">
-        <v>1310700</v>
+        <v>1254600</v>
       </c>
       <c r="G62" s="3">
-        <v>1210700</v>
+        <v>1309100</v>
       </c>
       <c r="H62" s="3">
-        <v>1121900</v>
+        <v>1209200</v>
       </c>
       <c r="I62" s="3">
-        <v>1002400</v>
+        <v>1120500</v>
       </c>
       <c r="J62" s="3">
+        <v>1001100</v>
+      </c>
+      <c r="K62" s="3">
         <v>989200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>944500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>903400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>880500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>879800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>867800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>897700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10415600</v>
+        <v>11603900</v>
       </c>
       <c r="E66" s="3">
-        <v>9656000</v>
+        <v>10402700</v>
       </c>
       <c r="F66" s="3">
-        <v>9483500</v>
+        <v>9644000</v>
       </c>
       <c r="G66" s="3">
-        <v>8994000</v>
+        <v>9471700</v>
       </c>
       <c r="H66" s="3">
-        <v>9023400</v>
+        <v>8982800</v>
       </c>
       <c r="I66" s="3">
-        <v>9117400</v>
+        <v>9012200</v>
       </c>
       <c r="J66" s="3">
+        <v>9106000</v>
+      </c>
+      <c r="K66" s="3">
         <v>8763700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8071700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7800800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7844700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7690300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7668400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7606900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7573400</v>
+        <v>7573500</v>
       </c>
       <c r="E72" s="3">
-        <v>7404500</v>
+        <v>7563900</v>
       </c>
       <c r="F72" s="3">
-        <v>7563400</v>
+        <v>7395200</v>
       </c>
       <c r="G72" s="3">
-        <v>7413400</v>
+        <v>7554000</v>
       </c>
       <c r="H72" s="3">
-        <v>7372300</v>
+        <v>7404200</v>
       </c>
       <c r="I72" s="3">
-        <v>7041200</v>
+        <v>7363100</v>
       </c>
       <c r="J72" s="3">
+        <v>7032400</v>
+      </c>
+      <c r="K72" s="3">
         <v>6825000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6559500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6380300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6185900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5906400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5746800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5544700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8875800</v>
+        <v>8913900</v>
       </c>
       <c r="E76" s="3">
-        <v>8201900</v>
+        <v>8864800</v>
       </c>
       <c r="F76" s="3">
-        <v>8548600</v>
+        <v>8191700</v>
       </c>
       <c r="G76" s="3">
-        <v>8363800</v>
+        <v>8538000</v>
       </c>
       <c r="H76" s="3">
-        <v>8010400</v>
+        <v>8353400</v>
       </c>
       <c r="I76" s="3">
-        <v>8200900</v>
+        <v>8000400</v>
       </c>
       <c r="J76" s="3">
+        <v>8190700</v>
+      </c>
+      <c r="K76" s="3">
         <v>8060700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7584500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7262600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7226400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7031300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7190700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7037700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>428800</v>
+        <v>538500</v>
       </c>
       <c r="E81" s="3">
-        <v>342300</v>
+        <v>428300</v>
       </c>
       <c r="F81" s="3">
-        <v>394900</v>
+        <v>341900</v>
       </c>
       <c r="G81" s="3">
-        <v>499300</v>
+        <v>394400</v>
       </c>
       <c r="H81" s="3">
-        <v>580700</v>
+        <v>498700</v>
       </c>
       <c r="I81" s="3">
-        <v>614800</v>
+        <v>579900</v>
       </c>
       <c r="J81" s="3">
+        <v>614000</v>
+      </c>
+      <c r="K81" s="3">
         <v>481800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>575700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>388400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>557800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>395500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>534700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,8 +3829,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3675,8 +3874,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>715000</v>
+        <v>676400</v>
       </c>
       <c r="E89" s="3">
-        <v>557200</v>
+        <v>714100</v>
       </c>
       <c r="F89" s="3">
-        <v>646500</v>
+        <v>556500</v>
       </c>
       <c r="G89" s="3">
-        <v>626000</v>
+        <v>645700</v>
       </c>
       <c r="H89" s="3">
-        <v>568500</v>
+        <v>625200</v>
       </c>
       <c r="I89" s="3">
-        <v>643200</v>
+        <v>567800</v>
       </c>
       <c r="J89" s="3">
+        <v>642400</v>
+      </c>
+      <c r="K89" s="3">
         <v>530400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>565500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>528000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>563700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>529900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>524500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>532200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5300</v>
       </c>
-      <c r="F91" s="3">
-        <v>-12900</v>
-      </c>
       <c r="G91" s="3">
-        <v>-25900</v>
+        <v>-12800</v>
       </c>
       <c r="H91" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="I91" s="3">
         <v>-8200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-317700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-441200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-339700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-419600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-348400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-489100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-494700</v>
+        <v>-1011900</v>
       </c>
       <c r="E94" s="3">
-        <v>-274200</v>
+        <v>-494000</v>
       </c>
       <c r="F94" s="3">
-        <v>-330400</v>
+        <v>-273900</v>
       </c>
       <c r="G94" s="3">
-        <v>-350100</v>
+        <v>-329900</v>
       </c>
       <c r="H94" s="3">
-        <v>-127300</v>
+        <v>-349700</v>
       </c>
       <c r="I94" s="3">
-        <v>-357500</v>
+        <v>-127200</v>
       </c>
       <c r="J94" s="3">
+        <v>-357000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-150100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-64600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-821400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-423300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-180400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-210000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,52 +4384,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-273800</v>
+        <v>-524000</v>
       </c>
       <c r="E96" s="3">
-        <v>-499700</v>
+        <v>-273400</v>
       </c>
       <c r="F96" s="3">
-        <v>-260700</v>
+        <v>-499100</v>
       </c>
       <c r="G96" s="3">
-        <v>-454300</v>
+        <v>-260400</v>
       </c>
       <c r="H96" s="3">
-        <v>-237000</v>
+        <v>-453700</v>
       </c>
       <c r="I96" s="3">
-        <v>-413000</v>
+        <v>-236700</v>
       </c>
       <c r="J96" s="3">
+        <v>-412500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-215500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-376500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-196900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-342500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-176800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-308000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-161500</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,136 +4570,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-369700</v>
+        <v>447900</v>
       </c>
       <c r="E100" s="3">
-        <v>-210600</v>
+        <v>-369200</v>
       </c>
       <c r="F100" s="3">
-        <v>-228500</v>
+        <v>-210400</v>
       </c>
       <c r="G100" s="3">
-        <v>-440800</v>
+        <v>-228200</v>
       </c>
       <c r="H100" s="3">
-        <v>-850500</v>
+        <v>-440300</v>
       </c>
       <c r="I100" s="3">
-        <v>-149300</v>
+        <v>-849500</v>
       </c>
       <c r="J100" s="3">
+        <v>-149100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-133800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-424400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-376100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-355200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-305700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-234700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>34800</v>
+        <v>5500</v>
       </c>
       <c r="E101" s="3">
+        <v>34700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-8300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-13800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>12900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-16600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-33400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-114500</v>
+        <v>117800</v>
       </c>
       <c r="E102" s="3">
+        <v>-114400</v>
+      </c>
+      <c r="F102" s="3">
         <v>63900</v>
       </c>
-      <c r="F102" s="3">
-        <v>81800</v>
-      </c>
       <c r="G102" s="3">
-        <v>-165400</v>
+        <v>81700</v>
       </c>
       <c r="H102" s="3">
-        <v>-423200</v>
+        <v>-165200</v>
       </c>
       <c r="I102" s="3">
-        <v>133400</v>
+        <v>-422700</v>
       </c>
       <c r="J102" s="3">
+        <v>133200</v>
+      </c>
+      <c r="K102" s="3">
         <v>259400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>85200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>123600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-619200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-232600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>146000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>87700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3170300</v>
+        <v>3158700</v>
       </c>
       <c r="E8" s="3">
-        <v>2909300</v>
+        <v>2898600</v>
       </c>
       <c r="F8" s="3">
-        <v>2337900</v>
+        <v>2329400</v>
       </c>
       <c r="G8" s="3">
-        <v>2599600</v>
+        <v>2590100</v>
       </c>
       <c r="H8" s="3">
-        <v>2609300</v>
+        <v>2599800</v>
       </c>
       <c r="I8" s="3">
-        <v>2542600</v>
+        <v>2533300</v>
       </c>
       <c r="J8" s="3">
-        <v>2467000</v>
+        <v>2457900</v>
       </c>
       <c r="K8" s="3">
         <v>2188100</v>
@@ -791,25 +791,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1859400</v>
+        <v>1852500</v>
       </c>
       <c r="E9" s="3">
-        <v>1613100</v>
+        <v>1607200</v>
       </c>
       <c r="F9" s="3">
-        <v>1205800</v>
+        <v>1201300</v>
       </c>
       <c r="G9" s="3">
-        <v>1375100</v>
+        <v>1370000</v>
       </c>
       <c r="H9" s="3">
-        <v>1420400</v>
+        <v>1415200</v>
       </c>
       <c r="I9" s="3">
-        <v>1351300</v>
+        <v>1346300</v>
       </c>
       <c r="J9" s="3">
-        <v>1289600</v>
+        <v>1284900</v>
       </c>
       <c r="K9" s="3">
         <v>1088000</v>
@@ -838,25 +838,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1311000</v>
+        <v>1306200</v>
       </c>
       <c r="E10" s="3">
-        <v>1296200</v>
+        <v>1291400</v>
       </c>
       <c r="F10" s="3">
-        <v>1132200</v>
+        <v>1128000</v>
       </c>
       <c r="G10" s="3">
-        <v>1224500</v>
+        <v>1220000</v>
       </c>
       <c r="H10" s="3">
-        <v>1188900</v>
+        <v>1184600</v>
       </c>
       <c r="I10" s="3">
-        <v>1191300</v>
+        <v>1187000</v>
       </c>
       <c r="J10" s="3">
-        <v>1177400</v>
+        <v>1173000</v>
       </c>
       <c r="K10" s="3">
         <v>1100100</v>
@@ -1045,25 +1045,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>205900</v>
+        <v>205100</v>
       </c>
       <c r="E15" s="3">
-        <v>196500</v>
+        <v>195700</v>
       </c>
       <c r="F15" s="3">
-        <v>180600</v>
+        <v>179900</v>
       </c>
       <c r="G15" s="3">
-        <v>181100</v>
+        <v>180400</v>
       </c>
       <c r="H15" s="3">
-        <v>172000</v>
+        <v>171300</v>
       </c>
       <c r="I15" s="3">
-        <v>166000</v>
+        <v>165400</v>
       </c>
       <c r="J15" s="3">
-        <v>159300</v>
+        <v>158700</v>
       </c>
       <c r="K15" s="3">
         <v>155500</v>
@@ -1108,25 +1108,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2540800</v>
+        <v>2531400</v>
       </c>
       <c r="E17" s="3">
-        <v>2349200</v>
+        <v>2340600</v>
       </c>
       <c r="F17" s="3">
-        <v>1882800</v>
+        <v>1875900</v>
       </c>
       <c r="G17" s="3">
-        <v>1986800</v>
+        <v>1979500</v>
       </c>
       <c r="H17" s="3">
-        <v>2059000</v>
+        <v>2051500</v>
       </c>
       <c r="I17" s="3">
-        <v>2044600</v>
+        <v>2037100</v>
       </c>
       <c r="J17" s="3">
-        <v>1887600</v>
+        <v>1880700</v>
       </c>
       <c r="K17" s="3">
         <v>1675100</v>
@@ -1155,25 +1155,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>629600</v>
+        <v>627300</v>
       </c>
       <c r="E18" s="3">
-        <v>560100</v>
+        <v>558000</v>
       </c>
       <c r="F18" s="3">
-        <v>455100</v>
+        <v>453400</v>
       </c>
       <c r="G18" s="3">
-        <v>612900</v>
+        <v>610600</v>
       </c>
       <c r="H18" s="3">
-        <v>550300</v>
+        <v>548300</v>
       </c>
       <c r="I18" s="3">
-        <v>498000</v>
+        <v>496200</v>
       </c>
       <c r="J18" s="3">
-        <v>579300</v>
+        <v>577200</v>
       </c>
       <c r="K18" s="3">
         <v>513100</v>
@@ -1221,25 +1221,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>227100</v>
+        <v>226300</v>
       </c>
       <c r="E20" s="3">
-        <v>169400</v>
+        <v>168800</v>
       </c>
       <c r="F20" s="3">
-        <v>122400</v>
+        <v>122000</v>
       </c>
       <c r="G20" s="3">
-        <v>103800</v>
+        <v>103400</v>
       </c>
       <c r="H20" s="3">
-        <v>224600</v>
+        <v>223800</v>
       </c>
       <c r="I20" s="3">
-        <v>340300</v>
+        <v>339100</v>
       </c>
       <c r="J20" s="3">
-        <v>315200</v>
+        <v>314000</v>
       </c>
       <c r="K20" s="3">
         <v>249200</v>
@@ -1268,25 +1268,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1062500</v>
+        <v>1058600</v>
       </c>
       <c r="E21" s="3">
-        <v>747200</v>
+        <v>744400</v>
       </c>
       <c r="F21" s="3">
-        <v>758100</v>
+        <v>755300</v>
       </c>
       <c r="G21" s="3">
-        <v>727100</v>
+        <v>724500</v>
       </c>
       <c r="H21" s="3">
-        <v>946900</v>
+        <v>943400</v>
       </c>
       <c r="I21" s="3">
-        <v>845100</v>
+        <v>842000</v>
       </c>
       <c r="J21" s="3">
-        <v>1053800</v>
+        <v>1049900</v>
       </c>
       <c r="K21" s="3">
         <v>768400</v>
@@ -1315,25 +1315,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>82200</v>
+        <v>81900</v>
       </c>
       <c r="E22" s="3">
-        <v>84400</v>
+        <v>84100</v>
       </c>
       <c r="F22" s="3">
-        <v>78200</v>
+        <v>77900</v>
       </c>
       <c r="G22" s="3">
-        <v>86000</v>
+        <v>85700</v>
       </c>
       <c r="H22" s="3">
-        <v>71700</v>
+        <v>71500</v>
       </c>
       <c r="I22" s="3">
-        <v>72700</v>
+        <v>72500</v>
       </c>
       <c r="J22" s="3">
-        <v>78100</v>
+        <v>77800</v>
       </c>
       <c r="K22" s="3">
         <v>82400</v>
@@ -1362,25 +1362,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>774500</v>
+        <v>771600</v>
       </c>
       <c r="E23" s="3">
-        <v>645000</v>
+        <v>642700</v>
       </c>
       <c r="F23" s="3">
-        <v>499300</v>
+        <v>497500</v>
       </c>
       <c r="G23" s="3">
-        <v>630700</v>
+        <v>628400</v>
       </c>
       <c r="H23" s="3">
-        <v>703200</v>
+        <v>700600</v>
       </c>
       <c r="I23" s="3">
-        <v>765700</v>
+        <v>762900</v>
       </c>
       <c r="J23" s="3">
-        <v>816400</v>
+        <v>813400</v>
       </c>
       <c r="K23" s="3">
         <v>679900</v>
@@ -1409,25 +1409,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>150300</v>
+        <v>149700</v>
       </c>
       <c r="E24" s="3">
-        <v>129100</v>
+        <v>128600</v>
       </c>
       <c r="F24" s="3">
-        <v>90600</v>
+        <v>90200</v>
       </c>
       <c r="G24" s="3">
-        <v>165400</v>
+        <v>164800</v>
       </c>
       <c r="H24" s="3">
-        <v>128100</v>
+        <v>127700</v>
       </c>
       <c r="I24" s="3">
-        <v>116800</v>
+        <v>116400</v>
       </c>
       <c r="J24" s="3">
-        <v>127700</v>
+        <v>127300</v>
       </c>
       <c r="K24" s="3">
         <v>120300</v>
@@ -1503,25 +1503,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>624200</v>
+        <v>621900</v>
       </c>
       <c r="E26" s="3">
-        <v>516000</v>
+        <v>514100</v>
       </c>
       <c r="F26" s="3">
-        <v>408700</v>
+        <v>407200</v>
       </c>
       <c r="G26" s="3">
-        <v>465300</v>
+        <v>463600</v>
       </c>
       <c r="H26" s="3">
-        <v>575100</v>
+        <v>573000</v>
       </c>
       <c r="I26" s="3">
-        <v>648800</v>
+        <v>646500</v>
       </c>
       <c r="J26" s="3">
-        <v>688600</v>
+        <v>686100</v>
       </c>
       <c r="K26" s="3">
         <v>559600</v>
@@ -1550,25 +1550,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>538500</v>
+        <v>536500</v>
       </c>
       <c r="E27" s="3">
-        <v>428300</v>
+        <v>426700</v>
       </c>
       <c r="F27" s="3">
-        <v>341900</v>
+        <v>340700</v>
       </c>
       <c r="G27" s="3">
-        <v>394400</v>
+        <v>393000</v>
       </c>
       <c r="H27" s="3">
-        <v>498700</v>
+        <v>496800</v>
       </c>
       <c r="I27" s="3">
-        <v>579900</v>
+        <v>577800</v>
       </c>
       <c r="J27" s="3">
-        <v>614000</v>
+        <v>611800</v>
       </c>
       <c r="K27" s="3">
         <v>481800</v>
@@ -1785,25 +1785,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-227100</v>
+        <v>-226300</v>
       </c>
       <c r="E32" s="3">
-        <v>-169400</v>
+        <v>-168800</v>
       </c>
       <c r="F32" s="3">
-        <v>-122400</v>
+        <v>-122000</v>
       </c>
       <c r="G32" s="3">
-        <v>-103800</v>
+        <v>-103400</v>
       </c>
       <c r="H32" s="3">
-        <v>-224600</v>
+        <v>-223800</v>
       </c>
       <c r="I32" s="3">
-        <v>-340300</v>
+        <v>-339100</v>
       </c>
       <c r="J32" s="3">
-        <v>-315200</v>
+        <v>-314000</v>
       </c>
       <c r="K32" s="3">
         <v>-249200</v>
@@ -1832,25 +1832,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>538500</v>
+        <v>536500</v>
       </c>
       <c r="E33" s="3">
-        <v>428300</v>
+        <v>426700</v>
       </c>
       <c r="F33" s="3">
-        <v>341900</v>
+        <v>340700</v>
       </c>
       <c r="G33" s="3">
-        <v>394400</v>
+        <v>393000</v>
       </c>
       <c r="H33" s="3">
-        <v>498700</v>
+        <v>496800</v>
       </c>
       <c r="I33" s="3">
-        <v>579900</v>
+        <v>577800</v>
       </c>
       <c r="J33" s="3">
-        <v>614000</v>
+        <v>611800</v>
       </c>
       <c r="K33" s="3">
         <v>481800</v>
@@ -1926,25 +1926,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>538500</v>
+        <v>536500</v>
       </c>
       <c r="E35" s="3">
-        <v>428300</v>
+        <v>426700</v>
       </c>
       <c r="F35" s="3">
-        <v>341900</v>
+        <v>340700</v>
       </c>
       <c r="G35" s="3">
-        <v>394400</v>
+        <v>393000</v>
       </c>
       <c r="H35" s="3">
-        <v>498700</v>
+        <v>496800</v>
       </c>
       <c r="I35" s="3">
-        <v>579900</v>
+        <v>577800</v>
       </c>
       <c r="J35" s="3">
-        <v>614000</v>
+        <v>611800</v>
       </c>
       <c r="K35" s="3">
         <v>481800</v>
@@ -2063,25 +2063,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1073600</v>
+        <v>1069700</v>
       </c>
       <c r="E41" s="3">
-        <v>955800</v>
+        <v>952300</v>
       </c>
       <c r="F41" s="3">
-        <v>1070200</v>
+        <v>1066200</v>
       </c>
       <c r="G41" s="3">
-        <v>1006300</v>
+        <v>1002600</v>
       </c>
       <c r="H41" s="3">
-        <v>924700</v>
+        <v>921300</v>
       </c>
       <c r="I41" s="3">
-        <v>1089900</v>
+        <v>1085900</v>
       </c>
       <c r="J41" s="3">
-        <v>1512600</v>
+        <v>1507000</v>
       </c>
       <c r="K41" s="3">
         <v>1381100</v>
@@ -2110,25 +2110,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19400</v>
+        <v>19300</v>
       </c>
       <c r="E42" s="3">
-        <v>52200</v>
+        <v>52000</v>
       </c>
       <c r="F42" s="3">
-        <v>38500</v>
+        <v>38300</v>
       </c>
       <c r="G42" s="3">
-        <v>44700</v>
+        <v>44500</v>
       </c>
       <c r="H42" s="3">
-        <v>89300</v>
+        <v>89000</v>
       </c>
       <c r="I42" s="3">
-        <v>87200</v>
+        <v>86900</v>
       </c>
       <c r="J42" s="3">
-        <v>219100</v>
+        <v>218300</v>
       </c>
       <c r="K42" s="3">
         <v>286600</v>
@@ -2157,25 +2157,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>942900</v>
+        <v>939500</v>
       </c>
       <c r="E43" s="3">
-        <v>957100</v>
+        <v>953600</v>
       </c>
       <c r="F43" s="3">
-        <v>955100</v>
+        <v>951600</v>
       </c>
       <c r="G43" s="3">
-        <v>1004200</v>
+        <v>1000500</v>
       </c>
       <c r="H43" s="3">
-        <v>1008500</v>
+        <v>1004800</v>
       </c>
       <c r="I43" s="3">
-        <v>944800</v>
+        <v>941300</v>
       </c>
       <c r="J43" s="3">
-        <v>978600</v>
+        <v>975000</v>
       </c>
       <c r="K43" s="3">
         <v>916200</v>
@@ -2204,25 +2204,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>335400</v>
+        <v>334100</v>
       </c>
       <c r="E44" s="3">
-        <v>342400</v>
+        <v>341200</v>
       </c>
       <c r="F44" s="3">
-        <v>304200</v>
+        <v>303100</v>
       </c>
       <c r="G44" s="3">
-        <v>303000</v>
+        <v>301900</v>
       </c>
       <c r="H44" s="3">
-        <v>309600</v>
+        <v>308500</v>
       </c>
       <c r="I44" s="3">
-        <v>318100</v>
+        <v>316900</v>
       </c>
       <c r="J44" s="3">
-        <v>307900</v>
+        <v>306800</v>
       </c>
       <c r="K44" s="3">
         <v>331000</v>
@@ -2251,25 +2251,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>245400</v>
+        <v>244500</v>
       </c>
       <c r="E45" s="3">
-        <v>276800</v>
+        <v>275700</v>
       </c>
       <c r="F45" s="3">
-        <v>202100</v>
+        <v>201300</v>
       </c>
       <c r="G45" s="3">
-        <v>222600</v>
+        <v>221700</v>
       </c>
       <c r="H45" s="3">
-        <v>189600</v>
+        <v>188900</v>
       </c>
       <c r="I45" s="3">
-        <v>202800</v>
+        <v>202000</v>
       </c>
       <c r="J45" s="3">
-        <v>193200</v>
+        <v>192500</v>
       </c>
       <c r="K45" s="3">
         <v>213000</v>
@@ -2298,25 +2298,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2616800</v>
+        <v>2607200</v>
       </c>
       <c r="E46" s="3">
-        <v>2584300</v>
+        <v>2574800</v>
       </c>
       <c r="F46" s="3">
-        <v>2570000</v>
+        <v>2560500</v>
       </c>
       <c r="G46" s="3">
-        <v>2580800</v>
+        <v>2571300</v>
       </c>
       <c r="H46" s="3">
-        <v>2521700</v>
+        <v>2512400</v>
       </c>
       <c r="I46" s="3">
-        <v>2642700</v>
+        <v>2633000</v>
       </c>
       <c r="J46" s="3">
-        <v>3211400</v>
+        <v>3199700</v>
       </c>
       <c r="K46" s="3">
         <v>3127800</v>
@@ -2345,25 +2345,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6323400</v>
+        <v>6300200</v>
       </c>
       <c r="E47" s="3">
-        <v>6171600</v>
+        <v>6149000</v>
       </c>
       <c r="F47" s="3">
-        <v>5824700</v>
+        <v>5803400</v>
       </c>
       <c r="G47" s="3">
-        <v>5976600</v>
+        <v>5954700</v>
       </c>
       <c r="H47" s="3">
-        <v>5482500</v>
+        <v>5462400</v>
       </c>
       <c r="I47" s="3">
-        <v>5378900</v>
+        <v>5359100</v>
       </c>
       <c r="J47" s="3">
-        <v>5183300</v>
+        <v>5164300</v>
       </c>
       <c r="K47" s="3">
         <v>4986200</v>
@@ -2392,25 +2392,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9562500</v>
+        <v>9527400</v>
       </c>
       <c r="E48" s="3">
-        <v>9200700</v>
+        <v>9167000</v>
       </c>
       <c r="F48" s="3">
-        <v>8293200</v>
+        <v>8262800</v>
       </c>
       <c r="G48" s="3">
-        <v>8287200</v>
+        <v>8256800</v>
       </c>
       <c r="H48" s="3">
-        <v>8138800</v>
+        <v>8108900</v>
       </c>
       <c r="I48" s="3">
-        <v>7533200</v>
+        <v>7505600</v>
       </c>
       <c r="J48" s="3">
-        <v>7450500</v>
+        <v>7423200</v>
       </c>
       <c r="K48" s="3">
         <v>7264600</v>
@@ -2439,25 +2439,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>720200</v>
+        <v>717600</v>
       </c>
       <c r="E49" s="3">
-        <v>700400</v>
+        <v>697800</v>
       </c>
       <c r="F49" s="3">
-        <v>659700</v>
+        <v>657300</v>
       </c>
       <c r="G49" s="3">
-        <v>678400</v>
+        <v>675900</v>
       </c>
       <c r="H49" s="3">
-        <v>727100</v>
+        <v>724400</v>
       </c>
       <c r="I49" s="3">
-        <v>728500</v>
+        <v>725800</v>
       </c>
       <c r="J49" s="3">
-        <v>747600</v>
+        <v>744900</v>
       </c>
       <c r="K49" s="3">
         <v>755300</v>
@@ -2580,25 +2580,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1295000</v>
+        <v>1290300</v>
       </c>
       <c r="E52" s="3">
-        <v>610400</v>
+        <v>608200</v>
       </c>
       <c r="F52" s="3">
-        <v>488100</v>
+        <v>486300</v>
       </c>
       <c r="G52" s="3">
-        <v>486700</v>
+        <v>484900</v>
       </c>
       <c r="H52" s="3">
-        <v>466200</v>
+        <v>464500</v>
       </c>
       <c r="I52" s="3">
-        <v>729300</v>
+        <v>726600</v>
       </c>
       <c r="J52" s="3">
-        <v>703900</v>
+        <v>701300</v>
       </c>
       <c r="K52" s="3">
         <v>690500</v>
@@ -2674,25 +2674,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20517800</v>
+        <v>20442600</v>
       </c>
       <c r="E54" s="3">
-        <v>19267400</v>
+        <v>19196800</v>
       </c>
       <c r="F54" s="3">
-        <v>17835600</v>
+        <v>17770300</v>
       </c>
       <c r="G54" s="3">
-        <v>18009700</v>
+        <v>17943700</v>
       </c>
       <c r="H54" s="3">
-        <v>17336200</v>
+        <v>17272600</v>
       </c>
       <c r="I54" s="3">
-        <v>17012600</v>
+        <v>16950200</v>
       </c>
       <c r="J54" s="3">
-        <v>17296700</v>
+        <v>17233300</v>
       </c>
       <c r="K54" s="3">
         <v>16824400</v>
@@ -2759,25 +2759,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>415100</v>
+        <v>413600</v>
       </c>
       <c r="E57" s="3">
-        <v>459800</v>
+        <v>458100</v>
       </c>
       <c r="F57" s="3">
-        <v>365600</v>
+        <v>364200</v>
       </c>
       <c r="G57" s="3">
-        <v>385500</v>
+        <v>384100</v>
       </c>
       <c r="H57" s="3">
-        <v>354900</v>
+        <v>353600</v>
       </c>
       <c r="I57" s="3">
-        <v>394600</v>
+        <v>393200</v>
       </c>
       <c r="J57" s="3">
-        <v>344200</v>
+        <v>342900</v>
       </c>
       <c r="K57" s="3">
         <v>528300</v>
@@ -2806,25 +2806,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2287100</v>
+        <v>2278700</v>
       </c>
       <c r="E58" s="3">
-        <v>1418700</v>
+        <v>1413500</v>
       </c>
       <c r="F58" s="3">
-        <v>1285100</v>
+        <v>1280400</v>
       </c>
       <c r="G58" s="3">
-        <v>1211900</v>
+        <v>1207500</v>
       </c>
       <c r="H58" s="3">
-        <v>1195900</v>
+        <v>1191500</v>
       </c>
       <c r="I58" s="3">
-        <v>1353900</v>
+        <v>1349000</v>
       </c>
       <c r="J58" s="3">
-        <v>2252200</v>
+        <v>2244000</v>
       </c>
       <c r="K58" s="3">
         <v>2045200</v>
@@ -2853,25 +2853,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2017800</v>
+        <v>2010400</v>
       </c>
       <c r="E59" s="3">
-        <v>1943000</v>
+        <v>1935800</v>
       </c>
       <c r="F59" s="3">
-        <v>1695200</v>
+        <v>1689000</v>
       </c>
       <c r="G59" s="3">
-        <v>1757600</v>
+        <v>1751100</v>
       </c>
       <c r="H59" s="3">
-        <v>1625900</v>
+        <v>1619900</v>
       </c>
       <c r="I59" s="3">
-        <v>1604200</v>
+        <v>1598300</v>
       </c>
       <c r="J59" s="3">
-        <v>1619500</v>
+        <v>1613600</v>
       </c>
       <c r="K59" s="3">
         <v>1527700</v>
@@ -2900,25 +2900,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4719900</v>
+        <v>4702600</v>
       </c>
       <c r="E60" s="3">
-        <v>3821500</v>
+        <v>3807500</v>
       </c>
       <c r="F60" s="3">
-        <v>3345900</v>
+        <v>3333600</v>
       </c>
       <c r="G60" s="3">
-        <v>3354900</v>
+        <v>3342600</v>
       </c>
       <c r="H60" s="3">
-        <v>3176700</v>
+        <v>3165000</v>
       </c>
       <c r="I60" s="3">
-        <v>3352800</v>
+        <v>3340500</v>
       </c>
       <c r="J60" s="3">
-        <v>4215900</v>
+        <v>4200400</v>
       </c>
       <c r="K60" s="3">
         <v>4101200</v>
@@ -2947,25 +2947,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4296900</v>
+        <v>4281100</v>
       </c>
       <c r="E61" s="3">
-        <v>4011200</v>
+        <v>3996500</v>
       </c>
       <c r="F61" s="3">
-        <v>3928900</v>
+        <v>3914500</v>
       </c>
       <c r="G61" s="3">
-        <v>3679100</v>
+        <v>3665600</v>
       </c>
       <c r="H61" s="3">
-        <v>3560200</v>
+        <v>3547100</v>
       </c>
       <c r="I61" s="3">
-        <v>3539800</v>
+        <v>3526800</v>
       </c>
       <c r="J61" s="3">
-        <v>2899500</v>
+        <v>2888800</v>
       </c>
       <c r="K61" s="3">
         <v>2716500</v>
@@ -2994,25 +2994,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1262000</v>
+        <v>1257400</v>
       </c>
       <c r="E62" s="3">
-        <v>1286500</v>
+        <v>1281800</v>
       </c>
       <c r="F62" s="3">
-        <v>1254600</v>
+        <v>1250000</v>
       </c>
       <c r="G62" s="3">
-        <v>1309100</v>
+        <v>1304300</v>
       </c>
       <c r="H62" s="3">
-        <v>1209200</v>
+        <v>1204800</v>
       </c>
       <c r="I62" s="3">
-        <v>1120500</v>
+        <v>1116400</v>
       </c>
       <c r="J62" s="3">
-        <v>1001100</v>
+        <v>997500</v>
       </c>
       <c r="K62" s="3">
         <v>989200</v>
@@ -3182,25 +3182,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11603900</v>
+        <v>11561400</v>
       </c>
       <c r="E66" s="3">
-        <v>10402700</v>
+        <v>10364500</v>
       </c>
       <c r="F66" s="3">
-        <v>9644000</v>
+        <v>9608600</v>
       </c>
       <c r="G66" s="3">
-        <v>9471700</v>
+        <v>9437000</v>
       </c>
       <c r="H66" s="3">
-        <v>8982800</v>
+        <v>8949900</v>
       </c>
       <c r="I66" s="3">
-        <v>9012200</v>
+        <v>8979200</v>
       </c>
       <c r="J66" s="3">
-        <v>9106000</v>
+        <v>9072700</v>
       </c>
       <c r="K66" s="3">
         <v>8763700</v>
@@ -3436,25 +3436,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7573500</v>
+        <v>7545800</v>
       </c>
       <c r="E72" s="3">
-        <v>7563900</v>
+        <v>7536200</v>
       </c>
       <c r="F72" s="3">
-        <v>7395200</v>
+        <v>7368100</v>
       </c>
       <c r="G72" s="3">
-        <v>7554000</v>
+        <v>7526300</v>
       </c>
       <c r="H72" s="3">
-        <v>7404200</v>
+        <v>7377000</v>
       </c>
       <c r="I72" s="3">
-        <v>7363100</v>
+        <v>7336100</v>
       </c>
       <c r="J72" s="3">
-        <v>7032400</v>
+        <v>7006600</v>
       </c>
       <c r="K72" s="3">
         <v>6825000</v>
@@ -3624,25 +3624,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8913900</v>
+        <v>8881300</v>
       </c>
       <c r="E76" s="3">
-        <v>8864800</v>
+        <v>8832300</v>
       </c>
       <c r="F76" s="3">
-        <v>8191700</v>
+        <v>8161600</v>
       </c>
       <c r="G76" s="3">
-        <v>8538000</v>
+        <v>8506700</v>
       </c>
       <c r="H76" s="3">
-        <v>8353400</v>
+        <v>8322800</v>
       </c>
       <c r="I76" s="3">
-        <v>8000400</v>
+        <v>7971100</v>
       </c>
       <c r="J76" s="3">
-        <v>8190700</v>
+        <v>8160700</v>
       </c>
       <c r="K76" s="3">
         <v>8060700</v>
@@ -3770,25 +3770,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>538500</v>
+        <v>536500</v>
       </c>
       <c r="E81" s="3">
-        <v>428300</v>
+        <v>426700</v>
       </c>
       <c r="F81" s="3">
-        <v>341900</v>
+        <v>340700</v>
       </c>
       <c r="G81" s="3">
-        <v>394400</v>
+        <v>393000</v>
       </c>
       <c r="H81" s="3">
-        <v>498700</v>
+        <v>496800</v>
       </c>
       <c r="I81" s="3">
-        <v>579900</v>
+        <v>577800</v>
       </c>
       <c r="J81" s="3">
-        <v>614000</v>
+        <v>611800</v>
       </c>
       <c r="K81" s="3">
         <v>481800</v>
@@ -4118,25 +4118,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>676400</v>
+        <v>673900</v>
       </c>
       <c r="E89" s="3">
-        <v>714100</v>
+        <v>711500</v>
       </c>
       <c r="F89" s="3">
-        <v>556500</v>
+        <v>554400</v>
       </c>
       <c r="G89" s="3">
-        <v>645700</v>
+        <v>643300</v>
       </c>
       <c r="H89" s="3">
-        <v>625200</v>
+        <v>622900</v>
       </c>
       <c r="I89" s="3">
-        <v>567800</v>
+        <v>565700</v>
       </c>
       <c r="J89" s="3">
-        <v>642400</v>
+        <v>640100</v>
       </c>
       <c r="K89" s="3">
         <v>530400</v>
@@ -4184,7 +4184,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9600</v>
+        <v>-9500</v>
       </c>
       <c r="E91" s="3">
         <v>-4600</v>
@@ -4196,7 +4196,7 @@
         <v>-12800</v>
       </c>
       <c r="H91" s="3">
-        <v>-25800</v>
+        <v>-25700</v>
       </c>
       <c r="I91" s="3">
         <v>-8200</v>
@@ -4325,25 +4325,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1011900</v>
+        <v>-1008200</v>
       </c>
       <c r="E94" s="3">
-        <v>-494000</v>
+        <v>-492200</v>
       </c>
       <c r="F94" s="3">
-        <v>-273900</v>
+        <v>-272900</v>
       </c>
       <c r="G94" s="3">
-        <v>-329900</v>
+        <v>-328700</v>
       </c>
       <c r="H94" s="3">
-        <v>-349700</v>
+        <v>-348400</v>
       </c>
       <c r="I94" s="3">
-        <v>-127200</v>
+        <v>-126700</v>
       </c>
       <c r="J94" s="3">
-        <v>-357000</v>
+        <v>-355700</v>
       </c>
       <c r="K94" s="3">
         <v>-150100</v>
@@ -4391,25 +4391,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-524000</v>
+        <v>-522100</v>
       </c>
       <c r="E96" s="3">
-        <v>-273400</v>
+        <v>-272400</v>
       </c>
       <c r="F96" s="3">
-        <v>-499100</v>
+        <v>-497300</v>
       </c>
       <c r="G96" s="3">
-        <v>-260400</v>
+        <v>-259400</v>
       </c>
       <c r="H96" s="3">
-        <v>-453700</v>
+        <v>-452100</v>
       </c>
       <c r="I96" s="3">
-        <v>-236700</v>
+        <v>-235900</v>
       </c>
       <c r="J96" s="3">
-        <v>-412500</v>
+        <v>-411000</v>
       </c>
       <c r="K96" s="3">
         <v>-215500</v>
@@ -4579,25 +4579,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>447900</v>
+        <v>446200</v>
       </c>
       <c r="E100" s="3">
-        <v>-369200</v>
+        <v>-367800</v>
       </c>
       <c r="F100" s="3">
-        <v>-210400</v>
+        <v>-209600</v>
       </c>
       <c r="G100" s="3">
-        <v>-228200</v>
+        <v>-227400</v>
       </c>
       <c r="H100" s="3">
-        <v>-440300</v>
+        <v>-438600</v>
       </c>
       <c r="I100" s="3">
-        <v>-849500</v>
+        <v>-846400</v>
       </c>
       <c r="J100" s="3">
-        <v>-149100</v>
+        <v>-148500</v>
       </c>
       <c r="K100" s="3">
         <v>-133800</v>
@@ -4629,7 +4629,7 @@
         <v>5500</v>
       </c>
       <c r="E101" s="3">
-        <v>34700</v>
+        <v>34600</v>
       </c>
       <c r="F101" s="3">
         <v>-8300</v>
@@ -4644,7 +4644,7 @@
         <v>-13800</v>
       </c>
       <c r="J101" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K101" s="3">
         <v>12900</v>
@@ -4673,25 +4673,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>117800</v>
+        <v>117400</v>
       </c>
       <c r="E102" s="3">
-        <v>-114400</v>
+        <v>-113900</v>
       </c>
       <c r="F102" s="3">
-        <v>63900</v>
+        <v>63600</v>
       </c>
       <c r="G102" s="3">
-        <v>81700</v>
+        <v>81400</v>
       </c>
       <c r="H102" s="3">
-        <v>-165200</v>
+        <v>-164600</v>
       </c>
       <c r="I102" s="3">
-        <v>-422700</v>
+        <v>-421100</v>
       </c>
       <c r="J102" s="3">
-        <v>133200</v>
+        <v>132700</v>
       </c>
       <c r="K102" s="3">
         <v>259400</v>

--- a/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3158700</v>
+        <v>3150000</v>
       </c>
       <c r="E8" s="3">
-        <v>2898600</v>
+        <v>2890700</v>
       </c>
       <c r="F8" s="3">
-        <v>2329400</v>
+        <v>2323000</v>
       </c>
       <c r="G8" s="3">
-        <v>2590100</v>
+        <v>2583000</v>
       </c>
       <c r="H8" s="3">
-        <v>2599800</v>
+        <v>2592600</v>
       </c>
       <c r="I8" s="3">
-        <v>2533300</v>
+        <v>2526300</v>
       </c>
       <c r="J8" s="3">
-        <v>2457900</v>
+        <v>2451200</v>
       </c>
       <c r="K8" s="3">
         <v>2188100</v>
@@ -791,25 +791,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1852500</v>
+        <v>1847500</v>
       </c>
       <c r="E9" s="3">
-        <v>1607200</v>
+        <v>1602800</v>
       </c>
       <c r="F9" s="3">
-        <v>1201300</v>
+        <v>1198100</v>
       </c>
       <c r="G9" s="3">
-        <v>1370000</v>
+        <v>1366300</v>
       </c>
       <c r="H9" s="3">
-        <v>1415200</v>
+        <v>1411300</v>
       </c>
       <c r="I9" s="3">
-        <v>1346300</v>
+        <v>1342600</v>
       </c>
       <c r="J9" s="3">
-        <v>1284900</v>
+        <v>1281400</v>
       </c>
       <c r="K9" s="3">
         <v>1088000</v>
@@ -838,25 +838,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1306200</v>
+        <v>1302600</v>
       </c>
       <c r="E10" s="3">
-        <v>1291400</v>
+        <v>1287900</v>
       </c>
       <c r="F10" s="3">
-        <v>1128000</v>
+        <v>1124900</v>
       </c>
       <c r="G10" s="3">
-        <v>1220000</v>
+        <v>1216700</v>
       </c>
       <c r="H10" s="3">
-        <v>1184600</v>
+        <v>1181300</v>
       </c>
       <c r="I10" s="3">
-        <v>1187000</v>
+        <v>1183700</v>
       </c>
       <c r="J10" s="3">
-        <v>1173000</v>
+        <v>1169800</v>
       </c>
       <c r="K10" s="3">
         <v>1100100</v>
@@ -919,7 +919,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J12" s="3">
         <v>700</v>
@@ -1045,25 +1045,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>205100</v>
+        <v>204600</v>
       </c>
       <c r="E15" s="3">
-        <v>195700</v>
+        <v>195200</v>
       </c>
       <c r="F15" s="3">
+        <v>179400</v>
+      </c>
+      <c r="G15" s="3">
         <v>179900</v>
       </c>
-      <c r="G15" s="3">
-        <v>180400</v>
-      </c>
       <c r="H15" s="3">
-        <v>171300</v>
+        <v>170900</v>
       </c>
       <c r="I15" s="3">
-        <v>165400</v>
+        <v>165000</v>
       </c>
       <c r="J15" s="3">
-        <v>158700</v>
+        <v>158300</v>
       </c>
       <c r="K15" s="3">
         <v>155500</v>
@@ -1108,25 +1108,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2531400</v>
+        <v>2524500</v>
       </c>
       <c r="E17" s="3">
-        <v>2340600</v>
+        <v>2334200</v>
       </c>
       <c r="F17" s="3">
-        <v>1875900</v>
+        <v>1870800</v>
       </c>
       <c r="G17" s="3">
-        <v>1979500</v>
+        <v>1974000</v>
       </c>
       <c r="H17" s="3">
-        <v>2051500</v>
+        <v>2045800</v>
       </c>
       <c r="I17" s="3">
-        <v>2037100</v>
+        <v>2031500</v>
       </c>
       <c r="J17" s="3">
-        <v>1880700</v>
+        <v>1875600</v>
       </c>
       <c r="K17" s="3">
         <v>1675100</v>
@@ -1155,25 +1155,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>627300</v>
+        <v>625500</v>
       </c>
       <c r="E18" s="3">
-        <v>558000</v>
+        <v>556500</v>
       </c>
       <c r="F18" s="3">
-        <v>453400</v>
+        <v>452200</v>
       </c>
       <c r="G18" s="3">
-        <v>610600</v>
+        <v>608900</v>
       </c>
       <c r="H18" s="3">
-        <v>548300</v>
+        <v>546800</v>
       </c>
       <c r="I18" s="3">
-        <v>496200</v>
+        <v>494800</v>
       </c>
       <c r="J18" s="3">
-        <v>577200</v>
+        <v>575600</v>
       </c>
       <c r="K18" s="3">
         <v>513100</v>
@@ -1221,25 +1221,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>226300</v>
+        <v>225600</v>
       </c>
       <c r="E20" s="3">
-        <v>168800</v>
+        <v>168300</v>
       </c>
       <c r="F20" s="3">
-        <v>122000</v>
+        <v>121600</v>
       </c>
       <c r="G20" s="3">
-        <v>103400</v>
+        <v>103200</v>
       </c>
       <c r="H20" s="3">
-        <v>223800</v>
+        <v>223200</v>
       </c>
       <c r="I20" s="3">
-        <v>339100</v>
+        <v>338200</v>
       </c>
       <c r="J20" s="3">
-        <v>314000</v>
+        <v>313200</v>
       </c>
       <c r="K20" s="3">
         <v>249200</v>
@@ -1268,25 +1268,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1058600</v>
+        <v>1055700</v>
       </c>
       <c r="E21" s="3">
-        <v>744400</v>
+        <v>742400</v>
       </c>
       <c r="F21" s="3">
-        <v>755300</v>
+        <v>753200</v>
       </c>
       <c r="G21" s="3">
-        <v>724500</v>
+        <v>722500</v>
       </c>
       <c r="H21" s="3">
-        <v>943400</v>
+        <v>940900</v>
       </c>
       <c r="I21" s="3">
-        <v>842000</v>
+        <v>839700</v>
       </c>
       <c r="J21" s="3">
-        <v>1049900</v>
+        <v>1047100</v>
       </c>
       <c r="K21" s="3">
         <v>768400</v>
@@ -1315,25 +1315,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>81900</v>
+        <v>81700</v>
       </c>
       <c r="E22" s="3">
-        <v>84100</v>
+        <v>83900</v>
       </c>
       <c r="F22" s="3">
-        <v>77900</v>
+        <v>77700</v>
       </c>
       <c r="G22" s="3">
-        <v>85700</v>
+        <v>85500</v>
       </c>
       <c r="H22" s="3">
-        <v>71500</v>
+        <v>71300</v>
       </c>
       <c r="I22" s="3">
-        <v>72500</v>
+        <v>72300</v>
       </c>
       <c r="J22" s="3">
-        <v>77800</v>
+        <v>77600</v>
       </c>
       <c r="K22" s="3">
         <v>82400</v>
@@ -1362,25 +1362,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>771600</v>
+        <v>769500</v>
       </c>
       <c r="E23" s="3">
-        <v>642700</v>
+        <v>640900</v>
       </c>
       <c r="F23" s="3">
-        <v>497500</v>
+        <v>496100</v>
       </c>
       <c r="G23" s="3">
-        <v>628400</v>
+        <v>626600</v>
       </c>
       <c r="H23" s="3">
-        <v>700600</v>
+        <v>698700</v>
       </c>
       <c r="I23" s="3">
-        <v>762900</v>
+        <v>760800</v>
       </c>
       <c r="J23" s="3">
-        <v>813400</v>
+        <v>811200</v>
       </c>
       <c r="K23" s="3">
         <v>679900</v>
@@ -1409,25 +1409,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>149700</v>
+        <v>149300</v>
       </c>
       <c r="E24" s="3">
-        <v>128600</v>
+        <v>128200</v>
       </c>
       <c r="F24" s="3">
-        <v>90200</v>
+        <v>90000</v>
       </c>
       <c r="G24" s="3">
-        <v>164800</v>
+        <v>164300</v>
       </c>
       <c r="H24" s="3">
-        <v>127700</v>
+        <v>127300</v>
       </c>
       <c r="I24" s="3">
-        <v>116400</v>
+        <v>116100</v>
       </c>
       <c r="J24" s="3">
-        <v>127300</v>
+        <v>126900</v>
       </c>
       <c r="K24" s="3">
         <v>120300</v>
@@ -1503,25 +1503,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>621900</v>
+        <v>620200</v>
       </c>
       <c r="E26" s="3">
-        <v>514100</v>
+        <v>512700</v>
       </c>
       <c r="F26" s="3">
-        <v>407200</v>
+        <v>406100</v>
       </c>
       <c r="G26" s="3">
-        <v>463600</v>
+        <v>462300</v>
       </c>
       <c r="H26" s="3">
-        <v>573000</v>
+        <v>571400</v>
       </c>
       <c r="I26" s="3">
-        <v>646500</v>
+        <v>644700</v>
       </c>
       <c r="J26" s="3">
-        <v>686100</v>
+        <v>684200</v>
       </c>
       <c r="K26" s="3">
         <v>559600</v>
@@ -1550,25 +1550,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>536500</v>
+        <v>535000</v>
       </c>
       <c r="E27" s="3">
-        <v>426700</v>
+        <v>425500</v>
       </c>
       <c r="F27" s="3">
-        <v>340700</v>
+        <v>339700</v>
       </c>
       <c r="G27" s="3">
-        <v>393000</v>
+        <v>391900</v>
       </c>
       <c r="H27" s="3">
-        <v>496800</v>
+        <v>495500</v>
       </c>
       <c r="I27" s="3">
-        <v>577800</v>
+        <v>576200</v>
       </c>
       <c r="J27" s="3">
-        <v>611800</v>
+        <v>610100</v>
       </c>
       <c r="K27" s="3">
         <v>481800</v>
@@ -1785,25 +1785,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-226300</v>
+        <v>-225600</v>
       </c>
       <c r="E32" s="3">
-        <v>-168800</v>
+        <v>-168300</v>
       </c>
       <c r="F32" s="3">
-        <v>-122000</v>
+        <v>-121600</v>
       </c>
       <c r="G32" s="3">
-        <v>-103400</v>
+        <v>-103200</v>
       </c>
       <c r="H32" s="3">
-        <v>-223800</v>
+        <v>-223200</v>
       </c>
       <c r="I32" s="3">
-        <v>-339100</v>
+        <v>-338200</v>
       </c>
       <c r="J32" s="3">
-        <v>-314000</v>
+        <v>-313200</v>
       </c>
       <c r="K32" s="3">
         <v>-249200</v>
@@ -1832,25 +1832,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>536500</v>
+        <v>535000</v>
       </c>
       <c r="E33" s="3">
-        <v>426700</v>
+        <v>425500</v>
       </c>
       <c r="F33" s="3">
-        <v>340700</v>
+        <v>339700</v>
       </c>
       <c r="G33" s="3">
-        <v>393000</v>
+        <v>391900</v>
       </c>
       <c r="H33" s="3">
-        <v>496800</v>
+        <v>495500</v>
       </c>
       <c r="I33" s="3">
-        <v>577800</v>
+        <v>576200</v>
       </c>
       <c r="J33" s="3">
-        <v>611800</v>
+        <v>610100</v>
       </c>
       <c r="K33" s="3">
         <v>481800</v>
@@ -1926,25 +1926,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>536500</v>
+        <v>535000</v>
       </c>
       <c r="E35" s="3">
-        <v>426700</v>
+        <v>425500</v>
       </c>
       <c r="F35" s="3">
-        <v>340700</v>
+        <v>339700</v>
       </c>
       <c r="G35" s="3">
-        <v>393000</v>
+        <v>391900</v>
       </c>
       <c r="H35" s="3">
-        <v>496800</v>
+        <v>495500</v>
       </c>
       <c r="I35" s="3">
-        <v>577800</v>
+        <v>576200</v>
       </c>
       <c r="J35" s="3">
-        <v>611800</v>
+        <v>610100</v>
       </c>
       <c r="K35" s="3">
         <v>481800</v>
@@ -2063,25 +2063,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1069700</v>
+        <v>1066800</v>
       </c>
       <c r="E41" s="3">
-        <v>952300</v>
+        <v>949700</v>
       </c>
       <c r="F41" s="3">
-        <v>1066200</v>
+        <v>1063300</v>
       </c>
       <c r="G41" s="3">
-        <v>1002600</v>
+        <v>999900</v>
       </c>
       <c r="H41" s="3">
-        <v>921300</v>
+        <v>918700</v>
       </c>
       <c r="I41" s="3">
-        <v>1085900</v>
+        <v>1082900</v>
       </c>
       <c r="J41" s="3">
-        <v>1507000</v>
+        <v>1502900</v>
       </c>
       <c r="K41" s="3">
         <v>1381100</v>
@@ -2110,25 +2110,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19300</v>
+        <v>19200</v>
       </c>
       <c r="E42" s="3">
-        <v>52000</v>
+        <v>51900</v>
       </c>
       <c r="F42" s="3">
-        <v>38300</v>
+        <v>38200</v>
       </c>
       <c r="G42" s="3">
-        <v>44500</v>
+        <v>44400</v>
       </c>
       <c r="H42" s="3">
-        <v>89000</v>
+        <v>88700</v>
       </c>
       <c r="I42" s="3">
-        <v>86900</v>
+        <v>86700</v>
       </c>
       <c r="J42" s="3">
-        <v>218300</v>
+        <v>217700</v>
       </c>
       <c r="K42" s="3">
         <v>286600</v>
@@ -2157,25 +2157,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>939500</v>
+        <v>936900</v>
       </c>
       <c r="E43" s="3">
-        <v>953600</v>
+        <v>950900</v>
       </c>
       <c r="F43" s="3">
-        <v>951600</v>
+        <v>949000</v>
       </c>
       <c r="G43" s="3">
-        <v>1000500</v>
+        <v>997800</v>
       </c>
       <c r="H43" s="3">
-        <v>1004800</v>
+        <v>1002000</v>
       </c>
       <c r="I43" s="3">
-        <v>941300</v>
+        <v>938700</v>
       </c>
       <c r="J43" s="3">
-        <v>975000</v>
+        <v>972300</v>
       </c>
       <c r="K43" s="3">
         <v>916200</v>
@@ -2204,25 +2204,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>334100</v>
+        <v>333200</v>
       </c>
       <c r="E44" s="3">
-        <v>341200</v>
+        <v>340300</v>
       </c>
       <c r="F44" s="3">
-        <v>303100</v>
+        <v>302300</v>
       </c>
       <c r="G44" s="3">
-        <v>301900</v>
+        <v>301100</v>
       </c>
       <c r="H44" s="3">
-        <v>308500</v>
+        <v>307700</v>
       </c>
       <c r="I44" s="3">
-        <v>316900</v>
+        <v>316000</v>
       </c>
       <c r="J44" s="3">
-        <v>306800</v>
+        <v>305900</v>
       </c>
       <c r="K44" s="3">
         <v>331000</v>
@@ -2251,25 +2251,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>244500</v>
+        <v>243900</v>
       </c>
       <c r="E45" s="3">
-        <v>275700</v>
+        <v>275000</v>
       </c>
       <c r="F45" s="3">
-        <v>201300</v>
+        <v>200800</v>
       </c>
       <c r="G45" s="3">
-        <v>221700</v>
+        <v>221100</v>
       </c>
       <c r="H45" s="3">
-        <v>188900</v>
+        <v>188400</v>
       </c>
       <c r="I45" s="3">
-        <v>202000</v>
+        <v>201500</v>
       </c>
       <c r="J45" s="3">
-        <v>192500</v>
+        <v>192000</v>
       </c>
       <c r="K45" s="3">
         <v>213000</v>
@@ -2298,25 +2298,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2607200</v>
+        <v>2600000</v>
       </c>
       <c r="E46" s="3">
-        <v>2574800</v>
+        <v>2567700</v>
       </c>
       <c r="F46" s="3">
-        <v>2560500</v>
+        <v>2553500</v>
       </c>
       <c r="G46" s="3">
-        <v>2571300</v>
+        <v>2564300</v>
       </c>
       <c r="H46" s="3">
-        <v>2512400</v>
+        <v>2505500</v>
       </c>
       <c r="I46" s="3">
-        <v>2633000</v>
+        <v>2625800</v>
       </c>
       <c r="J46" s="3">
-        <v>3199700</v>
+        <v>3190900</v>
       </c>
       <c r="K46" s="3">
         <v>3127800</v>
@@ -2345,25 +2345,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6300200</v>
+        <v>6283000</v>
       </c>
       <c r="E47" s="3">
-        <v>6149000</v>
+        <v>6132100</v>
       </c>
       <c r="F47" s="3">
-        <v>5803400</v>
+        <v>5787500</v>
       </c>
       <c r="G47" s="3">
-        <v>5954700</v>
+        <v>5938400</v>
       </c>
       <c r="H47" s="3">
-        <v>5462400</v>
+        <v>5447400</v>
       </c>
       <c r="I47" s="3">
-        <v>5359100</v>
+        <v>5344500</v>
       </c>
       <c r="J47" s="3">
-        <v>5164300</v>
+        <v>5150200</v>
       </c>
       <c r="K47" s="3">
         <v>4986200</v>
@@ -2392,25 +2392,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9527400</v>
+        <v>9501300</v>
       </c>
       <c r="E48" s="3">
-        <v>9167000</v>
+        <v>9141900</v>
       </c>
       <c r="F48" s="3">
-        <v>8262800</v>
+        <v>8240100</v>
       </c>
       <c r="G48" s="3">
-        <v>8256800</v>
+        <v>8234200</v>
       </c>
       <c r="H48" s="3">
-        <v>8108900</v>
+        <v>8086700</v>
       </c>
       <c r="I48" s="3">
-        <v>7505600</v>
+        <v>7485000</v>
       </c>
       <c r="J48" s="3">
-        <v>7423200</v>
+        <v>7402800</v>
       </c>
       <c r="K48" s="3">
         <v>7264600</v>
@@ -2439,25 +2439,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>717600</v>
+        <v>715600</v>
       </c>
       <c r="E49" s="3">
-        <v>697800</v>
+        <v>695900</v>
       </c>
       <c r="F49" s="3">
-        <v>657300</v>
+        <v>655500</v>
       </c>
       <c r="G49" s="3">
-        <v>675900</v>
+        <v>674000</v>
       </c>
       <c r="H49" s="3">
-        <v>724400</v>
+        <v>722400</v>
       </c>
       <c r="I49" s="3">
-        <v>725800</v>
+        <v>723800</v>
       </c>
       <c r="J49" s="3">
-        <v>744900</v>
+        <v>742800</v>
       </c>
       <c r="K49" s="3">
         <v>755300</v>
@@ -2580,25 +2580,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1290300</v>
+        <v>1286700</v>
       </c>
       <c r="E52" s="3">
-        <v>608200</v>
+        <v>606500</v>
       </c>
       <c r="F52" s="3">
-        <v>486300</v>
+        <v>484900</v>
       </c>
       <c r="G52" s="3">
-        <v>484900</v>
+        <v>483600</v>
       </c>
       <c r="H52" s="3">
-        <v>464500</v>
+        <v>463200</v>
       </c>
       <c r="I52" s="3">
-        <v>726600</v>
+        <v>724700</v>
       </c>
       <c r="J52" s="3">
-        <v>701300</v>
+        <v>699400</v>
       </c>
       <c r="K52" s="3">
         <v>690500</v>
@@ -2674,25 +2674,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20442600</v>
+        <v>20386600</v>
       </c>
       <c r="E54" s="3">
-        <v>19196800</v>
+        <v>19144200</v>
       </c>
       <c r="F54" s="3">
-        <v>17770300</v>
+        <v>17721600</v>
       </c>
       <c r="G54" s="3">
-        <v>17943700</v>
+        <v>17894500</v>
       </c>
       <c r="H54" s="3">
-        <v>17272600</v>
+        <v>17225300</v>
       </c>
       <c r="I54" s="3">
-        <v>16950200</v>
+        <v>16903800</v>
       </c>
       <c r="J54" s="3">
-        <v>17233300</v>
+        <v>17186100</v>
       </c>
       <c r="K54" s="3">
         <v>16824400</v>
@@ -2759,25 +2759,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>413600</v>
+        <v>412500</v>
       </c>
       <c r="E57" s="3">
-        <v>458100</v>
+        <v>456900</v>
       </c>
       <c r="F57" s="3">
-        <v>364200</v>
+        <v>363200</v>
       </c>
       <c r="G57" s="3">
-        <v>384100</v>
+        <v>383000</v>
       </c>
       <c r="H57" s="3">
-        <v>353600</v>
+        <v>352600</v>
       </c>
       <c r="I57" s="3">
-        <v>393200</v>
+        <v>392100</v>
       </c>
       <c r="J57" s="3">
-        <v>342900</v>
+        <v>342000</v>
       </c>
       <c r="K57" s="3">
         <v>528300</v>
@@ -2806,25 +2806,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2278700</v>
+        <v>2272400</v>
       </c>
       <c r="E58" s="3">
-        <v>1413500</v>
+        <v>1409600</v>
       </c>
       <c r="F58" s="3">
-        <v>1280400</v>
+        <v>1276900</v>
       </c>
       <c r="G58" s="3">
-        <v>1207500</v>
+        <v>1204200</v>
       </c>
       <c r="H58" s="3">
-        <v>1191500</v>
+        <v>1188300</v>
       </c>
       <c r="I58" s="3">
-        <v>1349000</v>
+        <v>1345300</v>
       </c>
       <c r="J58" s="3">
-        <v>2244000</v>
+        <v>2237800</v>
       </c>
       <c r="K58" s="3">
         <v>2045200</v>
@@ -2853,25 +2853,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2010400</v>
+        <v>2004900</v>
       </c>
       <c r="E59" s="3">
-        <v>1935800</v>
+        <v>1930500</v>
       </c>
       <c r="F59" s="3">
-        <v>1689000</v>
+        <v>1684400</v>
       </c>
       <c r="G59" s="3">
-        <v>1751100</v>
+        <v>1746300</v>
       </c>
       <c r="H59" s="3">
-        <v>1619900</v>
+        <v>1615500</v>
       </c>
       <c r="I59" s="3">
-        <v>1598300</v>
+        <v>1594000</v>
       </c>
       <c r="J59" s="3">
-        <v>1613600</v>
+        <v>1609200</v>
       </c>
       <c r="K59" s="3">
         <v>1527700</v>
@@ -2900,25 +2900,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4702600</v>
+        <v>4689800</v>
       </c>
       <c r="E60" s="3">
-        <v>3807500</v>
+        <v>3797000</v>
       </c>
       <c r="F60" s="3">
-        <v>3333600</v>
+        <v>3324500</v>
       </c>
       <c r="G60" s="3">
-        <v>3342600</v>
+        <v>3333500</v>
       </c>
       <c r="H60" s="3">
-        <v>3165000</v>
+        <v>3156400</v>
       </c>
       <c r="I60" s="3">
-        <v>3340500</v>
+        <v>3331400</v>
       </c>
       <c r="J60" s="3">
-        <v>4200400</v>
+        <v>4188900</v>
       </c>
       <c r="K60" s="3">
         <v>4101200</v>
@@ -2947,25 +2947,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4281100</v>
+        <v>4269400</v>
       </c>
       <c r="E61" s="3">
-        <v>3996500</v>
+        <v>3985600</v>
       </c>
       <c r="F61" s="3">
-        <v>3914500</v>
+        <v>3903800</v>
       </c>
       <c r="G61" s="3">
-        <v>3665600</v>
+        <v>3655500</v>
       </c>
       <c r="H61" s="3">
-        <v>3547100</v>
+        <v>3537400</v>
       </c>
       <c r="I61" s="3">
-        <v>3526800</v>
+        <v>3517100</v>
       </c>
       <c r="J61" s="3">
-        <v>2888800</v>
+        <v>2880900</v>
       </c>
       <c r="K61" s="3">
         <v>2716500</v>
@@ -2994,25 +2994,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1257400</v>
+        <v>1254000</v>
       </c>
       <c r="E62" s="3">
-        <v>1281800</v>
+        <v>1278300</v>
       </c>
       <c r="F62" s="3">
-        <v>1250000</v>
+        <v>1246600</v>
       </c>
       <c r="G62" s="3">
-        <v>1304300</v>
+        <v>1300700</v>
       </c>
       <c r="H62" s="3">
-        <v>1204800</v>
+        <v>1201500</v>
       </c>
       <c r="I62" s="3">
-        <v>1116400</v>
+        <v>1113300</v>
       </c>
       <c r="J62" s="3">
-        <v>997500</v>
+        <v>994700</v>
       </c>
       <c r="K62" s="3">
         <v>989200</v>
@@ -3182,25 +3182,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11561400</v>
+        <v>11529700</v>
       </c>
       <c r="E66" s="3">
-        <v>10364500</v>
+        <v>10336100</v>
       </c>
       <c r="F66" s="3">
-        <v>9608600</v>
+        <v>9582300</v>
       </c>
       <c r="G66" s="3">
-        <v>9437000</v>
+        <v>9411100</v>
       </c>
       <c r="H66" s="3">
-        <v>8949900</v>
+        <v>8925400</v>
       </c>
       <c r="I66" s="3">
-        <v>8979200</v>
+        <v>8954500</v>
       </c>
       <c r="J66" s="3">
-        <v>9072700</v>
+        <v>9047800</v>
       </c>
       <c r="K66" s="3">
         <v>8763700</v>
@@ -3436,25 +3436,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7545800</v>
+        <v>7525100</v>
       </c>
       <c r="E72" s="3">
-        <v>7536200</v>
+        <v>7515500</v>
       </c>
       <c r="F72" s="3">
-        <v>7368100</v>
+        <v>7347900</v>
       </c>
       <c r="G72" s="3">
-        <v>7526300</v>
+        <v>7505700</v>
       </c>
       <c r="H72" s="3">
-        <v>7377000</v>
+        <v>7356800</v>
       </c>
       <c r="I72" s="3">
-        <v>7336100</v>
+        <v>7316000</v>
       </c>
       <c r="J72" s="3">
-        <v>7006600</v>
+        <v>6987400</v>
       </c>
       <c r="K72" s="3">
         <v>6825000</v>
@@ -3624,25 +3624,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8881300</v>
+        <v>8856900</v>
       </c>
       <c r="E76" s="3">
-        <v>8832300</v>
+        <v>8808100</v>
       </c>
       <c r="F76" s="3">
-        <v>8161600</v>
+        <v>8139300</v>
       </c>
       <c r="G76" s="3">
-        <v>8506700</v>
+        <v>8483400</v>
       </c>
       <c r="H76" s="3">
-        <v>8322800</v>
+        <v>8300000</v>
       </c>
       <c r="I76" s="3">
-        <v>7971100</v>
+        <v>7949200</v>
       </c>
       <c r="J76" s="3">
-        <v>8160700</v>
+        <v>8138300</v>
       </c>
       <c r="K76" s="3">
         <v>8060700</v>
@@ -3770,25 +3770,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>536500</v>
+        <v>535000</v>
       </c>
       <c r="E81" s="3">
-        <v>426700</v>
+        <v>425500</v>
       </c>
       <c r="F81" s="3">
-        <v>340700</v>
+        <v>339700</v>
       </c>
       <c r="G81" s="3">
-        <v>393000</v>
+        <v>391900</v>
       </c>
       <c r="H81" s="3">
-        <v>496800</v>
+        <v>495500</v>
       </c>
       <c r="I81" s="3">
-        <v>577800</v>
+        <v>576200</v>
       </c>
       <c r="J81" s="3">
-        <v>611800</v>
+        <v>610100</v>
       </c>
       <c r="K81" s="3">
         <v>481800</v>
@@ -4118,25 +4118,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>673900</v>
+        <v>672000</v>
       </c>
       <c r="E89" s="3">
-        <v>711500</v>
+        <v>709600</v>
       </c>
       <c r="F89" s="3">
-        <v>554400</v>
+        <v>552900</v>
       </c>
       <c r="G89" s="3">
-        <v>643300</v>
+        <v>641600</v>
       </c>
       <c r="H89" s="3">
-        <v>622900</v>
+        <v>621200</v>
       </c>
       <c r="I89" s="3">
-        <v>565700</v>
+        <v>564100</v>
       </c>
       <c r="J89" s="3">
-        <v>640100</v>
+        <v>638300</v>
       </c>
       <c r="K89" s="3">
         <v>530400</v>
@@ -4202,7 +4202,7 @@
         <v>-8200</v>
       </c>
       <c r="J91" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="K91" s="3">
         <v>-5600</v>
@@ -4325,25 +4325,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1008200</v>
+        <v>-1005400</v>
       </c>
       <c r="E94" s="3">
-        <v>-492200</v>
+        <v>-490900</v>
       </c>
       <c r="F94" s="3">
-        <v>-272900</v>
+        <v>-272100</v>
       </c>
       <c r="G94" s="3">
-        <v>-328700</v>
+        <v>-327800</v>
       </c>
       <c r="H94" s="3">
-        <v>-348400</v>
+        <v>-347400</v>
       </c>
       <c r="I94" s="3">
-        <v>-126700</v>
+        <v>-126300</v>
       </c>
       <c r="J94" s="3">
-        <v>-355700</v>
+        <v>-354800</v>
       </c>
       <c r="K94" s="3">
         <v>-150100</v>
@@ -4391,25 +4391,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-522100</v>
+        <v>-520700</v>
       </c>
       <c r="E96" s="3">
-        <v>-272400</v>
+        <v>-271700</v>
       </c>
       <c r="F96" s="3">
-        <v>-497300</v>
+        <v>-495900</v>
       </c>
       <c r="G96" s="3">
-        <v>-259400</v>
+        <v>-258700</v>
       </c>
       <c r="H96" s="3">
-        <v>-452100</v>
+        <v>-450800</v>
       </c>
       <c r="I96" s="3">
-        <v>-235900</v>
+        <v>-235200</v>
       </c>
       <c r="J96" s="3">
-        <v>-411000</v>
+        <v>-409800</v>
       </c>
       <c r="K96" s="3">
         <v>-215500</v>
@@ -4579,25 +4579,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>446200</v>
+        <v>445000</v>
       </c>
       <c r="E100" s="3">
-        <v>-367800</v>
+        <v>-366800</v>
       </c>
       <c r="F100" s="3">
-        <v>-209600</v>
+        <v>-209000</v>
       </c>
       <c r="G100" s="3">
-        <v>-227400</v>
+        <v>-226800</v>
       </c>
       <c r="H100" s="3">
-        <v>-438600</v>
+        <v>-437400</v>
       </c>
       <c r="I100" s="3">
-        <v>-846400</v>
+        <v>-844000</v>
       </c>
       <c r="J100" s="3">
-        <v>-148500</v>
+        <v>-148100</v>
       </c>
       <c r="K100" s="3">
         <v>-133800</v>
@@ -4629,19 +4629,19 @@
         <v>5500</v>
       </c>
       <c r="E101" s="3">
-        <v>34600</v>
+        <v>34500</v>
       </c>
       <c r="F101" s="3">
         <v>-8300</v>
       </c>
       <c r="G101" s="3">
-        <v>-5900</v>
+        <v>-5800</v>
       </c>
       <c r="H101" s="3">
         <v>-500</v>
       </c>
       <c r="I101" s="3">
-        <v>-13800</v>
+        <v>-13700</v>
       </c>
       <c r="J101" s="3">
         <v>-3000</v>
@@ -4673,25 +4673,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>117400</v>
+        <v>117100</v>
       </c>
       <c r="E102" s="3">
-        <v>-113900</v>
+        <v>-113600</v>
       </c>
       <c r="F102" s="3">
-        <v>63600</v>
+        <v>63500</v>
       </c>
       <c r="G102" s="3">
-        <v>81400</v>
+        <v>81100</v>
       </c>
       <c r="H102" s="3">
-        <v>-164600</v>
+        <v>-164200</v>
       </c>
       <c r="I102" s="3">
-        <v>-421100</v>
+        <v>-420000</v>
       </c>
       <c r="J102" s="3">
-        <v>132700</v>
+        <v>132400</v>
       </c>
       <c r="K102" s="3">
         <v>259400</v>

--- a/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>HOKCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,235 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3150000</v>
+        <v>10501900</v>
       </c>
       <c r="E8" s="3">
-        <v>2890700</v>
+        <v>3151500</v>
       </c>
       <c r="F8" s="3">
-        <v>2323000</v>
+        <v>2892100</v>
       </c>
       <c r="G8" s="3">
-        <v>2583000</v>
+        <v>2324100</v>
       </c>
       <c r="H8" s="3">
-        <v>2592600</v>
+        <v>2584200</v>
       </c>
       <c r="I8" s="3">
-        <v>2526300</v>
+        <v>2593800</v>
       </c>
       <c r="J8" s="3">
+        <v>2527500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2451200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2188100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1986400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1857300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1824000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1848200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1921400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2023300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1847500</v>
+        <v>2305500</v>
       </c>
       <c r="E9" s="3">
-        <v>1602800</v>
+        <v>1848300</v>
       </c>
       <c r="F9" s="3">
-        <v>1198100</v>
+        <v>1603600</v>
       </c>
       <c r="G9" s="3">
-        <v>1366300</v>
+        <v>1198600</v>
       </c>
       <c r="H9" s="3">
-        <v>1411300</v>
+        <v>1366900</v>
       </c>
       <c r="I9" s="3">
-        <v>1342600</v>
+        <v>1412000</v>
       </c>
       <c r="J9" s="3">
+        <v>1343200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1281400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1088000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>928900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>839400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>799000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>853600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>942300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1030700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1302600</v>
+        <v>8196400</v>
       </c>
       <c r="E10" s="3">
-        <v>1287900</v>
+        <v>1303200</v>
       </c>
       <c r="F10" s="3">
-        <v>1124900</v>
+        <v>1288500</v>
       </c>
       <c r="G10" s="3">
-        <v>1216700</v>
+        <v>1125500</v>
       </c>
       <c r="H10" s="3">
-        <v>1181300</v>
+        <v>1217300</v>
       </c>
       <c r="I10" s="3">
-        <v>1183700</v>
+        <v>1181900</v>
       </c>
       <c r="J10" s="3">
+        <v>1184300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1169800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1100100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1057500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1018000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1024900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>994600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>979100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>992600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,35 +932,38 @@
       <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="3">
         <v>2900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,13 +1009,16 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>-199200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1012,82 +1032,88 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-29900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-5700</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>-3900</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>214500</v>
+      </c>
+      <c r="E15" s="3">
         <v>204600</v>
       </c>
-      <c r="E15" s="3">
-        <v>195200</v>
-      </c>
       <c r="F15" s="3">
-        <v>179400</v>
+        <v>195300</v>
       </c>
       <c r="G15" s="3">
-        <v>179900</v>
+        <v>179500</v>
       </c>
       <c r="H15" s="3">
+        <v>180000</v>
+      </c>
+      <c r="I15" s="3">
         <v>170900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>165000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>158300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>155500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>149800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>145100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>141500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>134100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>130300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2524500</v>
+        <v>3376200</v>
       </c>
       <c r="E17" s="3">
-        <v>2334200</v>
+        <v>2525700</v>
       </c>
       <c r="F17" s="3">
-        <v>1870800</v>
+        <v>2335300</v>
       </c>
       <c r="G17" s="3">
-        <v>1974000</v>
+        <v>1871700</v>
       </c>
       <c r="H17" s="3">
-        <v>2045800</v>
+        <v>1975000</v>
       </c>
       <c r="I17" s="3">
-        <v>2031500</v>
+        <v>2046800</v>
       </c>
       <c r="J17" s="3">
+        <v>2032400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1875600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1675100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1437400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1455400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1305600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1505200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1361200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1543600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>625500</v>
+        <v>7125700</v>
       </c>
       <c r="E18" s="3">
-        <v>556500</v>
+        <v>625800</v>
       </c>
       <c r="F18" s="3">
-        <v>452200</v>
+        <v>556700</v>
       </c>
       <c r="G18" s="3">
-        <v>608900</v>
+        <v>452400</v>
       </c>
       <c r="H18" s="3">
-        <v>546800</v>
+        <v>609200</v>
       </c>
       <c r="I18" s="3">
-        <v>494800</v>
+        <v>547100</v>
       </c>
       <c r="J18" s="3">
+        <v>495100</v>
+      </c>
+      <c r="K18" s="3">
         <v>575600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>513100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>549000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>402000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>518400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>343000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>560300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,243 +1248,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>225600</v>
+        <v>-6781900</v>
       </c>
       <c r="E20" s="3">
-        <v>168300</v>
+        <v>225800</v>
       </c>
       <c r="F20" s="3">
-        <v>121600</v>
+        <v>168400</v>
       </c>
       <c r="G20" s="3">
+        <v>121700</v>
+      </c>
+      <c r="H20" s="3">
         <v>103200</v>
       </c>
-      <c r="H20" s="3">
-        <v>223200</v>
-      </c>
       <c r="I20" s="3">
-        <v>338200</v>
+        <v>223300</v>
       </c>
       <c r="J20" s="3">
+        <v>338300</v>
+      </c>
+      <c r="K20" s="3">
         <v>313200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>249200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>276900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>227000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>277300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>276900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>225500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>189800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1055700</v>
+        <v>594000</v>
       </c>
       <c r="E21" s="3">
-        <v>742400</v>
+        <v>1056200</v>
       </c>
       <c r="F21" s="3">
-        <v>753200</v>
+        <v>742800</v>
       </c>
       <c r="G21" s="3">
-        <v>722500</v>
+        <v>753600</v>
       </c>
       <c r="H21" s="3">
-        <v>940900</v>
+        <v>722800</v>
       </c>
       <c r="I21" s="3">
-        <v>839700</v>
+        <v>941300</v>
       </c>
       <c r="J21" s="3">
+        <v>840100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1047100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>768400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>975700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>632300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>937200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>623700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>916100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>676400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E22" s="3">
         <v>81700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>83900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>77700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>85500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>71300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>72300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>77600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>82400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>79200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>81400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>74300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>81300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>62500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>769500</v>
+        <v>298300</v>
       </c>
       <c r="E23" s="3">
-        <v>640900</v>
+        <v>769900</v>
       </c>
       <c r="F23" s="3">
-        <v>496100</v>
+        <v>641200</v>
       </c>
       <c r="G23" s="3">
-        <v>626600</v>
+        <v>496400</v>
       </c>
       <c r="H23" s="3">
-        <v>698700</v>
+        <v>626900</v>
       </c>
       <c r="I23" s="3">
-        <v>760800</v>
+        <v>699100</v>
       </c>
       <c r="J23" s="3">
+        <v>761100</v>
+      </c>
+      <c r="K23" s="3">
         <v>811200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>679900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>746700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>547600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>721400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>538700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>723300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>603500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>149300</v>
+        <v>918700</v>
       </c>
       <c r="E24" s="3">
-        <v>128200</v>
+        <v>149400</v>
       </c>
       <c r="F24" s="3">
+        <v>128300</v>
+      </c>
+      <c r="G24" s="3">
         <v>90000</v>
       </c>
-      <c r="G24" s="3">
-        <v>164300</v>
-      </c>
       <c r="H24" s="3">
-        <v>127300</v>
+        <v>164400</v>
       </c>
       <c r="I24" s="3">
+        <v>127400</v>
+      </c>
+      <c r="J24" s="3">
         <v>116100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>126900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>120300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>104700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>103900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>99300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>98600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>121400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>103400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>620200</v>
+        <v>173000</v>
       </c>
       <c r="E26" s="3">
-        <v>512700</v>
+        <v>620500</v>
       </c>
       <c r="F26" s="3">
-        <v>406100</v>
+        <v>512900</v>
       </c>
       <c r="G26" s="3">
-        <v>462300</v>
+        <v>406300</v>
       </c>
       <c r="H26" s="3">
-        <v>571400</v>
+        <v>462500</v>
       </c>
       <c r="I26" s="3">
-        <v>644700</v>
+        <v>571700</v>
       </c>
       <c r="J26" s="3">
+        <v>645000</v>
+      </c>
+      <c r="K26" s="3">
         <v>684200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>559600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>642000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>443700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>622100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>440100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>601900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>535000</v>
+        <v>104100</v>
       </c>
       <c r="E27" s="3">
-        <v>425500</v>
+        <v>535300</v>
       </c>
       <c r="F27" s="3">
-        <v>339700</v>
+        <v>425700</v>
       </c>
       <c r="G27" s="3">
-        <v>391900</v>
+        <v>339900</v>
       </c>
       <c r="H27" s="3">
-        <v>495500</v>
+        <v>392100</v>
       </c>
       <c r="I27" s="3">
-        <v>576200</v>
+        <v>495700</v>
       </c>
       <c r="J27" s="3">
+        <v>576500</v>
+      </c>
+      <c r="K27" s="3">
         <v>610100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>481800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>575700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>388400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>557800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>395500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>534700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1696,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1685,8 +1746,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1846,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-225600</v>
+        <v>6781900</v>
       </c>
       <c r="E32" s="3">
-        <v>-168300</v>
+        <v>-225800</v>
       </c>
       <c r="F32" s="3">
-        <v>-121600</v>
+        <v>-168400</v>
       </c>
       <c r="G32" s="3">
+        <v>-121700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-103200</v>
       </c>
-      <c r="H32" s="3">
-        <v>-223200</v>
-      </c>
       <c r="I32" s="3">
-        <v>-338200</v>
+        <v>-223300</v>
       </c>
       <c r="J32" s="3">
+        <v>-338300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-313200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-249200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-276900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-227000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-277300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-276900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-225500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-189800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>535000</v>
+        <v>104100</v>
       </c>
       <c r="E33" s="3">
-        <v>425500</v>
+        <v>535300</v>
       </c>
       <c r="F33" s="3">
-        <v>339700</v>
+        <v>425700</v>
       </c>
       <c r="G33" s="3">
-        <v>391900</v>
+        <v>339900</v>
       </c>
       <c r="H33" s="3">
-        <v>495500</v>
+        <v>392100</v>
       </c>
       <c r="I33" s="3">
-        <v>576200</v>
+        <v>495700</v>
       </c>
       <c r="J33" s="3">
+        <v>576500</v>
+      </c>
+      <c r="K33" s="3">
         <v>610100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>481800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>575700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>388400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>557800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>395500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>534700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>535000</v>
+        <v>104100</v>
       </c>
       <c r="E35" s="3">
-        <v>425500</v>
+        <v>535300</v>
       </c>
       <c r="F35" s="3">
-        <v>339700</v>
+        <v>425700</v>
       </c>
       <c r="G35" s="3">
-        <v>391900</v>
+        <v>339900</v>
       </c>
       <c r="H35" s="3">
-        <v>495500</v>
+        <v>392100</v>
       </c>
       <c r="I35" s="3">
-        <v>576200</v>
+        <v>495700</v>
       </c>
       <c r="J35" s="3">
+        <v>576500</v>
+      </c>
+      <c r="K35" s="3">
         <v>610100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>481800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>575700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>388400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>557800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>395500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>534700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,431 +2143,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1066800</v>
+        <v>1345500</v>
       </c>
       <c r="E41" s="3">
-        <v>949700</v>
+        <v>1067300</v>
       </c>
       <c r="F41" s="3">
-        <v>1063300</v>
+        <v>950100</v>
       </c>
       <c r="G41" s="3">
-        <v>999900</v>
+        <v>1063800</v>
       </c>
       <c r="H41" s="3">
-        <v>918700</v>
+        <v>1000300</v>
       </c>
       <c r="I41" s="3">
-        <v>1082900</v>
+        <v>919200</v>
       </c>
       <c r="J41" s="3">
+        <v>1083400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1502900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1381100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1124800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1042100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>916800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1519200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1751800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1613500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E42" s="3">
         <v>19200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>51900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>38200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>44400</v>
       </c>
-      <c r="H42" s="3">
-        <v>88700</v>
-      </c>
       <c r="I42" s="3">
+        <v>88800</v>
+      </c>
+      <c r="J42" s="3">
         <v>86700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>217700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>286600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>246600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>456200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>708100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>170600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>56000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>162400</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>936900</v>
+        <v>2265500</v>
       </c>
       <c r="E43" s="3">
-        <v>950900</v>
+        <v>937400</v>
       </c>
       <c r="F43" s="3">
-        <v>949000</v>
+        <v>951400</v>
       </c>
       <c r="G43" s="3">
-        <v>997800</v>
+        <v>949400</v>
       </c>
       <c r="H43" s="3">
-        <v>1002000</v>
+        <v>998200</v>
       </c>
       <c r="I43" s="3">
-        <v>938700</v>
+        <v>1002500</v>
       </c>
       <c r="J43" s="3">
+        <v>939200</v>
+      </c>
+      <c r="K43" s="3">
         <v>972300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>916200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>819300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>798600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>822200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>870600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>841500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>830500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>333200</v>
+        <v>400300</v>
       </c>
       <c r="E44" s="3">
-        <v>340300</v>
+        <v>333400</v>
       </c>
       <c r="F44" s="3">
-        <v>302300</v>
+        <v>340400</v>
       </c>
       <c r="G44" s="3">
-        <v>301100</v>
+        <v>302400</v>
       </c>
       <c r="H44" s="3">
-        <v>307700</v>
+        <v>301300</v>
       </c>
       <c r="I44" s="3">
-        <v>316000</v>
+        <v>307800</v>
       </c>
       <c r="J44" s="3">
+        <v>316200</v>
+      </c>
+      <c r="K44" s="3">
         <v>305900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>331000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>289200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>272300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>271700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>291900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>296100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>292200</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>243900</v>
+        <v>227300</v>
       </c>
       <c r="E45" s="3">
-        <v>275000</v>
+        <v>244000</v>
       </c>
       <c r="F45" s="3">
-        <v>200800</v>
+        <v>275100</v>
       </c>
       <c r="G45" s="3">
-        <v>221100</v>
+        <v>200900</v>
       </c>
       <c r="H45" s="3">
-        <v>188400</v>
+        <v>221200</v>
       </c>
       <c r="I45" s="3">
-        <v>201500</v>
+        <v>188500</v>
       </c>
       <c r="J45" s="3">
+        <v>201600</v>
+      </c>
+      <c r="K45" s="3">
         <v>192000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>213000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>180300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>162500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>165600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>158300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>237000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>255400</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2600000</v>
+        <v>3082700</v>
       </c>
       <c r="E46" s="3">
-        <v>2567700</v>
+        <v>2601300</v>
       </c>
       <c r="F46" s="3">
-        <v>2553500</v>
+        <v>2569000</v>
       </c>
       <c r="G46" s="3">
-        <v>2564300</v>
+        <v>2554700</v>
       </c>
       <c r="H46" s="3">
-        <v>2505500</v>
+        <v>2565500</v>
       </c>
       <c r="I46" s="3">
-        <v>2625800</v>
+        <v>2506700</v>
       </c>
       <c r="J46" s="3">
+        <v>2627000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3190900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3127800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2660200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2731700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2884300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3010600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3182300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3154100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6283000</v>
+        <v>7172200</v>
       </c>
       <c r="E47" s="3">
-        <v>6132100</v>
+        <v>6285900</v>
       </c>
       <c r="F47" s="3">
-        <v>5787500</v>
+        <v>6135000</v>
       </c>
       <c r="G47" s="3">
-        <v>5938400</v>
+        <v>5790200</v>
       </c>
       <c r="H47" s="3">
-        <v>5447400</v>
+        <v>5941200</v>
       </c>
       <c r="I47" s="3">
-        <v>5344500</v>
+        <v>5450000</v>
       </c>
       <c r="J47" s="3">
+        <v>5347000</v>
+      </c>
+      <c r="K47" s="3">
         <v>5150200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4986200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4840600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4539900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4484700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4281400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4318500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3772500</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9501300</v>
+        <v>9687400</v>
       </c>
       <c r="E48" s="3">
-        <v>9141900</v>
+        <v>9505800</v>
       </c>
       <c r="F48" s="3">
-        <v>8240100</v>
+        <v>9146200</v>
       </c>
       <c r="G48" s="3">
-        <v>8234200</v>
+        <v>8244000</v>
       </c>
       <c r="H48" s="3">
-        <v>8086700</v>
+        <v>8238100</v>
       </c>
       <c r="I48" s="3">
-        <v>7485000</v>
+        <v>8090500</v>
       </c>
       <c r="J48" s="3">
+        <v>7488600</v>
+      </c>
+      <c r="K48" s="3">
         <v>7402800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7264600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6774200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6443600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6338500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6136200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6059800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6448400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>715600</v>
+        <v>714600</v>
       </c>
       <c r="E49" s="3">
-        <v>695900</v>
+        <v>715900</v>
       </c>
       <c r="F49" s="3">
-        <v>655500</v>
+        <v>696200</v>
       </c>
       <c r="G49" s="3">
-        <v>674000</v>
+        <v>655800</v>
       </c>
       <c r="H49" s="3">
-        <v>722400</v>
+        <v>674400</v>
       </c>
       <c r="I49" s="3">
-        <v>723800</v>
+        <v>722700</v>
       </c>
       <c r="J49" s="3">
+        <v>724200</v>
+      </c>
+      <c r="K49" s="3">
         <v>742800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>755300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>729300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>719000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>735200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>741300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>762600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>749900</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,55 +2691,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1286700</v>
+        <v>763200</v>
       </c>
       <c r="E52" s="3">
-        <v>606500</v>
+        <v>1287300</v>
       </c>
       <c r="F52" s="3">
-        <v>484900</v>
+        <v>606800</v>
       </c>
       <c r="G52" s="3">
-        <v>483600</v>
+        <v>485200</v>
       </c>
       <c r="H52" s="3">
-        <v>463200</v>
+        <v>483800</v>
       </c>
       <c r="I52" s="3">
-        <v>724700</v>
+        <v>463500</v>
       </c>
       <c r="J52" s="3">
+        <v>725000</v>
+      </c>
+      <c r="K52" s="3">
         <v>699400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>690500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>651900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>629300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>628400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>552100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>535900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20386600</v>
+        <v>21420200</v>
       </c>
       <c r="E54" s="3">
-        <v>19144200</v>
+        <v>20396200</v>
       </c>
       <c r="F54" s="3">
-        <v>17721600</v>
+        <v>19153200</v>
       </c>
       <c r="G54" s="3">
-        <v>17894500</v>
+        <v>17729900</v>
       </c>
       <c r="H54" s="3">
-        <v>17225300</v>
+        <v>17902900</v>
       </c>
       <c r="I54" s="3">
-        <v>16903800</v>
+        <v>17233400</v>
       </c>
       <c r="J54" s="3">
+        <v>16911700</v>
+      </c>
+      <c r="K54" s="3">
         <v>17186100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16824400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15656200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15063400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15071200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14721600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14859100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14644600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,290 +2883,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>412500</v>
+      <c r="D57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E57" s="3">
-        <v>456900</v>
+        <v>412700</v>
       </c>
       <c r="F57" s="3">
-        <v>363200</v>
+        <v>457100</v>
       </c>
       <c r="G57" s="3">
-        <v>383000</v>
+        <v>363400</v>
       </c>
       <c r="H57" s="3">
-        <v>352600</v>
+        <v>383200</v>
       </c>
       <c r="I57" s="3">
-        <v>392100</v>
+        <v>352800</v>
       </c>
       <c r="J57" s="3">
+        <v>392300</v>
+      </c>
+      <c r="K57" s="3">
         <v>342000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>528300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>435900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>434300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>430200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1593500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1528300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1615400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2272400</v>
+        <v>13100</v>
       </c>
       <c r="E58" s="3">
-        <v>1409600</v>
+        <v>2273500</v>
       </c>
       <c r="F58" s="3">
-        <v>1276900</v>
+        <v>1410300</v>
       </c>
       <c r="G58" s="3">
-        <v>1204200</v>
+        <v>1277500</v>
       </c>
       <c r="H58" s="3">
-        <v>1188300</v>
+        <v>1204700</v>
       </c>
       <c r="I58" s="3">
-        <v>1345300</v>
+        <v>1188800</v>
       </c>
       <c r="J58" s="3">
+        <v>1345900</v>
+      </c>
+      <c r="K58" s="3">
         <v>2237800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2045200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1010000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>792000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>833400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1237200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1236000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>902400</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2004900</v>
+        <v>1817900</v>
       </c>
       <c r="E59" s="3">
-        <v>1930500</v>
+        <v>2005800</v>
       </c>
       <c r="F59" s="3">
-        <v>1684400</v>
+        <v>1931400</v>
       </c>
       <c r="G59" s="3">
-        <v>1746300</v>
+        <v>1685100</v>
       </c>
       <c r="H59" s="3">
-        <v>1615500</v>
+        <v>1747100</v>
       </c>
       <c r="I59" s="3">
-        <v>1594000</v>
+        <v>1616200</v>
       </c>
       <c r="J59" s="3">
+        <v>1594700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1609200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1527700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1336600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1295900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1261000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>122200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>159600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4689800</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>3797000</v>
+        <v>4692000</v>
       </c>
       <c r="F60" s="3">
-        <v>3324500</v>
+        <v>3798800</v>
       </c>
       <c r="G60" s="3">
-        <v>3333500</v>
+        <v>3326000</v>
       </c>
       <c r="H60" s="3">
-        <v>3156400</v>
+        <v>3335000</v>
       </c>
       <c r="I60" s="3">
-        <v>3331400</v>
+        <v>3157800</v>
       </c>
       <c r="J60" s="3">
+        <v>3332900</v>
+      </c>
+      <c r="K60" s="3">
         <v>4188900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4101200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2782500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2522200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2524600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2953000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2923900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2648300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4269400</v>
+        <v>4697300</v>
       </c>
       <c r="E61" s="3">
-        <v>3985600</v>
+        <v>4271400</v>
       </c>
       <c r="F61" s="3">
-        <v>3903800</v>
+        <v>3987400</v>
       </c>
       <c r="G61" s="3">
-        <v>3655500</v>
+        <v>3905600</v>
       </c>
       <c r="H61" s="3">
-        <v>3537400</v>
+        <v>3657300</v>
       </c>
       <c r="I61" s="3">
-        <v>3517100</v>
+        <v>3539100</v>
       </c>
       <c r="J61" s="3">
+        <v>3518800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2880900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2716500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3462600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3522000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3556600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2976300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2963300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3134000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1254000</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>1278300</v>
+        <v>1254500</v>
       </c>
       <c r="F62" s="3">
-        <v>1246600</v>
+        <v>1278900</v>
       </c>
       <c r="G62" s="3">
-        <v>1300700</v>
+        <v>1247200</v>
       </c>
       <c r="H62" s="3">
-        <v>1201500</v>
+        <v>1301300</v>
       </c>
       <c r="I62" s="3">
-        <v>1113300</v>
+        <v>1202000</v>
       </c>
       <c r="J62" s="3">
+        <v>1113900</v>
+      </c>
+      <c r="K62" s="3">
         <v>994700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>989200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>944500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>903400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>880500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>879800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>867800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>897700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11529700</v>
+        <v>3066000</v>
       </c>
       <c r="E66" s="3">
-        <v>10336100</v>
+        <v>11535100</v>
       </c>
       <c r="F66" s="3">
-        <v>9582300</v>
+        <v>10341000</v>
       </c>
       <c r="G66" s="3">
-        <v>9411100</v>
+        <v>9586800</v>
       </c>
       <c r="H66" s="3">
-        <v>8925400</v>
+        <v>9415600</v>
       </c>
       <c r="I66" s="3">
-        <v>8954500</v>
+        <v>8929600</v>
       </c>
       <c r="J66" s="3">
+        <v>8958800</v>
+      </c>
+      <c r="K66" s="3">
         <v>9047800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8763700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8071700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7800800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7844700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7690300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7668400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7606900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7525100</v>
+        <v>15279500</v>
       </c>
       <c r="E72" s="3">
-        <v>7515500</v>
+        <v>7528600</v>
       </c>
       <c r="F72" s="3">
-        <v>7347900</v>
+        <v>7519100</v>
       </c>
       <c r="G72" s="3">
-        <v>7505700</v>
+        <v>7351400</v>
       </c>
       <c r="H72" s="3">
-        <v>7356800</v>
+        <v>7509200</v>
       </c>
       <c r="I72" s="3">
-        <v>7316000</v>
+        <v>7360300</v>
       </c>
       <c r="J72" s="3">
+        <v>7319500</v>
+      </c>
+      <c r="K72" s="3">
         <v>6987400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6825000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6559500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6380300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6185900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5906400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5746800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5544700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8856900</v>
+        <v>17490900</v>
       </c>
       <c r="E76" s="3">
-        <v>8808100</v>
+        <v>8861100</v>
       </c>
       <c r="F76" s="3">
-        <v>8139300</v>
+        <v>8812200</v>
       </c>
       <c r="G76" s="3">
-        <v>8483400</v>
+        <v>8143100</v>
       </c>
       <c r="H76" s="3">
-        <v>8300000</v>
+        <v>8487400</v>
       </c>
       <c r="I76" s="3">
-        <v>7949200</v>
+        <v>8303900</v>
       </c>
       <c r="J76" s="3">
+        <v>7953000</v>
+      </c>
+      <c r="K76" s="3">
         <v>8138300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8060700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7584500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7262600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7226400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7031300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7190700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7037700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>535000</v>
+        <v>104100</v>
       </c>
       <c r="E81" s="3">
-        <v>425500</v>
+        <v>535300</v>
       </c>
       <c r="F81" s="3">
-        <v>339700</v>
+        <v>425700</v>
       </c>
       <c r="G81" s="3">
-        <v>391900</v>
+        <v>339900</v>
       </c>
       <c r="H81" s="3">
-        <v>495500</v>
+        <v>392100</v>
       </c>
       <c r="I81" s="3">
-        <v>576200</v>
+        <v>495700</v>
       </c>
       <c r="J81" s="3">
+        <v>576500</v>
+      </c>
+      <c r="K81" s="3">
         <v>610100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>481800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>575700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>388400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>557800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>395500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>534700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,8 +4028,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3877,8 +4076,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>672000</v>
+        <v>662000</v>
       </c>
       <c r="E89" s="3">
-        <v>709600</v>
+        <v>672400</v>
       </c>
       <c r="F89" s="3">
-        <v>552900</v>
+        <v>709900</v>
       </c>
       <c r="G89" s="3">
-        <v>641600</v>
+        <v>553200</v>
       </c>
       <c r="H89" s="3">
-        <v>621200</v>
+        <v>641900</v>
       </c>
       <c r="I89" s="3">
-        <v>564100</v>
+        <v>621500</v>
       </c>
       <c r="J89" s="3">
+        <v>564400</v>
+      </c>
+      <c r="K89" s="3">
         <v>638300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>530400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>565500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>528000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>563700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>529900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>524500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>532200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,55 +4398,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-132400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-317700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-441200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-339700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-419600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-348400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-489100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1005400</v>
+        <v>-641000</v>
       </c>
       <c r="E94" s="3">
-        <v>-490900</v>
+        <v>-1005900</v>
       </c>
       <c r="F94" s="3">
-        <v>-272100</v>
+        <v>-491100</v>
       </c>
       <c r="G94" s="3">
-        <v>-327800</v>
+        <v>-272300</v>
       </c>
       <c r="H94" s="3">
-        <v>-347400</v>
+        <v>-328000</v>
       </c>
       <c r="I94" s="3">
-        <v>-126300</v>
+        <v>-347600</v>
       </c>
       <c r="J94" s="3">
+        <v>-126400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-354800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-150100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-64600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-821400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-423300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-180400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-210000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,55 +4618,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-520700</v>
+        <v>-285400</v>
       </c>
       <c r="E96" s="3">
-        <v>-271700</v>
+        <v>-520900</v>
       </c>
       <c r="F96" s="3">
-        <v>-495900</v>
+        <v>-271800</v>
       </c>
       <c r="G96" s="3">
-        <v>-258700</v>
+        <v>-496100</v>
       </c>
       <c r="H96" s="3">
-        <v>-450800</v>
+        <v>-258900</v>
       </c>
       <c r="I96" s="3">
-        <v>-235200</v>
+        <v>-451000</v>
       </c>
       <c r="J96" s="3">
+        <v>-235300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-409800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-215500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-376500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-196900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-342500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-176800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-308000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-161500</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,145 +4816,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>445000</v>
+        <v>242400</v>
       </c>
       <c r="E100" s="3">
-        <v>-366800</v>
+        <v>445200</v>
       </c>
       <c r="F100" s="3">
-        <v>-209000</v>
+        <v>-367000</v>
       </c>
       <c r="G100" s="3">
-        <v>-226800</v>
+        <v>-209100</v>
       </c>
       <c r="H100" s="3">
-        <v>-437400</v>
+        <v>-226900</v>
       </c>
       <c r="I100" s="3">
-        <v>-844000</v>
+        <v>-437700</v>
       </c>
       <c r="J100" s="3">
+        <v>-844400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-148100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-133800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-424400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-376100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-355200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-305700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-234700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E101" s="3">
         <v>5500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>34500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-13700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>12900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-16600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-33400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>278200</v>
+      </c>
+      <c r="E102" s="3">
         <v>117100</v>
       </c>
-      <c r="E102" s="3">
-        <v>-113600</v>
-      </c>
       <c r="F102" s="3">
+        <v>-113700</v>
+      </c>
+      <c r="G102" s="3">
         <v>63500</v>
       </c>
-      <c r="G102" s="3">
-        <v>81100</v>
-      </c>
       <c r="H102" s="3">
-        <v>-164200</v>
+        <v>81200</v>
       </c>
       <c r="I102" s="3">
-        <v>-420000</v>
+        <v>-164300</v>
       </c>
       <c r="J102" s="3">
+        <v>-420200</v>
+      </c>
+      <c r="K102" s="3">
         <v>132400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>259400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>85200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>123600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-619200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-232600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>146000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>87700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,248 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10501900</v>
+        <v>3788800</v>
       </c>
       <c r="E8" s="3">
-        <v>3151500</v>
+        <v>3676000</v>
       </c>
       <c r="F8" s="3">
-        <v>2892100</v>
+        <v>3152300</v>
       </c>
       <c r="G8" s="3">
-        <v>2324100</v>
+        <v>2892700</v>
       </c>
       <c r="H8" s="3">
-        <v>2584200</v>
+        <v>2324600</v>
       </c>
       <c r="I8" s="3">
-        <v>2593800</v>
+        <v>2584800</v>
       </c>
       <c r="J8" s="3">
+        <v>2594500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2527500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2451200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2188100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1986400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1857300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1824000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1848200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1921400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2023300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2305500</v>
+        <v>2470300</v>
       </c>
       <c r="E9" s="3">
-        <v>1848300</v>
+        <v>2306000</v>
       </c>
       <c r="F9" s="3">
-        <v>1603600</v>
+        <v>1848800</v>
       </c>
       <c r="G9" s="3">
-        <v>1198600</v>
+        <v>1603900</v>
       </c>
       <c r="H9" s="3">
-        <v>1366900</v>
+        <v>1198900</v>
       </c>
       <c r="I9" s="3">
-        <v>1412000</v>
+        <v>1367200</v>
       </c>
       <c r="J9" s="3">
+        <v>1412300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1343200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1281400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1088000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>928900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>839400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>799000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>853600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>942300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1030700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8196400</v>
+        <v>1318600</v>
       </c>
       <c r="E10" s="3">
-        <v>1303200</v>
+        <v>1370000</v>
       </c>
       <c r="F10" s="3">
-        <v>1288500</v>
+        <v>1303500</v>
       </c>
       <c r="G10" s="3">
-        <v>1125500</v>
+        <v>1288800</v>
       </c>
       <c r="H10" s="3">
-        <v>1217300</v>
+        <v>1125700</v>
       </c>
       <c r="I10" s="3">
-        <v>1181900</v>
+        <v>1217600</v>
       </c>
       <c r="J10" s="3">
+        <v>1182200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1184300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1169800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1100100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1057500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1018000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1024900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>994600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>979100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>992600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,16 +925,17 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
+      <c r="E12" s="3">
+        <v>-199300</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>10</v>
@@ -935,35 +949,38 @@
       <c r="I12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3">
         <v>2900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,16 +1029,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>-199200</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6828300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1035,85 +1055,91 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-29900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-5700</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>223800</v>
+      </c>
+      <c r="E15" s="3">
         <v>214500</v>
       </c>
-      <c r="E15" s="3">
-        <v>204600</v>
-      </c>
       <c r="F15" s="3">
+        <v>204700</v>
+      </c>
+      <c r="G15" s="3">
         <v>195300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>179500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>180000</v>
       </c>
-      <c r="I15" s="3">
-        <v>170900</v>
-      </c>
       <c r="J15" s="3">
+        <v>171000</v>
+      </c>
+      <c r="K15" s="3">
         <v>165000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>158300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>155500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>149800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>145100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>141500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>134100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>130300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3376200</v>
+        <v>3135300</v>
       </c>
       <c r="E17" s="3">
-        <v>2525700</v>
+        <v>3377000</v>
       </c>
       <c r="F17" s="3">
-        <v>2335300</v>
+        <v>2526300</v>
       </c>
       <c r="G17" s="3">
-        <v>1871700</v>
+        <v>2335900</v>
       </c>
       <c r="H17" s="3">
-        <v>1975000</v>
+        <v>1872100</v>
       </c>
       <c r="I17" s="3">
-        <v>2046800</v>
+        <v>1975400</v>
       </c>
       <c r="J17" s="3">
+        <v>2047300</v>
+      </c>
+      <c r="K17" s="3">
         <v>2032400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1875600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1675100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1437400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1455400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1305600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1505200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1361200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1543600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7125700</v>
+        <v>653500</v>
       </c>
       <c r="E18" s="3">
-        <v>625800</v>
+        <v>299100</v>
       </c>
       <c r="F18" s="3">
-        <v>556700</v>
+        <v>626000</v>
       </c>
       <c r="G18" s="3">
-        <v>452400</v>
+        <v>556900</v>
       </c>
       <c r="H18" s="3">
-        <v>609200</v>
+        <v>452500</v>
       </c>
       <c r="I18" s="3">
-        <v>547100</v>
+        <v>609400</v>
       </c>
       <c r="J18" s="3">
+        <v>547200</v>
+      </c>
+      <c r="K18" s="3">
         <v>495100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>575600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>513100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>549000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>402000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>518400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>343000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>560300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,258 +1282,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6781900</v>
+        <v>102700</v>
       </c>
       <c r="E20" s="3">
+        <v>97000</v>
+      </c>
+      <c r="F20" s="3">
         <v>225800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>168400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>121700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>103200</v>
       </c>
-      <c r="I20" s="3">
-        <v>223300</v>
-      </c>
       <c r="J20" s="3">
+        <v>223400</v>
+      </c>
+      <c r="K20" s="3">
         <v>338300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>313200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>249200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>276900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>227000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>277300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>276900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>225500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>189800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>594000</v>
+        <v>980100</v>
       </c>
       <c r="E21" s="3">
-        <v>1056200</v>
+        <v>585500</v>
       </c>
       <c r="F21" s="3">
-        <v>742800</v>
+        <v>1056500</v>
       </c>
       <c r="G21" s="3">
-        <v>753600</v>
+        <v>742900</v>
       </c>
       <c r="H21" s="3">
-        <v>722800</v>
+        <v>753800</v>
       </c>
       <c r="I21" s="3">
-        <v>941300</v>
+        <v>723000</v>
       </c>
       <c r="J21" s="3">
+        <v>941500</v>
+      </c>
+      <c r="K21" s="3">
         <v>840100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1047100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>768400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>975700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>632300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>937200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>623700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>916100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>676400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>45600</v>
+        <v>102300</v>
       </c>
       <c r="E22" s="3">
-        <v>81700</v>
+        <v>97800</v>
       </c>
       <c r="F22" s="3">
-        <v>83900</v>
+        <v>81800</v>
       </c>
       <c r="G22" s="3">
-        <v>77700</v>
+        <v>84000</v>
       </c>
       <c r="H22" s="3">
+        <v>77800</v>
+      </c>
+      <c r="I22" s="3">
         <v>85500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>71300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>72300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>77600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>82400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>79200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>81400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>74300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>81300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>62500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>654000</v>
+      </c>
+      <c r="E23" s="3">
         <v>298300</v>
       </c>
-      <c r="E23" s="3">
-        <v>769900</v>
-      </c>
       <c r="F23" s="3">
-        <v>641200</v>
+        <v>770000</v>
       </c>
       <c r="G23" s="3">
-        <v>496400</v>
+        <v>641400</v>
       </c>
       <c r="H23" s="3">
-        <v>626900</v>
+        <v>496500</v>
       </c>
       <c r="I23" s="3">
-        <v>699100</v>
+        <v>627100</v>
       </c>
       <c r="J23" s="3">
+        <v>699200</v>
+      </c>
+      <c r="K23" s="3">
         <v>761100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>811200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>679900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>746700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>547600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>721400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>538700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>723300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>603500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>918700</v>
+        <v>136800</v>
       </c>
       <c r="E24" s="3">
+        <v>125300</v>
+      </c>
+      <c r="F24" s="3">
         <v>149400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>128300</v>
       </c>
-      <c r="G24" s="3">
-        <v>90000</v>
-      </c>
       <c r="H24" s="3">
-        <v>164400</v>
+        <v>90100</v>
       </c>
       <c r="I24" s="3">
+        <v>164500</v>
+      </c>
+      <c r="J24" s="3">
         <v>127400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>116100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>126900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>120300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>104700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>103900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>99300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>98600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>121400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>103400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>173000</v>
+        <v>517100</v>
       </c>
       <c r="E26" s="3">
-        <v>620500</v>
+        <v>-101700</v>
       </c>
       <c r="F26" s="3">
-        <v>512900</v>
+        <v>620600</v>
       </c>
       <c r="G26" s="3">
-        <v>406300</v>
+        <v>513000</v>
       </c>
       <c r="H26" s="3">
-        <v>462500</v>
+        <v>406400</v>
       </c>
       <c r="I26" s="3">
-        <v>571700</v>
+        <v>462600</v>
       </c>
       <c r="J26" s="3">
+        <v>571800</v>
+      </c>
+      <c r="K26" s="3">
         <v>645000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>684200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>559600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>642000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>443700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>622100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>440100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>601900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>500100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>104100</v>
+        <v>422600</v>
       </c>
       <c r="E27" s="3">
-        <v>535300</v>
+        <v>-170600</v>
       </c>
       <c r="F27" s="3">
-        <v>425700</v>
+        <v>535400</v>
       </c>
       <c r="G27" s="3">
-        <v>339900</v>
+        <v>425800</v>
       </c>
       <c r="H27" s="3">
-        <v>392100</v>
+        <v>340000</v>
       </c>
       <c r="I27" s="3">
-        <v>495700</v>
+        <v>392200</v>
       </c>
       <c r="J27" s="3">
+        <v>495800</v>
+      </c>
+      <c r="K27" s="3">
         <v>576500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>610100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>481800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>575700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>388400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>557800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>395500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>534700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,8 +1757,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1749,8 +1810,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,108 +1916,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6781900</v>
+        <v>-102700</v>
       </c>
       <c r="E32" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-225800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-168400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-121700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-103200</v>
       </c>
-      <c r="I32" s="3">
-        <v>-223300</v>
-      </c>
       <c r="J32" s="3">
+        <v>-223400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-338300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-313200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-249200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-276900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-227000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-277300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-276900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-225500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-189800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>104100</v>
+        <v>422600</v>
       </c>
       <c r="E33" s="3">
-        <v>535300</v>
+        <v>-170600</v>
       </c>
       <c r="F33" s="3">
-        <v>425700</v>
+        <v>535400</v>
       </c>
       <c r="G33" s="3">
-        <v>339900</v>
+        <v>425800</v>
       </c>
       <c r="H33" s="3">
-        <v>392100</v>
+        <v>340000</v>
       </c>
       <c r="I33" s="3">
-        <v>495700</v>
+        <v>392200</v>
       </c>
       <c r="J33" s="3">
+        <v>495800</v>
+      </c>
+      <c r="K33" s="3">
         <v>576500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>610100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>481800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>575700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>388400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>557800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>395500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>534700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>104100</v>
+        <v>422600</v>
       </c>
       <c r="E35" s="3">
-        <v>535300</v>
+        <v>-170600</v>
       </c>
       <c r="F35" s="3">
-        <v>425700</v>
+        <v>535400</v>
       </c>
       <c r="G35" s="3">
-        <v>339900</v>
+        <v>425800</v>
       </c>
       <c r="H35" s="3">
-        <v>392100</v>
+        <v>340000</v>
       </c>
       <c r="I35" s="3">
-        <v>495700</v>
+        <v>392200</v>
       </c>
       <c r="J35" s="3">
+        <v>495800</v>
+      </c>
+      <c r="K35" s="3">
         <v>576500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>610100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>481800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>575700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>388400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>557800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>395500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>534700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,458 +2230,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1345500</v>
+        <v>1296000</v>
       </c>
       <c r="E41" s="3">
-        <v>1067300</v>
+        <v>2691600</v>
       </c>
       <c r="F41" s="3">
-        <v>950100</v>
+        <v>1067500</v>
       </c>
       <c r="G41" s="3">
-        <v>1063800</v>
+        <v>950400</v>
       </c>
       <c r="H41" s="3">
-        <v>1000300</v>
+        <v>1064100</v>
       </c>
       <c r="I41" s="3">
-        <v>919200</v>
+        <v>1000600</v>
       </c>
       <c r="J41" s="3">
+        <v>919400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1083400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1502900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1381100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1124800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1042100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>916800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1519200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1751800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1613500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E42" s="3">
         <v>10200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>19200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>51900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>38200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>44400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>88800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>86700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>217700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>286600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>246600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>456200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>708100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>170600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>56000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>162400</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2265500</v>
+        <v>1120000</v>
       </c>
       <c r="E43" s="3">
-        <v>937400</v>
+        <v>2426800</v>
       </c>
       <c r="F43" s="3">
-        <v>951400</v>
+        <v>937600</v>
       </c>
       <c r="G43" s="3">
-        <v>949400</v>
+        <v>951600</v>
       </c>
       <c r="H43" s="3">
-        <v>998200</v>
+        <v>949600</v>
       </c>
       <c r="I43" s="3">
-        <v>1002500</v>
+        <v>998500</v>
       </c>
       <c r="J43" s="3">
+        <v>1002700</v>
+      </c>
+      <c r="K43" s="3">
         <v>939200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>972300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>916200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>819300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>798600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>822200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>870600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>841500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>830500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>400300</v>
+        <v>422200</v>
       </c>
       <c r="E44" s="3">
-        <v>333400</v>
+        <v>400400</v>
       </c>
       <c r="F44" s="3">
-        <v>340400</v>
+        <v>333500</v>
       </c>
       <c r="G44" s="3">
-        <v>302400</v>
+        <v>340500</v>
       </c>
       <c r="H44" s="3">
+        <v>302500</v>
+      </c>
+      <c r="I44" s="3">
         <v>301300</v>
       </c>
-      <c r="I44" s="3">
-        <v>307800</v>
-      </c>
       <c r="J44" s="3">
+        <v>307900</v>
+      </c>
+      <c r="K44" s="3">
         <v>316200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>305900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>331000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>289200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>272300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>271700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>291900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>296100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>292200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>231500</v>
+      </c>
+      <c r="E45" s="3">
         <v>227300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>244000</v>
       </c>
-      <c r="F45" s="3">
-        <v>275100</v>
-      </c>
       <c r="G45" s="3">
+        <v>275200</v>
+      </c>
+      <c r="H45" s="3">
         <v>200900</v>
       </c>
-      <c r="H45" s="3">
-        <v>221200</v>
-      </c>
       <c r="I45" s="3">
+        <v>221300</v>
+      </c>
+      <c r="J45" s="3">
         <v>188500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>201600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>192000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>213000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>180300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>162500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>165600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>158300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>237000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>255400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3082700</v>
+        <v>3079500</v>
       </c>
       <c r="E46" s="3">
-        <v>2601300</v>
+        <v>3083500</v>
       </c>
       <c r="F46" s="3">
-        <v>2569000</v>
+        <v>2601900</v>
       </c>
       <c r="G46" s="3">
-        <v>2554700</v>
+        <v>2569600</v>
       </c>
       <c r="H46" s="3">
-        <v>2565500</v>
+        <v>2555300</v>
       </c>
       <c r="I46" s="3">
-        <v>2506700</v>
+        <v>2566100</v>
       </c>
       <c r="J46" s="3">
+        <v>2507300</v>
+      </c>
+      <c r="K46" s="3">
         <v>2627000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3190900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3127800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2660200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2731700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2884300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3010600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3182300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3154100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7172200</v>
+        <v>6943600</v>
       </c>
       <c r="E47" s="3">
-        <v>6285900</v>
+        <v>12702500</v>
       </c>
       <c r="F47" s="3">
-        <v>6135000</v>
+        <v>6287400</v>
       </c>
       <c r="G47" s="3">
-        <v>5790200</v>
+        <v>6136500</v>
       </c>
       <c r="H47" s="3">
-        <v>5941200</v>
+        <v>5791600</v>
       </c>
       <c r="I47" s="3">
-        <v>5450000</v>
+        <v>5942600</v>
       </c>
       <c r="J47" s="3">
+        <v>5451300</v>
+      </c>
+      <c r="K47" s="3">
         <v>5347000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5150200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4986200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4840600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4539900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4484700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4281400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4318500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3772500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9687400</v>
+        <v>9527100</v>
       </c>
       <c r="E48" s="3">
-        <v>9505800</v>
+        <v>24672400</v>
       </c>
       <c r="F48" s="3">
-        <v>9146200</v>
+        <v>9508000</v>
       </c>
       <c r="G48" s="3">
-        <v>8244000</v>
+        <v>9148400</v>
       </c>
       <c r="H48" s="3">
-        <v>8238100</v>
+        <v>8245900</v>
       </c>
       <c r="I48" s="3">
-        <v>8090500</v>
+        <v>8240000</v>
       </c>
       <c r="J48" s="3">
+        <v>8092400</v>
+      </c>
+      <c r="K48" s="3">
         <v>7488600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7402800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7264600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6774200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6443600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6338500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6136200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6059800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6448400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>714600</v>
+        <v>696800</v>
       </c>
       <c r="E49" s="3">
-        <v>715900</v>
+        <v>714800</v>
       </c>
       <c r="F49" s="3">
-        <v>696200</v>
+        <v>716100</v>
       </c>
       <c r="G49" s="3">
-        <v>655800</v>
+        <v>696400</v>
       </c>
       <c r="H49" s="3">
-        <v>674400</v>
+        <v>656000</v>
       </c>
       <c r="I49" s="3">
-        <v>722700</v>
+        <v>674500</v>
       </c>
       <c r="J49" s="3">
+        <v>722900</v>
+      </c>
+      <c r="K49" s="3">
         <v>724200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>742800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>755300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>729300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>719000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>735200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>741300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>762600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>749900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,58 +2811,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>763200</v>
+        <v>783100</v>
       </c>
       <c r="E52" s="3">
-        <v>1287300</v>
+        <v>937300</v>
       </c>
       <c r="F52" s="3">
-        <v>606800</v>
+        <v>1287600</v>
       </c>
       <c r="G52" s="3">
-        <v>485200</v>
+        <v>606900</v>
       </c>
       <c r="H52" s="3">
-        <v>483800</v>
+        <v>485300</v>
       </c>
       <c r="I52" s="3">
-        <v>463500</v>
+        <v>483900</v>
       </c>
       <c r="J52" s="3">
+        <v>463600</v>
+      </c>
+      <c r="K52" s="3">
         <v>725000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>699400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>690500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>651900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>629300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>628400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>552100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>535900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21420200</v>
+        <v>21030100</v>
       </c>
       <c r="E54" s="3">
-        <v>20396200</v>
+        <v>21425200</v>
       </c>
       <c r="F54" s="3">
-        <v>19153200</v>
+        <v>20401000</v>
       </c>
       <c r="G54" s="3">
-        <v>17729900</v>
+        <v>19157700</v>
       </c>
       <c r="H54" s="3">
-        <v>17902900</v>
+        <v>17734100</v>
       </c>
       <c r="I54" s="3">
-        <v>17233400</v>
+        <v>17907100</v>
       </c>
       <c r="J54" s="3">
+        <v>17237500</v>
+      </c>
+      <c r="K54" s="3">
         <v>16911700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17186100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16824400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15656200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15063400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15071200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14721600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14859100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14644600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,308 +3014,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>10</v>
+      <c r="D57" s="3">
+        <v>453400</v>
       </c>
       <c r="E57" s="3">
-        <v>412700</v>
+        <v>501200</v>
       </c>
       <c r="F57" s="3">
-        <v>457100</v>
+        <v>412800</v>
       </c>
       <c r="G57" s="3">
-        <v>363400</v>
+        <v>457200</v>
       </c>
       <c r="H57" s="3">
-        <v>383200</v>
+        <v>363500</v>
       </c>
       <c r="I57" s="3">
-        <v>352800</v>
+        <v>383300</v>
       </c>
       <c r="J57" s="3">
+        <v>352900</v>
+      </c>
+      <c r="K57" s="3">
         <v>392300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>342000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>528300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>435900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>434300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>430200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1593500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1528300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1615400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13100</v>
+        <v>2107500</v>
       </c>
       <c r="E58" s="3">
-        <v>2273500</v>
+        <v>2176800</v>
       </c>
       <c r="F58" s="3">
-        <v>1410300</v>
+        <v>2274000</v>
       </c>
       <c r="G58" s="3">
-        <v>1277500</v>
+        <v>1410600</v>
       </c>
       <c r="H58" s="3">
-        <v>1204700</v>
+        <v>1277800</v>
       </c>
       <c r="I58" s="3">
-        <v>1188800</v>
+        <v>1205000</v>
       </c>
       <c r="J58" s="3">
+        <v>1189100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1345900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2237800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2045200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1010000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>792000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>833400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1237200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1236000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>902400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1817900</v>
+        <v>1918100</v>
       </c>
       <c r="E59" s="3">
-        <v>2005800</v>
+        <v>2006000</v>
       </c>
       <c r="F59" s="3">
-        <v>1931400</v>
+        <v>2006300</v>
       </c>
       <c r="G59" s="3">
-        <v>1685100</v>
+        <v>1931900</v>
       </c>
       <c r="H59" s="3">
-        <v>1747100</v>
+        <v>1685500</v>
       </c>
       <c r="I59" s="3">
-        <v>1616200</v>
+        <v>1747600</v>
       </c>
       <c r="J59" s="3">
+        <v>1616600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1594700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1609200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1527700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1336600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1295900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1261000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>122200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>159600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>4479000</v>
       </c>
       <c r="E60" s="3">
-        <v>4692000</v>
+        <v>4912300</v>
       </c>
       <c r="F60" s="3">
-        <v>3798800</v>
+        <v>4693100</v>
       </c>
       <c r="G60" s="3">
-        <v>3326000</v>
+        <v>3799700</v>
       </c>
       <c r="H60" s="3">
-        <v>3335000</v>
+        <v>3326800</v>
       </c>
       <c r="I60" s="3">
-        <v>3157800</v>
+        <v>3335800</v>
       </c>
       <c r="J60" s="3">
+        <v>3158600</v>
+      </c>
+      <c r="K60" s="3">
         <v>3332900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4188900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4101200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2782500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2522200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2524600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2953000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2923900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2648300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4697300</v>
+        <v>5287600</v>
       </c>
       <c r="E61" s="3">
-        <v>4271400</v>
+        <v>4698400</v>
       </c>
       <c r="F61" s="3">
-        <v>3987400</v>
+        <v>4272400</v>
       </c>
       <c r="G61" s="3">
-        <v>3905600</v>
+        <v>3988400</v>
       </c>
       <c r="H61" s="3">
-        <v>3657300</v>
+        <v>3906600</v>
       </c>
       <c r="I61" s="3">
-        <v>3539100</v>
+        <v>3658100</v>
       </c>
       <c r="J61" s="3">
+        <v>3539900</v>
+      </c>
+      <c r="K61" s="3">
         <v>3518800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2880900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2716500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3462600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3522000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3556600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2976300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2963300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3134000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>1303500</v>
       </c>
       <c r="E62" s="3">
-        <v>1254500</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>1278900</v>
+        <v>1254800</v>
       </c>
       <c r="G62" s="3">
-        <v>1247200</v>
+        <v>1279200</v>
       </c>
       <c r="H62" s="3">
-        <v>1301300</v>
+        <v>1247500</v>
       </c>
       <c r="I62" s="3">
-        <v>1202000</v>
+        <v>1301600</v>
       </c>
       <c r="J62" s="3">
+        <v>1202300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1113900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>994700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>989200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>944500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>903400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>880500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>879800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>867800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>897700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3066000</v>
+        <v>12594400</v>
       </c>
       <c r="E66" s="3">
-        <v>11535100</v>
+        <v>14059100</v>
       </c>
       <c r="F66" s="3">
-        <v>10341000</v>
+        <v>11537800</v>
       </c>
       <c r="G66" s="3">
-        <v>9586800</v>
+        <v>10343400</v>
       </c>
       <c r="H66" s="3">
-        <v>9415600</v>
+        <v>9589100</v>
       </c>
       <c r="I66" s="3">
-        <v>8929600</v>
+        <v>9417800</v>
       </c>
       <c r="J66" s="3">
+        <v>8931700</v>
+      </c>
+      <c r="K66" s="3">
         <v>8958800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9047800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8763700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8071700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7800800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7844700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7690300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7668400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7606900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15279500</v>
+        <v>7267600</v>
       </c>
       <c r="E72" s="3">
-        <v>7528600</v>
+        <v>8387300</v>
       </c>
       <c r="F72" s="3">
-        <v>7519100</v>
+        <v>7530400</v>
       </c>
       <c r="G72" s="3">
-        <v>7351400</v>
+        <v>7520800</v>
       </c>
       <c r="H72" s="3">
-        <v>7509200</v>
+        <v>7353100</v>
       </c>
       <c r="I72" s="3">
-        <v>7360300</v>
+        <v>7511000</v>
       </c>
       <c r="J72" s="3">
+        <v>7362000</v>
+      </c>
+      <c r="K72" s="3">
         <v>7319500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6987400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6825000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6559500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6380300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6185900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5906400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5746800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5544700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17490900</v>
+        <v>8435700</v>
       </c>
       <c r="E76" s="3">
-        <v>8861100</v>
+        <v>8899500</v>
       </c>
       <c r="F76" s="3">
-        <v>8812200</v>
+        <v>8863200</v>
       </c>
       <c r="G76" s="3">
-        <v>8143100</v>
+        <v>8814300</v>
       </c>
       <c r="H76" s="3">
-        <v>8487400</v>
+        <v>8145000</v>
       </c>
       <c r="I76" s="3">
-        <v>8303900</v>
+        <v>8489400</v>
       </c>
       <c r="J76" s="3">
+        <v>8305800</v>
+      </c>
+      <c r="K76" s="3">
         <v>7953000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8138300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8060700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7584500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7262600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7226400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7031300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7190700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7037700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>104100</v>
+        <v>422600</v>
       </c>
       <c r="E81" s="3">
-        <v>535300</v>
+        <v>-170600</v>
       </c>
       <c r="F81" s="3">
-        <v>425700</v>
+        <v>535400</v>
       </c>
       <c r="G81" s="3">
-        <v>339900</v>
+        <v>425800</v>
       </c>
       <c r="H81" s="3">
-        <v>392100</v>
+        <v>340000</v>
       </c>
       <c r="I81" s="3">
-        <v>495700</v>
+        <v>392200</v>
       </c>
       <c r="J81" s="3">
+        <v>495800</v>
+      </c>
+      <c r="K81" s="3">
         <v>576500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>610100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>481800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>575700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>388400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>557800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>395500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>534700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,8 +4227,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4079,8 +4278,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>662000</v>
+        <v>566400</v>
       </c>
       <c r="E89" s="3">
-        <v>672400</v>
+        <v>662100</v>
       </c>
       <c r="F89" s="3">
-        <v>709900</v>
+        <v>672500</v>
       </c>
       <c r="G89" s="3">
-        <v>553200</v>
+        <v>710100</v>
       </c>
       <c r="H89" s="3">
-        <v>641900</v>
+        <v>553300</v>
       </c>
       <c r="I89" s="3">
-        <v>621500</v>
+        <v>642000</v>
       </c>
       <c r="J89" s="3">
+        <v>621600</v>
+      </c>
+      <c r="K89" s="3">
         <v>564400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>638300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>530400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>565500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>528000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>563700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>529900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>524500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>532200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,58 +4619,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-132400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-317700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-441200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-339700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-419600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-348400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-489100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-641000</v>
+        <v>-352300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1005900</v>
+        <v>-641200</v>
       </c>
       <c r="F94" s="3">
-        <v>-491100</v>
+        <v>-1006100</v>
       </c>
       <c r="G94" s="3">
+        <v>-491200</v>
+      </c>
+      <c r="H94" s="3">
         <v>-272300</v>
       </c>
-      <c r="H94" s="3">
-        <v>-328000</v>
-      </c>
       <c r="I94" s="3">
-        <v>-347600</v>
+        <v>-328100</v>
       </c>
       <c r="J94" s="3">
+        <v>-347700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-126400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-354800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-150100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-64600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-821400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-423300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-180400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-210000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,58 +4852,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-285400</v>
+        <v>-547100</v>
       </c>
       <c r="E96" s="3">
-        <v>-520900</v>
+        <v>-285500</v>
       </c>
       <c r="F96" s="3">
-        <v>-271800</v>
+        <v>-521100</v>
       </c>
       <c r="G96" s="3">
-        <v>-496100</v>
+        <v>-271900</v>
       </c>
       <c r="H96" s="3">
+        <v>-496300</v>
+      </c>
+      <c r="I96" s="3">
         <v>-258900</v>
       </c>
-      <c r="I96" s="3">
-        <v>-451000</v>
-      </c>
       <c r="J96" s="3">
+        <v>-451100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-235300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-409800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-215500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-376500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-196900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-342500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-176800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-308000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-161500</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,154 +5062,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-239300</v>
+      </c>
+      <c r="E100" s="3">
         <v>242400</v>
       </c>
-      <c r="E100" s="3">
-        <v>445200</v>
-      </c>
       <c r="F100" s="3">
-        <v>-367000</v>
+        <v>445300</v>
       </c>
       <c r="G100" s="3">
-        <v>-209100</v>
+        <v>-367100</v>
       </c>
       <c r="H100" s="3">
+        <v>-209200</v>
+      </c>
+      <c r="I100" s="3">
         <v>-226900</v>
       </c>
-      <c r="I100" s="3">
-        <v>-437700</v>
-      </c>
       <c r="J100" s="3">
+        <v>-437800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-844400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-148100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-133800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-424400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-376100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-355200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-305700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-234700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E101" s="3">
         <v>14900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>34500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-13700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>12900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-33400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>278200</v>
+        <v>-49800</v>
       </c>
       <c r="E102" s="3">
-        <v>117100</v>
+        <v>278300</v>
       </c>
       <c r="F102" s="3">
+        <v>117200</v>
+      </c>
+      <c r="G102" s="3">
         <v>-113700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>63500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>81200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-164300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-420200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>132400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>259400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>85200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>123600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-619200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-232600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>146000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>87700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3788800</v>
+        <v>3786500</v>
       </c>
       <c r="E8" s="3">
-        <v>3676000</v>
+        <v>3673700</v>
       </c>
       <c r="F8" s="3">
-        <v>3152300</v>
+        <v>3150300</v>
       </c>
       <c r="G8" s="3">
-        <v>2892700</v>
+        <v>2890900</v>
       </c>
       <c r="H8" s="3">
-        <v>2324600</v>
+        <v>2323200</v>
       </c>
       <c r="I8" s="3">
-        <v>2584800</v>
+        <v>2583200</v>
       </c>
       <c r="J8" s="3">
-        <v>2594500</v>
+        <v>2592800</v>
       </c>
       <c r="K8" s="3">
         <v>2527500</v>
@@ -805,25 +805,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2470300</v>
+        <v>2468700</v>
       </c>
       <c r="E9" s="3">
-        <v>2306000</v>
+        <v>2304600</v>
       </c>
       <c r="F9" s="3">
-        <v>1848800</v>
+        <v>1847600</v>
       </c>
       <c r="G9" s="3">
-        <v>1603900</v>
+        <v>1602900</v>
       </c>
       <c r="H9" s="3">
-        <v>1198900</v>
+        <v>1198100</v>
       </c>
       <c r="I9" s="3">
-        <v>1367200</v>
+        <v>1366400</v>
       </c>
       <c r="J9" s="3">
-        <v>1412300</v>
+        <v>1411400</v>
       </c>
       <c r="K9" s="3">
         <v>1343200</v>
@@ -858,25 +858,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1318600</v>
+        <v>1317700</v>
       </c>
       <c r="E10" s="3">
-        <v>1370000</v>
+        <v>1369100</v>
       </c>
       <c r="F10" s="3">
-        <v>1303500</v>
+        <v>1302700</v>
       </c>
       <c r="G10" s="3">
-        <v>1288800</v>
+        <v>1288000</v>
       </c>
       <c r="H10" s="3">
-        <v>1125700</v>
+        <v>1125000</v>
       </c>
       <c r="I10" s="3">
-        <v>1217600</v>
+        <v>1216800</v>
       </c>
       <c r="J10" s="3">
-        <v>1182200</v>
+        <v>1181400</v>
       </c>
       <c r="K10" s="3">
         <v>1184300</v>
@@ -935,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="3">
-        <v>-199300</v>
+        <v>-199200</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>10</v>
@@ -1041,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>6828300</v>
+        <v>6824000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1091,25 +1091,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>223800</v>
+        <v>223700</v>
       </c>
       <c r="E15" s="3">
-        <v>214500</v>
+        <v>214400</v>
       </c>
       <c r="F15" s="3">
-        <v>204700</v>
+        <v>204600</v>
       </c>
       <c r="G15" s="3">
-        <v>195300</v>
+        <v>195200</v>
       </c>
       <c r="H15" s="3">
-        <v>179500</v>
+        <v>179400</v>
       </c>
       <c r="I15" s="3">
-        <v>180000</v>
+        <v>179900</v>
       </c>
       <c r="J15" s="3">
-        <v>171000</v>
+        <v>170900</v>
       </c>
       <c r="K15" s="3">
         <v>165000</v>
@@ -1162,25 +1162,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3135300</v>
+        <v>3133400</v>
       </c>
       <c r="E17" s="3">
-        <v>3377000</v>
+        <v>3374900</v>
       </c>
       <c r="F17" s="3">
-        <v>2526300</v>
+        <v>2524700</v>
       </c>
       <c r="G17" s="3">
-        <v>2335900</v>
+        <v>2334400</v>
       </c>
       <c r="H17" s="3">
-        <v>1872100</v>
+        <v>1870900</v>
       </c>
       <c r="I17" s="3">
-        <v>1975400</v>
+        <v>1974200</v>
       </c>
       <c r="J17" s="3">
-        <v>2047300</v>
+        <v>2046000</v>
       </c>
       <c r="K17" s="3">
         <v>2032400</v>
@@ -1215,25 +1215,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>653500</v>
+        <v>653100</v>
       </c>
       <c r="E18" s="3">
-        <v>299100</v>
+        <v>298900</v>
       </c>
       <c r="F18" s="3">
-        <v>626000</v>
+        <v>625600</v>
       </c>
       <c r="G18" s="3">
-        <v>556900</v>
+        <v>556500</v>
       </c>
       <c r="H18" s="3">
-        <v>452500</v>
+        <v>452200</v>
       </c>
       <c r="I18" s="3">
-        <v>609400</v>
+        <v>609000</v>
       </c>
       <c r="J18" s="3">
-        <v>547200</v>
+        <v>546800</v>
       </c>
       <c r="K18" s="3">
         <v>495100</v>
@@ -1295,10 +1295,10 @@
         <v>97000</v>
       </c>
       <c r="F20" s="3">
-        <v>225800</v>
+        <v>225700</v>
       </c>
       <c r="G20" s="3">
-        <v>168400</v>
+        <v>168300</v>
       </c>
       <c r="H20" s="3">
         <v>121700</v>
@@ -1307,7 +1307,7 @@
         <v>103200</v>
       </c>
       <c r="J20" s="3">
-        <v>223400</v>
+        <v>223200</v>
       </c>
       <c r="K20" s="3">
         <v>338300</v>
@@ -1342,25 +1342,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>980100</v>
+        <v>979500</v>
       </c>
       <c r="E21" s="3">
-        <v>585500</v>
+        <v>585100</v>
       </c>
       <c r="F21" s="3">
-        <v>1056500</v>
+        <v>1055800</v>
       </c>
       <c r="G21" s="3">
-        <v>742900</v>
+        <v>742500</v>
       </c>
       <c r="H21" s="3">
-        <v>753800</v>
+        <v>753300</v>
       </c>
       <c r="I21" s="3">
-        <v>723000</v>
+        <v>722500</v>
       </c>
       <c r="J21" s="3">
-        <v>941500</v>
+        <v>940900</v>
       </c>
       <c r="K21" s="3">
         <v>840100</v>
@@ -1395,19 +1395,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>102300</v>
+        <v>102200</v>
       </c>
       <c r="E22" s="3">
-        <v>97800</v>
+        <v>97700</v>
       </c>
       <c r="F22" s="3">
-        <v>81800</v>
+        <v>81700</v>
       </c>
       <c r="G22" s="3">
-        <v>84000</v>
+        <v>83900</v>
       </c>
       <c r="H22" s="3">
-        <v>77800</v>
+        <v>77700</v>
       </c>
       <c r="I22" s="3">
         <v>85500</v>
@@ -1448,25 +1448,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>654000</v>
+        <v>653500</v>
       </c>
       <c r="E23" s="3">
-        <v>298300</v>
+        <v>298100</v>
       </c>
       <c r="F23" s="3">
-        <v>770000</v>
+        <v>769600</v>
       </c>
       <c r="G23" s="3">
-        <v>641400</v>
+        <v>640900</v>
       </c>
       <c r="H23" s="3">
-        <v>496500</v>
+        <v>496200</v>
       </c>
       <c r="I23" s="3">
-        <v>627100</v>
+        <v>626700</v>
       </c>
       <c r="J23" s="3">
-        <v>699200</v>
+        <v>698800</v>
       </c>
       <c r="K23" s="3">
         <v>761100</v>
@@ -1504,22 +1504,22 @@
         <v>136800</v>
       </c>
       <c r="E24" s="3">
-        <v>125300</v>
+        <v>125200</v>
       </c>
       <c r="F24" s="3">
-        <v>149400</v>
+        <v>149300</v>
       </c>
       <c r="G24" s="3">
         <v>128300</v>
       </c>
       <c r="H24" s="3">
-        <v>90100</v>
+        <v>90000</v>
       </c>
       <c r="I24" s="3">
-        <v>164500</v>
+        <v>164400</v>
       </c>
       <c r="J24" s="3">
-        <v>127400</v>
+        <v>127300</v>
       </c>
       <c r="K24" s="3">
         <v>116100</v>
@@ -1607,25 +1607,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>517100</v>
+        <v>516800</v>
       </c>
       <c r="E26" s="3">
-        <v>-101700</v>
+        <v>-101600</v>
       </c>
       <c r="F26" s="3">
-        <v>620600</v>
+        <v>620200</v>
       </c>
       <c r="G26" s="3">
-        <v>513000</v>
+        <v>512700</v>
       </c>
       <c r="H26" s="3">
-        <v>406400</v>
+        <v>406200</v>
       </c>
       <c r="I26" s="3">
-        <v>462600</v>
+        <v>462300</v>
       </c>
       <c r="J26" s="3">
-        <v>571800</v>
+        <v>571400</v>
       </c>
       <c r="K26" s="3">
         <v>645000</v>
@@ -1660,25 +1660,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>422600</v>
+        <v>422300</v>
       </c>
       <c r="E27" s="3">
-        <v>-170600</v>
+        <v>-170500</v>
       </c>
       <c r="F27" s="3">
-        <v>535400</v>
+        <v>535100</v>
       </c>
       <c r="G27" s="3">
-        <v>425800</v>
+        <v>425600</v>
       </c>
       <c r="H27" s="3">
-        <v>340000</v>
+        <v>339800</v>
       </c>
       <c r="I27" s="3">
-        <v>392200</v>
+        <v>391900</v>
       </c>
       <c r="J27" s="3">
-        <v>495800</v>
+        <v>495500</v>
       </c>
       <c r="K27" s="3">
         <v>576500</v>
@@ -1931,10 +1931,10 @@
         <v>-97000</v>
       </c>
       <c r="F32" s="3">
-        <v>-225800</v>
+        <v>-225700</v>
       </c>
       <c r="G32" s="3">
-        <v>-168400</v>
+        <v>-168300</v>
       </c>
       <c r="H32" s="3">
         <v>-121700</v>
@@ -1943,7 +1943,7 @@
         <v>-103200</v>
       </c>
       <c r="J32" s="3">
-        <v>-223400</v>
+        <v>-223200</v>
       </c>
       <c r="K32" s="3">
         <v>-338300</v>
@@ -1978,25 +1978,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>422600</v>
+        <v>422300</v>
       </c>
       <c r="E33" s="3">
-        <v>-170600</v>
+        <v>-170500</v>
       </c>
       <c r="F33" s="3">
-        <v>535400</v>
+        <v>535100</v>
       </c>
       <c r="G33" s="3">
-        <v>425800</v>
+        <v>425600</v>
       </c>
       <c r="H33" s="3">
-        <v>340000</v>
+        <v>339800</v>
       </c>
       <c r="I33" s="3">
-        <v>392200</v>
+        <v>391900</v>
       </c>
       <c r="J33" s="3">
-        <v>495800</v>
+        <v>495500</v>
       </c>
       <c r="K33" s="3">
         <v>576500</v>
@@ -2084,25 +2084,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>422600</v>
+        <v>422300</v>
       </c>
       <c r="E35" s="3">
-        <v>-170600</v>
+        <v>-170500</v>
       </c>
       <c r="F35" s="3">
-        <v>535400</v>
+        <v>535100</v>
       </c>
       <c r="G35" s="3">
-        <v>425800</v>
+        <v>425600</v>
       </c>
       <c r="H35" s="3">
-        <v>340000</v>
+        <v>339800</v>
       </c>
       <c r="I35" s="3">
-        <v>392200</v>
+        <v>391900</v>
       </c>
       <c r="J35" s="3">
-        <v>495800</v>
+        <v>495500</v>
       </c>
       <c r="K35" s="3">
         <v>576500</v>
@@ -2237,25 +2237,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1296000</v>
+        <v>1295200</v>
       </c>
       <c r="E41" s="3">
-        <v>2691600</v>
+        <v>2689900</v>
       </c>
       <c r="F41" s="3">
-        <v>1067500</v>
+        <v>1066900</v>
       </c>
       <c r="G41" s="3">
-        <v>950400</v>
+        <v>949800</v>
       </c>
       <c r="H41" s="3">
-        <v>1064100</v>
+        <v>1063400</v>
       </c>
       <c r="I41" s="3">
-        <v>1000600</v>
+        <v>999900</v>
       </c>
       <c r="J41" s="3">
-        <v>919400</v>
+        <v>918800</v>
       </c>
       <c r="K41" s="3">
         <v>1083400</v>
@@ -2308,7 +2308,7 @@
         <v>44400</v>
       </c>
       <c r="J42" s="3">
-        <v>88800</v>
+        <v>88700</v>
       </c>
       <c r="K42" s="3">
         <v>86700</v>
@@ -2343,25 +2343,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1120000</v>
+        <v>1119300</v>
       </c>
       <c r="E43" s="3">
-        <v>2426800</v>
+        <v>2425300</v>
       </c>
       <c r="F43" s="3">
-        <v>937600</v>
+        <v>937000</v>
       </c>
       <c r="G43" s="3">
-        <v>951600</v>
+        <v>951000</v>
       </c>
       <c r="H43" s="3">
-        <v>949600</v>
+        <v>949000</v>
       </c>
       <c r="I43" s="3">
-        <v>998500</v>
+        <v>997800</v>
       </c>
       <c r="J43" s="3">
-        <v>1002700</v>
+        <v>1002100</v>
       </c>
       <c r="K43" s="3">
         <v>939200</v>
@@ -2396,25 +2396,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>422200</v>
+        <v>421900</v>
       </c>
       <c r="E44" s="3">
-        <v>400400</v>
+        <v>400100</v>
       </c>
       <c r="F44" s="3">
-        <v>333500</v>
+        <v>333300</v>
       </c>
       <c r="G44" s="3">
-        <v>340500</v>
+        <v>340300</v>
       </c>
       <c r="H44" s="3">
-        <v>302500</v>
+        <v>302300</v>
       </c>
       <c r="I44" s="3">
-        <v>301300</v>
+        <v>301100</v>
       </c>
       <c r="J44" s="3">
-        <v>307900</v>
+        <v>307700</v>
       </c>
       <c r="K44" s="3">
         <v>316200</v>
@@ -2449,25 +2449,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>231500</v>
+        <v>231300</v>
       </c>
       <c r="E45" s="3">
-        <v>227300</v>
+        <v>227200</v>
       </c>
       <c r="F45" s="3">
-        <v>244000</v>
+        <v>243900</v>
       </c>
       <c r="G45" s="3">
-        <v>275200</v>
+        <v>275000</v>
       </c>
       <c r="H45" s="3">
-        <v>200900</v>
+        <v>200800</v>
       </c>
       <c r="I45" s="3">
-        <v>221300</v>
+        <v>221200</v>
       </c>
       <c r="J45" s="3">
-        <v>188500</v>
+        <v>188400</v>
       </c>
       <c r="K45" s="3">
         <v>201600</v>
@@ -2502,25 +2502,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3079500</v>
+        <v>3077500</v>
       </c>
       <c r="E46" s="3">
-        <v>3083500</v>
+        <v>3081500</v>
       </c>
       <c r="F46" s="3">
-        <v>2601900</v>
+        <v>2600200</v>
       </c>
       <c r="G46" s="3">
-        <v>2569600</v>
+        <v>2568000</v>
       </c>
       <c r="H46" s="3">
-        <v>2555300</v>
+        <v>2553700</v>
       </c>
       <c r="I46" s="3">
-        <v>2566100</v>
+        <v>2564500</v>
       </c>
       <c r="J46" s="3">
-        <v>2507300</v>
+        <v>2505700</v>
       </c>
       <c r="K46" s="3">
         <v>2627000</v>
@@ -2555,25 +2555,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6943600</v>
+        <v>6939200</v>
       </c>
       <c r="E47" s="3">
-        <v>12702500</v>
+        <v>12694500</v>
       </c>
       <c r="F47" s="3">
-        <v>6287400</v>
+        <v>6283500</v>
       </c>
       <c r="G47" s="3">
-        <v>6136500</v>
+        <v>6132600</v>
       </c>
       <c r="H47" s="3">
-        <v>5791600</v>
+        <v>5787900</v>
       </c>
       <c r="I47" s="3">
-        <v>5942600</v>
+        <v>5938800</v>
       </c>
       <c r="J47" s="3">
-        <v>5451300</v>
+        <v>5447900</v>
       </c>
       <c r="K47" s="3">
         <v>5347000</v>
@@ -2608,25 +2608,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9527100</v>
+        <v>9521200</v>
       </c>
       <c r="E48" s="3">
-        <v>24672400</v>
+        <v>24657000</v>
       </c>
       <c r="F48" s="3">
-        <v>9508000</v>
+        <v>9502100</v>
       </c>
       <c r="G48" s="3">
-        <v>9148400</v>
+        <v>9142600</v>
       </c>
       <c r="H48" s="3">
-        <v>8245900</v>
+        <v>8240800</v>
       </c>
       <c r="I48" s="3">
-        <v>8240000</v>
+        <v>8234900</v>
       </c>
       <c r="J48" s="3">
-        <v>8092400</v>
+        <v>8087300</v>
       </c>
       <c r="K48" s="3">
         <v>7488600</v>
@@ -2661,25 +2661,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>696800</v>
+        <v>696400</v>
       </c>
       <c r="E49" s="3">
-        <v>714800</v>
+        <v>714400</v>
       </c>
       <c r="F49" s="3">
-        <v>716100</v>
+        <v>715600</v>
       </c>
       <c r="G49" s="3">
-        <v>696400</v>
+        <v>696000</v>
       </c>
       <c r="H49" s="3">
-        <v>656000</v>
+        <v>655500</v>
       </c>
       <c r="I49" s="3">
-        <v>674500</v>
+        <v>674100</v>
       </c>
       <c r="J49" s="3">
-        <v>722900</v>
+        <v>722500</v>
       </c>
       <c r="K49" s="3">
         <v>724200</v>
@@ -2820,25 +2820,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>783100</v>
+        <v>782600</v>
       </c>
       <c r="E52" s="3">
-        <v>937300</v>
+        <v>936800</v>
       </c>
       <c r="F52" s="3">
-        <v>1287600</v>
+        <v>1286800</v>
       </c>
       <c r="G52" s="3">
-        <v>606900</v>
+        <v>606600</v>
       </c>
       <c r="H52" s="3">
-        <v>485300</v>
+        <v>485000</v>
       </c>
       <c r="I52" s="3">
-        <v>483900</v>
+        <v>483600</v>
       </c>
       <c r="J52" s="3">
-        <v>463600</v>
+        <v>463300</v>
       </c>
       <c r="K52" s="3">
         <v>725000</v>
@@ -2926,25 +2926,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21030100</v>
+        <v>21016900</v>
       </c>
       <c r="E54" s="3">
-        <v>21425200</v>
+        <v>21411800</v>
       </c>
       <c r="F54" s="3">
-        <v>20401000</v>
+        <v>20388200</v>
       </c>
       <c r="G54" s="3">
-        <v>19157700</v>
+        <v>19145700</v>
       </c>
       <c r="H54" s="3">
-        <v>17734100</v>
+        <v>17723000</v>
       </c>
       <c r="I54" s="3">
-        <v>17907100</v>
+        <v>17895900</v>
       </c>
       <c r="J54" s="3">
-        <v>17237500</v>
+        <v>17226700</v>
       </c>
       <c r="K54" s="3">
         <v>16911700</v>
@@ -3021,25 +3021,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>453400</v>
+        <v>453200</v>
       </c>
       <c r="E57" s="3">
-        <v>501200</v>
+        <v>500900</v>
       </c>
       <c r="F57" s="3">
-        <v>412800</v>
+        <v>412500</v>
       </c>
       <c r="G57" s="3">
-        <v>457200</v>
+        <v>456900</v>
       </c>
       <c r="H57" s="3">
-        <v>363500</v>
+        <v>363300</v>
       </c>
       <c r="I57" s="3">
-        <v>383300</v>
+        <v>383000</v>
       </c>
       <c r="J57" s="3">
-        <v>352900</v>
+        <v>352700</v>
       </c>
       <c r="K57" s="3">
         <v>392300</v>
@@ -3074,25 +3074,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2107500</v>
+        <v>2106200</v>
       </c>
       <c r="E58" s="3">
-        <v>2176800</v>
+        <v>2175400</v>
       </c>
       <c r="F58" s="3">
-        <v>2274000</v>
+        <v>2272600</v>
       </c>
       <c r="G58" s="3">
-        <v>1410600</v>
+        <v>1409700</v>
       </c>
       <c r="H58" s="3">
-        <v>1277800</v>
+        <v>1277000</v>
       </c>
       <c r="I58" s="3">
-        <v>1205000</v>
+        <v>1204200</v>
       </c>
       <c r="J58" s="3">
-        <v>1189100</v>
+        <v>1188300</v>
       </c>
       <c r="K58" s="3">
         <v>1345900</v>
@@ -3127,25 +3127,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1918100</v>
+        <v>1916900</v>
       </c>
       <c r="E59" s="3">
-        <v>2006000</v>
+        <v>2004700</v>
       </c>
       <c r="F59" s="3">
-        <v>2006300</v>
+        <v>2005000</v>
       </c>
       <c r="G59" s="3">
-        <v>1931900</v>
+        <v>1930700</v>
       </c>
       <c r="H59" s="3">
-        <v>1685500</v>
+        <v>1684500</v>
       </c>
       <c r="I59" s="3">
-        <v>1747600</v>
+        <v>1746500</v>
       </c>
       <c r="J59" s="3">
-        <v>1616600</v>
+        <v>1615600</v>
       </c>
       <c r="K59" s="3">
         <v>1594700</v>
@@ -3180,25 +3180,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4479000</v>
+        <v>4476200</v>
       </c>
       <c r="E60" s="3">
-        <v>4912300</v>
+        <v>4909200</v>
       </c>
       <c r="F60" s="3">
-        <v>4693100</v>
+        <v>4690100</v>
       </c>
       <c r="G60" s="3">
-        <v>3799700</v>
+        <v>3797300</v>
       </c>
       <c r="H60" s="3">
-        <v>3326800</v>
+        <v>3324700</v>
       </c>
       <c r="I60" s="3">
-        <v>3335800</v>
+        <v>3333700</v>
       </c>
       <c r="J60" s="3">
-        <v>3158600</v>
+        <v>3156600</v>
       </c>
       <c r="K60" s="3">
         <v>3332900</v>
@@ -3233,25 +3233,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5287600</v>
+        <v>5284300</v>
       </c>
       <c r="E61" s="3">
-        <v>4698400</v>
+        <v>4695400</v>
       </c>
       <c r="F61" s="3">
-        <v>4272400</v>
+        <v>4269700</v>
       </c>
       <c r="G61" s="3">
-        <v>3988400</v>
+        <v>3985900</v>
       </c>
       <c r="H61" s="3">
-        <v>3906600</v>
+        <v>3904100</v>
       </c>
       <c r="I61" s="3">
-        <v>3658100</v>
+        <v>3655800</v>
       </c>
       <c r="J61" s="3">
-        <v>3539900</v>
+        <v>3537700</v>
       </c>
       <c r="K61" s="3">
         <v>3518800</v>
@@ -3286,25 +3286,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1303500</v>
+        <v>1302700</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>1254800</v>
+        <v>1254000</v>
       </c>
       <c r="G62" s="3">
-        <v>1279200</v>
+        <v>1278400</v>
       </c>
       <c r="H62" s="3">
-        <v>1247500</v>
+        <v>1246700</v>
       </c>
       <c r="I62" s="3">
-        <v>1301600</v>
+        <v>1300800</v>
       </c>
       <c r="J62" s="3">
-        <v>1202300</v>
+        <v>1201500</v>
       </c>
       <c r="K62" s="3">
         <v>1113900</v>
@@ -3498,25 +3498,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12594400</v>
+        <v>12586500</v>
       </c>
       <c r="E66" s="3">
-        <v>14059100</v>
+        <v>14050300</v>
       </c>
       <c r="F66" s="3">
-        <v>11537800</v>
+        <v>11530600</v>
       </c>
       <c r="G66" s="3">
-        <v>10343400</v>
+        <v>10336900</v>
       </c>
       <c r="H66" s="3">
-        <v>9589100</v>
+        <v>9583100</v>
       </c>
       <c r="I66" s="3">
-        <v>9417800</v>
+        <v>9411900</v>
       </c>
       <c r="J66" s="3">
-        <v>8931700</v>
+        <v>8926100</v>
       </c>
       <c r="K66" s="3">
         <v>8958800</v>
@@ -3784,25 +3784,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7267600</v>
+        <v>7263100</v>
       </c>
       <c r="E72" s="3">
-        <v>8387300</v>
+        <v>8382100</v>
       </c>
       <c r="F72" s="3">
-        <v>7530400</v>
+        <v>7525700</v>
       </c>
       <c r="G72" s="3">
-        <v>7520800</v>
+        <v>7516100</v>
       </c>
       <c r="H72" s="3">
-        <v>7353100</v>
+        <v>7348500</v>
       </c>
       <c r="I72" s="3">
-        <v>7511000</v>
+        <v>7506200</v>
       </c>
       <c r="J72" s="3">
-        <v>7362000</v>
+        <v>7357400</v>
       </c>
       <c r="K72" s="3">
         <v>7319500</v>
@@ -3996,25 +3996,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8435700</v>
+        <v>8430500</v>
       </c>
       <c r="E76" s="3">
-        <v>8899500</v>
+        <v>8893900</v>
       </c>
       <c r="F76" s="3">
-        <v>8863200</v>
+        <v>8857600</v>
       </c>
       <c r="G76" s="3">
-        <v>8814300</v>
+        <v>8808800</v>
       </c>
       <c r="H76" s="3">
-        <v>8145000</v>
+        <v>8139900</v>
       </c>
       <c r="I76" s="3">
-        <v>8489400</v>
+        <v>8484000</v>
       </c>
       <c r="J76" s="3">
-        <v>8305800</v>
+        <v>8300600</v>
       </c>
       <c r="K76" s="3">
         <v>7953000</v>
@@ -4160,25 +4160,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>422600</v>
+        <v>422300</v>
       </c>
       <c r="E81" s="3">
-        <v>-170600</v>
+        <v>-170500</v>
       </c>
       <c r="F81" s="3">
-        <v>535400</v>
+        <v>535100</v>
       </c>
       <c r="G81" s="3">
-        <v>425800</v>
+        <v>425600</v>
       </c>
       <c r="H81" s="3">
-        <v>340000</v>
+        <v>339800</v>
       </c>
       <c r="I81" s="3">
-        <v>392200</v>
+        <v>391900</v>
       </c>
       <c r="J81" s="3">
-        <v>495800</v>
+        <v>495500</v>
       </c>
       <c r="K81" s="3">
         <v>576500</v>
@@ -4552,25 +4552,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>566400</v>
+        <v>566000</v>
       </c>
       <c r="E89" s="3">
-        <v>662100</v>
+        <v>661700</v>
       </c>
       <c r="F89" s="3">
-        <v>672500</v>
+        <v>672100</v>
       </c>
       <c r="G89" s="3">
-        <v>710100</v>
+        <v>709600</v>
       </c>
       <c r="H89" s="3">
-        <v>553300</v>
+        <v>552900</v>
       </c>
       <c r="I89" s="3">
-        <v>642000</v>
+        <v>641600</v>
       </c>
       <c r="J89" s="3">
-        <v>621600</v>
+        <v>621200</v>
       </c>
       <c r="K89" s="3">
         <v>564400</v>
@@ -4629,7 +4629,7 @@
         <v>-1700</v>
       </c>
       <c r="E91" s="3">
-        <v>-132400</v>
+        <v>-132300</v>
       </c>
       <c r="F91" s="3">
         <v>-9500</v>
@@ -4785,25 +4785,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-352300</v>
+        <v>-352100</v>
       </c>
       <c r="E94" s="3">
-        <v>-641200</v>
+        <v>-640800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1006100</v>
+        <v>-1005500</v>
       </c>
       <c r="G94" s="3">
-        <v>-491200</v>
+        <v>-490900</v>
       </c>
       <c r="H94" s="3">
-        <v>-272300</v>
+        <v>-272200</v>
       </c>
       <c r="I94" s="3">
-        <v>-328100</v>
+        <v>-327900</v>
       </c>
       <c r="J94" s="3">
-        <v>-347700</v>
+        <v>-347500</v>
       </c>
       <c r="K94" s="3">
         <v>-126400</v>
@@ -4859,25 +4859,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-547100</v>
+        <v>-546800</v>
       </c>
       <c r="E96" s="3">
-        <v>-285500</v>
+        <v>-285300</v>
       </c>
       <c r="F96" s="3">
-        <v>-521100</v>
+        <v>-520700</v>
       </c>
       <c r="G96" s="3">
-        <v>-271900</v>
+        <v>-271700</v>
       </c>
       <c r="H96" s="3">
-        <v>-496300</v>
+        <v>-495900</v>
       </c>
       <c r="I96" s="3">
-        <v>-258900</v>
+        <v>-258700</v>
       </c>
       <c r="J96" s="3">
-        <v>-451100</v>
+        <v>-450900</v>
       </c>
       <c r="K96" s="3">
         <v>-235300</v>
@@ -5071,25 +5071,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-239300</v>
+        <v>-239200</v>
       </c>
       <c r="E100" s="3">
-        <v>242400</v>
+        <v>242300</v>
       </c>
       <c r="F100" s="3">
-        <v>445300</v>
+        <v>445000</v>
       </c>
       <c r="G100" s="3">
-        <v>-367100</v>
+        <v>-366900</v>
       </c>
       <c r="H100" s="3">
-        <v>-209200</v>
+        <v>-209100</v>
       </c>
       <c r="I100" s="3">
-        <v>-226900</v>
+        <v>-226800</v>
       </c>
       <c r="J100" s="3">
-        <v>-437800</v>
+        <v>-437500</v>
       </c>
       <c r="K100" s="3">
         <v>-844400</v>
@@ -5180,22 +5180,22 @@
         <v>-49800</v>
       </c>
       <c r="E102" s="3">
-        <v>278300</v>
+        <v>278100</v>
       </c>
       <c r="F102" s="3">
-        <v>117200</v>
+        <v>117100</v>
       </c>
       <c r="G102" s="3">
-        <v>-113700</v>
+        <v>-113600</v>
       </c>
       <c r="H102" s="3">
         <v>63500</v>
       </c>
       <c r="I102" s="3">
-        <v>81200</v>
+        <v>81100</v>
       </c>
       <c r="J102" s="3">
-        <v>-164300</v>
+        <v>-164200</v>
       </c>
       <c r="K102" s="3">
         <v>-420200</v>

--- a/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>HOKCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,261 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3786500</v>
+        <v>3990600</v>
       </c>
       <c r="E8" s="3">
-        <v>3673700</v>
+        <v>3797500</v>
       </c>
       <c r="F8" s="3">
-        <v>3150300</v>
+        <v>3684400</v>
       </c>
       <c r="G8" s="3">
-        <v>2890900</v>
+        <v>3159400</v>
       </c>
       <c r="H8" s="3">
-        <v>2323200</v>
+        <v>2899300</v>
       </c>
       <c r="I8" s="3">
-        <v>2583200</v>
+        <v>2329900</v>
       </c>
       <c r="J8" s="3">
+        <v>2590700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2592800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2527500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2451200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2188100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1986400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1857300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1824000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1848200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1921400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2023300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2468700</v>
+        <v>2546600</v>
       </c>
       <c r="E9" s="3">
-        <v>2304600</v>
+        <v>2475900</v>
       </c>
       <c r="F9" s="3">
-        <v>1847600</v>
+        <v>2311300</v>
       </c>
       <c r="G9" s="3">
-        <v>1602900</v>
+        <v>1853000</v>
       </c>
       <c r="H9" s="3">
-        <v>1198100</v>
+        <v>1607600</v>
       </c>
       <c r="I9" s="3">
-        <v>1366400</v>
+        <v>1201600</v>
       </c>
       <c r="J9" s="3">
+        <v>1370400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1411400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1343200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1281400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1088000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>928900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>839400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>799000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>853600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>942300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1030700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1317700</v>
+        <v>1443900</v>
       </c>
       <c r="E10" s="3">
-        <v>1369100</v>
+        <v>1321600</v>
       </c>
       <c r="F10" s="3">
-        <v>1302700</v>
+        <v>1373100</v>
       </c>
       <c r="G10" s="3">
-        <v>1288000</v>
+        <v>1306500</v>
       </c>
       <c r="H10" s="3">
-        <v>1125000</v>
+        <v>1291700</v>
       </c>
       <c r="I10" s="3">
-        <v>1216800</v>
+        <v>1128300</v>
       </c>
       <c r="J10" s="3">
+        <v>1220300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1181400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1184300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1169800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1100100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1057500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1018000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1024900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>994600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>979100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>992600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,19 +939,20 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="3">
-        <v>-199200</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-199700</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>10</v>
@@ -952,35 +966,38 @@
       <c r="J12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="3">
         <v>2900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1032,19 +1049,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>6824000</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6843800</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1058,88 +1078,94 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-29900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-5700</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
         <v>-3900</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>223700</v>
+        <v>226100</v>
       </c>
       <c r="E15" s="3">
-        <v>214400</v>
+        <v>224400</v>
       </c>
       <c r="F15" s="3">
-        <v>204600</v>
+        <v>215000</v>
       </c>
       <c r="G15" s="3">
-        <v>195200</v>
+        <v>205200</v>
       </c>
       <c r="H15" s="3">
-        <v>179400</v>
+        <v>195800</v>
       </c>
       <c r="I15" s="3">
         <v>179900</v>
       </c>
       <c r="J15" s="3">
+        <v>180400</v>
+      </c>
+      <c r="K15" s="3">
         <v>170900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>165000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>158300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>155500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>149800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>145100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>141500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>134100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>130300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3133400</v>
+        <v>3509300</v>
       </c>
       <c r="E17" s="3">
-        <v>3374900</v>
+        <v>3142500</v>
       </c>
       <c r="F17" s="3">
-        <v>2524700</v>
+        <v>3384700</v>
       </c>
       <c r="G17" s="3">
-        <v>2334400</v>
+        <v>2532000</v>
       </c>
       <c r="H17" s="3">
-        <v>1870900</v>
+        <v>2341200</v>
       </c>
       <c r="I17" s="3">
-        <v>1974200</v>
+        <v>1876400</v>
       </c>
       <c r="J17" s="3">
+        <v>1979900</v>
+      </c>
+      <c r="K17" s="3">
         <v>2046000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2032400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1875600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1675100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1437400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1455400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1305600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1505200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1361200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1543600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>653100</v>
+        <v>481200</v>
       </c>
       <c r="E18" s="3">
-        <v>298900</v>
+        <v>655000</v>
       </c>
       <c r="F18" s="3">
-        <v>625600</v>
+        <v>299700</v>
       </c>
       <c r="G18" s="3">
-        <v>556500</v>
+        <v>627400</v>
       </c>
       <c r="H18" s="3">
-        <v>452200</v>
+        <v>558100</v>
       </c>
       <c r="I18" s="3">
-        <v>609000</v>
+        <v>453500</v>
       </c>
       <c r="J18" s="3">
+        <v>610800</v>
+      </c>
+      <c r="K18" s="3">
         <v>546800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>495100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>575600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>513100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>549000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>402000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>518400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>343000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>560300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,273 +1316,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>102700</v>
+        <v>33300</v>
       </c>
       <c r="E20" s="3">
-        <v>97000</v>
+        <v>103000</v>
       </c>
       <c r="F20" s="3">
-        <v>225700</v>
+        <v>97300</v>
       </c>
       <c r="G20" s="3">
-        <v>168300</v>
+        <v>226300</v>
       </c>
       <c r="H20" s="3">
-        <v>121700</v>
+        <v>168800</v>
       </c>
       <c r="I20" s="3">
-        <v>103200</v>
+        <v>122000</v>
       </c>
       <c r="J20" s="3">
+        <v>103500</v>
+      </c>
+      <c r="K20" s="3">
         <v>223200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>338300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>313200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>249200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>276900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>227000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>277300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>276900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>225500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>189800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>979500</v>
+        <v>516300</v>
       </c>
       <c r="E21" s="3">
-        <v>585100</v>
+        <v>982300</v>
       </c>
       <c r="F21" s="3">
-        <v>1055800</v>
+        <v>586800</v>
       </c>
       <c r="G21" s="3">
-        <v>742500</v>
+        <v>1058900</v>
       </c>
       <c r="H21" s="3">
-        <v>753300</v>
+        <v>744600</v>
       </c>
       <c r="I21" s="3">
-        <v>722500</v>
+        <v>755500</v>
       </c>
       <c r="J21" s="3">
+        <v>724600</v>
+      </c>
+      <c r="K21" s="3">
         <v>940900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>840100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1047100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>768400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>975700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>632300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>937200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>623700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>916100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>676400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>102200</v>
+        <v>124400</v>
       </c>
       <c r="E22" s="3">
-        <v>97700</v>
+        <v>102500</v>
       </c>
       <c r="F22" s="3">
-        <v>81700</v>
+        <v>98000</v>
       </c>
       <c r="G22" s="3">
-        <v>83900</v>
+        <v>81900</v>
       </c>
       <c r="H22" s="3">
-        <v>77700</v>
+        <v>84100</v>
       </c>
       <c r="I22" s="3">
-        <v>85500</v>
+        <v>77900</v>
       </c>
       <c r="J22" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K22" s="3">
         <v>71300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>72300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>77600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>82400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>79200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>81400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>74300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>81300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>62500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>653500</v>
+        <v>390200</v>
       </c>
       <c r="E23" s="3">
-        <v>298100</v>
+        <v>655400</v>
       </c>
       <c r="F23" s="3">
-        <v>769600</v>
+        <v>299000</v>
       </c>
       <c r="G23" s="3">
-        <v>640900</v>
+        <v>771800</v>
       </c>
       <c r="H23" s="3">
-        <v>496200</v>
+        <v>642800</v>
       </c>
       <c r="I23" s="3">
-        <v>626700</v>
+        <v>497600</v>
       </c>
       <c r="J23" s="3">
+        <v>628500</v>
+      </c>
+      <c r="K23" s="3">
         <v>698800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>761100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>811200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>679900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>746700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>547600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>721400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>538700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>723300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>603500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>136800</v>
+        <v>100400</v>
       </c>
       <c r="E24" s="3">
-        <v>125200</v>
+        <v>137100</v>
       </c>
       <c r="F24" s="3">
-        <v>149300</v>
+        <v>125600</v>
       </c>
       <c r="G24" s="3">
-        <v>128300</v>
+        <v>149700</v>
       </c>
       <c r="H24" s="3">
-        <v>90000</v>
+        <v>128600</v>
       </c>
       <c r="I24" s="3">
-        <v>164400</v>
+        <v>90300</v>
       </c>
       <c r="J24" s="3">
+        <v>164800</v>
+      </c>
+      <c r="K24" s="3">
         <v>127300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>116100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>126900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>120300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>104700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>103900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>99300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>98600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>121400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>103400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>516800</v>
+        <v>289800</v>
       </c>
       <c r="E26" s="3">
-        <v>-101600</v>
+        <v>518300</v>
       </c>
       <c r="F26" s="3">
-        <v>620200</v>
+        <v>-101900</v>
       </c>
       <c r="G26" s="3">
-        <v>512700</v>
+        <v>622000</v>
       </c>
       <c r="H26" s="3">
-        <v>406200</v>
+        <v>514200</v>
       </c>
       <c r="I26" s="3">
-        <v>462300</v>
+        <v>407300</v>
       </c>
       <c r="J26" s="3">
+        <v>463700</v>
+      </c>
+      <c r="K26" s="3">
         <v>571400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>645000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>684200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>559600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>642000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>443700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>622100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>440100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>601900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>500100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>422300</v>
+        <v>247000</v>
       </c>
       <c r="E27" s="3">
-        <v>-170500</v>
+        <v>423500</v>
       </c>
       <c r="F27" s="3">
-        <v>535100</v>
+        <v>-171000</v>
       </c>
       <c r="G27" s="3">
-        <v>425600</v>
+        <v>536600</v>
       </c>
       <c r="H27" s="3">
-        <v>339800</v>
+        <v>426800</v>
       </c>
       <c r="I27" s="3">
-        <v>391900</v>
+        <v>340700</v>
       </c>
       <c r="J27" s="3">
+        <v>393100</v>
+      </c>
+      <c r="K27" s="3">
         <v>495500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>576500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>610100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>481800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>575700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>388400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>557800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>395500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>534700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1818,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1813,8 +1874,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,114 +1986,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-102700</v>
+        <v>-33300</v>
       </c>
       <c r="E32" s="3">
-        <v>-97000</v>
+        <v>-103000</v>
       </c>
       <c r="F32" s="3">
-        <v>-225700</v>
+        <v>-97300</v>
       </c>
       <c r="G32" s="3">
-        <v>-168300</v>
+        <v>-226300</v>
       </c>
       <c r="H32" s="3">
-        <v>-121700</v>
+        <v>-168800</v>
       </c>
       <c r="I32" s="3">
-        <v>-103200</v>
+        <v>-122000</v>
       </c>
       <c r="J32" s="3">
+        <v>-103500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-223200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-338300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-313200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-249200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-276900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-227000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-277300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-276900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-225500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-189800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>422300</v>
+        <v>247000</v>
       </c>
       <c r="E33" s="3">
-        <v>-170500</v>
+        <v>423500</v>
       </c>
       <c r="F33" s="3">
-        <v>535100</v>
+        <v>-171000</v>
       </c>
       <c r="G33" s="3">
-        <v>425600</v>
+        <v>536600</v>
       </c>
       <c r="H33" s="3">
-        <v>339800</v>
+        <v>426800</v>
       </c>
       <c r="I33" s="3">
-        <v>391900</v>
+        <v>340700</v>
       </c>
       <c r="J33" s="3">
+        <v>393100</v>
+      </c>
+      <c r="K33" s="3">
         <v>495500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>576500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>610100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>481800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>575700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>388400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>557800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>395500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>534700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>422300</v>
+        <v>247000</v>
       </c>
       <c r="E35" s="3">
-        <v>-170500</v>
+        <v>423500</v>
       </c>
       <c r="F35" s="3">
-        <v>535100</v>
+        <v>-171000</v>
       </c>
       <c r="G35" s="3">
-        <v>425600</v>
+        <v>536600</v>
       </c>
       <c r="H35" s="3">
-        <v>339800</v>
+        <v>426800</v>
       </c>
       <c r="I35" s="3">
-        <v>391900</v>
+        <v>340700</v>
       </c>
       <c r="J35" s="3">
+        <v>393100</v>
+      </c>
+      <c r="K35" s="3">
         <v>495500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>576500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>610100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>481800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>575700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>388400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>557800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>395500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>534700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,485 +2317,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1295200</v>
+        <v>1691800</v>
       </c>
       <c r="E41" s="3">
-        <v>2689900</v>
+        <v>1298900</v>
       </c>
       <c r="F41" s="3">
-        <v>1066900</v>
+        <v>2697700</v>
       </c>
       <c r="G41" s="3">
-        <v>949800</v>
+        <v>1070000</v>
       </c>
       <c r="H41" s="3">
-        <v>1063400</v>
+        <v>952500</v>
       </c>
       <c r="I41" s="3">
-        <v>999900</v>
+        <v>1066500</v>
       </c>
       <c r="J41" s="3">
+        <v>1002900</v>
+      </c>
+      <c r="K41" s="3">
         <v>918800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1083400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1502900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1381100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1124800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1042100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>916800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1519200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1751800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1613500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9800</v>
+        <v>16400</v>
       </c>
       <c r="E42" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F42" s="3">
         <v>10200</v>
       </c>
-      <c r="F42" s="3">
-        <v>19200</v>
-      </c>
       <c r="G42" s="3">
-        <v>51900</v>
+        <v>19300</v>
       </c>
       <c r="H42" s="3">
-        <v>38200</v>
+        <v>52000</v>
       </c>
       <c r="I42" s="3">
-        <v>44400</v>
+        <v>38300</v>
       </c>
       <c r="J42" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K42" s="3">
         <v>88700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>86700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>217700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>286600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>246600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>456200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>708100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>170600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>56000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>162400</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1119300</v>
+        <v>1244700</v>
       </c>
       <c r="E43" s="3">
-        <v>2425300</v>
+        <v>1122500</v>
       </c>
       <c r="F43" s="3">
-        <v>937000</v>
+        <v>2432400</v>
       </c>
       <c r="G43" s="3">
-        <v>951000</v>
+        <v>939700</v>
       </c>
       <c r="H43" s="3">
-        <v>949000</v>
+        <v>953800</v>
       </c>
       <c r="I43" s="3">
-        <v>997800</v>
+        <v>951800</v>
       </c>
       <c r="J43" s="3">
+        <v>1000700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1002100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>939200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>972300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>916200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>819300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>798600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>822200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>870600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>841500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>830500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>421900</v>
+        <v>437800</v>
       </c>
       <c r="E44" s="3">
-        <v>400100</v>
+        <v>423100</v>
       </c>
       <c r="F44" s="3">
-        <v>333300</v>
+        <v>401300</v>
       </c>
       <c r="G44" s="3">
-        <v>340300</v>
+        <v>334200</v>
       </c>
       <c r="H44" s="3">
-        <v>302300</v>
+        <v>341300</v>
       </c>
       <c r="I44" s="3">
-        <v>301100</v>
+        <v>303200</v>
       </c>
       <c r="J44" s="3">
+        <v>302000</v>
+      </c>
+      <c r="K44" s="3">
         <v>307700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>316200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>305900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>331000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>289200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>272300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>271700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>291900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>296100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>292200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>231300</v>
+        <v>277700</v>
       </c>
       <c r="E45" s="3">
-        <v>227200</v>
+        <v>232000</v>
       </c>
       <c r="F45" s="3">
-        <v>243900</v>
+        <v>227900</v>
       </c>
       <c r="G45" s="3">
-        <v>275000</v>
+        <v>244600</v>
       </c>
       <c r="H45" s="3">
-        <v>200800</v>
+        <v>275800</v>
       </c>
       <c r="I45" s="3">
-        <v>221200</v>
+        <v>201400</v>
       </c>
       <c r="J45" s="3">
+        <v>221800</v>
+      </c>
+      <c r="K45" s="3">
         <v>188400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>201600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>192000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>213000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>180300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>162500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>165600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>158300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>237000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>255400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3077500</v>
+        <v>3668400</v>
       </c>
       <c r="E46" s="3">
-        <v>3081500</v>
+        <v>3086500</v>
       </c>
       <c r="F46" s="3">
-        <v>2600200</v>
+        <v>3090500</v>
       </c>
       <c r="G46" s="3">
-        <v>2568000</v>
+        <v>2607800</v>
       </c>
       <c r="H46" s="3">
-        <v>2553700</v>
+        <v>2575400</v>
       </c>
       <c r="I46" s="3">
-        <v>2564500</v>
+        <v>2561100</v>
       </c>
       <c r="J46" s="3">
+        <v>2571900</v>
+      </c>
+      <c r="K46" s="3">
         <v>2505700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2627000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3190900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3127800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2660200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2731700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2884300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3010600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3182300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3154100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6939200</v>
+        <v>6659100</v>
       </c>
       <c r="E47" s="3">
-        <v>12694500</v>
+        <v>6959400</v>
       </c>
       <c r="F47" s="3">
-        <v>6283500</v>
+        <v>12731400</v>
       </c>
       <c r="G47" s="3">
-        <v>6132600</v>
+        <v>6301700</v>
       </c>
       <c r="H47" s="3">
-        <v>5787900</v>
+        <v>6150400</v>
       </c>
       <c r="I47" s="3">
-        <v>5938800</v>
+        <v>5804700</v>
       </c>
       <c r="J47" s="3">
+        <v>5956100</v>
+      </c>
+      <c r="K47" s="3">
         <v>5447900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5347000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5150200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4986200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4840600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4539900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4484700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4281400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4318500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3772500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9521200</v>
+        <v>9663100</v>
       </c>
       <c r="E48" s="3">
-        <v>24657000</v>
+        <v>9548800</v>
       </c>
       <c r="F48" s="3">
-        <v>9502100</v>
+        <v>24728600</v>
       </c>
       <c r="G48" s="3">
-        <v>9142600</v>
+        <v>9529600</v>
       </c>
       <c r="H48" s="3">
-        <v>8240800</v>
+        <v>9169200</v>
       </c>
       <c r="I48" s="3">
-        <v>8234900</v>
+        <v>8264700</v>
       </c>
       <c r="J48" s="3">
+        <v>8258800</v>
+      </c>
+      <c r="K48" s="3">
         <v>8087300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7488600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7402800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7264600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6774200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6443600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6338500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6136200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6059800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6448400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>696400</v>
+        <v>682300</v>
       </c>
       <c r="E49" s="3">
-        <v>714400</v>
+        <v>698400</v>
       </c>
       <c r="F49" s="3">
-        <v>715600</v>
+        <v>716400</v>
       </c>
       <c r="G49" s="3">
-        <v>696000</v>
+        <v>717700</v>
       </c>
       <c r="H49" s="3">
-        <v>655500</v>
+        <v>698000</v>
       </c>
       <c r="I49" s="3">
-        <v>674100</v>
+        <v>657500</v>
       </c>
       <c r="J49" s="3">
+        <v>676000</v>
+      </c>
+      <c r="K49" s="3">
         <v>722500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>724200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>742800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>755300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>729300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>719000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>735200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>741300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>762600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>749900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,61 +2931,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>782600</v>
+        <v>852400</v>
       </c>
       <c r="E52" s="3">
-        <v>936800</v>
+        <v>784900</v>
       </c>
       <c r="F52" s="3">
-        <v>1286800</v>
+        <v>939500</v>
       </c>
       <c r="G52" s="3">
-        <v>606600</v>
+        <v>1290600</v>
       </c>
       <c r="H52" s="3">
+        <v>608300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>486400</v>
+      </c>
+      <c r="J52" s="3">
         <v>485000</v>
       </c>
-      <c r="I52" s="3">
-        <v>483600</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>463300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>725000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>699400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>690500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>651900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>629300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>628400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>552100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>535900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21016900</v>
+        <v>21525300</v>
       </c>
       <c r="E54" s="3">
-        <v>21411800</v>
+        <v>21078000</v>
       </c>
       <c r="F54" s="3">
-        <v>20388200</v>
+        <v>21474000</v>
       </c>
       <c r="G54" s="3">
-        <v>19145700</v>
+        <v>20447400</v>
       </c>
       <c r="H54" s="3">
-        <v>17723000</v>
+        <v>19201300</v>
       </c>
       <c r="I54" s="3">
-        <v>17895900</v>
+        <v>17774400</v>
       </c>
       <c r="J54" s="3">
+        <v>17947900</v>
+      </c>
+      <c r="K54" s="3">
         <v>17226700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16911700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17186100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16824400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15656200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15063400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15071200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14721600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14859100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14644600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,326 +3145,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>453200</v>
+        <v>545900</v>
       </c>
       <c r="E57" s="3">
-        <v>500900</v>
+        <v>454500</v>
       </c>
       <c r="F57" s="3">
-        <v>412500</v>
+        <v>502300</v>
       </c>
       <c r="G57" s="3">
-        <v>456900</v>
+        <v>413700</v>
       </c>
       <c r="H57" s="3">
-        <v>363300</v>
+        <v>458200</v>
       </c>
       <c r="I57" s="3">
-        <v>383000</v>
+        <v>364300</v>
       </c>
       <c r="J57" s="3">
+        <v>384100</v>
+      </c>
+      <c r="K57" s="3">
         <v>352700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>392300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>342000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>528300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>435900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>434300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>430200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1593500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1528300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1615400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2106200</v>
+        <v>2588900</v>
       </c>
       <c r="E58" s="3">
-        <v>2175400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>2272600</v>
+        <v>2112300</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G58" s="3">
-        <v>1409700</v>
+        <v>2279200</v>
       </c>
       <c r="H58" s="3">
-        <v>1277000</v>
+        <v>1413800</v>
       </c>
       <c r="I58" s="3">
-        <v>1204200</v>
+        <v>1280700</v>
       </c>
       <c r="J58" s="3">
+        <v>1207700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1188300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1345900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2237800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2045200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1010000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>792000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>833400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1237200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1236000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>902400</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1916900</v>
+        <v>2426100</v>
       </c>
       <c r="E59" s="3">
-        <v>2004700</v>
+        <v>1922400</v>
       </c>
       <c r="F59" s="3">
-        <v>2005000</v>
+        <v>1965600</v>
       </c>
       <c r="G59" s="3">
-        <v>1930700</v>
+        <v>2010800</v>
       </c>
       <c r="H59" s="3">
-        <v>1684500</v>
+        <v>1936300</v>
       </c>
       <c r="I59" s="3">
-        <v>1746500</v>
+        <v>1689400</v>
       </c>
       <c r="J59" s="3">
+        <v>1751500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1615600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1594700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1609200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1527700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1336600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1295900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1261000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>122200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>159600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4476200</v>
+        <v>5560900</v>
       </c>
       <c r="E60" s="3">
-        <v>4909200</v>
+        <v>4489200</v>
       </c>
       <c r="F60" s="3">
-        <v>4690100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>3797300</v>
+        <v>4703800</v>
       </c>
       <c r="H60" s="3">
-        <v>3324700</v>
+        <v>3808400</v>
       </c>
       <c r="I60" s="3">
-        <v>3333700</v>
+        <v>3334400</v>
       </c>
       <c r="J60" s="3">
+        <v>3343400</v>
+      </c>
+      <c r="K60" s="3">
         <v>3156600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3332900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4188900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4101200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2782500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2522200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2524600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2953000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2923900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2648300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5284300</v>
+        <v>5077100</v>
       </c>
       <c r="E61" s="3">
-        <v>4695400</v>
+        <v>5299600</v>
       </c>
       <c r="F61" s="3">
-        <v>4269700</v>
+        <v>4356900</v>
       </c>
       <c r="G61" s="3">
-        <v>3985900</v>
+        <v>4282100</v>
       </c>
       <c r="H61" s="3">
-        <v>3904100</v>
+        <v>3997500</v>
       </c>
       <c r="I61" s="3">
-        <v>3655800</v>
+        <v>3915400</v>
       </c>
       <c r="J61" s="3">
+        <v>3666400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3537700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3518800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2880900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2716500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3462600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3522000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3556600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2976300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2963300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3134000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1302700</v>
+        <v>1286800</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>1306500</v>
       </c>
       <c r="F62" s="3">
-        <v>1254000</v>
+        <v>1889100</v>
       </c>
       <c r="G62" s="3">
-        <v>1278400</v>
+        <v>1257700</v>
       </c>
       <c r="H62" s="3">
-        <v>1246700</v>
+        <v>1282100</v>
       </c>
       <c r="I62" s="3">
-        <v>1300800</v>
+        <v>1250300</v>
       </c>
       <c r="J62" s="3">
+        <v>1304600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1201500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1113900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>994700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>989200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>944500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>903400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>880500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>879800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>867800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>897700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12586500</v>
+        <v>13397700</v>
       </c>
       <c r="E66" s="3">
-        <v>14050300</v>
+        <v>12623000</v>
       </c>
       <c r="F66" s="3">
-        <v>11530600</v>
+        <v>12554300</v>
       </c>
       <c r="G66" s="3">
-        <v>10336900</v>
+        <v>11564100</v>
       </c>
       <c r="H66" s="3">
-        <v>9583100</v>
+        <v>10367000</v>
       </c>
       <c r="I66" s="3">
-        <v>9411900</v>
+        <v>9610900</v>
       </c>
       <c r="J66" s="3">
+        <v>9439200</v>
+      </c>
+      <c r="K66" s="3">
         <v>8926100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8958800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9047800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8763700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8071700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7800800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7844700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7690300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7668400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7606900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7263100</v>
+        <v>7233400</v>
       </c>
       <c r="E72" s="3">
-        <v>8382100</v>
+        <v>7284200</v>
       </c>
       <c r="F72" s="3">
-        <v>7525700</v>
+        <v>15622500</v>
       </c>
       <c r="G72" s="3">
-        <v>7516100</v>
+        <v>7547500</v>
       </c>
       <c r="H72" s="3">
-        <v>7348500</v>
+        <v>7538000</v>
       </c>
       <c r="I72" s="3">
-        <v>7506200</v>
+        <v>7369900</v>
       </c>
       <c r="J72" s="3">
+        <v>7528000</v>
+      </c>
+      <c r="K72" s="3">
         <v>7357400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7319500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6987400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6825000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6559500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6380300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6185900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5906400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5746800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5544700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8430500</v>
+        <v>8127700</v>
       </c>
       <c r="E76" s="3">
-        <v>8893900</v>
+        <v>8454900</v>
       </c>
       <c r="F76" s="3">
-        <v>8857600</v>
+        <v>8919700</v>
       </c>
       <c r="G76" s="3">
-        <v>8808800</v>
+        <v>8883300</v>
       </c>
       <c r="H76" s="3">
-        <v>8139900</v>
+        <v>8834300</v>
       </c>
       <c r="I76" s="3">
-        <v>8484000</v>
+        <v>8163500</v>
       </c>
       <c r="J76" s="3">
+        <v>8508700</v>
+      </c>
+      <c r="K76" s="3">
         <v>8300600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7953000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8138300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8060700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7584500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7262600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7226400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7031300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7190700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7037700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>422300</v>
+        <v>247000</v>
       </c>
       <c r="E81" s="3">
-        <v>-170500</v>
+        <v>423500</v>
       </c>
       <c r="F81" s="3">
-        <v>535100</v>
+        <v>-171000</v>
       </c>
       <c r="G81" s="3">
-        <v>425600</v>
+        <v>536600</v>
       </c>
       <c r="H81" s="3">
-        <v>339800</v>
+        <v>426800</v>
       </c>
       <c r="I81" s="3">
-        <v>391900</v>
+        <v>340700</v>
       </c>
       <c r="J81" s="3">
+        <v>393100</v>
+      </c>
+      <c r="K81" s="3">
         <v>495500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>576500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>610100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>481800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>575700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>388400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>557800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>395500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>534700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,8 +4426,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4281,8 +4480,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>566000</v>
+        <v>664600</v>
       </c>
       <c r="E89" s="3">
-        <v>661700</v>
+        <v>567700</v>
       </c>
       <c r="F89" s="3">
-        <v>672100</v>
+        <v>663600</v>
       </c>
       <c r="G89" s="3">
-        <v>709600</v>
+        <v>674100</v>
       </c>
       <c r="H89" s="3">
-        <v>552900</v>
+        <v>711700</v>
       </c>
       <c r="I89" s="3">
-        <v>641600</v>
+        <v>554500</v>
       </c>
       <c r="J89" s="3">
+        <v>643500</v>
+      </c>
+      <c r="K89" s="3">
         <v>621200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>564400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>638300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>530400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>565500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>528000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>563700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>529900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>524500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>532200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,61 +4840,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1700</v>
+        <v>-5082200</v>
       </c>
       <c r="E91" s="3">
-        <v>-132300</v>
+        <v>-3238800</v>
       </c>
       <c r="F91" s="3">
-        <v>-9500</v>
+        <v>-4718000</v>
       </c>
       <c r="G91" s="3">
-        <v>-4600</v>
+        <v>-3668700</v>
       </c>
       <c r="H91" s="3">
-        <v>-5300</v>
+        <v>-4575900</v>
       </c>
       <c r="I91" s="3">
-        <v>-12800</v>
+        <v>-2719000</v>
       </c>
       <c r="J91" s="3">
+        <v>-3715800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-25700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-317700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-441200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-339700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-419600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-348400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-489100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,61 +5006,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-352100</v>
+        <v>-510700</v>
       </c>
       <c r="E94" s="3">
-        <v>-640800</v>
+        <v>-353100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1005500</v>
+        <v>-642600</v>
       </c>
       <c r="G94" s="3">
-        <v>-490900</v>
+        <v>-1008400</v>
       </c>
       <c r="H94" s="3">
-        <v>-272200</v>
+        <v>-492300</v>
       </c>
       <c r="I94" s="3">
-        <v>-327900</v>
+        <v>-272900</v>
       </c>
       <c r="J94" s="3">
+        <v>-328800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-347500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-126400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-354800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-150100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-64600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-821400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-423300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-180400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-210000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,61 +5086,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-546800</v>
+        <v>-286100</v>
       </c>
       <c r="E96" s="3">
-        <v>-285300</v>
+        <v>-548400</v>
       </c>
       <c r="F96" s="3">
-        <v>-520700</v>
+        <v>-286100</v>
       </c>
       <c r="G96" s="3">
-        <v>-271700</v>
+        <v>-522200</v>
       </c>
       <c r="H96" s="3">
-        <v>-495900</v>
+        <v>-272500</v>
       </c>
       <c r="I96" s="3">
-        <v>-258700</v>
+        <v>-497400</v>
       </c>
       <c r="J96" s="3">
+        <v>-259500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-450900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-235300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-409800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-215500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-376500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-196900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-342500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-176800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-308000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-161500</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,163 +5308,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-239200</v>
+        <v>285100</v>
       </c>
       <c r="E100" s="3">
-        <v>242300</v>
+        <v>-239900</v>
       </c>
       <c r="F100" s="3">
-        <v>445000</v>
+        <v>243000</v>
       </c>
       <c r="G100" s="3">
-        <v>-366900</v>
+        <v>446300</v>
       </c>
       <c r="H100" s="3">
-        <v>-209100</v>
+        <v>-367900</v>
       </c>
       <c r="I100" s="3">
-        <v>-226800</v>
+        <v>-209700</v>
       </c>
       <c r="J100" s="3">
+        <v>-227400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-437500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-844400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-148100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-133800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-424400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-376100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-355200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-305700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-234700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-24600</v>
+        <v>-46200</v>
       </c>
       <c r="E101" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="F101" s="3">
         <v>14900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5500</v>
       </c>
-      <c r="G101" s="3">
-        <v>34500</v>
-      </c>
       <c r="H101" s="3">
+        <v>34600</v>
+      </c>
+      <c r="I101" s="3">
         <v>-8300</v>
       </c>
-      <c r="I101" s="3">
-        <v>-5800</v>
-      </c>
       <c r="J101" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-13700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>12900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-16600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-33400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-49800</v>
+        <v>392900</v>
       </c>
       <c r="E102" s="3">
-        <v>278100</v>
+        <v>-49900</v>
       </c>
       <c r="F102" s="3">
-        <v>117100</v>
+        <v>278900</v>
       </c>
       <c r="G102" s="3">
-        <v>-113600</v>
+        <v>117400</v>
       </c>
       <c r="H102" s="3">
-        <v>63500</v>
+        <v>-114000</v>
       </c>
       <c r="I102" s="3">
-        <v>81100</v>
+        <v>63600</v>
       </c>
       <c r="J102" s="3">
+        <v>81400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-164200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-420200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>132400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>259400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>85200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>123600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-619200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-232600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>146000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>87700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>HOKCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,274 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3990600</v>
+        <v>3720700</v>
       </c>
       <c r="E8" s="3">
-        <v>3797500</v>
+        <v>3982800</v>
       </c>
       <c r="F8" s="3">
-        <v>3684400</v>
+        <v>3790000</v>
       </c>
       <c r="G8" s="3">
-        <v>3159400</v>
+        <v>3677200</v>
       </c>
       <c r="H8" s="3">
-        <v>2899300</v>
+        <v>3153300</v>
       </c>
       <c r="I8" s="3">
-        <v>2329900</v>
+        <v>2893600</v>
       </c>
       <c r="J8" s="3">
+        <v>2325400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2590700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2592800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2527500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2451200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2188100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1986400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1857300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1824000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1848200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1921400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2023300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2546600</v>
+        <v>2307400</v>
       </c>
       <c r="E9" s="3">
-        <v>2475900</v>
+        <v>2541600</v>
       </c>
       <c r="F9" s="3">
-        <v>2311300</v>
+        <v>2471000</v>
       </c>
       <c r="G9" s="3">
-        <v>1853000</v>
+        <v>-3399000</v>
       </c>
       <c r="H9" s="3">
-        <v>1607600</v>
+        <v>1849400</v>
       </c>
       <c r="I9" s="3">
-        <v>1201600</v>
+        <v>1604400</v>
       </c>
       <c r="J9" s="3">
+        <v>1199300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1370400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1411400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1343200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1281400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1088000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>928900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>839400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>799000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>853600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>942300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1030700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1443900</v>
+        <v>1413300</v>
       </c>
       <c r="E10" s="3">
-        <v>1321600</v>
+        <v>1441100</v>
       </c>
       <c r="F10" s="3">
-        <v>1373100</v>
+        <v>1319000</v>
       </c>
       <c r="G10" s="3">
-        <v>1306500</v>
+        <v>7076200</v>
       </c>
       <c r="H10" s="3">
-        <v>1291700</v>
+        <v>1303900</v>
       </c>
       <c r="I10" s="3">
-        <v>1128300</v>
+        <v>1289200</v>
       </c>
       <c r="J10" s="3">
+        <v>1126100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1220300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1181400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1184300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1169800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1100100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1057500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1018000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1024900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>994600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>979100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>992600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +953,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,8 +965,8 @@
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3">
-        <v>-199700</v>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>10</v>
@@ -969,35 +983,38 @@
       <c r="K12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="3">
         <v>2900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1052,22 +1069,25 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>-328900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>6843800</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6631100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1081,91 +1101,97 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-29900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-5700</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>-3900</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>226100</v>
+        <v>234100</v>
       </c>
       <c r="E15" s="3">
-        <v>224400</v>
+        <v>225600</v>
       </c>
       <c r="F15" s="3">
-        <v>215000</v>
+        <v>223900</v>
       </c>
       <c r="G15" s="3">
-        <v>205200</v>
+        <v>214600</v>
       </c>
       <c r="H15" s="3">
-        <v>195800</v>
+        <v>204800</v>
       </c>
       <c r="I15" s="3">
-        <v>179900</v>
+        <v>195400</v>
       </c>
       <c r="J15" s="3">
+        <v>179600</v>
+      </c>
+      <c r="K15" s="3">
         <v>180400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>170900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>165000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>158300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>155500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>149800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>145100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>141500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>134100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>130300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>128400</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,120 +1209,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3509300</v>
+        <v>2953100</v>
       </c>
       <c r="E17" s="3">
-        <v>3142500</v>
+        <v>3502500</v>
       </c>
       <c r="F17" s="3">
-        <v>3384700</v>
+        <v>3136300</v>
       </c>
       <c r="G17" s="3">
-        <v>2532000</v>
+        <v>3198500</v>
       </c>
       <c r="H17" s="3">
-        <v>2341200</v>
+        <v>2527100</v>
       </c>
       <c r="I17" s="3">
-        <v>1876400</v>
+        <v>2336600</v>
       </c>
       <c r="J17" s="3">
+        <v>1872700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1979900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2046000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2032400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1875600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1675100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1437400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1455400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1305600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1505200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1361200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1543600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>481200</v>
+        <v>767700</v>
       </c>
       <c r="E18" s="3">
-        <v>655000</v>
+        <v>480300</v>
       </c>
       <c r="F18" s="3">
-        <v>299700</v>
+        <v>653700</v>
       </c>
       <c r="G18" s="3">
-        <v>627400</v>
+        <v>478700</v>
       </c>
       <c r="H18" s="3">
-        <v>558100</v>
+        <v>626200</v>
       </c>
       <c r="I18" s="3">
-        <v>453500</v>
+        <v>557000</v>
       </c>
       <c r="J18" s="3">
+        <v>452700</v>
+      </c>
+      <c r="K18" s="3">
         <v>610800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>546800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>495100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>575600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>513100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>549000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>402000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>518400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>343000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>560300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>479700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,288 +1350,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>33300</v>
+        <v>92400</v>
       </c>
       <c r="E20" s="3">
-        <v>103000</v>
+        <v>33200</v>
       </c>
       <c r="F20" s="3">
-        <v>97300</v>
+        <v>102800</v>
       </c>
       <c r="G20" s="3">
-        <v>226300</v>
+        <v>628900</v>
       </c>
       <c r="H20" s="3">
-        <v>168800</v>
+        <v>225900</v>
       </c>
       <c r="I20" s="3">
-        <v>122000</v>
+        <v>168500</v>
       </c>
       <c r="J20" s="3">
+        <v>121800</v>
+      </c>
+      <c r="K20" s="3">
         <v>103500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>223200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>338300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>313200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>249200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>276900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>227000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>277300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>276900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>225500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>189800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>516300</v>
+        <v>1094100</v>
       </c>
       <c r="E21" s="3">
-        <v>982300</v>
+        <v>515300</v>
       </c>
       <c r="F21" s="3">
-        <v>586800</v>
+        <v>980400</v>
       </c>
       <c r="G21" s="3">
-        <v>1058900</v>
+        <v>1440400</v>
       </c>
       <c r="H21" s="3">
-        <v>744600</v>
+        <v>1056800</v>
       </c>
       <c r="I21" s="3">
-        <v>755500</v>
+        <v>743200</v>
       </c>
       <c r="J21" s="3">
+        <v>754000</v>
+      </c>
+      <c r="K21" s="3">
         <v>724600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>940900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>840100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1047100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>768400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>975700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>632300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>937200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>623700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>916100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>676400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>124400</v>
+        <v>134800</v>
       </c>
       <c r="E22" s="3">
-        <v>102500</v>
+        <v>124100</v>
       </c>
       <c r="F22" s="3">
-        <v>98000</v>
+        <v>102300</v>
       </c>
       <c r="G22" s="3">
-        <v>81900</v>
+        <v>15300</v>
       </c>
       <c r="H22" s="3">
-        <v>84100</v>
+        <v>81800</v>
       </c>
       <c r="I22" s="3">
-        <v>77900</v>
+        <v>84000</v>
       </c>
       <c r="J22" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K22" s="3">
         <v>85700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>71300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>72300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>77600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>82400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>79200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>81400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>74300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>81300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>62500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>390200</v>
+        <v>725300</v>
       </c>
       <c r="E23" s="3">
-        <v>655400</v>
+        <v>389400</v>
       </c>
       <c r="F23" s="3">
-        <v>299000</v>
+        <v>654200</v>
       </c>
       <c r="G23" s="3">
-        <v>771800</v>
+        <v>1092300</v>
       </c>
       <c r="H23" s="3">
-        <v>642800</v>
+        <v>770300</v>
       </c>
       <c r="I23" s="3">
-        <v>497600</v>
+        <v>641600</v>
       </c>
       <c r="J23" s="3">
+        <v>496600</v>
+      </c>
+      <c r="K23" s="3">
         <v>628500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>698800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>761100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>811200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>679900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>746700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>547600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>721400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>538700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>723300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>603500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100400</v>
+        <v>174400</v>
       </c>
       <c r="E24" s="3">
-        <v>137100</v>
+        <v>100200</v>
       </c>
       <c r="F24" s="3">
-        <v>125600</v>
+        <v>136900</v>
       </c>
       <c r="G24" s="3">
-        <v>149700</v>
+        <v>125400</v>
       </c>
       <c r="H24" s="3">
-        <v>128600</v>
+        <v>149500</v>
       </c>
       <c r="I24" s="3">
-        <v>90300</v>
+        <v>128400</v>
       </c>
       <c r="J24" s="3">
+        <v>90100</v>
+      </c>
+      <c r="K24" s="3">
         <v>164800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>127300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>116100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>126900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>120300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>104700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>103900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>99300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>98600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>121400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>103400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1702,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>289800</v>
+        <v>550800</v>
       </c>
       <c r="E26" s="3">
-        <v>518300</v>
+        <v>289200</v>
       </c>
       <c r="F26" s="3">
-        <v>-101900</v>
+        <v>517300</v>
       </c>
       <c r="G26" s="3">
-        <v>622000</v>
+        <v>173100</v>
       </c>
       <c r="H26" s="3">
-        <v>514200</v>
+        <v>620800</v>
       </c>
       <c r="I26" s="3">
-        <v>407300</v>
+        <v>513200</v>
       </c>
       <c r="J26" s="3">
+        <v>406500</v>
+      </c>
+      <c r="K26" s="3">
         <v>463700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>571400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>645000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>684200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>559600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>642000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>443700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>622100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>440100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>601900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>500100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>247000</v>
+        <v>460900</v>
       </c>
       <c r="E27" s="3">
-        <v>423500</v>
+        <v>246500</v>
       </c>
       <c r="F27" s="3">
-        <v>-171000</v>
+        <v>422700</v>
       </c>
       <c r="G27" s="3">
-        <v>536600</v>
+        <v>104200</v>
       </c>
       <c r="H27" s="3">
-        <v>426800</v>
+        <v>535600</v>
       </c>
       <c r="I27" s="3">
-        <v>340700</v>
+        <v>426000</v>
       </c>
       <c r="J27" s="3">
+        <v>340100</v>
+      </c>
+      <c r="K27" s="3">
         <v>393100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>495500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>576500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>610100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>481800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>575700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>388400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>557800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>395500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>534700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1879,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1877,8 +1938,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,120 +2056,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-33300</v>
+        <v>-92400</v>
       </c>
       <c r="E32" s="3">
-        <v>-103000</v>
+        <v>-33200</v>
       </c>
       <c r="F32" s="3">
-        <v>-97300</v>
+        <v>-102800</v>
       </c>
       <c r="G32" s="3">
-        <v>-226300</v>
+        <v>-628900</v>
       </c>
       <c r="H32" s="3">
-        <v>-168800</v>
+        <v>-225900</v>
       </c>
       <c r="I32" s="3">
-        <v>-122000</v>
+        <v>-168500</v>
       </c>
       <c r="J32" s="3">
+        <v>-121800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-103500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-223200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-338300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-313200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-249200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-276900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-227000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-277300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-276900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-225500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-189800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>247000</v>
+        <v>460900</v>
       </c>
       <c r="E33" s="3">
-        <v>423500</v>
+        <v>246500</v>
       </c>
       <c r="F33" s="3">
-        <v>-171000</v>
+        <v>422700</v>
       </c>
       <c r="G33" s="3">
-        <v>536600</v>
+        <v>104200</v>
       </c>
       <c r="H33" s="3">
-        <v>426800</v>
+        <v>535600</v>
       </c>
       <c r="I33" s="3">
-        <v>340700</v>
+        <v>426000</v>
       </c>
       <c r="J33" s="3">
+        <v>340100</v>
+      </c>
+      <c r="K33" s="3">
         <v>393100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>495500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>576500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>610100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>481800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>575700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>388400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>557800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>395500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>534700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2233,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>247000</v>
+        <v>460900</v>
       </c>
       <c r="E35" s="3">
-        <v>423500</v>
+        <v>246500</v>
       </c>
       <c r="F35" s="3">
-        <v>-171000</v>
+        <v>422700</v>
       </c>
       <c r="G35" s="3">
-        <v>536600</v>
+        <v>104200</v>
       </c>
       <c r="H35" s="3">
-        <v>426800</v>
+        <v>535600</v>
       </c>
       <c r="I35" s="3">
-        <v>340700</v>
+        <v>426000</v>
       </c>
       <c r="J35" s="3">
+        <v>340100</v>
+      </c>
+      <c r="K35" s="3">
         <v>393100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>495500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>576500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>610100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>481800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>575700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>388400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>557800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>395500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>534700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,512 +2404,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1691800</v>
+        <v>1371500</v>
       </c>
       <c r="E41" s="3">
-        <v>1298900</v>
+        <v>1688500</v>
       </c>
       <c r="F41" s="3">
-        <v>2697700</v>
+        <v>1296400</v>
       </c>
       <c r="G41" s="3">
-        <v>1070000</v>
+        <v>1346200</v>
       </c>
       <c r="H41" s="3">
-        <v>952500</v>
+        <v>1067900</v>
       </c>
       <c r="I41" s="3">
-        <v>1066500</v>
+        <v>950700</v>
       </c>
       <c r="J41" s="3">
+        <v>1064400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1002900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>918800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1083400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1502900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1381100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1124800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1042100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>916800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1519200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1751800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1613500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16400</v>
+        <v>187400</v>
       </c>
       <c r="E42" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F42" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G42" s="3">
         <v>9900</v>
       </c>
-      <c r="F42" s="3">
-        <v>10200</v>
-      </c>
-      <c r="G42" s="3">
-        <v>19300</v>
-      </c>
       <c r="H42" s="3">
-        <v>52000</v>
+        <v>13800</v>
       </c>
       <c r="I42" s="3">
-        <v>38300</v>
+        <v>48300</v>
       </c>
       <c r="J42" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K42" s="3">
         <v>44500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>88700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>86700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>217700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>286600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>246600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>456200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>708100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>170600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>56000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>162400</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1244700</v>
+        <v>1766000</v>
       </c>
       <c r="E43" s="3">
-        <v>1122500</v>
+        <v>1242200</v>
       </c>
       <c r="F43" s="3">
-        <v>2432400</v>
+        <v>1120400</v>
       </c>
       <c r="G43" s="3">
-        <v>939700</v>
+        <v>2266800</v>
       </c>
       <c r="H43" s="3">
-        <v>953800</v>
+        <v>937900</v>
       </c>
       <c r="I43" s="3">
-        <v>951800</v>
+        <v>951900</v>
       </c>
       <c r="J43" s="3">
+        <v>949900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1000700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1002100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>939200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>972300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>916200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>819300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>798600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>822200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>870600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>841500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>830500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>437800</v>
+        <v>330500</v>
       </c>
       <c r="E44" s="3">
-        <v>423100</v>
+        <v>436900</v>
       </c>
       <c r="F44" s="3">
-        <v>401300</v>
+        <v>422300</v>
       </c>
       <c r="G44" s="3">
-        <v>334200</v>
+        <v>400500</v>
       </c>
       <c r="H44" s="3">
-        <v>341300</v>
+        <v>333600</v>
       </c>
       <c r="I44" s="3">
-        <v>303200</v>
+        <v>340600</v>
       </c>
       <c r="J44" s="3">
+        <v>302600</v>
+      </c>
+      <c r="K44" s="3">
         <v>302000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>307700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>316200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>305900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>331000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>289200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>272300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>271700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>291900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>296100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>292200</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>277700</v>
+        <v>341900</v>
       </c>
       <c r="E45" s="3">
-        <v>232000</v>
+        <v>277900</v>
       </c>
       <c r="F45" s="3">
-        <v>227900</v>
+        <v>232100</v>
       </c>
       <c r="G45" s="3">
-        <v>244600</v>
+        <v>3312100</v>
       </c>
       <c r="H45" s="3">
-        <v>275800</v>
+        <v>249600</v>
       </c>
       <c r="I45" s="3">
-        <v>201400</v>
+        <v>278900</v>
       </c>
       <c r="J45" s="3">
+        <v>201000</v>
+      </c>
+      <c r="K45" s="3">
         <v>221800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>188400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>201600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>192000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>213000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>180300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>162500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>165600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>158300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>237000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>255400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3668400</v>
+        <v>3997400</v>
       </c>
       <c r="E46" s="3">
-        <v>3086500</v>
+        <v>3661200</v>
       </c>
       <c r="F46" s="3">
-        <v>3090500</v>
+        <v>3080400</v>
       </c>
       <c r="G46" s="3">
-        <v>2607800</v>
+        <v>3084400</v>
       </c>
       <c r="H46" s="3">
-        <v>2575400</v>
+        <v>2602700</v>
       </c>
       <c r="I46" s="3">
-        <v>2561100</v>
+        <v>2570400</v>
       </c>
       <c r="J46" s="3">
+        <v>2556100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2571900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2505700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2627000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3190900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3127800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2660200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2731700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2884300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3010600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3182300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3154100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6659100</v>
+        <v>6239900</v>
       </c>
       <c r="E47" s="3">
-        <v>6959400</v>
+        <v>6608000</v>
       </c>
       <c r="F47" s="3">
-        <v>12731400</v>
+        <v>6904100</v>
       </c>
       <c r="G47" s="3">
-        <v>6301700</v>
+        <v>9700200</v>
       </c>
       <c r="H47" s="3">
-        <v>6150400</v>
+        <v>6249800</v>
       </c>
       <c r="I47" s="3">
-        <v>5804700</v>
+        <v>6099500</v>
       </c>
       <c r="J47" s="3">
+        <v>5751100</v>
+      </c>
+      <c r="K47" s="3">
         <v>5956100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5447900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5347000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5150200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4986200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4840600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4539900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4484700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4281400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4318500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3772500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9663100</v>
+        <v>9018900</v>
       </c>
       <c r="E48" s="3">
-        <v>9548800</v>
+        <v>9644200</v>
       </c>
       <c r="F48" s="3">
-        <v>24728600</v>
+        <v>9530100</v>
       </c>
       <c r="G48" s="3">
-        <v>9529600</v>
+        <v>20100400</v>
       </c>
       <c r="H48" s="3">
-        <v>9169200</v>
+        <v>9511000</v>
       </c>
       <c r="I48" s="3">
-        <v>8264700</v>
+        <v>9151200</v>
       </c>
       <c r="J48" s="3">
+        <v>8248500</v>
+      </c>
+      <c r="K48" s="3">
         <v>8258800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8087300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7488600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7402800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7264600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6774200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6443600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6338500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6136200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6059800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6448400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>682300</v>
+        <v>638900</v>
       </c>
       <c r="E49" s="3">
-        <v>698400</v>
+        <v>681000</v>
       </c>
       <c r="F49" s="3">
-        <v>716400</v>
+        <v>697100</v>
       </c>
       <c r="G49" s="3">
-        <v>717700</v>
+        <v>5324900</v>
       </c>
       <c r="H49" s="3">
-        <v>698000</v>
+        <v>716300</v>
       </c>
       <c r="I49" s="3">
-        <v>657500</v>
+        <v>696600</v>
       </c>
       <c r="J49" s="3">
+        <v>656200</v>
+      </c>
+      <c r="K49" s="3">
         <v>676000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>722500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>724200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>742800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>755300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>729300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>719000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>735200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>741300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>762600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>749900</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,64 +3051,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>852400</v>
+        <v>769600</v>
       </c>
       <c r="E52" s="3">
-        <v>784900</v>
+        <v>888800</v>
       </c>
       <c r="F52" s="3">
-        <v>939500</v>
+        <v>825000</v>
       </c>
       <c r="G52" s="3">
-        <v>1290600</v>
+        <v>1569500</v>
       </c>
       <c r="H52" s="3">
-        <v>608300</v>
+        <v>1327600</v>
       </c>
       <c r="I52" s="3">
-        <v>486400</v>
+        <v>646000</v>
       </c>
       <c r="J52" s="3">
+        <v>527800</v>
+      </c>
+      <c r="K52" s="3">
         <v>485000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>463300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>725000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>699400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>690500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>651900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>629300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>628400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>552100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>535900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21525300</v>
+        <v>20664800</v>
       </c>
       <c r="E54" s="3">
-        <v>21078000</v>
+        <v>21483200</v>
       </c>
       <c r="F54" s="3">
-        <v>21474000</v>
+        <v>21036700</v>
       </c>
       <c r="G54" s="3">
-        <v>20447400</v>
+        <v>21407800</v>
       </c>
       <c r="H54" s="3">
-        <v>19201300</v>
+        <v>20407400</v>
       </c>
       <c r="I54" s="3">
-        <v>17774400</v>
+        <v>19163700</v>
       </c>
       <c r="J54" s="3">
+        <v>17739700</v>
+      </c>
+      <c r="K54" s="3">
         <v>17947900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17226700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16911700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17186100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16824400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15656200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15063400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15071200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14721600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14859100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14644600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,344 +3276,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>545900</v>
+        <v>464200</v>
       </c>
       <c r="E57" s="3">
-        <v>454500</v>
+        <v>544900</v>
       </c>
       <c r="F57" s="3">
-        <v>502300</v>
+        <v>453600</v>
       </c>
       <c r="G57" s="3">
-        <v>413700</v>
+        <v>406800</v>
       </c>
       <c r="H57" s="3">
-        <v>458200</v>
+        <v>412900</v>
       </c>
       <c r="I57" s="3">
-        <v>364300</v>
+        <v>457300</v>
       </c>
       <c r="J57" s="3">
+        <v>363600</v>
+      </c>
+      <c r="K57" s="3">
         <v>384100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>352700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>392300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>342000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>528300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>435900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>434300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>430200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1593500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1528300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1615400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2588900</v>
+        <v>2445300</v>
       </c>
       <c r="E58" s="3">
-        <v>2112300</v>
-      </c>
-      <c r="F58" s="3" t="s">
+        <v>2583800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2143600</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="3">
-        <v>2279200</v>
-      </c>
       <c r="H58" s="3">
-        <v>1413800</v>
+        <v>2356100</v>
       </c>
       <c r="I58" s="3">
-        <v>1280700</v>
+        <v>1473100</v>
       </c>
       <c r="J58" s="3">
+        <v>1385700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1207700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1188300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1345900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2237800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2045200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1010000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>792000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>833400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1237200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1236000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>902400</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2426100</v>
+        <v>1977800</v>
       </c>
       <c r="E59" s="3">
-        <v>1922400</v>
+        <v>2421400</v>
       </c>
       <c r="F59" s="3">
-        <v>1965600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2010800</v>
+        <v>1883200</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H59" s="3">
-        <v>1936300</v>
+        <v>1925600</v>
       </c>
       <c r="I59" s="3">
-        <v>1689400</v>
+        <v>1870500</v>
       </c>
       <c r="J59" s="3">
+        <v>1578600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1751500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1615600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1594700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1609200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1527700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1336600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1295900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1261000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>122200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>159600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>130500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5560900</v>
+        <v>4887400</v>
       </c>
       <c r="E60" s="3">
-        <v>4489200</v>
+        <v>5550000</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>4480400</v>
       </c>
       <c r="G60" s="3">
-        <v>4703800</v>
+        <v>4913800</v>
       </c>
       <c r="H60" s="3">
-        <v>3808400</v>
+        <v>4694500</v>
       </c>
       <c r="I60" s="3">
-        <v>3334400</v>
+        <v>3800900</v>
       </c>
       <c r="J60" s="3">
+        <v>3327900</v>
+      </c>
+      <c r="K60" s="3">
         <v>3343400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3156600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3332900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4188900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4101200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2782500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2522200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2524600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2953000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2923900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2648300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5077100</v>
+        <v>5374400</v>
       </c>
       <c r="E61" s="3">
-        <v>5299600</v>
+        <v>5067200</v>
       </c>
       <c r="F61" s="3">
-        <v>4356900</v>
+        <v>5289300</v>
       </c>
       <c r="G61" s="3">
-        <v>4282100</v>
+        <v>4699900</v>
       </c>
       <c r="H61" s="3">
-        <v>3997500</v>
+        <v>4273800</v>
       </c>
       <c r="I61" s="3">
-        <v>3915400</v>
+        <v>3989600</v>
       </c>
       <c r="J61" s="3">
+        <v>3907800</v>
+      </c>
+      <c r="K61" s="3">
         <v>3666400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3537700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3518800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2880900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2716500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3462600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3522000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3556600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2976300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2963300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3134000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1286800</v>
+        <v>1270100</v>
       </c>
       <c r="E62" s="3">
-        <v>1306500</v>
+        <v>1284300</v>
       </c>
       <c r="F62" s="3">
-        <v>1889100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1257700</v>
+        <v>1303900</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H62" s="3">
-        <v>1282100</v>
+        <v>1255200</v>
       </c>
       <c r="I62" s="3">
-        <v>1250300</v>
+        <v>1279600</v>
       </c>
       <c r="J62" s="3">
+        <v>1247900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1304600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1201500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1113900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>994700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>989200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>944500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>903400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>880500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>879800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>867800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>897700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13397700</v>
+        <v>12922500</v>
       </c>
       <c r="E66" s="3">
-        <v>12623000</v>
+        <v>13371400</v>
       </c>
       <c r="F66" s="3">
-        <v>12554300</v>
+        <v>12598300</v>
       </c>
       <c r="G66" s="3">
-        <v>11564100</v>
+        <v>12529700</v>
       </c>
       <c r="H66" s="3">
-        <v>10367000</v>
+        <v>11541500</v>
       </c>
       <c r="I66" s="3">
-        <v>9610900</v>
+        <v>10346700</v>
       </c>
       <c r="J66" s="3">
+        <v>9592100</v>
+      </c>
+      <c r="K66" s="3">
         <v>9439200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8926100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8958800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9047800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8763700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8071700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7800800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7844700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7690300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7668400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7606900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4123,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7233400</v>
+        <v>7135800</v>
       </c>
       <c r="E72" s="3">
-        <v>7284200</v>
+        <v>7219200</v>
       </c>
       <c r="F72" s="3">
-        <v>15622500</v>
+        <v>7269900</v>
       </c>
       <c r="G72" s="3">
-        <v>7547500</v>
+        <v>24190100</v>
       </c>
       <c r="H72" s="3">
-        <v>7538000</v>
+        <v>7532800</v>
       </c>
       <c r="I72" s="3">
-        <v>7369900</v>
+        <v>7523200</v>
       </c>
       <c r="J72" s="3">
+        <v>7355400</v>
+      </c>
+      <c r="K72" s="3">
         <v>7528000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7357400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7319500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6987400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6825000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6559500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6380300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6185900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5906400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5746800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5544700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8127700</v>
+        <v>7742200</v>
       </c>
       <c r="E76" s="3">
-        <v>8454900</v>
+        <v>8111800</v>
       </c>
       <c r="F76" s="3">
-        <v>8919700</v>
+        <v>8438400</v>
       </c>
       <c r="G76" s="3">
-        <v>8883300</v>
+        <v>8902200</v>
       </c>
       <c r="H76" s="3">
-        <v>8834300</v>
+        <v>8866000</v>
       </c>
       <c r="I76" s="3">
-        <v>8163500</v>
+        <v>8817100</v>
       </c>
       <c r="J76" s="3">
+        <v>8147600</v>
+      </c>
+      <c r="K76" s="3">
         <v>8508700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8300600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7953000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8138300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8060700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7584500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7262600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7226400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7031300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7190700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7037700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4477,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>247000</v>
+        <v>460900</v>
       </c>
       <c r="E81" s="3">
-        <v>423500</v>
+        <v>246500</v>
       </c>
       <c r="F81" s="3">
-        <v>-171000</v>
+        <v>422700</v>
       </c>
       <c r="G81" s="3">
-        <v>536600</v>
+        <v>104200</v>
       </c>
       <c r="H81" s="3">
-        <v>426800</v>
+        <v>535600</v>
       </c>
       <c r="I81" s="3">
-        <v>340700</v>
+        <v>426000</v>
       </c>
       <c r="J81" s="3">
+        <v>340100</v>
+      </c>
+      <c r="K81" s="3">
         <v>393100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>495500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>576500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>610100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>481800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>575700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>388400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>557800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>395500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>534700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>433000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,8 +4625,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4483,8 +4682,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4977,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>664600</v>
+        <v>665100</v>
       </c>
       <c r="E89" s="3">
-        <v>567700</v>
+        <v>663300</v>
       </c>
       <c r="F89" s="3">
-        <v>663600</v>
+        <v>566600</v>
       </c>
       <c r="G89" s="3">
-        <v>674100</v>
+        <v>662300</v>
       </c>
       <c r="H89" s="3">
-        <v>711700</v>
+        <v>672700</v>
       </c>
       <c r="I89" s="3">
-        <v>554500</v>
+        <v>710300</v>
       </c>
       <c r="J89" s="3">
+        <v>553500</v>
+      </c>
+      <c r="K89" s="3">
         <v>643500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>621200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>564400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>638300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>530400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>565500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>528000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>563700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>529900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>524500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>532200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,64 +5061,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3619500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5082200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3238800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4718000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3668700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4575900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2719000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3715800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-317700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-441200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-339700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-419600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-348400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-489100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,64 +5236,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-510700</v>
+        <v>-508500</v>
       </c>
       <c r="E94" s="3">
-        <v>-353100</v>
+        <v>-509700</v>
       </c>
       <c r="F94" s="3">
-        <v>-642600</v>
+        <v>-352400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1008400</v>
+        <v>-641400</v>
       </c>
       <c r="H94" s="3">
-        <v>-492300</v>
+        <v>-1006400</v>
       </c>
       <c r="I94" s="3">
-        <v>-272900</v>
+        <v>-491400</v>
       </c>
       <c r="J94" s="3">
+        <v>-272400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-328800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-347500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-126400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-354800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-150100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-64600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-821400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-423300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-180400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-210000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,64 +5320,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-286100</v>
+        <v>-547300</v>
       </c>
       <c r="E96" s="3">
-        <v>-548400</v>
+        <v>-285500</v>
       </c>
       <c r="F96" s="3">
-        <v>-286100</v>
+        <v>-547300</v>
       </c>
       <c r="G96" s="3">
-        <v>-522200</v>
+        <v>-285500</v>
       </c>
       <c r="H96" s="3">
-        <v>-272500</v>
+        <v>-521200</v>
       </c>
       <c r="I96" s="3">
-        <v>-497400</v>
+        <v>-271900</v>
       </c>
       <c r="J96" s="3">
+        <v>-496400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-259500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-450900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-235300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-409800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-215500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-376500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-196900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-342500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-176800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-308000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-161500</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,172 +5554,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>285100</v>
+        <v>-421800</v>
       </c>
       <c r="E100" s="3">
-        <v>-239900</v>
+        <v>284600</v>
       </c>
       <c r="F100" s="3">
-        <v>243000</v>
+        <v>-239400</v>
       </c>
       <c r="G100" s="3">
-        <v>446300</v>
+        <v>242500</v>
       </c>
       <c r="H100" s="3">
-        <v>-367900</v>
+        <v>445500</v>
       </c>
       <c r="I100" s="3">
-        <v>-209700</v>
+        <v>-367200</v>
       </c>
       <c r="J100" s="3">
+        <v>-209200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-227400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-437500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-844400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-148100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-133800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-424400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-376100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-355200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-305700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-234700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-46200</v>
+        <v>-51800</v>
       </c>
       <c r="E101" s="3">
-        <v>-24700</v>
+        <v>-46100</v>
       </c>
       <c r="F101" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="G101" s="3">
         <v>14900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>34600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-13700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>12900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-33400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>392900</v>
+        <v>-317000</v>
       </c>
       <c r="E102" s="3">
-        <v>-49900</v>
+        <v>392100</v>
       </c>
       <c r="F102" s="3">
-        <v>278900</v>
+        <v>-49800</v>
       </c>
       <c r="G102" s="3">
-        <v>117400</v>
+        <v>278400</v>
       </c>
       <c r="H102" s="3">
-        <v>-114000</v>
+        <v>117200</v>
       </c>
       <c r="I102" s="3">
-        <v>63600</v>
+        <v>-113700</v>
       </c>
       <c r="J102" s="3">
+        <v>63500</v>
+      </c>
+      <c r="K102" s="3">
         <v>81400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-164200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-420200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>132400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>259400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>85200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>123600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-619200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-232600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>146000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>87700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HOKCY_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3720700</v>
+        <v>3740300</v>
       </c>
       <c r="E8" s="3">
-        <v>3982800</v>
+        <v>4003700</v>
       </c>
       <c r="F8" s="3">
-        <v>3790000</v>
+        <v>3809900</v>
       </c>
       <c r="G8" s="3">
-        <v>3677200</v>
+        <v>3696500</v>
       </c>
       <c r="H8" s="3">
-        <v>3153300</v>
+        <v>3169800</v>
       </c>
       <c r="I8" s="3">
-        <v>2893600</v>
+        <v>2908800</v>
       </c>
       <c r="J8" s="3">
-        <v>2325400</v>
+        <v>2337600</v>
       </c>
       <c r="K8" s="3">
         <v>2590700</v>
@@ -819,25 +819,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2307400</v>
+        <v>2319500</v>
       </c>
       <c r="E9" s="3">
-        <v>2541600</v>
+        <v>2555000</v>
       </c>
       <c r="F9" s="3">
-        <v>2471000</v>
+        <v>2484000</v>
       </c>
       <c r="G9" s="3">
-        <v>-3399000</v>
+        <v>-3416900</v>
       </c>
       <c r="H9" s="3">
-        <v>1849400</v>
+        <v>1859100</v>
       </c>
       <c r="I9" s="3">
-        <v>1604400</v>
+        <v>1612900</v>
       </c>
       <c r="J9" s="3">
-        <v>1199300</v>
+        <v>1205600</v>
       </c>
       <c r="K9" s="3">
         <v>1370400</v>
@@ -878,25 +878,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1413300</v>
+        <v>1420800</v>
       </c>
       <c r="E10" s="3">
-        <v>1441100</v>
+        <v>1448700</v>
       </c>
       <c r="F10" s="3">
-        <v>1319000</v>
+        <v>1325900</v>
       </c>
       <c r="G10" s="3">
-        <v>7076200</v>
+        <v>7113400</v>
       </c>
       <c r="H10" s="3">
-        <v>1303900</v>
+        <v>1310800</v>
       </c>
       <c r="I10" s="3">
-        <v>1289200</v>
+        <v>1296000</v>
       </c>
       <c r="J10" s="3">
-        <v>1126100</v>
+        <v>1132000</v>
       </c>
       <c r="K10" s="3">
         <v>1220300</v>
@@ -1078,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-328900</v>
+        <v>-330700</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1087,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="3">
-        <v>6631100</v>
+        <v>6665900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1137,25 +1137,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>234100</v>
+        <v>235300</v>
       </c>
       <c r="E15" s="3">
-        <v>225600</v>
+        <v>226800</v>
       </c>
       <c r="F15" s="3">
-        <v>223900</v>
+        <v>225100</v>
       </c>
       <c r="G15" s="3">
-        <v>214600</v>
+        <v>215700</v>
       </c>
       <c r="H15" s="3">
-        <v>204800</v>
+        <v>205800</v>
       </c>
       <c r="I15" s="3">
-        <v>195400</v>
+        <v>196400</v>
       </c>
       <c r="J15" s="3">
-        <v>179600</v>
+        <v>180500</v>
       </c>
       <c r="K15" s="3">
         <v>180400</v>
@@ -1216,25 +1216,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2953100</v>
+        <v>2968600</v>
       </c>
       <c r="E17" s="3">
-        <v>3502500</v>
+        <v>3520900</v>
       </c>
       <c r="F17" s="3">
-        <v>3136300</v>
+        <v>3152800</v>
       </c>
       <c r="G17" s="3">
-        <v>3198500</v>
+        <v>3215300</v>
       </c>
       <c r="H17" s="3">
-        <v>2527100</v>
+        <v>2540400</v>
       </c>
       <c r="I17" s="3">
-        <v>2336600</v>
+        <v>2348900</v>
       </c>
       <c r="J17" s="3">
-        <v>1872700</v>
+        <v>1882500</v>
       </c>
       <c r="K17" s="3">
         <v>1979900</v>
@@ -1275,25 +1275,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>767700</v>
+        <v>771700</v>
       </c>
       <c r="E18" s="3">
-        <v>480300</v>
+        <v>482800</v>
       </c>
       <c r="F18" s="3">
-        <v>653700</v>
+        <v>657200</v>
       </c>
       <c r="G18" s="3">
-        <v>478700</v>
+        <v>481200</v>
       </c>
       <c r="H18" s="3">
-        <v>626200</v>
+        <v>629500</v>
       </c>
       <c r="I18" s="3">
-        <v>557000</v>
+        <v>560000</v>
       </c>
       <c r="J18" s="3">
-        <v>452700</v>
+        <v>455000</v>
       </c>
       <c r="K18" s="3">
         <v>610800</v>
@@ -1357,25 +1357,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>92400</v>
+        <v>92900</v>
       </c>
       <c r="E20" s="3">
-        <v>33200</v>
+        <v>33400</v>
       </c>
       <c r="F20" s="3">
-        <v>102800</v>
+        <v>103300</v>
       </c>
       <c r="G20" s="3">
-        <v>628900</v>
+        <v>632200</v>
       </c>
       <c r="H20" s="3">
-        <v>225900</v>
+        <v>227100</v>
       </c>
       <c r="I20" s="3">
-        <v>168500</v>
+        <v>169400</v>
       </c>
       <c r="J20" s="3">
-        <v>121800</v>
+        <v>122400</v>
       </c>
       <c r="K20" s="3">
         <v>103500</v>
@@ -1416,25 +1416,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1094100</v>
+        <v>1099900</v>
       </c>
       <c r="E21" s="3">
-        <v>515300</v>
+        <v>518000</v>
       </c>
       <c r="F21" s="3">
-        <v>980400</v>
+        <v>985600</v>
       </c>
       <c r="G21" s="3">
-        <v>1440400</v>
+        <v>1448000</v>
       </c>
       <c r="H21" s="3">
-        <v>1056800</v>
+        <v>1062400</v>
       </c>
       <c r="I21" s="3">
-        <v>743200</v>
+        <v>747100</v>
       </c>
       <c r="J21" s="3">
-        <v>754000</v>
+        <v>758000</v>
       </c>
       <c r="K21" s="3">
         <v>724600</v>
@@ -1475,25 +1475,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>134800</v>
+        <v>135500</v>
       </c>
       <c r="E22" s="3">
-        <v>124100</v>
+        <v>124800</v>
       </c>
       <c r="F22" s="3">
-        <v>102300</v>
+        <v>102900</v>
       </c>
       <c r="G22" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="H22" s="3">
-        <v>81800</v>
+        <v>82200</v>
       </c>
       <c r="I22" s="3">
-        <v>84000</v>
+        <v>84400</v>
       </c>
       <c r="J22" s="3">
-        <v>77800</v>
+        <v>78200</v>
       </c>
       <c r="K22" s="3">
         <v>85700</v>
@@ -1534,25 +1534,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>725300</v>
+        <v>729100</v>
       </c>
       <c r="E23" s="3">
-        <v>389400</v>
+        <v>391500</v>
       </c>
       <c r="F23" s="3">
-        <v>654200</v>
+        <v>657600</v>
       </c>
       <c r="G23" s="3">
-        <v>1092300</v>
+        <v>1098100</v>
       </c>
       <c r="H23" s="3">
-        <v>770300</v>
+        <v>774300</v>
       </c>
       <c r="I23" s="3">
-        <v>641600</v>
+        <v>644900</v>
       </c>
       <c r="J23" s="3">
-        <v>496600</v>
+        <v>499200</v>
       </c>
       <c r="K23" s="3">
         <v>628500</v>
@@ -1593,25 +1593,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>174400</v>
+        <v>175400</v>
       </c>
       <c r="E24" s="3">
-        <v>100200</v>
+        <v>100700</v>
       </c>
       <c r="F24" s="3">
-        <v>136900</v>
+        <v>137600</v>
       </c>
       <c r="G24" s="3">
-        <v>125400</v>
+        <v>126000</v>
       </c>
       <c r="H24" s="3">
-        <v>149500</v>
+        <v>150200</v>
       </c>
       <c r="I24" s="3">
-        <v>128400</v>
+        <v>129000</v>
       </c>
       <c r="J24" s="3">
-        <v>90100</v>
+        <v>90600</v>
       </c>
       <c r="K24" s="3">
         <v>164800</v>
@@ -1711,25 +1711,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>550800</v>
+        <v>553700</v>
       </c>
       <c r="E26" s="3">
-        <v>289200</v>
+        <v>290700</v>
       </c>
       <c r="F26" s="3">
-        <v>517300</v>
+        <v>520000</v>
       </c>
       <c r="G26" s="3">
-        <v>173100</v>
+        <v>174000</v>
       </c>
       <c r="H26" s="3">
-        <v>620800</v>
+        <v>624100</v>
       </c>
       <c r="I26" s="3">
-        <v>513200</v>
+        <v>515900</v>
       </c>
       <c r="J26" s="3">
-        <v>406500</v>
+        <v>408700</v>
       </c>
       <c r="K26" s="3">
         <v>463700</v>
@@ -1770,25 +1770,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>460900</v>
+        <v>463300</v>
       </c>
       <c r="E27" s="3">
-        <v>246500</v>
+        <v>247800</v>
       </c>
       <c r="F27" s="3">
-        <v>422700</v>
+        <v>424900</v>
       </c>
       <c r="G27" s="3">
-        <v>104200</v>
+        <v>104700</v>
       </c>
       <c r="H27" s="3">
-        <v>535600</v>
+        <v>538400</v>
       </c>
       <c r="I27" s="3">
-        <v>426000</v>
+        <v>428200</v>
       </c>
       <c r="J27" s="3">
-        <v>340100</v>
+        <v>341900</v>
       </c>
       <c r="K27" s="3">
         <v>393100</v>
@@ -2065,25 +2065,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-92400</v>
+        <v>-92900</v>
       </c>
       <c r="E32" s="3">
-        <v>-33200</v>
+        <v>-33400</v>
       </c>
       <c r="F32" s="3">
-        <v>-102800</v>
+        <v>-103300</v>
       </c>
       <c r="G32" s="3">
-        <v>-628900</v>
+        <v>-632200</v>
       </c>
       <c r="H32" s="3">
-        <v>-225900</v>
+        <v>-227100</v>
       </c>
       <c r="I32" s="3">
-        <v>-168500</v>
+        <v>-169400</v>
       </c>
       <c r="J32" s="3">
-        <v>-121800</v>
+        <v>-122400</v>
       </c>
       <c r="K32" s="3">
         <v>-103500</v>
@@ -2124,25 +2124,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>460900</v>
+        <v>463300</v>
       </c>
       <c r="E33" s="3">
-        <v>246500</v>
+        <v>247800</v>
       </c>
       <c r="F33" s="3">
-        <v>422700</v>
+        <v>424900</v>
       </c>
       <c r="G33" s="3">
-        <v>104200</v>
+        <v>104700</v>
       </c>
       <c r="H33" s="3">
-        <v>535600</v>
+        <v>538400</v>
       </c>
       <c r="I33" s="3">
-        <v>426000</v>
+        <v>428200</v>
       </c>
       <c r="J33" s="3">
-        <v>340100</v>
+        <v>341900</v>
       </c>
       <c r="K33" s="3">
         <v>393100</v>
@@ -2242,25 +2242,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>460900</v>
+        <v>463300</v>
       </c>
       <c r="E35" s="3">
-        <v>246500</v>
+        <v>247800</v>
       </c>
       <c r="F35" s="3">
-        <v>422700</v>
+        <v>424900</v>
       </c>
       <c r="G35" s="3">
-        <v>104200</v>
+        <v>104700</v>
       </c>
       <c r="H35" s="3">
-        <v>535600</v>
+        <v>538400</v>
       </c>
       <c r="I35" s="3">
-        <v>426000</v>
+        <v>428200</v>
       </c>
       <c r="J35" s="3">
-        <v>340100</v>
+        <v>341900</v>
       </c>
       <c r="K35" s="3">
         <v>393100</v>
@@ -2411,25 +2411,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1371500</v>
+        <v>1378700</v>
       </c>
       <c r="E41" s="3">
-        <v>1688500</v>
+        <v>1697400</v>
       </c>
       <c r="F41" s="3">
-        <v>1296400</v>
+        <v>1303200</v>
       </c>
       <c r="G41" s="3">
-        <v>1346200</v>
+        <v>1353300</v>
       </c>
       <c r="H41" s="3">
-        <v>1067900</v>
+        <v>1073500</v>
       </c>
       <c r="I41" s="3">
-        <v>950700</v>
+        <v>955700</v>
       </c>
       <c r="J41" s="3">
-        <v>1064400</v>
+        <v>1070000</v>
       </c>
       <c r="K41" s="3">
         <v>1002900</v>
@@ -2470,25 +2470,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>187400</v>
+        <v>188400</v>
       </c>
       <c r="E42" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="F42" s="3">
         <v>9300</v>
       </c>
       <c r="G42" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="H42" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="I42" s="3">
-        <v>48300</v>
+        <v>48500</v>
       </c>
       <c r="J42" s="3">
-        <v>38200</v>
+        <v>38400</v>
       </c>
       <c r="K42" s="3">
         <v>44500</v>
@@ -2529,25 +2529,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1766000</v>
+        <v>1775300</v>
       </c>
       <c r="E43" s="3">
-        <v>1242200</v>
+        <v>1248800</v>
       </c>
       <c r="F43" s="3">
-        <v>1120400</v>
+        <v>1126200</v>
       </c>
       <c r="G43" s="3">
-        <v>2266800</v>
+        <v>2278700</v>
       </c>
       <c r="H43" s="3">
-        <v>937900</v>
+        <v>942800</v>
       </c>
       <c r="I43" s="3">
-        <v>951900</v>
+        <v>956900</v>
       </c>
       <c r="J43" s="3">
-        <v>949900</v>
+        <v>954900</v>
       </c>
       <c r="K43" s="3">
         <v>1000700</v>
@@ -2588,25 +2588,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>330500</v>
+        <v>332200</v>
       </c>
       <c r="E44" s="3">
-        <v>436900</v>
+        <v>439200</v>
       </c>
       <c r="F44" s="3">
-        <v>422300</v>
+        <v>424500</v>
       </c>
       <c r="G44" s="3">
-        <v>400500</v>
+        <v>402600</v>
       </c>
       <c r="H44" s="3">
-        <v>333600</v>
+        <v>335300</v>
       </c>
       <c r="I44" s="3">
-        <v>340600</v>
+        <v>342400</v>
       </c>
       <c r="J44" s="3">
-        <v>302600</v>
+        <v>304200</v>
       </c>
       <c r="K44" s="3">
         <v>302000</v>
@@ -2647,25 +2647,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>341900</v>
+        <v>343700</v>
       </c>
       <c r="E45" s="3">
-        <v>277900</v>
+        <v>279400</v>
       </c>
       <c r="F45" s="3">
-        <v>232100</v>
+        <v>233300</v>
       </c>
       <c r="G45" s="3">
-        <v>3312100</v>
+        <v>3329500</v>
       </c>
       <c r="H45" s="3">
-        <v>249600</v>
+        <v>250900</v>
       </c>
       <c r="I45" s="3">
-        <v>278900</v>
+        <v>280400</v>
       </c>
       <c r="J45" s="3">
-        <v>201000</v>
+        <v>202100</v>
       </c>
       <c r="K45" s="3">
         <v>221800</v>
@@ -2706,25 +2706,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3997400</v>
+        <v>4018400</v>
       </c>
       <c r="E46" s="3">
-        <v>3661200</v>
+        <v>3680500</v>
       </c>
       <c r="F46" s="3">
-        <v>3080400</v>
+        <v>3096600</v>
       </c>
       <c r="G46" s="3">
-        <v>3084400</v>
+        <v>3100600</v>
       </c>
       <c r="H46" s="3">
-        <v>2602700</v>
+        <v>2616400</v>
       </c>
       <c r="I46" s="3">
-        <v>2570400</v>
+        <v>2583900</v>
       </c>
       <c r="J46" s="3">
-        <v>2556100</v>
+        <v>2569600</v>
       </c>
       <c r="K46" s="3">
         <v>2571900</v>
@@ -2765,25 +2765,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6239900</v>
+        <v>6272700</v>
       </c>
       <c r="E47" s="3">
-        <v>6608000</v>
+        <v>6642800</v>
       </c>
       <c r="F47" s="3">
-        <v>6904100</v>
+        <v>6940400</v>
       </c>
       <c r="G47" s="3">
-        <v>9700200</v>
+        <v>9751200</v>
       </c>
       <c r="H47" s="3">
-        <v>6249800</v>
+        <v>6282700</v>
       </c>
       <c r="I47" s="3">
-        <v>6099500</v>
+        <v>6131500</v>
       </c>
       <c r="J47" s="3">
-        <v>5751100</v>
+        <v>5781300</v>
       </c>
       <c r="K47" s="3">
         <v>5956100</v>
@@ -2824,25 +2824,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9018900</v>
+        <v>9066300</v>
       </c>
       <c r="E48" s="3">
-        <v>9644200</v>
+        <v>9694800</v>
       </c>
       <c r="F48" s="3">
-        <v>9530100</v>
+        <v>9580200</v>
       </c>
       <c r="G48" s="3">
-        <v>20100400</v>
+        <v>20206000</v>
       </c>
       <c r="H48" s="3">
-        <v>9511000</v>
+        <v>9561000</v>
       </c>
       <c r="I48" s="3">
-        <v>9151200</v>
+        <v>9199300</v>
       </c>
       <c r="J48" s="3">
-        <v>8248500</v>
+        <v>8291900</v>
       </c>
       <c r="K48" s="3">
         <v>8258800</v>
@@ -2883,25 +2883,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>638900</v>
+        <v>642300</v>
       </c>
       <c r="E49" s="3">
-        <v>681000</v>
+        <v>684600</v>
       </c>
       <c r="F49" s="3">
-        <v>697100</v>
+        <v>700700</v>
       </c>
       <c r="G49" s="3">
-        <v>5324900</v>
+        <v>5352800</v>
       </c>
       <c r="H49" s="3">
-        <v>716300</v>
+        <v>720100</v>
       </c>
       <c r="I49" s="3">
-        <v>696600</v>
+        <v>700300</v>
       </c>
       <c r="J49" s="3">
-        <v>656200</v>
+        <v>659600</v>
       </c>
       <c r="K49" s="3">
         <v>676000</v>
@@ -3060,25 +3060,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>769600</v>
+        <v>773700</v>
       </c>
       <c r="E52" s="3">
-        <v>888800</v>
+        <v>893500</v>
       </c>
       <c r="F52" s="3">
-        <v>825000</v>
+        <v>829400</v>
       </c>
       <c r="G52" s="3">
-        <v>1569500</v>
+        <v>1577800</v>
       </c>
       <c r="H52" s="3">
-        <v>1327600</v>
+        <v>1334500</v>
       </c>
       <c r="I52" s="3">
-        <v>646000</v>
+        <v>649400</v>
       </c>
       <c r="J52" s="3">
-        <v>527800</v>
+        <v>530500</v>
       </c>
       <c r="K52" s="3">
         <v>485000</v>
@@ -3178,25 +3178,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20664800</v>
+        <v>20773300</v>
       </c>
       <c r="E54" s="3">
-        <v>21483200</v>
+        <v>21596100</v>
       </c>
       <c r="F54" s="3">
-        <v>21036700</v>
+        <v>21147300</v>
       </c>
       <c r="G54" s="3">
-        <v>21407800</v>
+        <v>21520300</v>
       </c>
       <c r="H54" s="3">
-        <v>20407400</v>
+        <v>20514600</v>
       </c>
       <c r="I54" s="3">
-        <v>19163700</v>
+        <v>19264400</v>
       </c>
       <c r="J54" s="3">
-        <v>17739700</v>
+        <v>17832900</v>
       </c>
       <c r="K54" s="3">
         <v>17947900</v>
@@ -3283,25 +3283,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>464200</v>
+        <v>466700</v>
       </c>
       <c r="E57" s="3">
-        <v>544900</v>
+        <v>547700</v>
       </c>
       <c r="F57" s="3">
-        <v>453600</v>
+        <v>456000</v>
       </c>
       <c r="G57" s="3">
-        <v>406800</v>
+        <v>408900</v>
       </c>
       <c r="H57" s="3">
-        <v>412900</v>
+        <v>415100</v>
       </c>
       <c r="I57" s="3">
-        <v>457300</v>
+        <v>459700</v>
       </c>
       <c r="J57" s="3">
-        <v>363600</v>
+        <v>365500</v>
       </c>
       <c r="K57" s="3">
         <v>384100</v>
@@ -3342,25 +3342,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2445300</v>
+        <v>2458100</v>
       </c>
       <c r="E58" s="3">
-        <v>2583800</v>
+        <v>2597400</v>
       </c>
       <c r="F58" s="3">
-        <v>2143600</v>
+        <v>2154900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H58" s="3">
-        <v>2356100</v>
+        <v>2368500</v>
       </c>
       <c r="I58" s="3">
-        <v>1473100</v>
+        <v>1480800</v>
       </c>
       <c r="J58" s="3">
-        <v>1385700</v>
+        <v>1393000</v>
       </c>
       <c r="K58" s="3">
         <v>1207700</v>
@@ -3401,25 +3401,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1977800</v>
+        <v>1988200</v>
       </c>
       <c r="E59" s="3">
-        <v>2421400</v>
+        <v>2434100</v>
       </c>
       <c r="F59" s="3">
-        <v>1883200</v>
+        <v>1893100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H59" s="3">
-        <v>1925600</v>
+        <v>1935700</v>
       </c>
       <c r="I59" s="3">
-        <v>1870500</v>
+        <v>1880300</v>
       </c>
       <c r="J59" s="3">
-        <v>1578600</v>
+        <v>1586900</v>
       </c>
       <c r="K59" s="3">
         <v>1751500</v>
@@ -3460,25 +3460,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4887400</v>
+        <v>4913000</v>
       </c>
       <c r="E60" s="3">
-        <v>5550000</v>
+        <v>5579200</v>
       </c>
       <c r="F60" s="3">
-        <v>4480400</v>
+        <v>4503900</v>
       </c>
       <c r="G60" s="3">
-        <v>4913800</v>
+        <v>4939600</v>
       </c>
       <c r="H60" s="3">
-        <v>4694500</v>
+        <v>4719200</v>
       </c>
       <c r="I60" s="3">
-        <v>3800900</v>
+        <v>3820900</v>
       </c>
       <c r="J60" s="3">
-        <v>3327900</v>
+        <v>3345300</v>
       </c>
       <c r="K60" s="3">
         <v>3343400</v>
@@ -3519,25 +3519,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5374400</v>
+        <v>5402700</v>
       </c>
       <c r="E61" s="3">
-        <v>5067200</v>
+        <v>5093800</v>
       </c>
       <c r="F61" s="3">
-        <v>5289300</v>
+        <v>5317100</v>
       </c>
       <c r="G61" s="3">
-        <v>4699900</v>
+        <v>4724600</v>
       </c>
       <c r="H61" s="3">
-        <v>4273800</v>
+        <v>4296200</v>
       </c>
       <c r="I61" s="3">
-        <v>3989600</v>
+        <v>4010600</v>
       </c>
       <c r="J61" s="3">
-        <v>3907800</v>
+        <v>3928300</v>
       </c>
       <c r="K61" s="3">
         <v>3666400</v>
@@ -3578,25 +3578,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1270100</v>
+        <v>1276800</v>
       </c>
       <c r="E62" s="3">
-        <v>1284300</v>
+        <v>1291100</v>
       </c>
       <c r="F62" s="3">
-        <v>1303900</v>
+        <v>1310800</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H62" s="3">
-        <v>1255200</v>
+        <v>1261800</v>
       </c>
       <c r="I62" s="3">
-        <v>1279600</v>
+        <v>1286300</v>
       </c>
       <c r="J62" s="3">
-        <v>1247900</v>
+        <v>1254400</v>
       </c>
       <c r="K62" s="3">
         <v>1304600</v>
@@ -3814,25 +3814,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12922500</v>
+        <v>12990400</v>
       </c>
       <c r="E66" s="3">
-        <v>13371400</v>
+        <v>13441700</v>
       </c>
       <c r="F66" s="3">
-        <v>12598300</v>
+        <v>12664500</v>
       </c>
       <c r="G66" s="3">
-        <v>12529700</v>
+        <v>12595500</v>
       </c>
       <c r="H66" s="3">
-        <v>11541500</v>
+        <v>11602100</v>
       </c>
       <c r="I66" s="3">
-        <v>10346700</v>
+        <v>10401000</v>
       </c>
       <c r="J66" s="3">
-        <v>9592100</v>
+        <v>9642500</v>
       </c>
       <c r="K66" s="3">
         <v>9439200</v>
@@ -4132,25 +4132,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7135800</v>
+        <v>7173200</v>
       </c>
       <c r="E72" s="3">
-        <v>7219200</v>
+        <v>7257100</v>
       </c>
       <c r="F72" s="3">
-        <v>7269900</v>
+        <v>7308100</v>
       </c>
       <c r="G72" s="3">
-        <v>24190100</v>
+        <v>24317200</v>
       </c>
       <c r="H72" s="3">
-        <v>7532800</v>
+        <v>7572300</v>
       </c>
       <c r="I72" s="3">
-        <v>7523200</v>
+        <v>7562700</v>
       </c>
       <c r="J72" s="3">
-        <v>7355400</v>
+        <v>7394100</v>
       </c>
       <c r="K72" s="3">
         <v>7528000</v>
@@ -4368,25 +4368,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7742200</v>
+        <v>7782900</v>
       </c>
       <c r="E76" s="3">
-        <v>8111800</v>
+        <v>8154400</v>
       </c>
       <c r="F76" s="3">
-        <v>8438400</v>
+        <v>8482700</v>
       </c>
       <c r="G76" s="3">
-        <v>8902200</v>
+        <v>8949000</v>
       </c>
       <c r="H76" s="3">
-        <v>8866000</v>
+        <v>8912500</v>
       </c>
       <c r="I76" s="3">
-        <v>8817100</v>
+        <v>8863400</v>
       </c>
       <c r="J76" s="3">
-        <v>8147600</v>
+        <v>8190400</v>
       </c>
       <c r="K76" s="3">
         <v>8508700</v>
@@ -4550,25 +4550,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>460900</v>
+        <v>463300</v>
       </c>
       <c r="E81" s="3">
-        <v>246500</v>
+        <v>247800</v>
       </c>
       <c r="F81" s="3">
-        <v>422700</v>
+        <v>424900</v>
       </c>
       <c r="G81" s="3">
-        <v>104200</v>
+        <v>104700</v>
       </c>
       <c r="H81" s="3">
-        <v>535600</v>
+        <v>538400</v>
       </c>
       <c r="I81" s="3">
-        <v>426000</v>
+        <v>428200</v>
       </c>
       <c r="J81" s="3">
-        <v>340100</v>
+        <v>341900</v>
       </c>
       <c r="K81" s="3">
         <v>393100</v>
@@ -4986,25 +4986,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>665100</v>
+        <v>668600</v>
       </c>
       <c r="E89" s="3">
-        <v>663300</v>
+        <v>666800</v>
       </c>
       <c r="F89" s="3">
-        <v>566600</v>
+        <v>569500</v>
       </c>
       <c r="G89" s="3">
-        <v>662300</v>
+        <v>665800</v>
       </c>
       <c r="H89" s="3">
-        <v>672700</v>
+        <v>676300</v>
       </c>
       <c r="I89" s="3">
-        <v>710300</v>
+        <v>714000</v>
       </c>
       <c r="J89" s="3">
-        <v>553500</v>
+        <v>556400</v>
       </c>
       <c r="K89" s="3">
         <v>643500</v>
@@ -5245,25 +5245,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-508500</v>
+        <v>-511200</v>
       </c>
       <c r="E94" s="3">
-        <v>-509700</v>
+        <v>-512400</v>
       </c>
       <c r="F94" s="3">
-        <v>-352400</v>
+        <v>-354200</v>
       </c>
       <c r="G94" s="3">
-        <v>-641400</v>
+        <v>-644700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1006400</v>
+        <v>-1011700</v>
       </c>
       <c r="I94" s="3">
-        <v>-491400</v>
+        <v>-494000</v>
       </c>
       <c r="J94" s="3">
-        <v>-272400</v>
+        <v>-273800</v>
       </c>
       <c r="K94" s="3">
         <v>-328800</v>
@@ -5327,25 +5327,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-547300</v>
+        <v>-550200</v>
       </c>
       <c r="E96" s="3">
-        <v>-285500</v>
+        <v>-287000</v>
       </c>
       <c r="F96" s="3">
-        <v>-547300</v>
+        <v>-550200</v>
       </c>
       <c r="G96" s="3">
-        <v>-285500</v>
+        <v>-287000</v>
       </c>
       <c r="H96" s="3">
-        <v>-521200</v>
+        <v>-524000</v>
       </c>
       <c r="I96" s="3">
-        <v>-271900</v>
+        <v>-273400</v>
       </c>
       <c r="J96" s="3">
-        <v>-496400</v>
+        <v>-499000</v>
       </c>
       <c r="K96" s="3">
         <v>-259500</v>
@@ -5563,25 +5563,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-421800</v>
+        <v>-424000</v>
       </c>
       <c r="E100" s="3">
-        <v>284600</v>
+        <v>286100</v>
       </c>
       <c r="F100" s="3">
-        <v>-239400</v>
+        <v>-240700</v>
       </c>
       <c r="G100" s="3">
-        <v>242500</v>
+        <v>243800</v>
       </c>
       <c r="H100" s="3">
-        <v>445500</v>
+        <v>447800</v>
       </c>
       <c r="I100" s="3">
-        <v>-367200</v>
+        <v>-369100</v>
       </c>
       <c r="J100" s="3">
-        <v>-209200</v>
+        <v>-210300</v>
       </c>
       <c r="K100" s="3">
         <v>-227400</v>
@@ -5622,22 +5622,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-51800</v>
+        <v>-52100</v>
       </c>
       <c r="E101" s="3">
-        <v>-46100</v>
+        <v>-46300</v>
       </c>
       <c r="F101" s="3">
-        <v>-24600</v>
+        <v>-24700</v>
       </c>
       <c r="G101" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="H101" s="3">
         <v>5500</v>
       </c>
       <c r="I101" s="3">
-        <v>34600</v>
+        <v>34700</v>
       </c>
       <c r="J101" s="3">
         <v>-8300</v>
@@ -5681,25 +5681,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-317000</v>
+        <v>-318700</v>
       </c>
       <c r="E102" s="3">
-        <v>392100</v>
+        <v>394200</v>
       </c>
       <c r="F102" s="3">
-        <v>-49800</v>
+        <v>-50100</v>
       </c>
       <c r="G102" s="3">
-        <v>278400</v>
+        <v>279800</v>
       </c>
       <c r="H102" s="3">
-        <v>117200</v>
+        <v>117800</v>
       </c>
       <c r="I102" s="3">
-        <v>-113700</v>
+        <v>-114300</v>
       </c>
       <c r="J102" s="3">
-        <v>63500</v>
+        <v>63900</v>
       </c>
       <c r="K102" s="3">
         <v>81400</v>
